--- a/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
+++ b/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="569">
   <si>
     <t>code</t>
   </si>
@@ -1711,6 +1711,21 @@
   </si>
   <si>
     <t>201709_WZ2JN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>Rob.Dilallo@henryschein.ca</t>
+  </si>
+  <si>
+    <t>201709_CZ1RD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201709_CZ1RD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201709_WZJI2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201709_WZJI2_Focus_Feedback.xlsx</t>
   </si>
 </sst>
 </file>
@@ -2518,7 +2533,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M202"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7000,11 +7015,11 @@
         <v>2</v>
       </c>
       <c r="G128" t="str">
-        <f t="shared" ref="G128:G193" si="6">K128&amp;"\"&amp;L128</f>
+        <f t="shared" ref="G128:G195" si="6">K128&amp;"\"&amp;L128</f>
         <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1RR_Weekly Sales.pdf</v>
       </c>
       <c r="H128" t="str">
-        <f t="shared" ref="H128:H193" si="7">K128&amp;"\"&amp;M128</f>
+        <f t="shared" ref="H128:H195" si="7">K128&amp;"\"&amp;M128</f>
         <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1RR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K128" t="s">
@@ -7095,7 +7110,7 @@
         <v>189</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D195" si="8">$D$2</f>
+        <f t="shared" ref="D131:D197" si="8">$D$2</f>
         <v>Weekly FSC Sales as of 24 Aug 2017</v>
       </c>
       <c r="E131">
@@ -9049,7 +9064,7 @@
     </row>
     <row r="187" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C187" t="s">
         <v>189</v>
@@ -9065,96 +9080,96 @@
         <v>2</v>
       </c>
       <c r="G187" t="str">
+        <f t="shared" ref="G187" si="9">K187&amp;"\"&amp;L187</f>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZJI2_Weekly Sales.pdf</v>
+      </c>
+      <c r="H187" t="str">
+        <f t="shared" ref="H187" si="10">K187&amp;"\"&amp;M187</f>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZJI2_Focus_Feedback.xlsx</v>
+      </c>
+      <c r="K187" t="s">
+        <v>187</v>
+      </c>
+      <c r="L187" t="s">
+        <v>567</v>
+      </c>
+      <c r="M187" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>185</v>
+      </c>
+      <c r="C188" t="s">
+        <v>189</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" si="8"/>
+        <v>Weekly FSC Sales as of 24 Aug 2017</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>2</v>
+      </c>
+      <c r="G188" t="str">
         <f t="shared" si="6"/>
         <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ2MS_Weekly Sales.pdf</v>
       </c>
-      <c r="H187" t="str">
+      <c r="H188" t="str">
         <f t="shared" si="7"/>
         <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ2MS_Focus_Feedback.xlsx</v>
       </c>
-      <c r="K187" t="s">
-        <v>187</v>
-      </c>
-      <c r="L187" t="s">
+      <c r="K188" t="s">
+        <v>187</v>
+      </c>
+      <c r="L188" t="s">
         <v>558</v>
       </c>
-      <c r="M187" t="s">
+      <c r="M188" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
+    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
         <v>188</v>
       </c>
-      <c r="C188" t="s">
-        <v>189</v>
-      </c>
-      <c r="D188" t="str">
+      <c r="C189" t="s">
+        <v>189</v>
+      </c>
+      <c r="D189" t="str">
         <f t="shared" si="8"/>
         <v>Weekly FSC Sales as of 24 Aug 2017</v>
       </c>
-      <c r="E188">
-        <v>1</v>
-      </c>
-      <c r="F188">
-        <v>2</v>
-      </c>
-      <c r="G188" t="str">
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>2</v>
+      </c>
+      <c r="G189" t="str">
         <f t="shared" si="6"/>
         <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_QZ3JB_Weekly Sales.pdf</v>
       </c>
-      <c r="H188" t="str">
+      <c r="H189" t="str">
         <f t="shared" si="7"/>
         <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_QZ3JB_Focus_Feedback.xlsx</v>
       </c>
-      <c r="K188" t="s">
-        <v>187</v>
-      </c>
-      <c r="L188" t="s">
+      <c r="K189" t="s">
+        <v>187</v>
+      </c>
+      <c r="L189" t="s">
         <v>560</v>
       </c>
-      <c r="M188" t="s">
+      <c r="M189" t="s">
         <v>561</v>
-      </c>
-    </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>191</v>
-      </c>
-      <c r="C189" t="s">
-        <v>189</v>
-      </c>
-      <c r="D189" t="str">
-        <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 24 Aug 2017</v>
-      </c>
-      <c r="E189">
-        <v>1</v>
-      </c>
-      <c r="F189">
-        <v>2</v>
-      </c>
-      <c r="G189" t="str">
-        <f t="shared" ref="G189" si="9">K189&amp;"\"&amp;L189</f>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ2JN_Weekly Sales.pdf</v>
-      </c>
-      <c r="H189" t="str">
-        <f t="shared" ref="H189" si="10">K189&amp;"\"&amp;M189</f>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ2JN_Focus_Feedback.xlsx</v>
-      </c>
-      <c r="K189" t="s">
-        <v>187</v>
-      </c>
-      <c r="L189" t="s">
-        <v>562</v>
-      </c>
-      <c r="M189" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C190" t="s">
         <v>189</v>
@@ -9170,26 +9185,26 @@
         <v>2</v>
       </c>
       <c r="G190" t="str">
-        <f t="shared" si="6"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_QZ7DO_Weekly Sales.pdf</v>
+        <f t="shared" ref="G190:G191" si="11">K190&amp;"\"&amp;L190</f>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ2JN_Weekly Sales.pdf</v>
       </c>
       <c r="H190" t="str">
-        <f t="shared" si="7"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_QZ7DO_Focus_Feedback.xlsx</v>
+        <f t="shared" ref="H190:H191" si="12">K190&amp;"\"&amp;M190</f>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ2JN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K190" t="s">
         <v>187</v>
       </c>
       <c r="L190" t="s">
-        <v>288</v>
+        <v>562</v>
       </c>
       <c r="M190" t="s">
-        <v>289</v>
+        <v>563</v>
       </c>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>186</v>
+        <v>564</v>
       </c>
       <c r="C191" t="s">
         <v>189</v>
@@ -9205,21 +9220,21 @@
         <v>2</v>
       </c>
       <c r="G191" t="str">
-        <f t="shared" si="6"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ1TM_Weekly Sales.pdf</v>
+        <f t="shared" si="11"/>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1RD_Weekly Sales.pdf</v>
       </c>
       <c r="H191" t="str">
-        <f t="shared" si="7"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ1TM_Focus_Feedback.xlsx</v>
+        <f t="shared" si="12"/>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1RD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K191" t="s">
         <v>187</v>
       </c>
       <c r="L191" t="s">
-        <v>374</v>
+        <v>565</v>
       </c>
       <c r="M191" t="s">
-        <v>375</v>
+        <v>566</v>
       </c>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
@@ -9241,20 +9256,20 @@
       </c>
       <c r="G192" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ2CR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_QZ7DO_Weekly Sales.pdf</v>
       </c>
       <c r="H192" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ2CR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_QZ7DO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K192" t="s">
         <v>187</v>
       </c>
       <c r="L192" t="s">
-        <v>380</v>
+        <v>288</v>
       </c>
       <c r="M192" t="s">
-        <v>381</v>
+        <v>289</v>
       </c>
     </row>
     <row r="193" spans="2:13" x14ac:dyDescent="0.25">
@@ -9276,20 +9291,20 @@
       </c>
       <c r="G193" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ1CA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H193" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ1CA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K193" t="s">
         <v>187</v>
       </c>
       <c r="L193" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="M193" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
@@ -9310,21 +9325,21 @@
         <v>2</v>
       </c>
       <c r="G194" t="str">
-        <f t="shared" ref="G194:G202" si="11">K194&amp;"\"&amp;L194</f>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ1AL_Weekly Sales.pdf</v>
+        <f t="shared" si="6"/>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ2CR_Weekly Sales.pdf</v>
       </c>
       <c r="H194" t="str">
-        <f t="shared" ref="H194:H202" si="12">K194&amp;"\"&amp;M194</f>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ1AL_Focus_Feedback.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ2CR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K194" t="s">
         <v>187</v>
       </c>
       <c r="L194" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="M194" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
@@ -9345,21 +9360,21 @@
         <v>2</v>
       </c>
       <c r="G195" t="str">
-        <f t="shared" si="11"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1GF_Weekly Sales.pdf</v>
+        <f t="shared" si="6"/>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ1CA_Weekly Sales.pdf</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" si="12"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1GF_Focus_Feedback.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ1CA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K195" t="s">
         <v>187</v>
       </c>
       <c r="L195" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="M195" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
     </row>
     <row r="196" spans="2:13" x14ac:dyDescent="0.25">
@@ -9370,7 +9385,7 @@
         <v>189</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" ref="D196:D202" si="13">$D$2</f>
+        <f t="shared" si="8"/>
         <v>Weekly FSC Sales as of 24 Aug 2017</v>
       </c>
       <c r="E196">
@@ -9380,21 +9395,21 @@
         <v>2</v>
       </c>
       <c r="G196" t="str">
-        <f t="shared" si="11"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1G2_Weekly Sales.pdf</v>
+        <f t="shared" ref="G196:G204" si="13">K196&amp;"\"&amp;L196</f>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ1AL_Weekly Sales.pdf</v>
       </c>
       <c r="H196" t="str">
-        <f t="shared" si="12"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1G2_Focus_Feedback.xlsx</v>
+        <f t="shared" ref="H196:H204" si="14">K196&amp;"\"&amp;M196</f>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ1AL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K196" t="s">
         <v>187</v>
       </c>
       <c r="L196" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="M196" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
@@ -9405,31 +9420,31 @@
         <v>189</v>
       </c>
       <c r="D197" t="str">
+        <f t="shared" si="8"/>
+        <v>Weekly FSC Sales as of 24 Aug 2017</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>2</v>
+      </c>
+      <c r="G197" t="str">
         <f t="shared" si="13"/>
-        <v>Weekly FSC Sales as of 24 Aug 2017</v>
-      </c>
-      <c r="E197">
-        <v>1</v>
-      </c>
-      <c r="F197">
-        <v>2</v>
-      </c>
-      <c r="G197" t="str">
-        <f t="shared" si="11"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_QZ1MD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1GF_Weekly Sales.pdf</v>
       </c>
       <c r="H197" t="str">
-        <f t="shared" si="12"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_QZ1MD_Focus_Feedback.xlsx</v>
+        <f t="shared" si="14"/>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1GF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K197" t="s">
         <v>187</v>
       </c>
       <c r="L197" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="M197" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
@@ -9440,31 +9455,31 @@
         <v>189</v>
       </c>
       <c r="D198" t="str">
+        <f t="shared" ref="D198:D204" si="15">$D$2</f>
+        <v>Weekly FSC Sales as of 24 Aug 2017</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>2</v>
+      </c>
+      <c r="G198" t="str">
         <f t="shared" si="13"/>
-        <v>Weekly FSC Sales as of 24 Aug 2017</v>
-      </c>
-      <c r="E198">
-        <v>1</v>
-      </c>
-      <c r="F198">
-        <v>2</v>
-      </c>
-      <c r="G198" t="str">
-        <f t="shared" si="11"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_QZ1YE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1G2_Weekly Sales.pdf</v>
       </c>
       <c r="H198" t="str">
-        <f t="shared" si="12"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_QZ1YE_Focus_Feedback.xlsx</v>
+        <f t="shared" si="14"/>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1G2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K198" t="s">
         <v>187</v>
       </c>
       <c r="L198" t="s">
-        <v>480</v>
+        <v>418</v>
       </c>
       <c r="M198" t="s">
-        <v>481</v>
+        <v>419</v>
       </c>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
@@ -9475,31 +9490,31 @@
         <v>189</v>
       </c>
       <c r="D199" t="str">
+        <f t="shared" si="15"/>
+        <v>Weekly FSC Sales as of 24 Aug 2017</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>2</v>
+      </c>
+      <c r="G199" t="str">
         <f t="shared" si="13"/>
-        <v>Weekly FSC Sales as of 24 Aug 2017</v>
-      </c>
-      <c r="E199">
-        <v>1</v>
-      </c>
-      <c r="F199">
-        <v>2</v>
-      </c>
-      <c r="G199" t="str">
-        <f t="shared" si="11"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1UE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_QZ1MD_Weekly Sales.pdf</v>
       </c>
       <c r="H199" t="str">
-        <f t="shared" si="12"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1UE_Focus_Feedback.xlsx</v>
+        <f t="shared" si="14"/>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_QZ1MD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K199" t="s">
         <v>187</v>
       </c>
       <c r="L199" t="s">
-        <v>490</v>
+        <v>438</v>
       </c>
       <c r="M199" t="s">
-        <v>491</v>
+        <v>439</v>
       </c>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
@@ -9510,31 +9525,31 @@
         <v>189</v>
       </c>
       <c r="D200" t="str">
+        <f t="shared" si="15"/>
+        <v>Weekly FSC Sales as of 24 Aug 2017</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
+      </c>
+      <c r="G200" t="str">
         <f t="shared" si="13"/>
-        <v>Weekly FSC Sales as of 24 Aug 2017</v>
-      </c>
-      <c r="E200">
-        <v>1</v>
-      </c>
-      <c r="F200">
-        <v>2</v>
-      </c>
-      <c r="G200" t="str">
-        <f t="shared" si="11"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ8GM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_QZ1YE_Weekly Sales.pdf</v>
       </c>
       <c r="H200" t="str">
-        <f t="shared" si="12"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ8GM_Focus_Feedback.xlsx</v>
+        <f t="shared" si="14"/>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_QZ1YE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K200" t="s">
         <v>187</v>
       </c>
       <c r="L200" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="M200" t="s">
-        <v>515</v>
+        <v>481</v>
       </c>
     </row>
     <row r="201" spans="2:13" x14ac:dyDescent="0.25">
@@ -9545,31 +9560,31 @@
         <v>189</v>
       </c>
       <c r="D201" t="str">
+        <f t="shared" si="15"/>
+        <v>Weekly FSC Sales as of 24 Aug 2017</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>2</v>
+      </c>
+      <c r="G201" t="str">
         <f t="shared" si="13"/>
-        <v>Weekly FSC Sales as of 24 Aug 2017</v>
-      </c>
-      <c r="E201">
-        <v>1</v>
-      </c>
-      <c r="F201">
-        <v>2</v>
-      </c>
-      <c r="G201" t="str">
-        <f t="shared" si="11"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1UO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1UE_Weekly Sales.pdf</v>
       </c>
       <c r="H201" t="str">
-        <f t="shared" si="12"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1UO_Focus_Feedback.xlsx</v>
+        <f t="shared" si="14"/>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1UE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K201" t="s">
         <v>187</v>
       </c>
       <c r="L201" t="s">
-        <v>536</v>
+        <v>490</v>
       </c>
       <c r="M201" t="s">
-        <v>537</v>
+        <v>491</v>
       </c>
     </row>
     <row r="202" spans="2:13" x14ac:dyDescent="0.25">
@@ -9580,30 +9595,100 @@
         <v>189</v>
       </c>
       <c r="D202" t="str">
+        <f t="shared" si="15"/>
+        <v>Weekly FSC Sales as of 24 Aug 2017</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>2</v>
+      </c>
+      <c r="G202" t="str">
         <f t="shared" si="13"/>
-        <v>Weekly FSC Sales as of 24 Aug 2017</v>
-      </c>
-      <c r="E202">
-        <v>1</v>
-      </c>
-      <c r="F202">
-        <v>2</v>
-      </c>
-      <c r="G202" t="str">
-        <f t="shared" si="11"/>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ8GM_Weekly Sales.pdf</v>
+      </c>
+      <c r="H202" t="str">
+        <f t="shared" si="14"/>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_WZ8GM_Focus_Feedback.xlsx</v>
+      </c>
+      <c r="K202" t="s">
+        <v>187</v>
+      </c>
+      <c r="L202" t="s">
+        <v>514</v>
+      </c>
+      <c r="M202" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="203" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>186</v>
+      </c>
+      <c r="C203" t="s">
+        <v>189</v>
+      </c>
+      <c r="D203" t="str">
+        <f t="shared" si="15"/>
+        <v>Weekly FSC Sales as of 24 Aug 2017</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>2</v>
+      </c>
+      <c r="G203" t="str">
+        <f t="shared" si="13"/>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1UO_Weekly Sales.pdf</v>
+      </c>
+      <c r="H203" t="str">
+        <f t="shared" si="14"/>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1UO_Focus_Feedback.xlsx</v>
+      </c>
+      <c r="K203" t="s">
+        <v>187</v>
+      </c>
+      <c r="L203" t="s">
+        <v>536</v>
+      </c>
+      <c r="M203" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>186</v>
+      </c>
+      <c r="C204" t="s">
+        <v>189</v>
+      </c>
+      <c r="D204" t="str">
+        <f t="shared" si="15"/>
+        <v>Weekly FSC Sales as of 24 Aug 2017</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>2</v>
+      </c>
+      <c r="G204" t="str">
+        <f t="shared" si="13"/>
         <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1YN_Weekly Sales.pdf</v>
       </c>
-      <c r="H202" t="str">
-        <f t="shared" si="12"/>
+      <c r="H204" t="str">
+        <f t="shared" si="14"/>
         <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CZ1YN_Focus_Feedback.xlsx</v>
       </c>
-      <c r="K202" t="s">
-        <v>187</v>
-      </c>
-      <c r="L202" t="s">
+      <c r="K204" t="s">
+        <v>187</v>
+      </c>
+      <c r="L204" t="s">
         <v>540</v>
       </c>
-      <c r="M202" t="s">
+      <c r="M204" t="s">
         <v>541</v>
       </c>
     </row>

--- a/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
+++ b/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
@@ -603,1129 +603,1129 @@
     <t>Jenna.Plenert@henryschein.ca</t>
   </si>
   <si>
-    <t>Weekly FSC Sales as of 10 Nov 2017</t>
-  </si>
-  <si>
-    <t>201711_CZ1SD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1SD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ125_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ125_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ124_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ124_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ132_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ132_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ128_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ128_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ144_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ144_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ165_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ165_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ177_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ177_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ178_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ178_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ183_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ183_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ107_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ107_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ109_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ109_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ112_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ112_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1CP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1CP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ154_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ154_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1KD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1KD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1CF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1CF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1EM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1EM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1DP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1DP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1DA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1DA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1LM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1LM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1EE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1EE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1E2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1E2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1EK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1EK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1FB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1FB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1FP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1FP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1FT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1FT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1FS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1FS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1FR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1FR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1GO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1GO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1KL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1KL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1KK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1KK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1DN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1DN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1EO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1EO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1CB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1CB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1B8_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1B8_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1C4_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1C4_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1D8_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1D8_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1SW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1SW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1AP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1AP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ2CB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2CB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1CG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1CG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1PV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1PV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ3CB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ3CB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ5CS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ5CS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ8JA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ8JA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ7JM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ7JM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ7DO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ7DO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ5TA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ5TA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ2LB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2LB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ2GB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2GB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ2LH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2LH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ2NM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2NM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ2SB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ2SB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ2BG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2BG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1SA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1SA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1FA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1FA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ115_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ115_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ120_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ120_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ118_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ118_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ119_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ119_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ138_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ138_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ142_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ142_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ134_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ134_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ123_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ123_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ136_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ136_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ165_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ165_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1FF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1FF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ167_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ167_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ175_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ175_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ177_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ177_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ143_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ143_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ243_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ243_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ159_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ159_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ162_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ162_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ113_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ113_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ133_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ133_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ137_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ137_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1G4_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1G4_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1G5_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1G5_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1CE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1CE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZBW1_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZBW1_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ9TS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ9TS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1HM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1HM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ2HM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2HM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ2RP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2RP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1TT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1TT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1AM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1AM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1JW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1JW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1MH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1MH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1TM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1TM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1T2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1T2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ2AM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2AM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ2CR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2CR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1SC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1SC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1PB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1PB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1JN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1JN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1J2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1J2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1MK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1MK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1CA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1CA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ2TM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2TM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ2T1_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2T1_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ2T2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2T2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1JA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1JA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1BC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1BC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1JL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1JL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1AL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1AL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1MW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1MW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1MS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1MS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1DF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1DF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1AJ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1AJ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1GF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1GF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1G2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1G2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1BP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1BP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1JF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1JF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1CI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1CI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1KM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1KM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1OV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1OV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1JB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1JB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1BG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1BG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1TM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1TM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1BM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1BM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1MD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1MD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1RR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1RR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1JB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1JB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1AD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1AD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1ML_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1ML_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1FA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1FA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ2SA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2SA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1SL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1SL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1CM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1CM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1WH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1WH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1YU_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1YU_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1WX_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1WX_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1XF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1XF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1XT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1XT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1YP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1YP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1XH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1XH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1X2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1X2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1TB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1TD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1TK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1YE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1YE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1TE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1TI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1YI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1YI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1YW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1YW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1UE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1MJ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1MJ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1VG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1VJ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VJ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1MI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1MI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1XD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1XD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1XB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1XB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1WT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1WT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1XA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1XA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1RB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1RB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ2KF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2KF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ148_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ148_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ8GM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ8GM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1BH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1BH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ114_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ114_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1A6_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1A6_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ139_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ139_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1VL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1VK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1LR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1LR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1UV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1WV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1WV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ4KC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ4KC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1UO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1XC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1XC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1YN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1YN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1UI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1UU_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UU_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1UW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1VC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1UX_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UX_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1UZ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UZ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1CM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1CM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1JI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1JI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZJI2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZJI2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ2MS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2MS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ3JB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ3JB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ2JN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2JN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1RD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1RD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ8JP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ8JP_Focus_Feedback.xlsx</t>
+    <t>201712_CZ1SD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1SD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ125_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ125_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ124_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ124_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ132_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ132_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ128_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ128_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ144_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ144_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ165_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ165_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ177_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ177_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ178_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ178_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ183_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ183_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ107_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ107_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ109_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ109_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_AZ112_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ112_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1CP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1CP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ154_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ154_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1KD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1KD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1CF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1CF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1EM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1EM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1DP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1DP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1DA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1DA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1LM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1LM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1EE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1EE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1E2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1E2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_AZ1EK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1EK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_AZ1FB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1FB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1FP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1FP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1FT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1FT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1FS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1FS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1FR_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1FR_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1GO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1GO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_AZ1KL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1KL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1KK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1KK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1DN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1DN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1EO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1EO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1CB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1CB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1B8_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1B8_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1C4_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1C4_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1D8_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1D8_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1SW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1SW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1AP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1AP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ2CB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2CB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1CG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1CG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_AZ1PV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1PV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ3CB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ3CB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ5CS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ5CS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ8JA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ8JA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ7JM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ7JM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ7DO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ7DO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ5TA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ5TA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ2LB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2LB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ2GB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2GB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ2LH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2LH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ2NM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2NM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ2SB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ2SB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ2BG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2BG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1SA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1SA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1FA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1FA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ115_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ115_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ120_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ120_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ118_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ118_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ119_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ119_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ138_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ138_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ142_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ142_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ134_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ134_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ123_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ123_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ136_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ136_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ165_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ165_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1FF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1FF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ167_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ167_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ175_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ175_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ177_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ177_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ143_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ143_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ243_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ243_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ159_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ159_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ162_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ162_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ113_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ113_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ133_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ133_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ137_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ137_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1G4_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1G4_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1G5_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1G5_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1CE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1CE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZBW1_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZBW1_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ9TS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ9TS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1HM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1HM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ2HM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2HM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ2RP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2RP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1TT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1TT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1AM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1AM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1JW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1JW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1MH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1MH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1TM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1TM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1T2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1T2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ2AM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2AM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ2CR_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2CR_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1SC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1SC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1PB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1PB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1JN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1JN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1J2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1J2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1MK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1MK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1CA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1CA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ2TM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2TM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ2T1_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2T1_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ2T2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2T2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1JA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1JA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1BC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1BC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1JL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1JL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1AL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1AL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1MW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1MW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1MS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1MS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1DF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1DF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1AJ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1AJ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1GF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1GF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1G2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1G2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1BP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1BP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1JF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1JF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_AZ1CI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1CI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1KM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1KM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1OV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1OV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1JB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1JB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1BG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1BG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1TM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1TM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1BM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1BM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1MD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1MD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1RR_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1RR_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_AZ1JB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1JB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1AD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1AD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1ML_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1ML_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1FA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1FA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ2SA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2SA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1SL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1SL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_AZ1CM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1CM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_AZ1WH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1WH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_AZ1YU_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1YU_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_AZ1WX_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1WX_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_AZ1XF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1XF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_AZ1XT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1XT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_AZ1YP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1YP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1XH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1XH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1X2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1X2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1TB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1TB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1TD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1TD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1TK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1TK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1YE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1YE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1TE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1TE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ1TI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1TI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1YI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1YI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1YW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1YW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1UE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1MJ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1MJ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1VG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1VG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1VJ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1VJ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1MI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1MI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1XD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1XD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1XB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1XB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1WT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1WT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1XA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1XA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1RB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1RB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ2KF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2KF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ148_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ148_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ8GM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ8GM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1BH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1BH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ114_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ114_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1A6_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1A6_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ139_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ139_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1VL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1VL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1VK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1VK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1LR_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1LR_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1UV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1WV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1WV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ4KC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ4KC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1UO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1XC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1XC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1YN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1YN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1UI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1UU_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UU_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1UW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1VC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1VC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1UX_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UX_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1UZ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UZ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1CM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1CM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ1JI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1JI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZJI2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZJI2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ2MS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2MS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_QZ3JB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ3JB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ2JN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2JN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_CZ1RD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1RD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201712_WZ8JP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ8JP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>Weekly FSC Sales as of 15 Dec 2017</t>
   </si>
 </sst>
 </file>
@@ -2535,7 +2535,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2596,7 +2598,7 @@
         <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>568</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2606,20 +2608,20 @@
       </c>
       <c r="G2" t="str">
         <f>K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1SD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1SD_Weekly Sales.pdf</v>
       </c>
       <c r="H2" t="str">
         <f>K2&amp;"\"&amp;M2</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1SD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1SD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K2" t="s">
         <v>192</v>
       </c>
       <c r="L2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2" t="s">
         <v>195</v>
-      </c>
-      <c r="M2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2631,7 +2633,7 @@
       </c>
       <c r="D3" t="str">
         <f>$D$2</f>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2641,20 +2643,20 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G65" si="0">K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1SD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1SD_Weekly Sales.pdf</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H65" si="1">K3&amp;"\"&amp;M3</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1SD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1SD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K3" t="s">
         <v>192</v>
       </c>
       <c r="L3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M3" t="s">
         <v>195</v>
-      </c>
-      <c r="M3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2666,7 +2668,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D67" si="2">$D$2</f>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2676,20 +2678,20 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ125_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ125_Weekly Sales.pdf</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ125_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ125_Focus_Feedback.xlsx</v>
       </c>
       <c r="K4" t="s">
         <v>192</v>
       </c>
       <c r="L4" t="s">
+        <v>196</v>
+      </c>
+      <c r="M4" t="s">
         <v>197</v>
-      </c>
-      <c r="M4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2701,7 +2703,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2711,20 +2713,20 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ124_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ124_Weekly Sales.pdf</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ124_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ124_Focus_Feedback.xlsx</v>
       </c>
       <c r="K5" t="s">
         <v>192</v>
       </c>
       <c r="L5" t="s">
+        <v>198</v>
+      </c>
+      <c r="M5" t="s">
         <v>199</v>
-      </c>
-      <c r="M5" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2736,7 +2738,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2746,20 +2748,20 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ132_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ132_Weekly Sales.pdf</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ132_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ132_Focus_Feedback.xlsx</v>
       </c>
       <c r="K6" t="s">
         <v>192</v>
       </c>
       <c r="L6" t="s">
+        <v>200</v>
+      </c>
+      <c r="M6" t="s">
         <v>201</v>
-      </c>
-      <c r="M6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2771,7 +2773,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2781,20 +2783,20 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ128_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ128_Weekly Sales.pdf</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ128_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ128_Focus_Feedback.xlsx</v>
       </c>
       <c r="K7" t="s">
         <v>192</v>
       </c>
       <c r="L7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M7" t="s">
         <v>203</v>
-      </c>
-      <c r="M7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2806,7 +2808,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2816,20 +2818,20 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ144_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ144_Weekly Sales.pdf</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ144_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ144_Focus_Feedback.xlsx</v>
       </c>
       <c r="K8" t="s">
         <v>192</v>
       </c>
       <c r="L8" t="s">
+        <v>204</v>
+      </c>
+      <c r="M8" t="s">
         <v>205</v>
-      </c>
-      <c r="M8" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2841,7 +2843,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2851,20 +2853,20 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ165_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ165_Weekly Sales.pdf</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ165_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ165_Focus_Feedback.xlsx</v>
       </c>
       <c r="K9" t="s">
         <v>192</v>
       </c>
       <c r="L9" t="s">
+        <v>206</v>
+      </c>
+      <c r="M9" t="s">
         <v>207</v>
-      </c>
-      <c r="M9" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2876,7 +2878,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2886,20 +2888,20 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ177_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ177_Weekly Sales.pdf</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ177_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ177_Focus_Feedback.xlsx</v>
       </c>
       <c r="K10" t="s">
         <v>192</v>
       </c>
       <c r="L10" t="s">
+        <v>208</v>
+      </c>
+      <c r="M10" t="s">
         <v>209</v>
-      </c>
-      <c r="M10" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2911,7 +2913,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2921,20 +2923,20 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ178_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ178_Weekly Sales.pdf</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ178_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ178_Focus_Feedback.xlsx</v>
       </c>
       <c r="K11" t="s">
         <v>192</v>
       </c>
       <c r="L11" t="s">
+        <v>210</v>
+      </c>
+      <c r="M11" t="s">
         <v>211</v>
-      </c>
-      <c r="M11" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2946,7 +2948,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2956,20 +2958,20 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ183_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ183_Weekly Sales.pdf</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ183_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ183_Focus_Feedback.xlsx</v>
       </c>
       <c r="K12" t="s">
         <v>192</v>
       </c>
       <c r="L12" t="s">
+        <v>212</v>
+      </c>
+      <c r="M12" t="s">
         <v>213</v>
-      </c>
-      <c r="M12" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2981,7 +2983,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2991,20 +2993,20 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ107_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ107_Weekly Sales.pdf</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ107_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ107_Focus_Feedback.xlsx</v>
       </c>
       <c r="K13" t="s">
         <v>192</v>
       </c>
       <c r="L13" t="s">
+        <v>214</v>
+      </c>
+      <c r="M13" t="s">
         <v>215</v>
-      </c>
-      <c r="M13" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -3016,7 +3018,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3026,20 +3028,20 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ109_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ109_Weekly Sales.pdf</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ109_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ109_Focus_Feedback.xlsx</v>
       </c>
       <c r="K14" t="s">
         <v>192</v>
       </c>
       <c r="L14" t="s">
+        <v>216</v>
+      </c>
+      <c r="M14" t="s">
         <v>217</v>
-      </c>
-      <c r="M14" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3051,7 +3053,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3061,20 +3063,20 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ112_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ112_Weekly Sales.pdf</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ112_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ112_Focus_Feedback.xlsx</v>
       </c>
       <c r="K15" t="s">
         <v>192</v>
       </c>
       <c r="L15" t="s">
+        <v>218</v>
+      </c>
+      <c r="M15" t="s">
         <v>219</v>
-      </c>
-      <c r="M15" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3086,7 +3088,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3096,20 +3098,20 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1CP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1CP_Weekly Sales.pdf</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1CP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1CP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K16" t="s">
         <v>192</v>
       </c>
       <c r="L16" t="s">
+        <v>220</v>
+      </c>
+      <c r="M16" t="s">
         <v>221</v>
-      </c>
-      <c r="M16" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -3121,7 +3123,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3131,20 +3133,20 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ154_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ154_Weekly Sales.pdf</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ154_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ154_Focus_Feedback.xlsx</v>
       </c>
       <c r="K17" t="s">
         <v>192</v>
       </c>
       <c r="L17" t="s">
+        <v>222</v>
+      </c>
+      <c r="M17" t="s">
         <v>223</v>
-      </c>
-      <c r="M17" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -3156,7 +3158,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3166,20 +3168,20 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1KD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1KD_Weekly Sales.pdf</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1KD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1KD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K18" t="s">
         <v>192</v>
       </c>
       <c r="L18" t="s">
+        <v>224</v>
+      </c>
+      <c r="M18" t="s">
         <v>225</v>
-      </c>
-      <c r="M18" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -3191,7 +3193,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3201,20 +3203,20 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1CF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1CF_Weekly Sales.pdf</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1CF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1CF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K19" t="s">
         <v>192</v>
       </c>
       <c r="L19" t="s">
+        <v>226</v>
+      </c>
+      <c r="M19" t="s">
         <v>227</v>
-      </c>
-      <c r="M19" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -3226,7 +3228,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3236,20 +3238,20 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1EM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1EM_Weekly Sales.pdf</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1EM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1EM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K20" t="s">
         <v>192</v>
       </c>
       <c r="L20" t="s">
+        <v>228</v>
+      </c>
+      <c r="M20" t="s">
         <v>229</v>
-      </c>
-      <c r="M20" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -3261,7 +3263,7 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3271,20 +3273,20 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1DP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1DP_Weekly Sales.pdf</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1DP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1DP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K21" t="s">
         <v>192</v>
       </c>
       <c r="L21" t="s">
+        <v>230</v>
+      </c>
+      <c r="M21" t="s">
         <v>231</v>
-      </c>
-      <c r="M21" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -3296,7 +3298,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3306,20 +3308,20 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1DA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1DA_Weekly Sales.pdf</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1DA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1DA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K22" t="s">
         <v>192</v>
       </c>
       <c r="L22" t="s">
+        <v>232</v>
+      </c>
+      <c r="M22" t="s">
         <v>233</v>
-      </c>
-      <c r="M22" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -3331,7 +3333,7 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3341,20 +3343,20 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1LM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1LM_Weekly Sales.pdf</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1LM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1LM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K23" t="s">
         <v>192</v>
       </c>
       <c r="L23" t="s">
+        <v>234</v>
+      </c>
+      <c r="M23" t="s">
         <v>235</v>
-      </c>
-      <c r="M23" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -3366,7 +3368,7 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3376,20 +3378,20 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1EE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1EE_Weekly Sales.pdf</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1EE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1EE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K24" t="s">
         <v>192</v>
       </c>
       <c r="L24" t="s">
+        <v>236</v>
+      </c>
+      <c r="M24" t="s">
         <v>237</v>
-      </c>
-      <c r="M24" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -3401,7 +3403,7 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3411,20 +3413,20 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1E2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1E2_Weekly Sales.pdf</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1E2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1E2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K25" t="s">
         <v>192</v>
       </c>
       <c r="L25" t="s">
+        <v>238</v>
+      </c>
+      <c r="M25" t="s">
         <v>239</v>
-      </c>
-      <c r="M25" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -3436,7 +3438,7 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3446,20 +3448,20 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1EK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1EK_Weekly Sales.pdf</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1EK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1EK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K26" t="s">
         <v>192</v>
       </c>
       <c r="L26" t="s">
+        <v>240</v>
+      </c>
+      <c r="M26" t="s">
         <v>241</v>
-      </c>
-      <c r="M26" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -3471,7 +3473,7 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3481,20 +3483,20 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1FB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1FB_Weekly Sales.pdf</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1FB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1FB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K27" t="s">
         <v>192</v>
       </c>
       <c r="L27" t="s">
+        <v>242</v>
+      </c>
+      <c r="M27" t="s">
         <v>243</v>
-      </c>
-      <c r="M27" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -3506,7 +3508,7 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3516,20 +3518,20 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1FP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1FP_Weekly Sales.pdf</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1FP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1FP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K28" t="s">
         <v>192</v>
       </c>
       <c r="L28" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" t="s">
         <v>245</v>
-      </c>
-      <c r="M28" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -3541,7 +3543,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3551,20 +3553,20 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1FT_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1FT_Weekly Sales.pdf</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1FT_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1FT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K29" t="s">
         <v>192</v>
       </c>
       <c r="L29" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29" t="s">
         <v>247</v>
-      </c>
-      <c r="M29" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -3576,7 +3578,7 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3586,20 +3588,20 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1FS_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1FS_Weekly Sales.pdf</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1FS_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1FS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K30" t="s">
         <v>192</v>
       </c>
       <c r="L30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M30" t="s">
         <v>249</v>
-      </c>
-      <c r="M30" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -3611,7 +3613,7 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3621,20 +3623,20 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1FR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1FR_Weekly Sales.pdf</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1FR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1FR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K31" t="s">
         <v>192</v>
       </c>
       <c r="L31" t="s">
+        <v>250</v>
+      </c>
+      <c r="M31" t="s">
         <v>251</v>
-      </c>
-      <c r="M31" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -3646,7 +3648,7 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3656,20 +3658,20 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1GO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1GO_Weekly Sales.pdf</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1GO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1GO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K32" t="s">
         <v>192</v>
       </c>
       <c r="L32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" t="s">
         <v>253</v>
-      </c>
-      <c r="M32" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -3681,7 +3683,7 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3691,20 +3693,20 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1KL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1KL_Weekly Sales.pdf</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1KL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1KL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K33" t="s">
         <v>192</v>
       </c>
       <c r="L33" t="s">
+        <v>254</v>
+      </c>
+      <c r="M33" t="s">
         <v>255</v>
-      </c>
-      <c r="M33" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -3716,7 +3718,7 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3726,20 +3728,20 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1KK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1KK_Weekly Sales.pdf</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1KK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1KK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K34" t="s">
         <v>192</v>
       </c>
       <c r="L34" t="s">
+        <v>256</v>
+      </c>
+      <c r="M34" t="s">
         <v>257</v>
-      </c>
-      <c r="M34" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -3751,7 +3753,7 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3761,20 +3763,20 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1DN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1DN_Weekly Sales.pdf</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1DN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1DN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K35" t="s">
         <v>192</v>
       </c>
       <c r="L35" t="s">
+        <v>258</v>
+      </c>
+      <c r="M35" t="s">
         <v>259</v>
-      </c>
-      <c r="M35" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -3786,7 +3788,7 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3796,20 +3798,20 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1EO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1EO_Weekly Sales.pdf</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1EO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1EO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K36" t="s">
         <v>192</v>
       </c>
       <c r="L36" t="s">
+        <v>260</v>
+      </c>
+      <c r="M36" t="s">
         <v>261</v>
-      </c>
-      <c r="M36" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -3821,7 +3823,7 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3831,20 +3833,20 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1CB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1CB_Weekly Sales.pdf</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1CB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1CB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K37" t="s">
         <v>192</v>
       </c>
       <c r="L37" t="s">
+        <v>262</v>
+      </c>
+      <c r="M37" t="s">
         <v>263</v>
-      </c>
-      <c r="M37" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -3856,7 +3858,7 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3866,20 +3868,20 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1B8_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1B8_Weekly Sales.pdf</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1B8_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1B8_Focus_Feedback.xlsx</v>
       </c>
       <c r="K38" t="s">
         <v>192</v>
       </c>
       <c r="L38" t="s">
+        <v>264</v>
+      </c>
+      <c r="M38" t="s">
         <v>265</v>
-      </c>
-      <c r="M38" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -3891,7 +3893,7 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3901,20 +3903,20 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1C4_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1C4_Weekly Sales.pdf</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1C4_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1C4_Focus_Feedback.xlsx</v>
       </c>
       <c r="K39" t="s">
         <v>192</v>
       </c>
       <c r="L39" t="s">
+        <v>266</v>
+      </c>
+      <c r="M39" t="s">
         <v>267</v>
-      </c>
-      <c r="M39" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -3926,7 +3928,7 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3936,20 +3938,20 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1D8_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1D8_Weekly Sales.pdf</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1D8_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1D8_Focus_Feedback.xlsx</v>
       </c>
       <c r="K40" t="s">
         <v>192</v>
       </c>
       <c r="L40" t="s">
+        <v>268</v>
+      </c>
+      <c r="M40" t="s">
         <v>269</v>
-      </c>
-      <c r="M40" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3961,7 +3963,7 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3971,20 +3973,20 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1SW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1SW_Weekly Sales.pdf</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1SW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1SW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K41" t="s">
         <v>192</v>
       </c>
       <c r="L41" t="s">
+        <v>270</v>
+      </c>
+      <c r="M41" t="s">
         <v>271</v>
-      </c>
-      <c r="M41" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -3996,7 +3998,7 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -4006,20 +4008,20 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1AP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1AP_Weekly Sales.pdf</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1AP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1AP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K42" t="s">
         <v>192</v>
       </c>
       <c r="L42" t="s">
+        <v>272</v>
+      </c>
+      <c r="M42" t="s">
         <v>273</v>
-      </c>
-      <c r="M42" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -4031,7 +4033,7 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4041,20 +4043,20 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ2CB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ2CB_Weekly Sales.pdf</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ2CB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ2CB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K43" t="s">
         <v>192</v>
       </c>
       <c r="L43" t="s">
+        <v>274</v>
+      </c>
+      <c r="M43" t="s">
         <v>275</v>
-      </c>
-      <c r="M43" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -4066,7 +4068,7 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4076,20 +4078,20 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1CG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1CG_Weekly Sales.pdf</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1CG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1CG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K44" t="s">
         <v>192</v>
       </c>
       <c r="L44" t="s">
+        <v>276</v>
+      </c>
+      <c r="M44" t="s">
         <v>277</v>
-      </c>
-      <c r="M44" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -4101,7 +4103,7 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4111,20 +4113,20 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1PV_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1PV_Weekly Sales.pdf</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1PV_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1PV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K45" t="s">
         <v>192</v>
       </c>
       <c r="L45" t="s">
+        <v>278</v>
+      </c>
+      <c r="M45" t="s">
         <v>279</v>
-      </c>
-      <c r="M45" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -4136,7 +4138,7 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -4146,20 +4148,20 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ3CB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ3CB_Weekly Sales.pdf</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ3CB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ3CB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K46" t="s">
         <v>192</v>
       </c>
       <c r="L46" t="s">
+        <v>280</v>
+      </c>
+      <c r="M46" t="s">
         <v>281</v>
-      </c>
-      <c r="M46" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -4171,7 +4173,7 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4181,20 +4183,20 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ5CS_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ5CS_Weekly Sales.pdf</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ5CS_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ5CS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K47" t="s">
         <v>192</v>
       </c>
       <c r="L47" t="s">
+        <v>282</v>
+      </c>
+      <c r="M47" t="s">
         <v>283</v>
-      </c>
-      <c r="M47" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -4206,7 +4208,7 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4216,20 +4218,20 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ8JA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ8JA_Weekly Sales.pdf</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ8JA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ8JA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K48" t="s">
         <v>192</v>
       </c>
       <c r="L48" t="s">
+        <v>284</v>
+      </c>
+      <c r="M48" t="s">
         <v>285</v>
-      </c>
-      <c r="M48" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -4241,7 +4243,7 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4251,20 +4253,20 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ7JM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ7JM_Weekly Sales.pdf</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ7JM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ7JM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K49" t="s">
         <v>192</v>
       </c>
       <c r="L49" t="s">
+        <v>286</v>
+      </c>
+      <c r="M49" t="s">
         <v>287</v>
-      </c>
-      <c r="M49" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -4276,7 +4278,7 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -4286,20 +4288,20 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ7DO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ7DO_Weekly Sales.pdf</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ7DO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ7DO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K50" t="s">
         <v>192</v>
       </c>
       <c r="L50" t="s">
+        <v>288</v>
+      </c>
+      <c r="M50" t="s">
         <v>289</v>
-      </c>
-      <c r="M50" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -4311,7 +4313,7 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -4321,20 +4323,20 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ5TA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ5TA_Weekly Sales.pdf</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ5TA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ5TA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K51" t="s">
         <v>192</v>
       </c>
       <c r="L51" t="s">
+        <v>290</v>
+      </c>
+      <c r="M51" t="s">
         <v>291</v>
-      </c>
-      <c r="M51" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -4346,7 +4348,7 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -4356,20 +4358,20 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ2LB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ2LB_Weekly Sales.pdf</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ2LB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ2LB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K52" t="s">
         <v>192</v>
       </c>
       <c r="L52" t="s">
+        <v>292</v>
+      </c>
+      <c r="M52" t="s">
         <v>293</v>
-      </c>
-      <c r="M52" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -4381,7 +4383,7 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -4391,20 +4393,20 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ2GB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ2GB_Weekly Sales.pdf</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ2GB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ2GB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K53" t="s">
         <v>192</v>
       </c>
       <c r="L53" t="s">
+        <v>294</v>
+      </c>
+      <c r="M53" t="s">
         <v>295</v>
-      </c>
-      <c r="M53" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -4416,7 +4418,7 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -4426,20 +4428,20 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ2LH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ2LH_Weekly Sales.pdf</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ2LH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ2LH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K54" t="s">
         <v>192</v>
       </c>
       <c r="L54" t="s">
+        <v>296</v>
+      </c>
+      <c r="M54" t="s">
         <v>297</v>
-      </c>
-      <c r="M54" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
@@ -4451,7 +4453,7 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -4461,20 +4463,20 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ2NM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ2NM_Weekly Sales.pdf</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ2NM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ2NM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K55" t="s">
         <v>192</v>
       </c>
       <c r="L55" t="s">
+        <v>298</v>
+      </c>
+      <c r="M55" t="s">
         <v>299</v>
-      </c>
-      <c r="M55" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
@@ -4486,7 +4488,7 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4496,20 +4498,20 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ2SB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ2SB_Weekly Sales.pdf</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ2SB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ2SB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K56" t="s">
         <v>192</v>
       </c>
       <c r="L56" t="s">
+        <v>300</v>
+      </c>
+      <c r="M56" t="s">
         <v>301</v>
-      </c>
-      <c r="M56" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
@@ -4521,7 +4523,7 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4531,20 +4533,20 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ2BG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ2BG_Weekly Sales.pdf</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ2BG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ2BG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K57" t="s">
         <v>192</v>
       </c>
       <c r="L57" t="s">
+        <v>302</v>
+      </c>
+      <c r="M57" t="s">
         <v>303</v>
-      </c>
-      <c r="M57" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -4556,7 +4558,7 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4566,20 +4568,20 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1SA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1SA_Weekly Sales.pdf</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1SA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1SA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K58" t="s">
         <v>192</v>
       </c>
       <c r="L58" t="s">
+        <v>304</v>
+      </c>
+      <c r="M58" t="s">
         <v>305</v>
-      </c>
-      <c r="M58" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
@@ -4591,7 +4593,7 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4601,20 +4603,20 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1FA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1FA_Weekly Sales.pdf</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1FA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1FA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K59" t="s">
         <v>192</v>
       </c>
       <c r="L59" t="s">
+        <v>306</v>
+      </c>
+      <c r="M59" t="s">
         <v>307</v>
-      </c>
-      <c r="M59" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
@@ -4626,7 +4628,7 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4636,20 +4638,20 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ115_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ115_Weekly Sales.pdf</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ115_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ115_Focus_Feedback.xlsx</v>
       </c>
       <c r="K60" t="s">
         <v>192</v>
       </c>
       <c r="L60" t="s">
+        <v>308</v>
+      </c>
+      <c r="M60" t="s">
         <v>309</v>
-      </c>
-      <c r="M60" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
@@ -4661,7 +4663,7 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4671,20 +4673,20 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ120_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ120_Weekly Sales.pdf</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ120_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ120_Focus_Feedback.xlsx</v>
       </c>
       <c r="K61" t="s">
         <v>192</v>
       </c>
       <c r="L61" t="s">
+        <v>310</v>
+      </c>
+      <c r="M61" t="s">
         <v>311</v>
-      </c>
-      <c r="M61" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
@@ -4696,7 +4698,7 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4706,20 +4708,20 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ118_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ118_Weekly Sales.pdf</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ118_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ118_Focus_Feedback.xlsx</v>
       </c>
       <c r="K62" t="s">
         <v>192</v>
       </c>
       <c r="L62" t="s">
+        <v>312</v>
+      </c>
+      <c r="M62" t="s">
         <v>313</v>
-      </c>
-      <c r="M62" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
@@ -4731,7 +4733,7 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4741,20 +4743,20 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ119_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ119_Weekly Sales.pdf</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ119_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ119_Focus_Feedback.xlsx</v>
       </c>
       <c r="K63" t="s">
         <v>192</v>
       </c>
       <c r="L63" t="s">
+        <v>314</v>
+      </c>
+      <c r="M63" t="s">
         <v>315</v>
-      </c>
-      <c r="M63" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -4766,7 +4768,7 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4776,20 +4778,20 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ138_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ138_Weekly Sales.pdf</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ138_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ138_Focus_Feedback.xlsx</v>
       </c>
       <c r="K64" t="s">
         <v>192</v>
       </c>
       <c r="L64" t="s">
+        <v>316</v>
+      </c>
+      <c r="M64" t="s">
         <v>317</v>
-      </c>
-      <c r="M64" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
@@ -4801,7 +4803,7 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4811,20 +4813,20 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ142_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ142_Weekly Sales.pdf</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ142_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ142_Focus_Feedback.xlsx</v>
       </c>
       <c r="K65" t="s">
         <v>192</v>
       </c>
       <c r="L65" t="s">
+        <v>318</v>
+      </c>
+      <c r="M65" t="s">
         <v>319</v>
-      </c>
-      <c r="M65" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
@@ -4836,7 +4838,7 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4846,20 +4848,20 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" ref="G66:G127" si="3">K66&amp;"\"&amp;L66</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ134_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ134_Weekly Sales.pdf</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" ref="H66:H127" si="4">K66&amp;"\"&amp;M66</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ134_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ134_Focus_Feedback.xlsx</v>
       </c>
       <c r="K66" t="s">
         <v>192</v>
       </c>
       <c r="L66" t="s">
+        <v>320</v>
+      </c>
+      <c r="M66" t="s">
         <v>321</v>
-      </c>
-      <c r="M66" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -4871,7 +4873,7 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4881,20 +4883,20 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ123_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ123_Weekly Sales.pdf</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ123_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ123_Focus_Feedback.xlsx</v>
       </c>
       <c r="K67" t="s">
         <v>192</v>
       </c>
       <c r="L67" t="s">
+        <v>322</v>
+      </c>
+      <c r="M67" t="s">
         <v>323</v>
-      </c>
-      <c r="M67" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
@@ -4906,7 +4908,7 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" ref="D68:D130" si="5">$D$2</f>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4916,20 +4918,20 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ136_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ136_Weekly Sales.pdf</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ136_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ136_Focus_Feedback.xlsx</v>
       </c>
       <c r="K68" t="s">
         <v>192</v>
       </c>
       <c r="L68" t="s">
+        <v>324</v>
+      </c>
+      <c r="M68" t="s">
         <v>325</v>
-      </c>
-      <c r="M68" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
@@ -4941,7 +4943,7 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4951,20 +4953,20 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ165_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ165_Weekly Sales.pdf</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ165_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ165_Focus_Feedback.xlsx</v>
       </c>
       <c r="K69" t="s">
         <v>192</v>
       </c>
       <c r="L69" t="s">
+        <v>326</v>
+      </c>
+      <c r="M69" t="s">
         <v>327</v>
-      </c>
-      <c r="M69" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
@@ -4976,7 +4978,7 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4986,20 +4988,20 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1FF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1FF_Weekly Sales.pdf</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1FF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1FF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K70" t="s">
         <v>192</v>
       </c>
       <c r="L70" t="s">
+        <v>328</v>
+      </c>
+      <c r="M70" t="s">
         <v>329</v>
-      </c>
-      <c r="M70" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -5011,7 +5013,7 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -5021,20 +5023,20 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ167_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ167_Weekly Sales.pdf</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ167_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ167_Focus_Feedback.xlsx</v>
       </c>
       <c r="K71" t="s">
         <v>192</v>
       </c>
       <c r="L71" t="s">
+        <v>330</v>
+      </c>
+      <c r="M71" t="s">
         <v>331</v>
-      </c>
-      <c r="M71" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
@@ -5046,7 +5048,7 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -5056,20 +5058,20 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ175_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ175_Weekly Sales.pdf</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ175_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ175_Focus_Feedback.xlsx</v>
       </c>
       <c r="K72" t="s">
         <v>192</v>
       </c>
       <c r="L72" t="s">
+        <v>332</v>
+      </c>
+      <c r="M72" t="s">
         <v>333</v>
-      </c>
-      <c r="M72" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
@@ -5081,7 +5083,7 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -5091,20 +5093,20 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ177_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ177_Weekly Sales.pdf</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ177_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ177_Focus_Feedback.xlsx</v>
       </c>
       <c r="K73" t="s">
         <v>192</v>
       </c>
       <c r="L73" t="s">
+        <v>334</v>
+      </c>
+      <c r="M73" t="s">
         <v>335</v>
-      </c>
-      <c r="M73" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
@@ -5116,7 +5118,7 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -5126,20 +5128,20 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ143_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ143_Weekly Sales.pdf</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ143_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ143_Focus_Feedback.xlsx</v>
       </c>
       <c r="K74" t="s">
         <v>192</v>
       </c>
       <c r="L74" t="s">
+        <v>336</v>
+      </c>
+      <c r="M74" t="s">
         <v>337</v>
-      </c>
-      <c r="M74" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
@@ -5151,7 +5153,7 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -5161,20 +5163,20 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ243_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ243_Weekly Sales.pdf</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ243_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ243_Focus_Feedback.xlsx</v>
       </c>
       <c r="K75" t="s">
         <v>192</v>
       </c>
       <c r="L75" t="s">
+        <v>338</v>
+      </c>
+      <c r="M75" t="s">
         <v>339</v>
-      </c>
-      <c r="M75" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
@@ -5186,7 +5188,7 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -5196,20 +5198,20 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ159_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ159_Weekly Sales.pdf</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ159_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ159_Focus_Feedback.xlsx</v>
       </c>
       <c r="K76" t="s">
         <v>192</v>
       </c>
       <c r="L76" t="s">
+        <v>340</v>
+      </c>
+      <c r="M76" t="s">
         <v>341</v>
-      </c>
-      <c r="M76" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -5221,7 +5223,7 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -5231,20 +5233,20 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ162_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ162_Weekly Sales.pdf</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ162_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ162_Focus_Feedback.xlsx</v>
       </c>
       <c r="K77" t="s">
         <v>192</v>
       </c>
       <c r="L77" t="s">
+        <v>342</v>
+      </c>
+      <c r="M77" t="s">
         <v>343</v>
-      </c>
-      <c r="M77" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
@@ -5256,7 +5258,7 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -5266,20 +5268,20 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ113_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ113_Weekly Sales.pdf</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ113_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ113_Focus_Feedback.xlsx</v>
       </c>
       <c r="K78" t="s">
         <v>192</v>
       </c>
       <c r="L78" t="s">
+        <v>344</v>
+      </c>
+      <c r="M78" t="s">
         <v>345</v>
-      </c>
-      <c r="M78" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -5291,7 +5293,7 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -5301,20 +5303,20 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ133_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ133_Weekly Sales.pdf</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ133_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ133_Focus_Feedback.xlsx</v>
       </c>
       <c r="K79" t="s">
         <v>192</v>
       </c>
       <c r="L79" t="s">
+        <v>346</v>
+      </c>
+      <c r="M79" t="s">
         <v>347</v>
-      </c>
-      <c r="M79" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
@@ -5326,7 +5328,7 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -5336,20 +5338,20 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ137_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ137_Weekly Sales.pdf</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ137_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ137_Focus_Feedback.xlsx</v>
       </c>
       <c r="K80" t="s">
         <v>192</v>
       </c>
       <c r="L80" t="s">
+        <v>348</v>
+      </c>
+      <c r="M80" t="s">
         <v>349</v>
-      </c>
-      <c r="M80" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
@@ -5361,7 +5363,7 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5371,20 +5373,20 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1G4_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1G4_Weekly Sales.pdf</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1G4_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1G4_Focus_Feedback.xlsx</v>
       </c>
       <c r="K81" t="s">
         <v>192</v>
       </c>
       <c r="L81" t="s">
+        <v>350</v>
+      </c>
+      <c r="M81" t="s">
         <v>351</v>
-      </c>
-      <c r="M81" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
@@ -5396,7 +5398,7 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5406,20 +5408,20 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1G5_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1G5_Weekly Sales.pdf</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1G5_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1G5_Focus_Feedback.xlsx</v>
       </c>
       <c r="K82" t="s">
         <v>192</v>
       </c>
       <c r="L82" t="s">
+        <v>352</v>
+      </c>
+      <c r="M82" t="s">
         <v>353</v>
-      </c>
-      <c r="M82" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
@@ -5431,7 +5433,7 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5441,20 +5443,20 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1CE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1CE_Weekly Sales.pdf</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1CE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1CE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K83" t="s">
         <v>192</v>
       </c>
       <c r="L83" t="s">
+        <v>354</v>
+      </c>
+      <c r="M83" t="s">
         <v>355</v>
-      </c>
-      <c r="M83" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
@@ -5466,7 +5468,7 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5476,20 +5478,20 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZBW1_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZBW1_Weekly Sales.pdf</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZBW1_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZBW1_Focus_Feedback.xlsx</v>
       </c>
       <c r="K84" t="s">
         <v>192</v>
       </c>
       <c r="L84" t="s">
+        <v>356</v>
+      </c>
+      <c r="M84" t="s">
         <v>357</v>
-      </c>
-      <c r="M84" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
@@ -5501,7 +5503,7 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -5511,20 +5513,20 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ9TS_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ9TS_Weekly Sales.pdf</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ9TS_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ9TS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K85" t="s">
         <v>192</v>
       </c>
       <c r="L85" t="s">
+        <v>358</v>
+      </c>
+      <c r="M85" t="s">
         <v>359</v>
-      </c>
-      <c r="M85" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
@@ -5536,7 +5538,7 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5546,20 +5548,20 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1HM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1HM_Weekly Sales.pdf</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1HM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K86" t="s">
         <v>192</v>
       </c>
       <c r="L86" t="s">
+        <v>360</v>
+      </c>
+      <c r="M86" t="s">
         <v>361</v>
-      </c>
-      <c r="M86" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
@@ -5571,7 +5573,7 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5581,20 +5583,20 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2HM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2HM_Weekly Sales.pdf</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2HM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K87" t="s">
         <v>192</v>
       </c>
       <c r="L87" t="s">
+        <v>362</v>
+      </c>
+      <c r="M87" t="s">
         <v>363</v>
-      </c>
-      <c r="M87" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
@@ -5606,7 +5608,7 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5616,20 +5618,20 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1HM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1HM_Weekly Sales.pdf</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1HM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K88" t="s">
         <v>192</v>
       </c>
       <c r="L88" t="s">
+        <v>360</v>
+      </c>
+      <c r="M88" t="s">
         <v>361</v>
-      </c>
-      <c r="M88" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
@@ -5641,7 +5643,7 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5651,20 +5653,20 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2HM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2HM_Weekly Sales.pdf</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2HM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K89" t="s">
         <v>192</v>
       </c>
       <c r="L89" t="s">
+        <v>362</v>
+      </c>
+      <c r="M89" t="s">
         <v>363</v>
-      </c>
-      <c r="M89" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
@@ -5676,7 +5678,7 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5686,20 +5688,20 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2RP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2RP_Weekly Sales.pdf</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2RP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2RP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K90" t="s">
         <v>192</v>
       </c>
       <c r="L90" t="s">
+        <v>364</v>
+      </c>
+      <c r="M90" t="s">
         <v>365</v>
-      </c>
-      <c r="M90" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
@@ -5711,7 +5713,7 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5721,20 +5723,20 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1TT_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1TT_Weekly Sales.pdf</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1TT_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1TT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K91" t="s">
         <v>192</v>
       </c>
       <c r="L91" t="s">
+        <v>366</v>
+      </c>
+      <c r="M91" t="s">
         <v>367</v>
-      </c>
-      <c r="M91" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
@@ -5746,7 +5748,7 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5756,20 +5758,20 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1AM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1AM_Weekly Sales.pdf</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1AM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1AM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K92" t="s">
         <v>192</v>
       </c>
       <c r="L92" t="s">
+        <v>368</v>
+      </c>
+      <c r="M92" t="s">
         <v>369</v>
-      </c>
-      <c r="M92" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
@@ -5781,7 +5783,7 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5791,20 +5793,20 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1JW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1JW_Weekly Sales.pdf</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1JW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1JW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K93" t="s">
         <v>192</v>
       </c>
       <c r="L93" t="s">
+        <v>370</v>
+      </c>
+      <c r="M93" t="s">
         <v>371</v>
-      </c>
-      <c r="M93" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
@@ -5816,7 +5818,7 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5826,20 +5828,20 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1MH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1MH_Weekly Sales.pdf</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1MH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1MH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K94" t="s">
         <v>192</v>
       </c>
       <c r="L94" t="s">
+        <v>372</v>
+      </c>
+      <c r="M94" t="s">
         <v>373</v>
-      </c>
-      <c r="M94" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
@@ -5851,7 +5853,7 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5861,20 +5863,20 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K95" t="s">
         <v>192</v>
       </c>
       <c r="L95" t="s">
+        <v>374</v>
+      </c>
+      <c r="M95" t="s">
         <v>375</v>
-      </c>
-      <c r="M95" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
@@ -5886,7 +5888,7 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5896,20 +5898,20 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1T2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1T2_Weekly Sales.pdf</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1T2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1T2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K96" t="s">
         <v>192</v>
       </c>
       <c r="L96" t="s">
+        <v>376</v>
+      </c>
+      <c r="M96" t="s">
         <v>377</v>
-      </c>
-      <c r="M96" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
@@ -5921,7 +5923,7 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5931,20 +5933,20 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2AM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2AM_Weekly Sales.pdf</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2AM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2AM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K97" t="s">
         <v>192</v>
       </c>
       <c r="L97" t="s">
+        <v>378</v>
+      </c>
+      <c r="M97" t="s">
         <v>379</v>
-      </c>
-      <c r="M97" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
@@ -5956,7 +5958,7 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5966,20 +5968,20 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ2CR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ2CR_Weekly Sales.pdf</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ2CR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ2CR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K98" t="s">
         <v>192</v>
       </c>
       <c r="L98" t="s">
+        <v>380</v>
+      </c>
+      <c r="M98" t="s">
         <v>381</v>
-      </c>
-      <c r="M98" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
@@ -5991,7 +5993,7 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -6001,20 +6003,20 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1SC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1SC_Weekly Sales.pdf</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1SC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1SC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K99" t="s">
         <v>192</v>
       </c>
       <c r="L99" t="s">
+        <v>382</v>
+      </c>
+      <c r="M99" t="s">
         <v>383</v>
-      </c>
-      <c r="M99" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
@@ -6026,7 +6028,7 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -6036,20 +6038,20 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1PB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1PB_Weekly Sales.pdf</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1PB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1PB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K100" t="s">
         <v>192</v>
       </c>
       <c r="L100" t="s">
+        <v>384</v>
+      </c>
+      <c r="M100" t="s">
         <v>385</v>
-      </c>
-      <c r="M100" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
@@ -6061,7 +6063,7 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -6071,20 +6073,20 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1JN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1JN_Weekly Sales.pdf</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1JN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1JN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K101" t="s">
         <v>192</v>
       </c>
       <c r="L101" t="s">
+        <v>386</v>
+      </c>
+      <c r="M101" t="s">
         <v>387</v>
-      </c>
-      <c r="M101" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
@@ -6096,7 +6098,7 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6106,20 +6108,20 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1J2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1J2_Weekly Sales.pdf</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1J2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1J2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K102" t="s">
         <v>192</v>
       </c>
       <c r="L102" t="s">
+        <v>388</v>
+      </c>
+      <c r="M102" t="s">
         <v>389</v>
-      </c>
-      <c r="M102" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
@@ -6131,7 +6133,7 @@
       </c>
       <c r="D103" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6141,20 +6143,20 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1MK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1MK_Weekly Sales.pdf</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1MK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1MK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K103" t="s">
         <v>192</v>
       </c>
       <c r="L103" t="s">
+        <v>390</v>
+      </c>
+      <c r="M103" t="s">
         <v>391</v>
-      </c>
-      <c r="M103" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
@@ -6166,7 +6168,7 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6176,20 +6178,20 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1CA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1CA_Weekly Sales.pdf</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1CA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1CA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K104" t="s">
         <v>192</v>
       </c>
       <c r="L104" t="s">
+        <v>392</v>
+      </c>
+      <c r="M104" t="s">
         <v>393</v>
-      </c>
-      <c r="M104" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
@@ -6201,7 +6203,7 @@
       </c>
       <c r="D105" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6211,20 +6213,20 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2TM_Weekly Sales.pdf</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K105" t="s">
         <v>192</v>
       </c>
       <c r="L105" t="s">
+        <v>394</v>
+      </c>
+      <c r="M105" t="s">
         <v>395</v>
-      </c>
-      <c r="M105" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
@@ -6236,7 +6238,7 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6246,20 +6248,20 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2T1_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2T1_Weekly Sales.pdf</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2T1_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2T1_Focus_Feedback.xlsx</v>
       </c>
       <c r="K106" t="s">
         <v>192</v>
       </c>
       <c r="L106" t="s">
+        <v>396</v>
+      </c>
+      <c r="M106" t="s">
         <v>397</v>
-      </c>
-      <c r="M106" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
@@ -6271,7 +6273,7 @@
       </c>
       <c r="D107" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6281,20 +6283,20 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2T2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2T2_Weekly Sales.pdf</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2T2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2T2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K107" t="s">
         <v>192</v>
       </c>
       <c r="L107" t="s">
+        <v>398</v>
+      </c>
+      <c r="M107" t="s">
         <v>399</v>
-      </c>
-      <c r="M107" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
@@ -6306,7 +6308,7 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -6316,20 +6318,20 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1JA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1JA_Weekly Sales.pdf</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1JA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1JA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K108" t="s">
         <v>192</v>
       </c>
       <c r="L108" t="s">
+        <v>400</v>
+      </c>
+      <c r="M108" t="s">
         <v>401</v>
-      </c>
-      <c r="M108" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
@@ -6341,7 +6343,7 @@
       </c>
       <c r="D109" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6351,20 +6353,20 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1BC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1BC_Weekly Sales.pdf</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1BC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1BC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K109" t="s">
         <v>192</v>
       </c>
       <c r="L109" t="s">
+        <v>402</v>
+      </c>
+      <c r="M109" t="s">
         <v>403</v>
-      </c>
-      <c r="M109" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
@@ -6376,7 +6378,7 @@
       </c>
       <c r="D110" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6386,20 +6388,20 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1JL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1JL_Weekly Sales.pdf</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1JL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1JL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K110" t="s">
         <v>192</v>
       </c>
       <c r="L110" t="s">
+        <v>404</v>
+      </c>
+      <c r="M110" t="s">
         <v>405</v>
-      </c>
-      <c r="M110" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
@@ -6411,7 +6413,7 @@
       </c>
       <c r="D111" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -6421,20 +6423,20 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1AL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1AL_Weekly Sales.pdf</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1AL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1AL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K111" t="s">
         <v>192</v>
       </c>
       <c r="L111" t="s">
+        <v>406</v>
+      </c>
+      <c r="M111" t="s">
         <v>407</v>
-      </c>
-      <c r="M111" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
@@ -6446,7 +6448,7 @@
       </c>
       <c r="D112" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6456,20 +6458,20 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1MW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1MW_Weekly Sales.pdf</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1MW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1MW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K112" t="s">
         <v>192</v>
       </c>
       <c r="L112" t="s">
+        <v>408</v>
+      </c>
+      <c r="M112" t="s">
         <v>409</v>
-      </c>
-      <c r="M112" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
@@ -6481,7 +6483,7 @@
       </c>
       <c r="D113" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6491,20 +6493,20 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1MS_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1MS_Weekly Sales.pdf</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1MS_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1MS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K113" t="s">
         <v>192</v>
       </c>
       <c r="L113" t="s">
+        <v>410</v>
+      </c>
+      <c r="M113" t="s">
         <v>411</v>
-      </c>
-      <c r="M113" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
@@ -6516,7 +6518,7 @@
       </c>
       <c r="D114" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6526,20 +6528,20 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1DF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1DF_Weekly Sales.pdf</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1DF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1DF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K114" t="s">
         <v>192</v>
       </c>
       <c r="L114" t="s">
+        <v>412</v>
+      </c>
+      <c r="M114" t="s">
         <v>413</v>
-      </c>
-      <c r="M114" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
@@ -6551,7 +6553,7 @@
       </c>
       <c r="D115" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6561,20 +6563,20 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1AJ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1AJ_Weekly Sales.pdf</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1AJ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1AJ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K115" t="s">
         <v>192</v>
       </c>
       <c r="L115" t="s">
+        <v>414</v>
+      </c>
+      <c r="M115" t="s">
         <v>415</v>
-      </c>
-      <c r="M115" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
@@ -6586,7 +6588,7 @@
       </c>
       <c r="D116" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6596,20 +6598,20 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1GF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1GF_Weekly Sales.pdf</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1GF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1GF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K116" t="s">
         <v>192</v>
       </c>
       <c r="L116" t="s">
+        <v>416</v>
+      </c>
+      <c r="M116" t="s">
         <v>417</v>
-      </c>
-      <c r="M116" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
@@ -6621,7 +6623,7 @@
       </c>
       <c r="D117" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -6631,20 +6633,20 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1G2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1G2_Weekly Sales.pdf</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1G2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1G2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K117" t="s">
         <v>192</v>
       </c>
       <c r="L117" t="s">
+        <v>418</v>
+      </c>
+      <c r="M117" t="s">
         <v>419</v>
-      </c>
-      <c r="M117" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
@@ -6656,7 +6658,7 @@
       </c>
       <c r="D118" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6666,20 +6668,20 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1BP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1BP_Weekly Sales.pdf</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1BP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1BP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K118" t="s">
         <v>192</v>
       </c>
       <c r="L118" t="s">
+        <v>420</v>
+      </c>
+      <c r="M118" t="s">
         <v>421</v>
-      </c>
-      <c r="M118" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
@@ -6691,7 +6693,7 @@
       </c>
       <c r="D119" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6701,20 +6703,20 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1JF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1JF_Weekly Sales.pdf</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1JF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1JF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K119" t="s">
         <v>192</v>
       </c>
       <c r="L119" t="s">
+        <v>422</v>
+      </c>
+      <c r="M119" t="s">
         <v>423</v>
-      </c>
-      <c r="M119" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
@@ -6726,7 +6728,7 @@
       </c>
       <c r="D120" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6736,20 +6738,20 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1CI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1CI_Weekly Sales.pdf</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1CI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1CI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K120" t="s">
         <v>192</v>
       </c>
       <c r="L120" t="s">
+        <v>424</v>
+      </c>
+      <c r="M120" t="s">
         <v>425</v>
-      </c>
-      <c r="M120" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
@@ -6761,7 +6763,7 @@
       </c>
       <c r="D121" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6771,20 +6773,20 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1KM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1KM_Weekly Sales.pdf</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1KM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1KM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K121" t="s">
         <v>192</v>
       </c>
       <c r="L121" t="s">
+        <v>426</v>
+      </c>
+      <c r="M121" t="s">
         <v>427</v>
-      </c>
-      <c r="M121" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
@@ -6796,7 +6798,7 @@
       </c>
       <c r="D122" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6806,20 +6808,20 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1OV_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1OV_Weekly Sales.pdf</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1OV_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1OV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K122" t="s">
         <v>192</v>
       </c>
       <c r="L122" t="s">
+        <v>428</v>
+      </c>
+      <c r="M122" t="s">
         <v>429</v>
-      </c>
-      <c r="M122" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
@@ -6831,7 +6833,7 @@
       </c>
       <c r="D123" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6841,20 +6843,20 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1JB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1JB_Weekly Sales.pdf</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1JB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K123" t="s">
         <v>192</v>
       </c>
       <c r="L123" t="s">
+        <v>430</v>
+      </c>
+      <c r="M123" t="s">
         <v>431</v>
-      </c>
-      <c r="M123" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
@@ -6866,7 +6868,7 @@
       </c>
       <c r="D124" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6876,20 +6878,20 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1BG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1BG_Weekly Sales.pdf</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1BG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1BG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K124" t="s">
         <v>192</v>
       </c>
       <c r="L124" t="s">
+        <v>432</v>
+      </c>
+      <c r="M124" t="s">
         <v>433</v>
-      </c>
-      <c r="M124" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
@@ -6901,7 +6903,7 @@
       </c>
       <c r="D125" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6911,20 +6913,20 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K125" t="s">
         <v>192</v>
       </c>
       <c r="L125" t="s">
+        <v>434</v>
+      </c>
+      <c r="M125" t="s">
         <v>435</v>
-      </c>
-      <c r="M125" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
@@ -6936,7 +6938,7 @@
       </c>
       <c r="D126" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6946,20 +6948,20 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1BM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1BM_Weekly Sales.pdf</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1BM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1BM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K126" t="s">
         <v>192</v>
       </c>
       <c r="L126" t="s">
+        <v>436</v>
+      </c>
+      <c r="M126" t="s">
         <v>437</v>
-      </c>
-      <c r="M126" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
@@ -6971,7 +6973,7 @@
       </c>
       <c r="D127" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6981,20 +6983,20 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1MD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1MD_Weekly Sales.pdf</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1MD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1MD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K127" t="s">
         <v>192</v>
       </c>
       <c r="L127" t="s">
+        <v>438</v>
+      </c>
+      <c r="M127" t="s">
         <v>439</v>
-      </c>
-      <c r="M127" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
@@ -7006,7 +7008,7 @@
       </c>
       <c r="D128" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -7016,20 +7018,20 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" ref="G128:G194" si="6">K128&amp;"\"&amp;L128</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1RR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1RR_Weekly Sales.pdf</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" ref="H128:H194" si="7">K128&amp;"\"&amp;M128</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1RR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1RR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K128" t="s">
         <v>192</v>
       </c>
       <c r="L128" t="s">
+        <v>440</v>
+      </c>
+      <c r="M128" t="s">
         <v>441</v>
-      </c>
-      <c r="M128" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
@@ -7041,7 +7043,7 @@
       </c>
       <c r="D129" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -7051,20 +7053,20 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1JB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1JB_Weekly Sales.pdf</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1JB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K129" t="s">
         <v>192</v>
       </c>
       <c r="L129" t="s">
+        <v>442</v>
+      </c>
+      <c r="M129" t="s">
         <v>443</v>
-      </c>
-      <c r="M129" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
@@ -7076,7 +7078,7 @@
       </c>
       <c r="D130" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -7086,20 +7088,20 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1AD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1AD_Weekly Sales.pdf</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1AD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1AD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K130" t="s">
         <v>192</v>
       </c>
       <c r="L130" t="s">
+        <v>444</v>
+      </c>
+      <c r="M130" t="s">
         <v>445</v>
-      </c>
-      <c r="M130" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
@@ -7111,7 +7113,7 @@
       </c>
       <c r="D131" t="str">
         <f t="shared" ref="D131:D196" si="8">$D$2</f>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -7121,20 +7123,20 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1ML_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1ML_Weekly Sales.pdf</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1ML_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1ML_Focus_Feedback.xlsx</v>
       </c>
       <c r="K131" t="s">
         <v>192</v>
       </c>
       <c r="L131" t="s">
+        <v>446</v>
+      </c>
+      <c r="M131" t="s">
         <v>447</v>
-      </c>
-      <c r="M131" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
@@ -7146,7 +7148,7 @@
       </c>
       <c r="D132" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -7156,20 +7158,20 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1FA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1FA_Weekly Sales.pdf</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1FA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1FA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K132" t="s">
         <v>192</v>
       </c>
       <c r="L132" t="s">
+        <v>448</v>
+      </c>
+      <c r="M132" t="s">
         <v>449</v>
-      </c>
-      <c r="M132" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
@@ -7181,7 +7183,7 @@
       </c>
       <c r="D133" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7191,20 +7193,20 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ2SA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ2SA_Weekly Sales.pdf</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ2SA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ2SA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K133" t="s">
         <v>192</v>
       </c>
       <c r="L133" t="s">
+        <v>450</v>
+      </c>
+      <c r="M133" t="s">
         <v>451</v>
-      </c>
-      <c r="M133" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
@@ -7216,7 +7218,7 @@
       </c>
       <c r="D134" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7226,20 +7228,20 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1SL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1SL_Weekly Sales.pdf</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1SL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1SL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K134" t="s">
         <v>192</v>
       </c>
       <c r="L134" t="s">
+        <v>452</v>
+      </c>
+      <c r="M134" t="s">
         <v>453</v>
-      </c>
-      <c r="M134" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
@@ -7251,7 +7253,7 @@
       </c>
       <c r="D135" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -7261,20 +7263,20 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1CM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1CM_Weekly Sales.pdf</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1CM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1CM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K135" t="s">
         <v>192</v>
       </c>
       <c r="L135" t="s">
+        <v>454</v>
+      </c>
+      <c r="M135" t="s">
         <v>455</v>
-      </c>
-      <c r="M135" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
@@ -7286,7 +7288,7 @@
       </c>
       <c r="D136" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -7296,20 +7298,20 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1WH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1WH_Weekly Sales.pdf</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1WH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1WH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K136" t="s">
         <v>192</v>
       </c>
       <c r="L136" t="s">
+        <v>456</v>
+      </c>
+      <c r="M136" t="s">
         <v>457</v>
-      </c>
-      <c r="M136" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
@@ -7321,7 +7323,7 @@
       </c>
       <c r="D137" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7331,20 +7333,20 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1YU_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1YU_Weekly Sales.pdf</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1YU_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1YU_Focus_Feedback.xlsx</v>
       </c>
       <c r="K137" t="s">
         <v>192</v>
       </c>
       <c r="L137" t="s">
+        <v>458</v>
+      </c>
+      <c r="M137" t="s">
         <v>459</v>
-      </c>
-      <c r="M137" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
@@ -7356,7 +7358,7 @@
       </c>
       <c r="D138" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7366,20 +7368,20 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1WX_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1WX_Weekly Sales.pdf</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1WX_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1WX_Focus_Feedback.xlsx</v>
       </c>
       <c r="K138" t="s">
         <v>192</v>
       </c>
       <c r="L138" t="s">
+        <v>460</v>
+      </c>
+      <c r="M138" t="s">
         <v>461</v>
-      </c>
-      <c r="M138" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
@@ -7391,7 +7393,7 @@
       </c>
       <c r="D139" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -7401,20 +7403,20 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1XF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1XF_Weekly Sales.pdf</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1XF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1XF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K139" t="s">
         <v>192</v>
       </c>
       <c r="L139" t="s">
+        <v>462</v>
+      </c>
+      <c r="M139" t="s">
         <v>463</v>
-      </c>
-      <c r="M139" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
@@ -7426,7 +7428,7 @@
       </c>
       <c r="D140" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -7436,20 +7438,20 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1XT_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1XT_Weekly Sales.pdf</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1XT_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1XT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K140" t="s">
         <v>192</v>
       </c>
       <c r="L140" t="s">
+        <v>464</v>
+      </c>
+      <c r="M140" t="s">
         <v>465</v>
-      </c>
-      <c r="M140" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
@@ -7461,7 +7463,7 @@
       </c>
       <c r="D141" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -7471,20 +7473,20 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1YP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1YP_Weekly Sales.pdf</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_AZ1YP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_AZ1YP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K141" t="s">
         <v>192</v>
       </c>
       <c r="L141" t="s">
+        <v>466</v>
+      </c>
+      <c r="M141" t="s">
         <v>467</v>
-      </c>
-      <c r="M141" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
@@ -7496,7 +7498,7 @@
       </c>
       <c r="D142" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -7506,20 +7508,20 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1XH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1XH_Weekly Sales.pdf</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1XH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1XH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K142" t="s">
         <v>192</v>
       </c>
       <c r="L142" t="s">
+        <v>468</v>
+      </c>
+      <c r="M142" t="s">
         <v>469</v>
-      </c>
-      <c r="M142" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
@@ -7531,7 +7533,7 @@
       </c>
       <c r="D143" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -7541,20 +7543,20 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1X2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1X2_Weekly Sales.pdf</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1X2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1X2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K143" t="s">
         <v>192</v>
       </c>
       <c r="L143" t="s">
+        <v>470</v>
+      </c>
+      <c r="M143" t="s">
         <v>471</v>
-      </c>
-      <c r="M143" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
@@ -7566,7 +7568,7 @@
       </c>
       <c r="D144" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -7576,20 +7578,20 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1TB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1TB_Weekly Sales.pdf</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1TB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1TB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K144" t="s">
         <v>192</v>
       </c>
       <c r="L144" t="s">
+        <v>472</v>
+      </c>
+      <c r="M144" t="s">
         <v>473</v>
-      </c>
-      <c r="M144" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
@@ -7601,7 +7603,7 @@
       </c>
       <c r="D145" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -7611,20 +7613,20 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1TD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1TD_Weekly Sales.pdf</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1TD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1TD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K145" t="s">
         <v>192</v>
       </c>
       <c r="L145" t="s">
+        <v>474</v>
+      </c>
+      <c r="M145" t="s">
         <v>475</v>
-      </c>
-      <c r="M145" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
@@ -7636,7 +7638,7 @@
       </c>
       <c r="D146" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -7646,20 +7648,20 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1TK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1TK_Weekly Sales.pdf</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1TK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1TK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K146" t="s">
         <v>192</v>
       </c>
       <c r="L146" t="s">
+        <v>476</v>
+      </c>
+      <c r="M146" t="s">
         <v>477</v>
-      </c>
-      <c r="M146" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
@@ -7671,7 +7673,7 @@
       </c>
       <c r="D147" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -7681,20 +7683,20 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1YE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1YE_Weekly Sales.pdf</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1YE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1YE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K147" t="s">
         <v>192</v>
       </c>
       <c r="L147" t="s">
+        <v>478</v>
+      </c>
+      <c r="M147" t="s">
         <v>479</v>
-      </c>
-      <c r="M147" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
@@ -7706,7 +7708,7 @@
       </c>
       <c r="D148" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -7716,20 +7718,20 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1TE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1TE_Weekly Sales.pdf</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1TE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1TE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K148" t="s">
         <v>192</v>
       </c>
       <c r="L148" t="s">
+        <v>480</v>
+      </c>
+      <c r="M148" t="s">
         <v>481</v>
-      </c>
-      <c r="M148" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
@@ -7741,7 +7743,7 @@
       </c>
       <c r="D149" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7751,20 +7753,20 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1TI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1TI_Weekly Sales.pdf</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1TI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1TI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K149" t="s">
         <v>192</v>
       </c>
       <c r="L149" t="s">
+        <v>482</v>
+      </c>
+      <c r="M149" t="s">
         <v>483</v>
-      </c>
-      <c r="M149" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
@@ -7776,7 +7778,7 @@
       </c>
       <c r="D150" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7786,20 +7788,20 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1YI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1YI_Weekly Sales.pdf</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1YI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1YI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K150" t="s">
         <v>192</v>
       </c>
       <c r="L150" t="s">
+        <v>484</v>
+      </c>
+      <c r="M150" t="s">
         <v>485</v>
-      </c>
-      <c r="M150" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
@@ -7811,7 +7813,7 @@
       </c>
       <c r="D151" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7821,20 +7823,20 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1YW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1YW_Weekly Sales.pdf</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1YW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1YW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K151" t="s">
         <v>192</v>
       </c>
       <c r="L151" t="s">
+        <v>486</v>
+      </c>
+      <c r="M151" t="s">
         <v>487</v>
-      </c>
-      <c r="M151" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
@@ -7846,7 +7848,7 @@
       </c>
       <c r="D152" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7856,20 +7858,20 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UE_Weekly Sales.pdf</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K152" t="s">
         <v>192</v>
       </c>
       <c r="L152" t="s">
+        <v>488</v>
+      </c>
+      <c r="M152" t="s">
         <v>489</v>
-      </c>
-      <c r="M152" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
@@ -7881,7 +7883,7 @@
       </c>
       <c r="D153" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7891,20 +7893,20 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1MJ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1MJ_Weekly Sales.pdf</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1MJ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1MJ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K153" t="s">
         <v>192</v>
       </c>
       <c r="L153" t="s">
+        <v>490</v>
+      </c>
+      <c r="M153" t="s">
         <v>491</v>
-      </c>
-      <c r="M153" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
@@ -7916,7 +7918,7 @@
       </c>
       <c r="D154" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7926,20 +7928,20 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1VG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1VG_Weekly Sales.pdf</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1VG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1VG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K154" t="s">
         <v>192</v>
       </c>
       <c r="L154" t="s">
+        <v>492</v>
+      </c>
+      <c r="M154" t="s">
         <v>493</v>
-      </c>
-      <c r="M154" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
@@ -7951,7 +7953,7 @@
       </c>
       <c r="D155" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7961,20 +7963,20 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1VJ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1VJ_Weekly Sales.pdf</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1VJ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1VJ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K155" t="s">
         <v>192</v>
       </c>
       <c r="L155" t="s">
+        <v>494</v>
+      </c>
+      <c r="M155" t="s">
         <v>495</v>
-      </c>
-      <c r="M155" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
@@ -7986,7 +7988,7 @@
       </c>
       <c r="D156" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -7996,20 +7998,20 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1MI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1MI_Weekly Sales.pdf</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1MI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1MI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K156" t="s">
         <v>192</v>
       </c>
       <c r="L156" t="s">
+        <v>496</v>
+      </c>
+      <c r="M156" t="s">
         <v>497</v>
-      </c>
-      <c r="M156" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
@@ -8021,7 +8023,7 @@
       </c>
       <c r="D157" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -8031,20 +8033,20 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1XD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1XD_Weekly Sales.pdf</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1XD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1XD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K157" t="s">
         <v>192</v>
       </c>
       <c r="L157" t="s">
+        <v>498</v>
+      </c>
+      <c r="M157" t="s">
         <v>499</v>
-      </c>
-      <c r="M157" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
@@ -8056,7 +8058,7 @@
       </c>
       <c r="D158" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -8066,20 +8068,20 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1XB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1XB_Weekly Sales.pdf</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1XB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1XB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K158" t="s">
         <v>192</v>
       </c>
       <c r="L158" t="s">
+        <v>500</v>
+      </c>
+      <c r="M158" t="s">
         <v>501</v>
-      </c>
-      <c r="M158" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
@@ -8091,7 +8093,7 @@
       </c>
       <c r="D159" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -8101,20 +8103,20 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1WT_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1WT_Weekly Sales.pdf</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1WT_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1WT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K159" t="s">
         <v>192</v>
       </c>
       <c r="L159" t="s">
+        <v>502</v>
+      </c>
+      <c r="M159" t="s">
         <v>503</v>
-      </c>
-      <c r="M159" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
@@ -8126,7 +8128,7 @@
       </c>
       <c r="D160" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -8136,20 +8138,20 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1XA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1XA_Weekly Sales.pdf</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1XA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1XA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K160" t="s">
         <v>192</v>
       </c>
       <c r="L160" t="s">
+        <v>504</v>
+      </c>
+      <c r="M160" t="s">
         <v>505</v>
-      </c>
-      <c r="M160" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
@@ -8161,7 +8163,7 @@
       </c>
       <c r="D161" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -8171,20 +8173,20 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1RB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1RB_Weekly Sales.pdf</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1RB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1RB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K161" t="s">
         <v>192</v>
       </c>
       <c r="L161" t="s">
+        <v>506</v>
+      </c>
+      <c r="M161" t="s">
         <v>507</v>
-      </c>
-      <c r="M161" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
@@ -8196,7 +8198,7 @@
       </c>
       <c r="D162" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -8206,20 +8208,20 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2KF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2KF_Weekly Sales.pdf</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2KF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2KF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K162" t="s">
         <v>192</v>
       </c>
       <c r="L162" t="s">
+        <v>508</v>
+      </c>
+      <c r="M162" t="s">
         <v>509</v>
-      </c>
-      <c r="M162" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
@@ -8231,7 +8233,7 @@
       </c>
       <c r="D163" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -8241,20 +8243,20 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ148_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ148_Weekly Sales.pdf</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ148_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ148_Focus_Feedback.xlsx</v>
       </c>
       <c r="K163" t="s">
         <v>192</v>
       </c>
       <c r="L163" t="s">
+        <v>510</v>
+      </c>
+      <c r="M163" t="s">
         <v>511</v>
-      </c>
-      <c r="M163" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
@@ -8266,7 +8268,7 @@
       </c>
       <c r="D164" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -8276,20 +8278,20 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ8GM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ8GM_Weekly Sales.pdf</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ8GM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ8GM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K164" t="s">
         <v>192</v>
       </c>
       <c r="L164" t="s">
+        <v>512</v>
+      </c>
+      <c r="M164" t="s">
         <v>513</v>
-      </c>
-      <c r="M164" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
@@ -8301,7 +8303,7 @@
       </c>
       <c r="D165" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -8311,20 +8313,20 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1BH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1BH_Weekly Sales.pdf</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1BH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1BH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K165" t="s">
         <v>192</v>
       </c>
       <c r="L165" t="s">
+        <v>514</v>
+      </c>
+      <c r="M165" t="s">
         <v>515</v>
-      </c>
-      <c r="M165" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
@@ -8336,7 +8338,7 @@
       </c>
       <c r="D166" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -8346,20 +8348,20 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ114_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ114_Weekly Sales.pdf</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ114_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ114_Focus_Feedback.xlsx</v>
       </c>
       <c r="K166" t="s">
         <v>192</v>
       </c>
       <c r="L166" t="s">
+        <v>516</v>
+      </c>
+      <c r="M166" t="s">
         <v>517</v>
-      </c>
-      <c r="M166" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
@@ -8371,7 +8373,7 @@
       </c>
       <c r="D167" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -8381,20 +8383,20 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1A6_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1A6_Weekly Sales.pdf</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1A6_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1A6_Focus_Feedback.xlsx</v>
       </c>
       <c r="K167" t="s">
         <v>192</v>
       </c>
       <c r="L167" t="s">
+        <v>518</v>
+      </c>
+      <c r="M167" t="s">
         <v>519</v>
-      </c>
-      <c r="M167" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
@@ -8406,7 +8408,7 @@
       </c>
       <c r="D168" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -8416,20 +8418,20 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ139_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ139_Weekly Sales.pdf</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ139_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ139_Focus_Feedback.xlsx</v>
       </c>
       <c r="K168" t="s">
         <v>192</v>
       </c>
       <c r="L168" t="s">
+        <v>520</v>
+      </c>
+      <c r="M168" t="s">
         <v>521</v>
-      </c>
-      <c r="M168" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
@@ -8441,7 +8443,7 @@
       </c>
       <c r="D169" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -8451,20 +8453,20 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1VL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1VL_Weekly Sales.pdf</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1VL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1VL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K169" t="s">
         <v>192</v>
       </c>
       <c r="L169" t="s">
+        <v>522</v>
+      </c>
+      <c r="M169" t="s">
         <v>523</v>
-      </c>
-      <c r="M169" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
@@ -8476,7 +8478,7 @@
       </c>
       <c r="D170" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -8486,20 +8488,20 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1VK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1VK_Weekly Sales.pdf</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1VK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1VK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K170" t="s">
         <v>192</v>
       </c>
       <c r="L170" t="s">
+        <v>524</v>
+      </c>
+      <c r="M170" t="s">
         <v>525</v>
-      </c>
-      <c r="M170" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="171" spans="2:13" x14ac:dyDescent="0.25">
@@ -8511,7 +8513,7 @@
       </c>
       <c r="D171" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -8521,20 +8523,20 @@
       </c>
       <c r="G171" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1LR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1LR_Weekly Sales.pdf</v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1LR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1LR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K171" t="s">
         <v>192</v>
       </c>
       <c r="L171" t="s">
+        <v>526</v>
+      </c>
+      <c r="M171" t="s">
         <v>527</v>
-      </c>
-      <c r="M171" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.25">
@@ -8546,7 +8548,7 @@
       </c>
       <c r="D172" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8556,20 +8558,20 @@
       </c>
       <c r="G172" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UV_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UV_Weekly Sales.pdf</v>
       </c>
       <c r="H172" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UV_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K172" t="s">
         <v>192</v>
       </c>
       <c r="L172" t="s">
+        <v>528</v>
+      </c>
+      <c r="M172" t="s">
         <v>529</v>
-      </c>
-      <c r="M172" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.25">
@@ -8581,7 +8583,7 @@
       </c>
       <c r="D173" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -8591,20 +8593,20 @@
       </c>
       <c r="G173" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1WV_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1WV_Weekly Sales.pdf</v>
       </c>
       <c r="H173" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1WV_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1WV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K173" t="s">
         <v>192</v>
       </c>
       <c r="L173" t="s">
+        <v>530</v>
+      </c>
+      <c r="M173" t="s">
         <v>531</v>
-      </c>
-      <c r="M173" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="174" spans="2:13" x14ac:dyDescent="0.25">
@@ -8616,7 +8618,7 @@
       </c>
       <c r="D174" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -8626,20 +8628,20 @@
       </c>
       <c r="G174" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ4KC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ4KC_Weekly Sales.pdf</v>
       </c>
       <c r="H174" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ4KC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ4KC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K174" t="s">
         <v>192</v>
       </c>
       <c r="L174" t="s">
+        <v>532</v>
+      </c>
+      <c r="M174" t="s">
         <v>533</v>
-      </c>
-      <c r="M174" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
@@ -8651,7 +8653,7 @@
       </c>
       <c r="D175" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -8661,20 +8663,20 @@
       </c>
       <c r="G175" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UO_Weekly Sales.pdf</v>
       </c>
       <c r="H175" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K175" t="s">
         <v>192</v>
       </c>
       <c r="L175" t="s">
+        <v>534</v>
+      </c>
+      <c r="M175" t="s">
         <v>535</v>
-      </c>
-      <c r="M175" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
@@ -8686,7 +8688,7 @@
       </c>
       <c r="D176" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -8696,20 +8698,20 @@
       </c>
       <c r="G176" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1XC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1XC_Weekly Sales.pdf</v>
       </c>
       <c r="H176" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1XC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1XC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K176" t="s">
         <v>192</v>
       </c>
       <c r="L176" t="s">
+        <v>536</v>
+      </c>
+      <c r="M176" t="s">
         <v>537</v>
-      </c>
-      <c r="M176" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
@@ -8721,7 +8723,7 @@
       </c>
       <c r="D177" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -8731,20 +8733,20 @@
       </c>
       <c r="G177" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1YN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1YN_Weekly Sales.pdf</v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1YN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1YN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K177" t="s">
         <v>192</v>
       </c>
       <c r="L177" t="s">
+        <v>538</v>
+      </c>
+      <c r="M177" t="s">
         <v>539</v>
-      </c>
-      <c r="M177" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
@@ -8756,7 +8758,7 @@
       </c>
       <c r="D178" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8766,20 +8768,20 @@
       </c>
       <c r="G178" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UI_Weekly Sales.pdf</v>
       </c>
       <c r="H178" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K178" t="s">
         <v>192</v>
       </c>
       <c r="L178" t="s">
+        <v>540</v>
+      </c>
+      <c r="M178" t="s">
         <v>541</v>
-      </c>
-      <c r="M178" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="179" spans="2:13" x14ac:dyDescent="0.25">
@@ -8791,7 +8793,7 @@
       </c>
       <c r="D179" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -8801,20 +8803,20 @@
       </c>
       <c r="G179" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UU_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UU_Weekly Sales.pdf</v>
       </c>
       <c r="H179" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UU_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UU_Focus_Feedback.xlsx</v>
       </c>
       <c r="K179" t="s">
         <v>192</v>
       </c>
       <c r="L179" t="s">
+        <v>542</v>
+      </c>
+      <c r="M179" t="s">
         <v>543</v>
-      </c>
-      <c r="M179" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
@@ -8826,7 +8828,7 @@
       </c>
       <c r="D180" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -8836,20 +8838,20 @@
       </c>
       <c r="G180" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UW_Weekly Sales.pdf</v>
       </c>
       <c r="H180" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K180" t="s">
         <v>192</v>
       </c>
       <c r="L180" t="s">
+        <v>544</v>
+      </c>
+      <c r="M180" t="s">
         <v>545</v>
-      </c>
-      <c r="M180" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
@@ -8861,7 +8863,7 @@
       </c>
       <c r="D181" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -8871,20 +8873,20 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1VC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1VC_Weekly Sales.pdf</v>
       </c>
       <c r="H181" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1VC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1VC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K181" t="s">
         <v>192</v>
       </c>
       <c r="L181" t="s">
+        <v>546</v>
+      </c>
+      <c r="M181" t="s">
         <v>547</v>
-      </c>
-      <c r="M181" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
@@ -8896,7 +8898,7 @@
       </c>
       <c r="D182" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -8906,20 +8908,20 @@
       </c>
       <c r="G182" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UX_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UX_Weekly Sales.pdf</v>
       </c>
       <c r="H182" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UX_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UX_Focus_Feedback.xlsx</v>
       </c>
       <c r="K182" t="s">
         <v>192</v>
       </c>
       <c r="L182" t="s">
+        <v>548</v>
+      </c>
+      <c r="M182" t="s">
         <v>549</v>
-      </c>
-      <c r="M182" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
@@ -8931,7 +8933,7 @@
       </c>
       <c r="D183" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -8941,20 +8943,20 @@
       </c>
       <c r="G183" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UZ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UZ_Weekly Sales.pdf</v>
       </c>
       <c r="H183" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UZ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UZ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K183" t="s">
         <v>192</v>
       </c>
       <c r="L183" t="s">
+        <v>550</v>
+      </c>
+      <c r="M183" t="s">
         <v>551</v>
-      </c>
-      <c r="M183" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="184" spans="2:13" x14ac:dyDescent="0.25">
@@ -8966,7 +8968,7 @@
       </c>
       <c r="D184" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -8976,20 +8978,20 @@
       </c>
       <c r="G184" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1CM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1CM_Weekly Sales.pdf</v>
       </c>
       <c r="H184" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1CM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1CM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K184" t="s">
         <v>192</v>
       </c>
       <c r="L184" t="s">
+        <v>552</v>
+      </c>
+      <c r="M184" t="s">
         <v>553</v>
-      </c>
-      <c r="M184" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="185" spans="2:13" x14ac:dyDescent="0.25">
@@ -9001,7 +9003,7 @@
       </c>
       <c r="D185" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -9011,20 +9013,20 @@
       </c>
       <c r="G185" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1JI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1JI_Weekly Sales.pdf</v>
       </c>
       <c r="H185" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1JI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1JI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K185" t="s">
         <v>192</v>
       </c>
       <c r="L185" t="s">
+        <v>554</v>
+      </c>
+      <c r="M185" t="s">
         <v>555</v>
-      </c>
-      <c r="M185" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="186" spans="2:13" x14ac:dyDescent="0.25">
@@ -9036,7 +9038,7 @@
       </c>
       <c r="D186" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -9046,20 +9048,20 @@
       </c>
       <c r="G186" t="str">
         <f t="shared" ref="G186" si="9">K186&amp;"\"&amp;L186</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZJI2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZJI2_Weekly Sales.pdf</v>
       </c>
       <c r="H186" t="str">
         <f t="shared" ref="H186" si="10">K186&amp;"\"&amp;M186</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZJI2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZJI2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K186" t="s">
         <v>192</v>
       </c>
       <c r="L186" t="s">
+        <v>556</v>
+      </c>
+      <c r="M186" t="s">
         <v>557</v>
-      </c>
-      <c r="M186" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="187" spans="2:13" x14ac:dyDescent="0.25">
@@ -9071,7 +9073,7 @@
       </c>
       <c r="D187" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -9081,20 +9083,20 @@
       </c>
       <c r="G187" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2MS_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2MS_Weekly Sales.pdf</v>
       </c>
       <c r="H187" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2MS_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2MS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K187" t="s">
         <v>192</v>
       </c>
       <c r="L187" t="s">
+        <v>558</v>
+      </c>
+      <c r="M187" t="s">
         <v>559</v>
-      </c>
-      <c r="M187" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="188" spans="2:13" x14ac:dyDescent="0.25">
@@ -9106,7 +9108,7 @@
       </c>
       <c r="D188" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -9116,20 +9118,20 @@
       </c>
       <c r="G188" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ3JB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ3JB_Weekly Sales.pdf</v>
       </c>
       <c r="H188" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ3JB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ3JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K188" t="s">
         <v>192</v>
       </c>
       <c r="L188" t="s">
+        <v>560</v>
+      </c>
+      <c r="M188" t="s">
         <v>561</v>
-      </c>
-      <c r="M188" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
@@ -9141,7 +9143,7 @@
       </c>
       <c r="D189" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -9151,20 +9153,20 @@
       </c>
       <c r="G189" t="str">
         <f t="shared" ref="G189:G190" si="11">K189&amp;"\"&amp;L189</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2JN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2JN_Weekly Sales.pdf</v>
       </c>
       <c r="H189" t="str">
         <f t="shared" ref="H189:H190" si="12">K189&amp;"\"&amp;M189</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ2JN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ2JN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K189" t="s">
         <v>192</v>
       </c>
       <c r="L189" t="s">
+        <v>562</v>
+      </c>
+      <c r="M189" t="s">
         <v>563</v>
-      </c>
-      <c r="M189" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
@@ -9176,7 +9178,7 @@
       </c>
       <c r="D190" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -9186,20 +9188,20 @@
       </c>
       <c r="G190" t="str">
         <f t="shared" si="11"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1RD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1RD_Weekly Sales.pdf</v>
       </c>
       <c r="H190" t="str">
         <f t="shared" si="12"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1RD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1RD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K190" t="s">
         <v>192</v>
       </c>
       <c r="L190" t="s">
+        <v>564</v>
+      </c>
+      <c r="M190" t="s">
         <v>565</v>
-      </c>
-      <c r="M190" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
@@ -9211,7 +9213,7 @@
       </c>
       <c r="D191" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -9221,20 +9223,20 @@
       </c>
       <c r="G191" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ7DO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ7DO_Weekly Sales.pdf</v>
       </c>
       <c r="H191" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ7DO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ7DO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K191" t="s">
         <v>192</v>
       </c>
       <c r="L191" t="s">
+        <v>288</v>
+      </c>
+      <c r="M191" t="s">
         <v>289</v>
-      </c>
-      <c r="M191" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
@@ -9246,7 +9248,7 @@
       </c>
       <c r="D192" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -9256,20 +9258,20 @@
       </c>
       <c r="G192" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H192" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K192" t="s">
         <v>192</v>
       </c>
       <c r="L192" t="s">
+        <v>374</v>
+      </c>
+      <c r="M192" t="s">
         <v>375</v>
-      </c>
-      <c r="M192" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="193" spans="2:13" x14ac:dyDescent="0.25">
@@ -9281,7 +9283,7 @@
       </c>
       <c r="D193" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -9291,20 +9293,20 @@
       </c>
       <c r="G193" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ2CR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ2CR_Weekly Sales.pdf</v>
       </c>
       <c r="H193" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ2CR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ2CR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K193" t="s">
         <v>192</v>
       </c>
       <c r="L193" t="s">
+        <v>380</v>
+      </c>
+      <c r="M193" t="s">
         <v>381</v>
-      </c>
-      <c r="M193" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
@@ -9316,7 +9318,7 @@
       </c>
       <c r="D194" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -9326,20 +9328,20 @@
       </c>
       <c r="G194" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1CA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1CA_Weekly Sales.pdf</v>
       </c>
       <c r="H194" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1CA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1CA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K194" t="s">
         <v>192</v>
       </c>
       <c r="L194" t="s">
+        <v>392</v>
+      </c>
+      <c r="M194" t="s">
         <v>393</v>
-      </c>
-      <c r="M194" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
@@ -9351,7 +9353,7 @@
       </c>
       <c r="D195" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -9361,20 +9363,20 @@
       </c>
       <c r="G195" t="str">
         <f t="shared" ref="G195:G203" si="13">K195&amp;"\"&amp;L195</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1AL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1AL_Weekly Sales.pdf</v>
       </c>
       <c r="H195" t="str">
         <f t="shared" ref="H195:H203" si="14">K195&amp;"\"&amp;M195</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ1AL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ1AL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K195" t="s">
         <v>192</v>
       </c>
       <c r="L195" t="s">
+        <v>406</v>
+      </c>
+      <c r="M195" t="s">
         <v>407</v>
-      </c>
-      <c r="M195" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="196" spans="2:13" x14ac:dyDescent="0.25">
@@ -9386,7 +9388,7 @@
       </c>
       <c r="D196" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -9396,20 +9398,20 @@
       </c>
       <c r="G196" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1GF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1GF_Weekly Sales.pdf</v>
       </c>
       <c r="H196" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1GF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1GF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K196" t="s">
         <v>192</v>
       </c>
       <c r="L196" t="s">
+        <v>416</v>
+      </c>
+      <c r="M196" t="s">
         <v>417</v>
-      </c>
-      <c r="M196" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
@@ -9421,7 +9423,7 @@
       </c>
       <c r="D197" t="str">
         <f t="shared" ref="D197:D204" si="15">$D$2</f>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -9431,20 +9433,20 @@
       </c>
       <c r="G197" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1G2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1G2_Weekly Sales.pdf</v>
       </c>
       <c r="H197" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1G2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1G2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K197" t="s">
         <v>192</v>
       </c>
       <c r="L197" t="s">
+        <v>418</v>
+      </c>
+      <c r="M197" t="s">
         <v>419</v>
-      </c>
-      <c r="M197" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
@@ -9456,7 +9458,7 @@
       </c>
       <c r="D198" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -9466,20 +9468,20 @@
       </c>
       <c r="G198" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1MD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1MD_Weekly Sales.pdf</v>
       </c>
       <c r="H198" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1MD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1MD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K198" t="s">
         <v>192</v>
       </c>
       <c r="L198" t="s">
+        <v>438</v>
+      </c>
+      <c r="M198" t="s">
         <v>439</v>
-      </c>
-      <c r="M198" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
@@ -9491,7 +9493,7 @@
       </c>
       <c r="D199" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -9501,20 +9503,20 @@
       </c>
       <c r="G199" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1YE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1YE_Weekly Sales.pdf</v>
       </c>
       <c r="H199" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QZ1YE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QZ1YE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K199" t="s">
         <v>192</v>
       </c>
       <c r="L199" t="s">
+        <v>478</v>
+      </c>
+      <c r="M199" t="s">
         <v>479</v>
-      </c>
-      <c r="M199" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
@@ -9526,7 +9528,7 @@
       </c>
       <c r="D200" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -9536,20 +9538,20 @@
       </c>
       <c r="G200" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UE_Weekly Sales.pdf</v>
       </c>
       <c r="H200" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K200" t="s">
         <v>192</v>
       </c>
       <c r="L200" t="s">
+        <v>488</v>
+      </c>
+      <c r="M200" t="s">
         <v>489</v>
-      </c>
-      <c r="M200" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="201" spans="2:13" x14ac:dyDescent="0.25">
@@ -9561,7 +9563,7 @@
       </c>
       <c r="D201" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -9571,20 +9573,20 @@
       </c>
       <c r="G201" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ8GM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ8GM_Weekly Sales.pdf</v>
       </c>
       <c r="H201" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ8GM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ8GM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K201" t="s">
         <v>192</v>
       </c>
       <c r="L201" t="s">
+        <v>512</v>
+      </c>
+      <c r="M201" t="s">
         <v>513</v>
-      </c>
-      <c r="M201" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="202" spans="2:13" x14ac:dyDescent="0.25">
@@ -9596,7 +9598,7 @@
       </c>
       <c r="D202" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -9606,20 +9608,20 @@
       </c>
       <c r="G202" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UO_Weekly Sales.pdf</v>
       </c>
       <c r="H202" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1UO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1UO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K202" t="s">
         <v>192</v>
       </c>
       <c r="L202" t="s">
+        <v>534</v>
+      </c>
+      <c r="M202" t="s">
         <v>535</v>
-      </c>
-      <c r="M202" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="203" spans="2:13" x14ac:dyDescent="0.25">
@@ -9631,7 +9633,7 @@
       </c>
       <c r="D203" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -9641,20 +9643,20 @@
       </c>
       <c r="G203" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1YN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1YN_Weekly Sales.pdf</v>
       </c>
       <c r="H203" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CZ1YN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CZ1YN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K203" t="s">
         <v>192</v>
       </c>
       <c r="L203" t="s">
+        <v>538</v>
+      </c>
+      <c r="M203" t="s">
         <v>539</v>
-      </c>
-      <c r="M203" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="204" spans="2:13" x14ac:dyDescent="0.25">
@@ -9666,7 +9668,7 @@
       </c>
       <c r="D204" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 10 Nov 2017</v>
+        <v>Weekly FSC Sales as of 15 Dec 2017</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -9676,20 +9678,20 @@
       </c>
       <c r="G204" t="str">
         <f t="shared" ref="G204" si="16">K204&amp;"\"&amp;L204</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ8JP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ8JP_Weekly Sales.pdf</v>
       </c>
       <c r="H204" t="str">
         <f t="shared" ref="H204" si="17">K204&amp;"\"&amp;M204</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_WZ8JP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_WZ8JP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K204" t="s">
         <v>192</v>
       </c>
       <c r="L204" t="s">
+        <v>566</v>
+      </c>
+      <c r="M204" t="s">
         <v>567</v>
-      </c>
-      <c r="M204" t="s">
-        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
+++ b/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
@@ -1725,7 +1725,7 @@
     <t>201712_WZ8JP_Focus_Feedback.xlsx</t>
   </si>
   <si>
-    <t>Weekly FSC Sales as of 15 Dec 2017</t>
+    <t>Weekly FSC Sales as of 22 Dec 2017</t>
   </si>
 </sst>
 </file>
@@ -2536,7 +2536,7 @@
   <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D3" t="str">
         <f>$D$2</f>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D67" si="2">$D$2</f>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" ref="D68:D130" si="5">$D$2</f>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -5083,7 +5083,7 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5503,7 +5503,7 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5678,7 +5678,7 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -6028,7 +6028,7 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -6098,7 +6098,7 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="D103" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6168,7 +6168,7 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="D105" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="D107" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6308,7 +6308,7 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -6343,7 +6343,7 @@
       </c>
       <c r="D109" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="D110" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="D111" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="D112" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6483,7 +6483,7 @@
       </c>
       <c r="D113" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="D114" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="D115" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="D116" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="D117" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D118" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="D119" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="D120" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="D121" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="D122" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="D123" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="D124" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6903,7 +6903,7 @@
       </c>
       <c r="D125" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="D126" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="D127" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="D128" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="D129" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="D130" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="D131" t="str">
         <f t="shared" ref="D131:D196" si="8">$D$2</f>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="D132" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="D133" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="D134" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="D135" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="D136" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="D137" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7358,7 +7358,7 @@
       </c>
       <c r="D138" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7393,7 +7393,7 @@
       </c>
       <c r="D139" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -7428,7 +7428,7 @@
       </c>
       <c r="D140" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -7463,7 +7463,7 @@
       </c>
       <c r="D141" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="D142" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D143" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -7568,7 +7568,7 @@
       </c>
       <c r="D144" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="D145" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="D146" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -7673,7 +7673,7 @@
       </c>
       <c r="D147" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="D148" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="D149" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="D150" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="D151" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="D152" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7883,7 +7883,7 @@
       </c>
       <c r="D153" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="D154" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="D155" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="D156" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="D157" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="D158" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="D159" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="D160" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="D161" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="D162" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="D163" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="D164" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -8303,7 +8303,7 @@
       </c>
       <c r="D165" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="D166" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="D167" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -8408,7 +8408,7 @@
       </c>
       <c r="D168" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="D169" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -8478,7 +8478,7 @@
       </c>
       <c r="D170" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -8513,7 +8513,7 @@
       </c>
       <c r="D171" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="D172" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="D173" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="D174" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="D175" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="D176" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -8723,7 +8723,7 @@
       </c>
       <c r="D177" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="D178" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="D179" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="D180" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="D181" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -8898,7 +8898,7 @@
       </c>
       <c r="D182" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -8933,7 +8933,7 @@
       </c>
       <c r="D183" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -8968,7 +8968,7 @@
       </c>
       <c r="D184" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -9003,7 +9003,7 @@
       </c>
       <c r="D185" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="D186" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="D187" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -9108,7 +9108,7 @@
       </c>
       <c r="D188" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="D189" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="D190" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="D191" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -9248,7 +9248,7 @@
       </c>
       <c r="D192" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -9283,7 +9283,7 @@
       </c>
       <c r="D193" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="D194" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="D195" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -9388,7 +9388,7 @@
       </c>
       <c r="D196" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -9423,7 +9423,7 @@
       </c>
       <c r="D197" t="str">
         <f t="shared" ref="D197:D204" si="15">$D$2</f>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -9458,7 +9458,7 @@
       </c>
       <c r="D198" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="D199" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -9528,7 +9528,7 @@
       </c>
       <c r="D200" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -9563,7 +9563,7 @@
       </c>
       <c r="D201" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -9598,7 +9598,7 @@
       </c>
       <c r="D202" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="D203" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -9668,7 +9668,7 @@
       </c>
       <c r="D204" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 15 Dec 2017</v>
+        <v>Weekly FSC Sales as of 22 Dec 2017</v>
       </c>
       <c r="E204">
         <v>1</v>

--- a/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
+++ b/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
@@ -1725,7 +1725,7 @@
     <t>201712_WZ8JP_Focus_Feedback.xlsx</t>
   </si>
   <si>
-    <t>Weekly FSC Sales as of 22 Dec 2017</t>
+    <t>Weekly FSC Sales as of 29 Dec 2017</t>
   </si>
 </sst>
 </file>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D3" t="str">
         <f>$D$2</f>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D67" si="2">$D$2</f>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" ref="D68:D130" si="5">$D$2</f>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -5083,7 +5083,7 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5503,7 +5503,7 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5678,7 +5678,7 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -6028,7 +6028,7 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -6098,7 +6098,7 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="D103" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6168,7 +6168,7 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="D105" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="D107" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6308,7 +6308,7 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -6343,7 +6343,7 @@
       </c>
       <c r="D109" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="D110" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="D111" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="D112" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6483,7 +6483,7 @@
       </c>
       <c r="D113" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="D114" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="D115" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="D116" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="D117" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D118" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="D119" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="D120" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="D121" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="D122" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="D123" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="D124" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6903,7 +6903,7 @@
       </c>
       <c r="D125" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="D126" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="D127" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="D128" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="D129" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="D130" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="D131" t="str">
         <f t="shared" ref="D131:D196" si="8">$D$2</f>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="D132" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="D133" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="D134" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="D135" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="D136" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="D137" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7358,7 +7358,7 @@
       </c>
       <c r="D138" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7393,7 +7393,7 @@
       </c>
       <c r="D139" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -7428,7 +7428,7 @@
       </c>
       <c r="D140" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -7463,7 +7463,7 @@
       </c>
       <c r="D141" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="D142" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D143" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -7568,7 +7568,7 @@
       </c>
       <c r="D144" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="D145" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="D146" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -7673,7 +7673,7 @@
       </c>
       <c r="D147" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="D148" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="D149" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="D150" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="D151" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="D152" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7883,7 +7883,7 @@
       </c>
       <c r="D153" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="D154" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="D155" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="D156" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="D157" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="D158" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="D159" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="D160" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="D161" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="D162" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="D163" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="D164" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -8303,7 +8303,7 @@
       </c>
       <c r="D165" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="D166" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="D167" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -8408,7 +8408,7 @@
       </c>
       <c r="D168" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="D169" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -8478,7 +8478,7 @@
       </c>
       <c r="D170" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -8513,7 +8513,7 @@
       </c>
       <c r="D171" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="D172" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="D173" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="D174" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="D175" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="D176" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -8723,7 +8723,7 @@
       </c>
       <c r="D177" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="D178" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="D179" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="D180" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="D181" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -8898,7 +8898,7 @@
       </c>
       <c r="D182" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -8933,7 +8933,7 @@
       </c>
       <c r="D183" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -8968,7 +8968,7 @@
       </c>
       <c r="D184" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -9003,7 +9003,7 @@
       </c>
       <c r="D185" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="D186" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="D187" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -9108,7 +9108,7 @@
       </c>
       <c r="D188" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="D189" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="D190" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="D191" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -9248,7 +9248,7 @@
       </c>
       <c r="D192" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -9283,7 +9283,7 @@
       </c>
       <c r="D193" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="D194" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="D195" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -9388,7 +9388,7 @@
       </c>
       <c r="D196" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -9423,7 +9423,7 @@
       </c>
       <c r="D197" t="str">
         <f t="shared" ref="D197:D204" si="15">$D$2</f>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -9458,7 +9458,7 @@
       </c>
       <c r="D198" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="D199" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -9528,7 +9528,7 @@
       </c>
       <c r="D200" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -9563,7 +9563,7 @@
       </c>
       <c r="D201" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -9598,7 +9598,7 @@
       </c>
       <c r="D202" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="D203" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -9668,7 +9668,7 @@
       </c>
       <c r="D204" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 22 Dec 2017</v>
+        <v>Weekly FSC Sales as of 29 Dec 2017</v>
       </c>
       <c r="E204">
         <v>1</v>

--- a/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
+++ b/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
@@ -393,9 +393,6 @@
     <t>Melanie.Desjardins@henryschein.ca</t>
   </si>
   <si>
-    <t>Micki.Rombouts@henryschein.ca</t>
-  </si>
-  <si>
     <t>Janice.Bruce@henryschein.ca</t>
   </si>
   <si>
@@ -1314,12 +1311,6 @@
     <t>201801_QZ1MD_Focus_Feedback.xlsx</t>
   </si>
   <si>
-    <t>201801_CZ1RR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1RR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
     <t>201801_AZ1JB_Weekly Sales.pdf</t>
   </si>
   <si>
@@ -1698,7 +1689,16 @@
     <t>201801_WZ8JP_Focus_Feedback.xlsx</t>
   </si>
   <si>
-    <t>Weekly FSC Sales as of 26 Jan 2018</t>
+    <t>Donnalee.Gilbert@henryschein.ca</t>
+  </si>
+  <si>
+    <t>201801_CZ1DG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1DG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>Weekly FSC Sales as of 2 Feb 2018</t>
   </si>
 </sst>
 </file>
@@ -2551,7 +2551,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -2568,7 +2568,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
         <v>559</v>
@@ -2588,13 +2588,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1SD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" t="s">
         <v>191</v>
-      </c>
-      <c r="M2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2602,11 +2602,11 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D3" t="str">
         <f>$D$2</f>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2623,13 +2623,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1SD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M3" t="s">
         <v>191</v>
-      </c>
-      <c r="M3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2637,11 +2637,11 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D66" si="2">$D$2</f>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2658,13 +2658,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ125_Focus_Feedback.xlsx</v>
       </c>
       <c r="K4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M4" t="s">
         <v>193</v>
-      </c>
-      <c r="M4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2672,11 +2672,11 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2693,13 +2693,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ124_Focus_Feedback.xlsx</v>
       </c>
       <c r="K5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L5" t="s">
+        <v>194</v>
+      </c>
+      <c r="M5" t="s">
         <v>195</v>
-      </c>
-      <c r="M5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2707,11 +2707,11 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2728,13 +2728,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ132_Focus_Feedback.xlsx</v>
       </c>
       <c r="K6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L6" t="s">
+        <v>196</v>
+      </c>
+      <c r="M6" t="s">
         <v>197</v>
-      </c>
-      <c r="M6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2742,11 +2742,11 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2763,13 +2763,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ128_Focus_Feedback.xlsx</v>
       </c>
       <c r="K7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M7" t="s">
         <v>199</v>
-      </c>
-      <c r="M7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2777,11 +2777,11 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2798,13 +2798,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ144_Focus_Feedback.xlsx</v>
       </c>
       <c r="K8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M8" t="s">
         <v>201</v>
-      </c>
-      <c r="M8" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2812,11 +2812,11 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2833,13 +2833,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ165_Focus_Feedback.xlsx</v>
       </c>
       <c r="K9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L9" t="s">
+        <v>202</v>
+      </c>
+      <c r="M9" t="s">
         <v>203</v>
-      </c>
-      <c r="M9" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2847,11 +2847,11 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2868,13 +2868,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ177_Focus_Feedback.xlsx</v>
       </c>
       <c r="K10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L10" t="s">
+        <v>204</v>
+      </c>
+      <c r="M10" t="s">
         <v>205</v>
-      </c>
-      <c r="M10" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2882,11 +2882,11 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2903,13 +2903,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ178_Focus_Feedback.xlsx</v>
       </c>
       <c r="K11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L11" t="s">
+        <v>206</v>
+      </c>
+      <c r="M11" t="s">
         <v>207</v>
-      </c>
-      <c r="M11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2917,11 +2917,11 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2938,13 +2938,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ183_Focus_Feedback.xlsx</v>
       </c>
       <c r="K12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L12" t="s">
+        <v>208</v>
+      </c>
+      <c r="M12" t="s">
         <v>209</v>
-      </c>
-      <c r="M12" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2952,11 +2952,11 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2973,13 +2973,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ107_Focus_Feedback.xlsx</v>
       </c>
       <c r="K13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L13" t="s">
+        <v>210</v>
+      </c>
+      <c r="M13" t="s">
         <v>211</v>
-      </c>
-      <c r="M13" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2987,11 +2987,11 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3008,13 +3008,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ109_Focus_Feedback.xlsx</v>
       </c>
       <c r="K14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L14" t="s">
+        <v>212</v>
+      </c>
+      <c r="M14" t="s">
         <v>213</v>
-      </c>
-      <c r="M14" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3022,11 +3022,11 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3043,13 +3043,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ112_Focus_Feedback.xlsx</v>
       </c>
       <c r="K15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L15" t="s">
+        <v>214</v>
+      </c>
+      <c r="M15" t="s">
         <v>215</v>
-      </c>
-      <c r="M15" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3057,11 +3057,11 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3078,13 +3078,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1CP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s">
+        <v>216</v>
+      </c>
+      <c r="M16" t="s">
         <v>217</v>
-      </c>
-      <c r="M16" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -3092,11 +3092,11 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3113,13 +3113,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ154_Focus_Feedback.xlsx</v>
       </c>
       <c r="K17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s">
+        <v>218</v>
+      </c>
+      <c r="M17" t="s">
         <v>219</v>
-      </c>
-      <c r="M17" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -3127,11 +3127,11 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3148,13 +3148,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1KD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s">
+        <v>220</v>
+      </c>
+      <c r="M18" t="s">
         <v>221</v>
-      </c>
-      <c r="M18" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -3162,11 +3162,11 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3183,13 +3183,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1CF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s">
+        <v>222</v>
+      </c>
+      <c r="M19" t="s">
         <v>223</v>
-      </c>
-      <c r="M19" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -3197,11 +3197,11 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3218,13 +3218,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1EM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
+        <v>224</v>
+      </c>
+      <c r="M20" t="s">
         <v>225</v>
-      </c>
-      <c r="M20" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -3232,11 +3232,11 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3253,13 +3253,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1DP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s">
+        <v>226</v>
+      </c>
+      <c r="M21" t="s">
         <v>227</v>
-      </c>
-      <c r="M21" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -3267,11 +3267,11 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3288,13 +3288,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1DA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s">
+        <v>228</v>
+      </c>
+      <c r="M22" t="s">
         <v>229</v>
-      </c>
-      <c r="M22" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -3302,11 +3302,11 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3323,13 +3323,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1LM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" t="s">
         <v>231</v>
-      </c>
-      <c r="M23" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -3337,11 +3337,11 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3358,13 +3358,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1EE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L24" t="s">
+        <v>232</v>
+      </c>
+      <c r="M24" t="s">
         <v>233</v>
-      </c>
-      <c r="M24" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -3372,11 +3372,11 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3393,13 +3393,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1E2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s">
+        <v>234</v>
+      </c>
+      <c r="M25" t="s">
         <v>235</v>
-      </c>
-      <c r="M25" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -3407,11 +3407,11 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3428,13 +3428,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1EK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s">
+        <v>236</v>
+      </c>
+      <c r="M26" t="s">
         <v>237</v>
-      </c>
-      <c r="M26" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -3442,11 +3442,11 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3463,13 +3463,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1FB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="s">
         <v>239</v>
-      </c>
-      <c r="M27" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -3477,11 +3477,11 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3498,13 +3498,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1FP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s">
+        <v>240</v>
+      </c>
+      <c r="M28" t="s">
         <v>241</v>
-      </c>
-      <c r="M28" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -3512,11 +3512,11 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3533,13 +3533,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1FT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L29" t="s">
+        <v>242</v>
+      </c>
+      <c r="M29" t="s">
         <v>243</v>
-      </c>
-      <c r="M29" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -3547,11 +3547,11 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3568,13 +3568,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1FR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L30" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" t="s">
         <v>245</v>
-      </c>
-      <c r="M30" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -3582,11 +3582,11 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3603,13 +3603,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1GO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L31" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" t="s">
         <v>247</v>
-      </c>
-      <c r="M31" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -3617,11 +3617,11 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3638,13 +3638,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1KL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L32" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" t="s">
         <v>249</v>
-      </c>
-      <c r="M32" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -3652,11 +3652,11 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3673,13 +3673,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1KK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L33" t="s">
+        <v>250</v>
+      </c>
+      <c r="M33" t="s">
         <v>251</v>
-      </c>
-      <c r="M33" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -3687,11 +3687,11 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3708,13 +3708,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1DN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L34" t="s">
+        <v>252</v>
+      </c>
+      <c r="M34" t="s">
         <v>253</v>
-      </c>
-      <c r="M34" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -3722,11 +3722,11 @@
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3743,13 +3743,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1EO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L35" t="s">
+        <v>254</v>
+      </c>
+      <c r="M35" t="s">
         <v>255</v>
-      </c>
-      <c r="M35" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -3757,11 +3757,11 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3778,13 +3778,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1CB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s">
+        <v>256</v>
+      </c>
+      <c r="M36" t="s">
         <v>257</v>
-      </c>
-      <c r="M36" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -3792,11 +3792,11 @@
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3813,13 +3813,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1B8_Focus_Feedback.xlsx</v>
       </c>
       <c r="K37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s">
+        <v>258</v>
+      </c>
+      <c r="M37" t="s">
         <v>259</v>
-      </c>
-      <c r="M37" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -3827,11 +3827,11 @@
         <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3848,13 +3848,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1C4_Focus_Feedback.xlsx</v>
       </c>
       <c r="K38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L38" t="s">
+        <v>260</v>
+      </c>
+      <c r="M38" t="s">
         <v>261</v>
-      </c>
-      <c r="M38" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -3862,11 +3862,11 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3883,13 +3883,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1D8_Focus_Feedback.xlsx</v>
       </c>
       <c r="K39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s">
+        <v>262</v>
+      </c>
+      <c r="M39" t="s">
         <v>263</v>
-      </c>
-      <c r="M39" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -3897,11 +3897,11 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3918,13 +3918,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1SW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L40" t="s">
+        <v>264</v>
+      </c>
+      <c r="M40" t="s">
         <v>265</v>
-      </c>
-      <c r="M40" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3932,11 +3932,11 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3953,13 +3953,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1AP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L41" t="s">
+        <v>266</v>
+      </c>
+      <c r="M41" t="s">
         <v>267</v>
-      </c>
-      <c r="M41" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -3967,11 +3967,11 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3988,13 +3988,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2CB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L42" t="s">
+        <v>268</v>
+      </c>
+      <c r="M42" t="s">
         <v>269</v>
-      </c>
-      <c r="M42" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -4002,11 +4002,11 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4023,13 +4023,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1CG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L43" t="s">
+        <v>270</v>
+      </c>
+      <c r="M43" t="s">
         <v>271</v>
-      </c>
-      <c r="M43" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -4037,11 +4037,11 @@
         <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4058,13 +4058,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1PV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L44" t="s">
+        <v>272</v>
+      </c>
+      <c r="M44" t="s">
         <v>273</v>
-      </c>
-      <c r="M44" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -4072,11 +4072,11 @@
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4093,13 +4093,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ3CB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L45" t="s">
+        <v>274</v>
+      </c>
+      <c r="M45" t="s">
         <v>275</v>
-      </c>
-      <c r="M45" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -4107,11 +4107,11 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -4128,13 +4128,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ5CS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L46" t="s">
+        <v>276</v>
+      </c>
+      <c r="M46" t="s">
         <v>277</v>
-      </c>
-      <c r="M46" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -4142,11 +4142,11 @@
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4163,13 +4163,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ8JA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L47" t="s">
+        <v>278</v>
+      </c>
+      <c r="M47" t="s">
         <v>279</v>
-      </c>
-      <c r="M47" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -4177,11 +4177,11 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4198,13 +4198,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ7JM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L48" t="s">
+        <v>280</v>
+      </c>
+      <c r="M48" t="s">
         <v>281</v>
-      </c>
-      <c r="M48" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -4212,11 +4212,11 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4233,13 +4233,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ7DO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L49" t="s">
+        <v>282</v>
+      </c>
+      <c r="M49" t="s">
         <v>283</v>
-      </c>
-      <c r="M49" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -4247,11 +4247,11 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -4268,13 +4268,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ5TA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L50" t="s">
+        <v>284</v>
+      </c>
+      <c r="M50" t="s">
         <v>285</v>
-      </c>
-      <c r="M50" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -4282,11 +4282,11 @@
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -4303,13 +4303,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2LB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L51" t="s">
+        <v>286</v>
+      </c>
+      <c r="M51" t="s">
         <v>287</v>
-      </c>
-      <c r="M51" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -4317,11 +4317,11 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -4338,13 +4338,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2GB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L52" t="s">
+        <v>288</v>
+      </c>
+      <c r="M52" t="s">
         <v>289</v>
-      </c>
-      <c r="M52" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -4352,11 +4352,11 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -4373,13 +4373,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2LH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L53" t="s">
+        <v>290</v>
+      </c>
+      <c r="M53" t="s">
         <v>291</v>
-      </c>
-      <c r="M53" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -4387,11 +4387,11 @@
         <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -4408,13 +4408,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2NM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L54" t="s">
+        <v>292</v>
+      </c>
+      <c r="M54" t="s">
         <v>293</v>
-      </c>
-      <c r="M54" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
@@ -4422,11 +4422,11 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -4443,13 +4443,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ2SB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L55" t="s">
+        <v>294</v>
+      </c>
+      <c r="M55" t="s">
         <v>295</v>
-      </c>
-      <c r="M55" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
@@ -4457,11 +4457,11 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4478,13 +4478,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2BG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L56" t="s">
+        <v>296</v>
+      </c>
+      <c r="M56" t="s">
         <v>297</v>
-      </c>
-      <c r="M56" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
@@ -4492,11 +4492,11 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4513,13 +4513,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1SA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L57" t="s">
+        <v>298</v>
+      </c>
+      <c r="M57" t="s">
         <v>299</v>
-      </c>
-      <c r="M57" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -4527,11 +4527,11 @@
         <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4548,13 +4548,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1FA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L58" t="s">
+        <v>300</v>
+      </c>
+      <c r="M58" t="s">
         <v>301</v>
-      </c>
-      <c r="M58" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
@@ -4562,11 +4562,11 @@
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4583,13 +4583,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ115_Focus_Feedback.xlsx</v>
       </c>
       <c r="K59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L59" t="s">
+        <v>302</v>
+      </c>
+      <c r="M59" t="s">
         <v>303</v>
-      </c>
-      <c r="M59" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
@@ -4597,11 +4597,11 @@
         <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4618,13 +4618,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ120_Focus_Feedback.xlsx</v>
       </c>
       <c r="K60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L60" t="s">
+        <v>304</v>
+      </c>
+      <c r="M60" t="s">
         <v>305</v>
-      </c>
-      <c r="M60" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
@@ -4632,11 +4632,11 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4653,13 +4653,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ118_Focus_Feedback.xlsx</v>
       </c>
       <c r="K61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L61" t="s">
+        <v>306</v>
+      </c>
+      <c r="M61" t="s">
         <v>307</v>
-      </c>
-      <c r="M61" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
@@ -4667,11 +4667,11 @@
         <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4688,13 +4688,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ119_Focus_Feedback.xlsx</v>
       </c>
       <c r="K62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L62" t="s">
+        <v>308</v>
+      </c>
+      <c r="M62" t="s">
         <v>309</v>
-      </c>
-      <c r="M62" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
@@ -4702,11 +4702,11 @@
         <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4723,13 +4723,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ138_Focus_Feedback.xlsx</v>
       </c>
       <c r="K63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L63" t="s">
+        <v>310</v>
+      </c>
+      <c r="M63" t="s">
         <v>311</v>
-      </c>
-      <c r="M63" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -4737,11 +4737,11 @@
         <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4758,13 +4758,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ142_Focus_Feedback.xlsx</v>
       </c>
       <c r="K64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L64" t="s">
+        <v>312</v>
+      </c>
+      <c r="M64" t="s">
         <v>313</v>
-      </c>
-      <c r="M64" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
@@ -4772,11 +4772,11 @@
         <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4793,13 +4793,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ134_Focus_Feedback.xlsx</v>
       </c>
       <c r="K65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L65" t="s">
+        <v>314</v>
+      </c>
+      <c r="M65" t="s">
         <v>315</v>
-      </c>
-      <c r="M65" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
@@ -4807,11 +4807,11 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4828,13 +4828,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ123_Focus_Feedback.xlsx</v>
       </c>
       <c r="K66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L66" t="s">
+        <v>316</v>
+      </c>
+      <c r="M66" t="s">
         <v>317</v>
-      </c>
-      <c r="M66" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -4842,11 +4842,11 @@
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D127" si="5">$D$2</f>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <f t="shared" ref="D67:D126" si="5">$D$2</f>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4863,13 +4863,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ136_Focus_Feedback.xlsx</v>
       </c>
       <c r="K67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L67" t="s">
+        <v>318</v>
+      </c>
+      <c r="M67" t="s">
         <v>319</v>
-      </c>
-      <c r="M67" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
@@ -4877,11 +4877,11 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4898,13 +4898,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ165_Focus_Feedback.xlsx</v>
       </c>
       <c r="K68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L68" t="s">
+        <v>320</v>
+      </c>
+      <c r="M68" t="s">
         <v>321</v>
-      </c>
-      <c r="M68" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
@@ -4912,11 +4912,11 @@
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4933,13 +4933,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1FF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L69" t="s">
+        <v>322</v>
+      </c>
+      <c r="M69" t="s">
         <v>323</v>
-      </c>
-      <c r="M69" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
@@ -4947,11 +4947,11 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4968,13 +4968,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ167_Focus_Feedback.xlsx</v>
       </c>
       <c r="K70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L70" t="s">
+        <v>324</v>
+      </c>
+      <c r="M70" t="s">
         <v>325</v>
-      </c>
-      <c r="M70" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -4982,11 +4982,11 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -5003,13 +5003,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ175_Focus_Feedback.xlsx</v>
       </c>
       <c r="K71" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L71" t="s">
+        <v>326</v>
+      </c>
+      <c r="M71" t="s">
         <v>327</v>
-      </c>
-      <c r="M71" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
@@ -5017,11 +5017,11 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -5038,13 +5038,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ177_Focus_Feedback.xlsx</v>
       </c>
       <c r="K72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L72" t="s">
+        <v>328</v>
+      </c>
+      <c r="M72" t="s">
         <v>329</v>
-      </c>
-      <c r="M72" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
@@ -5052,11 +5052,11 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -5073,13 +5073,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ143_Focus_Feedback.xlsx</v>
       </c>
       <c r="K73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L73" t="s">
+        <v>330</v>
+      </c>
+      <c r="M73" t="s">
         <v>331</v>
-      </c>
-      <c r="M73" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
@@ -5087,11 +5087,11 @@
         <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -5108,13 +5108,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ243_Focus_Feedback.xlsx</v>
       </c>
       <c r="K74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L74" t="s">
+        <v>332</v>
+      </c>
+      <c r="M74" t="s">
         <v>333</v>
-      </c>
-      <c r="M74" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
@@ -5122,11 +5122,11 @@
         <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -5143,13 +5143,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ159_Focus_Feedback.xlsx</v>
       </c>
       <c r="K75" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L75" t="s">
+        <v>334</v>
+      </c>
+      <c r="M75" t="s">
         <v>335</v>
-      </c>
-      <c r="M75" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
@@ -5157,11 +5157,11 @@
         <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -5178,13 +5178,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ162_Focus_Feedback.xlsx</v>
       </c>
       <c r="K76" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L76" t="s">
+        <v>336</v>
+      </c>
+      <c r="M76" t="s">
         <v>337</v>
-      </c>
-      <c r="M76" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -5192,11 +5192,11 @@
         <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -5213,13 +5213,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ113_Focus_Feedback.xlsx</v>
       </c>
       <c r="K77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L77" t="s">
+        <v>338</v>
+      </c>
+      <c r="M77" t="s">
         <v>339</v>
-      </c>
-      <c r="M77" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
@@ -5227,11 +5227,11 @@
         <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -5248,13 +5248,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ133_Focus_Feedback.xlsx</v>
       </c>
       <c r="K78" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L78" t="s">
+        <v>340</v>
+      </c>
+      <c r="M78" t="s">
         <v>341</v>
-      </c>
-      <c r="M78" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -5262,11 +5262,11 @@
         <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -5283,13 +5283,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ137_Focus_Feedback.xlsx</v>
       </c>
       <c r="K79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L79" t="s">
+        <v>342</v>
+      </c>
+      <c r="M79" t="s">
         <v>343</v>
-      </c>
-      <c r="M79" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
@@ -5297,11 +5297,11 @@
         <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -5318,13 +5318,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1G4_Focus_Feedback.xlsx</v>
       </c>
       <c r="K80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L80" t="s">
+        <v>344</v>
+      </c>
+      <c r="M80" t="s">
         <v>345</v>
-      </c>
-      <c r="M80" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
@@ -5332,11 +5332,11 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5353,13 +5353,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1G5_Focus_Feedback.xlsx</v>
       </c>
       <c r="K81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L81" t="s">
+        <v>346</v>
+      </c>
+      <c r="M81" t="s">
         <v>347</v>
-      </c>
-      <c r="M81" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
@@ -5367,11 +5367,11 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5388,13 +5388,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZBW1_Focus_Feedback.xlsx</v>
       </c>
       <c r="K82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L82" t="s">
+        <v>348</v>
+      </c>
+      <c r="M82" t="s">
         <v>349</v>
-      </c>
-      <c r="M82" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
@@ -5402,11 +5402,11 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5423,13 +5423,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ9TS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L83" t="s">
+        <v>350</v>
+      </c>
+      <c r="M83" t="s">
         <v>351</v>
-      </c>
-      <c r="M83" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
@@ -5437,11 +5437,11 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5458,13 +5458,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L84" t="s">
+        <v>352</v>
+      </c>
+      <c r="M84" t="s">
         <v>353</v>
-      </c>
-      <c r="M84" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
@@ -5472,11 +5472,11 @@
         <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -5493,13 +5493,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L85" t="s">
+        <v>354</v>
+      </c>
+      <c r="M85" t="s">
         <v>355</v>
-      </c>
-      <c r="M85" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
@@ -5507,11 +5507,11 @@
         <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5528,13 +5528,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L86" t="s">
+        <v>352</v>
+      </c>
+      <c r="M86" t="s">
         <v>353</v>
-      </c>
-      <c r="M86" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
@@ -5542,11 +5542,11 @@
         <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5563,13 +5563,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L87" t="s">
+        <v>354</v>
+      </c>
+      <c r="M87" t="s">
         <v>355</v>
-      </c>
-      <c r="M87" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
@@ -5577,11 +5577,11 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5598,13 +5598,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2RP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L88" t="s">
+        <v>356</v>
+      </c>
+      <c r="M88" t="s">
         <v>357</v>
-      </c>
-      <c r="M88" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
@@ -5612,11 +5612,11 @@
         <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5633,13 +5633,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1TT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L89" t="s">
+        <v>358</v>
+      </c>
+      <c r="M89" t="s">
         <v>359</v>
-      </c>
-      <c r="M89" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
@@ -5647,11 +5647,11 @@
         <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5668,13 +5668,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1AM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L90" t="s">
+        <v>360</v>
+      </c>
+      <c r="M90" t="s">
         <v>361</v>
-      </c>
-      <c r="M90" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
@@ -5682,11 +5682,11 @@
         <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5703,13 +5703,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1JW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K91" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L91" t="s">
+        <v>362</v>
+      </c>
+      <c r="M91" t="s">
         <v>363</v>
-      </c>
-      <c r="M91" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
@@ -5717,11 +5717,11 @@
         <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5738,13 +5738,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1MH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L92" t="s">
+        <v>364</v>
+      </c>
+      <c r="M92" t="s">
         <v>365</v>
-      </c>
-      <c r="M92" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
@@ -5752,11 +5752,11 @@
         <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5773,13 +5773,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L93" t="s">
+        <v>366</v>
+      </c>
+      <c r="M93" t="s">
         <v>367</v>
-      </c>
-      <c r="M93" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
@@ -5787,11 +5787,11 @@
         <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5808,13 +5808,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1T2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L94" t="s">
+        <v>368</v>
+      </c>
+      <c r="M94" t="s">
         <v>369</v>
-      </c>
-      <c r="M94" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
@@ -5822,11 +5822,11 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5843,13 +5843,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2AM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L95" t="s">
+        <v>370</v>
+      </c>
+      <c r="M95" t="s">
         <v>371</v>
-      </c>
-      <c r="M95" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
@@ -5857,11 +5857,11 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5878,13 +5878,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2CR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L96" t="s">
+        <v>372</v>
+      </c>
+      <c r="M96" t="s">
         <v>373</v>
-      </c>
-      <c r="M96" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
@@ -5892,11 +5892,11 @@
         <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5913,13 +5913,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1SC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K97" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L97" t="s">
+        <v>374</v>
+      </c>
+      <c r="M97" t="s">
         <v>375</v>
-      </c>
-      <c r="M97" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
@@ -5927,11 +5927,11 @@
         <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5948,13 +5948,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1PB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K98" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L98" t="s">
+        <v>376</v>
+      </c>
+      <c r="M98" t="s">
         <v>377</v>
-      </c>
-      <c r="M98" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
@@ -5962,11 +5962,11 @@
         <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5983,13 +5983,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1JN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L99" t="s">
+        <v>378</v>
+      </c>
+      <c r="M99" t="s">
         <v>379</v>
-      </c>
-      <c r="M99" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
@@ -5997,11 +5997,11 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -6018,13 +6018,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1J2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K100" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L100" t="s">
+        <v>380</v>
+      </c>
+      <c r="M100" t="s">
         <v>381</v>
-      </c>
-      <c r="M100" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
@@ -6032,11 +6032,11 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -6053,25 +6053,25 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1MK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K101" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L101" t="s">
+        <v>382</v>
+      </c>
+      <c r="M101" t="s">
         <v>383</v>
-      </c>
-      <c r="M101" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6088,13 +6088,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1CA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K102" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L102" t="s">
+        <v>384</v>
+      </c>
+      <c r="M102" t="s">
         <v>385</v>
-      </c>
-      <c r="M102" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
@@ -6102,11 +6102,11 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6123,13 +6123,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K103" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L103" t="s">
+        <v>386</v>
+      </c>
+      <c r="M103" t="s">
         <v>387</v>
-      </c>
-      <c r="M103" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
@@ -6137,11 +6137,11 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6158,13 +6158,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2T1_Focus_Feedback.xlsx</v>
       </c>
       <c r="K104" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L104" t="s">
+        <v>388</v>
+      </c>
+      <c r="M104" t="s">
         <v>389</v>
-      </c>
-      <c r="M104" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
@@ -6172,11 +6172,11 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6193,13 +6193,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2T2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K105" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L105" t="s">
+        <v>390</v>
+      </c>
+      <c r="M105" t="s">
         <v>391</v>
-      </c>
-      <c r="M105" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
@@ -6207,11 +6207,11 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6228,13 +6228,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1JA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L106" t="s">
+        <v>392</v>
+      </c>
+      <c r="M106" t="s">
         <v>393</v>
-      </c>
-      <c r="M106" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
@@ -6242,11 +6242,11 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6263,13 +6263,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1BC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L107" t="s">
+        <v>394</v>
+      </c>
+      <c r="M107" t="s">
         <v>395</v>
-      </c>
-      <c r="M107" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
@@ -6277,11 +6277,11 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -6298,13 +6298,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1JL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L108" t="s">
+        <v>396</v>
+      </c>
+      <c r="M108" t="s">
         <v>397</v>
-      </c>
-      <c r="M108" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
@@ -6312,11 +6312,11 @@
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6333,13 +6333,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1AL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L109" t="s">
+        <v>398</v>
+      </c>
+      <c r="M109" t="s">
         <v>399</v>
-      </c>
-      <c r="M109" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
@@ -6347,11 +6347,11 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6368,13 +6368,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1MW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L110" t="s">
+        <v>400</v>
+      </c>
+      <c r="M110" t="s">
         <v>401</v>
-      </c>
-      <c r="M110" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
@@ -6382,11 +6382,11 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -6403,13 +6403,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1MS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L111" t="s">
+        <v>402</v>
+      </c>
+      <c r="M111" t="s">
         <v>403</v>
-      </c>
-      <c r="M111" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
@@ -6417,11 +6417,11 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6438,13 +6438,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1AJ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K112" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L112" t="s">
+        <v>404</v>
+      </c>
+      <c r="M112" t="s">
         <v>405</v>
-      </c>
-      <c r="M112" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
@@ -6452,11 +6452,11 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6473,13 +6473,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1GF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K113" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L113" t="s">
+        <v>406</v>
+      </c>
+      <c r="M113" t="s">
         <v>407</v>
-      </c>
-      <c r="M113" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
@@ -6487,11 +6487,11 @@
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6508,13 +6508,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1G2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K114" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L114" t="s">
+        <v>408</v>
+      </c>
+      <c r="M114" t="s">
         <v>409</v>
-      </c>
-      <c r="M114" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
@@ -6522,11 +6522,11 @@
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6543,13 +6543,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1BP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K115" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L115" t="s">
+        <v>410</v>
+      </c>
+      <c r="M115" t="s">
         <v>411</v>
-      </c>
-      <c r="M115" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
@@ -6557,11 +6557,11 @@
         <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6578,13 +6578,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1JF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K116" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L116" t="s">
+        <v>412</v>
+      </c>
+      <c r="M116" t="s">
         <v>413</v>
-      </c>
-      <c r="M116" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
@@ -6592,11 +6592,11 @@
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -6613,13 +6613,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1CI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K117" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L117" t="s">
+        <v>414</v>
+      </c>
+      <c r="M117" t="s">
         <v>415</v>
-      </c>
-      <c r="M117" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
@@ -6627,11 +6627,11 @@
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6648,13 +6648,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1KM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K118" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L118" t="s">
+        <v>416</v>
+      </c>
+      <c r="M118" t="s">
         <v>417</v>
-      </c>
-      <c r="M118" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
@@ -6662,11 +6662,11 @@
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6683,13 +6683,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1OV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K119" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L119" t="s">
+        <v>418</v>
+      </c>
+      <c r="M119" t="s">
         <v>419</v>
-      </c>
-      <c r="M119" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
@@ -6697,11 +6697,11 @@
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6718,13 +6718,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K120" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L120" t="s">
+        <v>420</v>
+      </c>
+      <c r="M120" t="s">
         <v>421</v>
-      </c>
-      <c r="M120" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
@@ -6732,11 +6732,11 @@
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6753,13 +6753,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1BG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K121" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L121" t="s">
+        <v>422</v>
+      </c>
+      <c r="M121" t="s">
         <v>423</v>
-      </c>
-      <c r="M121" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
@@ -6767,11 +6767,11 @@
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6788,13 +6788,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L122" t="s">
+        <v>424</v>
+      </c>
+      <c r="M122" t="s">
         <v>425</v>
-      </c>
-      <c r="M122" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
@@ -6802,11 +6802,11 @@
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6823,13 +6823,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1BM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K123" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L123" t="s">
+        <v>426</v>
+      </c>
+      <c r="M123" t="s">
         <v>427</v>
-      </c>
-      <c r="M123" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
@@ -6837,11 +6837,11 @@
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6858,13 +6858,13 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1MD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K124" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L124" t="s">
+        <v>428</v>
+      </c>
+      <c r="M124" t="s">
         <v>429</v>
-      </c>
-      <c r="M124" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
@@ -6872,11 +6872,11 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6885,21 +6885,21 @@
         <v>2</v>
       </c>
       <c r="G125" t="str">
-        <f t="shared" ref="G125:G191" si="6">K125&amp;"\"&amp;L125</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1RR_Weekly Sales.pdf</v>
+        <f t="shared" ref="G125:G190" si="6">K125&amp;"\"&amp;L125</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1JB_Weekly Sales.pdf</v>
       </c>
       <c r="H125" t="str">
-        <f t="shared" ref="H125:H191" si="7">K125&amp;"\"&amp;M125</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1RR_Focus_Feedback.xlsx</v>
+        <f t="shared" ref="H125:H190" si="7">K125&amp;"\"&amp;M125</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L125" t="s">
+        <v>430</v>
+      </c>
+      <c r="M125" t="s">
         <v>431</v>
-      </c>
-      <c r="M125" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
@@ -6907,11 +6907,11 @@
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6921,20 +6921,20 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1JB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1AD_Weekly Sales.pdf</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1JB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1AD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L126" t="s">
+        <v>432</v>
+      </c>
+      <c r="M126" t="s">
         <v>433</v>
-      </c>
-      <c r="M126" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
@@ -6942,11 +6942,11 @@
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <f t="shared" ref="D127:D192" si="8">$D$2</f>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6956,20 +6956,20 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1AD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1ML_Weekly Sales.pdf</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1AD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1ML_Focus_Feedback.xlsx</v>
       </c>
       <c r="K127" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L127" t="s">
+        <v>434</v>
+      </c>
+      <c r="M127" t="s">
         <v>435</v>
-      </c>
-      <c r="M127" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
@@ -6977,11 +6977,11 @@
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" ref="D128:D193" si="8">$D$2</f>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <f t="shared" si="8"/>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -6991,20 +6991,20 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1ML_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1FA_Weekly Sales.pdf</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1ML_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1FA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K128" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L128" t="s">
+        <v>436</v>
+      </c>
+      <c r="M128" t="s">
         <v>437</v>
-      </c>
-      <c r="M128" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
@@ -7012,11 +7012,11 @@
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -7026,20 +7026,20 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1FA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2SA_Weekly Sales.pdf</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1FA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2SA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K129" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L129" t="s">
+        <v>438</v>
+      </c>
+      <c r="M129" t="s">
         <v>439</v>
-      </c>
-      <c r="M129" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
@@ -7047,11 +7047,11 @@
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -7061,20 +7061,20 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2SA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1SL_Weekly Sales.pdf</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2SA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1SL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K130" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L130" t="s">
+        <v>440</v>
+      </c>
+      <c r="M130" t="s">
         <v>441</v>
-      </c>
-      <c r="M130" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
@@ -7082,11 +7082,11 @@
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -7096,20 +7096,20 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1SL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1CM_Weekly Sales.pdf</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1SL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1CM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K131" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L131" t="s">
+        <v>442</v>
+      </c>
+      <c r="M131" t="s">
         <v>443</v>
-      </c>
-      <c r="M131" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
@@ -7117,11 +7117,11 @@
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -7131,20 +7131,20 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1CM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1WH_Weekly Sales.pdf</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1CM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1WH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K132" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L132" t="s">
+        <v>444</v>
+      </c>
+      <c r="M132" t="s">
         <v>445</v>
-      </c>
-      <c r="M132" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
@@ -7152,11 +7152,11 @@
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7166,20 +7166,20 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1WH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1YU_Weekly Sales.pdf</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1WH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1YU_Focus_Feedback.xlsx</v>
       </c>
       <c r="K133" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L133" t="s">
+        <v>446</v>
+      </c>
+      <c r="M133" t="s">
         <v>447</v>
-      </c>
-      <c r="M133" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
@@ -7187,11 +7187,11 @@
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7201,20 +7201,20 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1YU_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1WX_Weekly Sales.pdf</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1YU_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1WX_Focus_Feedback.xlsx</v>
       </c>
       <c r="K134" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L134" t="s">
+        <v>448</v>
+      </c>
+      <c r="M134" t="s">
         <v>449</v>
-      </c>
-      <c r="M134" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
@@ -7222,11 +7222,11 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -7236,20 +7236,20 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1WX_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1XF_Weekly Sales.pdf</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1WX_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1XF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K135" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L135" t="s">
+        <v>450</v>
+      </c>
+      <c r="M135" t="s">
         <v>451</v>
-      </c>
-      <c r="M135" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
@@ -7257,11 +7257,11 @@
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -7271,20 +7271,20 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1XF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1XT_Weekly Sales.pdf</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1XF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1XT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L136" t="s">
+        <v>452</v>
+      </c>
+      <c r="M136" t="s">
         <v>453</v>
-      </c>
-      <c r="M136" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
@@ -7292,11 +7292,11 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7306,20 +7306,20 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1XT_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1YP_Weekly Sales.pdf</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1XT_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1YP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K137" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L137" t="s">
+        <v>454</v>
+      </c>
+      <c r="M137" t="s">
         <v>455</v>
-      </c>
-      <c r="M137" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
@@ -7327,11 +7327,11 @@
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7341,32 +7341,32 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1YP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1XH_Weekly Sales.pdf</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1YP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1XH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K138" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L138" t="s">
+        <v>456</v>
+      </c>
+      <c r="M138" t="s">
         <v>457</v>
-      </c>
-      <c r="M138" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -7376,20 +7376,20 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1XH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1X2_Weekly Sales.pdf</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1XH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1X2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K139" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L139" t="s">
+        <v>458</v>
+      </c>
+      <c r="M139" t="s">
         <v>459</v>
-      </c>
-      <c r="M139" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
@@ -7397,11 +7397,11 @@
         <v>138</v>
       </c>
       <c r="C140" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -7411,20 +7411,20 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1X2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TB_Weekly Sales.pdf</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1X2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L140" t="s">
+        <v>460</v>
+      </c>
+      <c r="M140" t="s">
         <v>461</v>
-      </c>
-      <c r="M140" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
@@ -7432,11 +7432,11 @@
         <v>139</v>
       </c>
       <c r="C141" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -7446,20 +7446,20 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TD_Weekly Sales.pdf</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K141" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L141" t="s">
+        <v>462</v>
+      </c>
+      <c r="M141" t="s">
         <v>463</v>
-      </c>
-      <c r="M141" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
@@ -7467,11 +7467,11 @@
         <v>140</v>
       </c>
       <c r="C142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TK_Weekly Sales.pdf</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K142" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L142" t="s">
+        <v>464</v>
+      </c>
+      <c r="M142" t="s">
         <v>465</v>
-      </c>
-      <c r="M142" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
@@ -7502,11 +7502,11 @@
         <v>141</v>
       </c>
       <c r="C143" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -7516,20 +7516,20 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1YE_Weekly Sales.pdf</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1YE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K143" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L143" t="s">
+        <v>466</v>
+      </c>
+      <c r="M143" t="s">
         <v>467</v>
-      </c>
-      <c r="M143" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
@@ -7537,11 +7537,11 @@
         <v>142</v>
       </c>
       <c r="C144" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -7551,20 +7551,20 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1YE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TE_Weekly Sales.pdf</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1YE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K144" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L144" t="s">
+        <v>468</v>
+      </c>
+      <c r="M144" t="s">
         <v>469</v>
-      </c>
-      <c r="M144" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
@@ -7572,11 +7572,11 @@
         <v>143</v>
       </c>
       <c r="C145" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -7586,20 +7586,20 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TI_Weekly Sales.pdf</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K145" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L145" t="s">
+        <v>470</v>
+      </c>
+      <c r="M145" t="s">
         <v>471</v>
-      </c>
-      <c r="M145" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
@@ -7607,11 +7607,11 @@
         <v>144</v>
       </c>
       <c r="C146" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -7621,20 +7621,20 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YI_Weekly Sales.pdf</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K146" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L146" t="s">
+        <v>472</v>
+      </c>
+      <c r="M146" t="s">
         <v>473</v>
-      </c>
-      <c r="M146" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
@@ -7642,11 +7642,11 @@
         <v>145</v>
       </c>
       <c r="C147" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -7656,20 +7656,20 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YW_Weekly Sales.pdf</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K147" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L147" t="s">
+        <v>474</v>
+      </c>
+      <c r="M147" t="s">
         <v>475</v>
-      </c>
-      <c r="M147" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
@@ -7677,11 +7677,11 @@
         <v>146</v>
       </c>
       <c r="C148" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -7691,20 +7691,20 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UE_Weekly Sales.pdf</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K148" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L148" t="s">
+        <v>476</v>
+      </c>
+      <c r="M148" t="s">
         <v>477</v>
-      </c>
-      <c r="M148" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
@@ -7712,11 +7712,11 @@
         <v>147</v>
       </c>
       <c r="C149" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7726,20 +7726,20 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1MJ_Weekly Sales.pdf</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1MJ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K149" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L149" t="s">
+        <v>478</v>
+      </c>
+      <c r="M149" t="s">
         <v>479</v>
-      </c>
-      <c r="M149" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
@@ -7747,11 +7747,11 @@
         <v>148</v>
       </c>
       <c r="C150" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7761,20 +7761,20 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1MJ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VG_Weekly Sales.pdf</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1MJ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K150" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L150" t="s">
+        <v>480</v>
+      </c>
+      <c r="M150" t="s">
         <v>481</v>
-      </c>
-      <c r="M150" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
@@ -7782,11 +7782,11 @@
         <v>149</v>
       </c>
       <c r="C151" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7796,20 +7796,20 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VJ_Weekly Sales.pdf</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VJ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K151" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L151" t="s">
+        <v>482</v>
+      </c>
+      <c r="M151" t="s">
         <v>483</v>
-      </c>
-      <c r="M151" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
@@ -7817,11 +7817,11 @@
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7831,20 +7831,20 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VJ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1MI_Weekly Sales.pdf</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VJ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1MI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K152" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L152" t="s">
+        <v>484</v>
+      </c>
+      <c r="M152" t="s">
         <v>485</v>
-      </c>
-      <c r="M152" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
@@ -7852,11 +7852,11 @@
         <v>151</v>
       </c>
       <c r="C153" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7866,20 +7866,20 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1MI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XD_Weekly Sales.pdf</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1MI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K153" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L153" t="s">
+        <v>486</v>
+      </c>
+      <c r="M153" t="s">
         <v>487</v>
-      </c>
-      <c r="M153" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
@@ -7887,11 +7887,11 @@
         <v>152</v>
       </c>
       <c r="C154" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7901,20 +7901,20 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XB_Weekly Sales.pdf</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K154" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L154" t="s">
+        <v>488</v>
+      </c>
+      <c r="M154" t="s">
         <v>489</v>
-      </c>
-      <c r="M154" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
@@ -7922,11 +7922,11 @@
         <v>153</v>
       </c>
       <c r="C155" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7936,20 +7936,20 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1WT_Weekly Sales.pdf</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1WT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K155" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L155" t="s">
+        <v>490</v>
+      </c>
+      <c r="M155" t="s">
         <v>491</v>
-      </c>
-      <c r="M155" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
@@ -7957,11 +7957,11 @@
         <v>154</v>
       </c>
       <c r="C156" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -7971,20 +7971,20 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1WT_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XA_Weekly Sales.pdf</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1WT_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L156" t="s">
+        <v>492</v>
+      </c>
+      <c r="M156" t="s">
         <v>493</v>
-      </c>
-      <c r="M156" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
@@ -7992,11 +7992,11 @@
         <v>155</v>
       </c>
       <c r="C157" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -8006,20 +8006,20 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1RB_Weekly Sales.pdf</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1RB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K157" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L157" t="s">
+        <v>494</v>
+      </c>
+      <c r="M157" t="s">
         <v>495</v>
-      </c>
-      <c r="M157" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
@@ -8027,11 +8027,11 @@
         <v>156</v>
       </c>
       <c r="C158" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -8041,20 +8041,20 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1RB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2KF_Weekly Sales.pdf</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1RB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2KF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K158" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L158" t="s">
+        <v>496</v>
+      </c>
+      <c r="M158" t="s">
         <v>497</v>
-      </c>
-      <c r="M158" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
@@ -8062,11 +8062,11 @@
         <v>157</v>
       </c>
       <c r="C159" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -8076,20 +8076,20 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2KF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ148_Weekly Sales.pdf</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2KF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ148_Focus_Feedback.xlsx</v>
       </c>
       <c r="K159" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L159" t="s">
+        <v>498</v>
+      </c>
+      <c r="M159" t="s">
         <v>499</v>
-      </c>
-      <c r="M159" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
@@ -8097,11 +8097,11 @@
         <v>158</v>
       </c>
       <c r="C160" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -8111,20 +8111,20 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ148_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ8GM_Weekly Sales.pdf</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ148_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ8GM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K160" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L160" t="s">
+        <v>500</v>
+      </c>
+      <c r="M160" t="s">
         <v>501</v>
-      </c>
-      <c r="M160" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
@@ -8132,11 +8132,11 @@
         <v>159</v>
       </c>
       <c r="C161" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -8146,20 +8146,20 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ8GM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1BH_Weekly Sales.pdf</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ8GM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1BH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K161" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L161" t="s">
+        <v>502</v>
+      </c>
+      <c r="M161" t="s">
         <v>503</v>
-      </c>
-      <c r="M161" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
@@ -8167,11 +8167,11 @@
         <v>160</v>
       </c>
       <c r="C162" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -8181,20 +8181,20 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1BH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ114_Weekly Sales.pdf</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1BH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ114_Focus_Feedback.xlsx</v>
       </c>
       <c r="K162" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L162" t="s">
+        <v>504</v>
+      </c>
+      <c r="M162" t="s">
         <v>505</v>
-      </c>
-      <c r="M162" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
@@ -8202,11 +8202,11 @@
         <v>161</v>
       </c>
       <c r="C163" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -8216,20 +8216,20 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ114_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1A6_Weekly Sales.pdf</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ114_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1A6_Focus_Feedback.xlsx</v>
       </c>
       <c r="K163" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L163" t="s">
+        <v>506</v>
+      </c>
+      <c r="M163" t="s">
         <v>507</v>
-      </c>
-      <c r="M163" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
@@ -8237,11 +8237,11 @@
         <v>162</v>
       </c>
       <c r="C164" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -8251,20 +8251,20 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1A6_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ139_Weekly Sales.pdf</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1A6_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ139_Focus_Feedback.xlsx</v>
       </c>
       <c r="K164" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L164" t="s">
+        <v>508</v>
+      </c>
+      <c r="M164" t="s">
         <v>509</v>
-      </c>
-      <c r="M164" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
@@ -8272,11 +8272,11 @@
         <v>163</v>
       </c>
       <c r="C165" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -8286,20 +8286,20 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ139_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VL_Weekly Sales.pdf</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ139_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K165" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L165" t="s">
+        <v>510</v>
+      </c>
+      <c r="M165" t="s">
         <v>511</v>
-      </c>
-      <c r="M165" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
@@ -8307,11 +8307,11 @@
         <v>164</v>
       </c>
       <c r="C166" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -8321,20 +8321,20 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VK_Weekly Sales.pdf</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K166" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L166" t="s">
+        <v>512</v>
+      </c>
+      <c r="M166" t="s">
         <v>513</v>
-      </c>
-      <c r="M166" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
@@ -8342,11 +8342,11 @@
         <v>165</v>
       </c>
       <c r="C167" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -8356,20 +8356,20 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1LR_Weekly Sales.pdf</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1LR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K167" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L167" t="s">
+        <v>514</v>
+      </c>
+      <c r="M167" t="s">
         <v>515</v>
-      </c>
-      <c r="M167" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
@@ -8377,11 +8377,11 @@
         <v>166</v>
       </c>
       <c r="C168" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -8391,20 +8391,20 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1LR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UV_Weekly Sales.pdf</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1LR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K168" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L168" t="s">
+        <v>516</v>
+      </c>
+      <c r="M168" t="s">
         <v>517</v>
-      </c>
-      <c r="M168" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
@@ -8412,11 +8412,11 @@
         <v>167</v>
       </c>
       <c r="C169" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -8426,20 +8426,20 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UV_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1WV_Weekly Sales.pdf</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UV_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1WV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K169" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L169" t="s">
+        <v>518</v>
+      </c>
+      <c r="M169" t="s">
         <v>519</v>
-      </c>
-      <c r="M169" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
@@ -8447,11 +8447,11 @@
         <v>168</v>
       </c>
       <c r="C170" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -8461,20 +8461,20 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1WV_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ4KC_Weekly Sales.pdf</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1WV_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ4KC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K170" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L170" t="s">
+        <v>520</v>
+      </c>
+      <c r="M170" t="s">
         <v>521</v>
-      </c>
-      <c r="M170" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="171" spans="2:13" x14ac:dyDescent="0.25">
@@ -8482,11 +8482,11 @@
         <v>169</v>
       </c>
       <c r="C171" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -8496,20 +8496,20 @@
       </c>
       <c r="G171" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ4KC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UO_Weekly Sales.pdf</v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ4KC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K171" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L171" t="s">
+        <v>522</v>
+      </c>
+      <c r="M171" t="s">
         <v>523</v>
-      </c>
-      <c r="M171" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.25">
@@ -8517,11 +8517,11 @@
         <v>170</v>
       </c>
       <c r="C172" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8531,20 +8531,20 @@
       </c>
       <c r="G172" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XC_Weekly Sales.pdf</v>
       </c>
       <c r="H172" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K172" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L172" t="s">
+        <v>524</v>
+      </c>
+      <c r="M172" t="s">
         <v>525</v>
-      </c>
-      <c r="M172" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.25">
@@ -8552,11 +8552,11 @@
         <v>171</v>
       </c>
       <c r="C173" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -8566,20 +8566,20 @@
       </c>
       <c r="G173" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YN_Weekly Sales.pdf</v>
       </c>
       <c r="H173" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K173" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L173" t="s">
+        <v>526</v>
+      </c>
+      <c r="M173" t="s">
         <v>527</v>
-      </c>
-      <c r="M173" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="174" spans="2:13" x14ac:dyDescent="0.25">
@@ -8587,11 +8587,11 @@
         <v>172</v>
       </c>
       <c r="C174" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -8601,20 +8601,20 @@
       </c>
       <c r="G174" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UI_Weekly Sales.pdf</v>
       </c>
       <c r="H174" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K174" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L174" t="s">
+        <v>528</v>
+      </c>
+      <c r="M174" t="s">
         <v>529</v>
-      </c>
-      <c r="M174" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
@@ -8622,11 +8622,11 @@
         <v>173</v>
       </c>
       <c r="C175" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -8636,20 +8636,20 @@
       </c>
       <c r="G175" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UU_Weekly Sales.pdf</v>
       </c>
       <c r="H175" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UU_Focus_Feedback.xlsx</v>
       </c>
       <c r="K175" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L175" t="s">
+        <v>530</v>
+      </c>
+      <c r="M175" t="s">
         <v>531</v>
-      </c>
-      <c r="M175" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
@@ -8657,11 +8657,11 @@
         <v>174</v>
       </c>
       <c r="C176" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -8671,20 +8671,20 @@
       </c>
       <c r="G176" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UU_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UW_Weekly Sales.pdf</v>
       </c>
       <c r="H176" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UU_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L176" t="s">
+        <v>532</v>
+      </c>
+      <c r="M176" t="s">
         <v>533</v>
-      </c>
-      <c r="M176" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
@@ -8692,11 +8692,11 @@
         <v>175</v>
       </c>
       <c r="C177" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -8706,20 +8706,20 @@
       </c>
       <c r="G177" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VC_Weekly Sales.pdf</v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K177" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L177" t="s">
+        <v>534</v>
+      </c>
+      <c r="M177" t="s">
         <v>535</v>
-      </c>
-      <c r="M177" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
@@ -8727,11 +8727,11 @@
         <v>176</v>
       </c>
       <c r="C178" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8741,20 +8741,20 @@
       </c>
       <c r="G178" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UX_Weekly Sales.pdf</v>
       </c>
       <c r="H178" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UX_Focus_Feedback.xlsx</v>
       </c>
       <c r="K178" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L178" t="s">
+        <v>536</v>
+      </c>
+      <c r="M178" t="s">
         <v>537</v>
-      </c>
-      <c r="M178" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="179" spans="2:13" x14ac:dyDescent="0.25">
@@ -8762,11 +8762,11 @@
         <v>177</v>
       </c>
       <c r="C179" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -8776,20 +8776,20 @@
       </c>
       <c r="G179" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UX_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UZ_Weekly Sales.pdf</v>
       </c>
       <c r="H179" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UX_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UZ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K179" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L179" t="s">
+        <v>538</v>
+      </c>
+      <c r="M179" t="s">
         <v>539</v>
-      </c>
-      <c r="M179" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
@@ -8797,11 +8797,11 @@
         <v>178</v>
       </c>
       <c r="C180" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -8811,20 +8811,20 @@
       </c>
       <c r="G180" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UZ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1CM_Weekly Sales.pdf</v>
       </c>
       <c r="H180" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UZ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1CM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K180" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L180" t="s">
+        <v>540</v>
+      </c>
+      <c r="M180" t="s">
         <v>541</v>
-      </c>
-      <c r="M180" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
@@ -8832,11 +8832,11 @@
         <v>179</v>
       </c>
       <c r="C181" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D181" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -8846,32 +8846,32 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1CM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1JI_Weekly Sales.pdf</v>
       </c>
       <c r="H181" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1CM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1JI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K181" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L181" t="s">
+        <v>542</v>
+      </c>
+      <c r="M181" t="s">
         <v>543</v>
-      </c>
-      <c r="M181" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C182" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D182" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -8880,21 +8880,21 @@
         <v>2</v>
       </c>
       <c r="G182" t="str">
-        <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1JI_Weekly Sales.pdf</v>
+        <f t="shared" ref="G182" si="9">K182&amp;"\"&amp;L182</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZJI2_Weekly Sales.pdf</v>
       </c>
       <c r="H182" t="str">
-        <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1JI_Focus_Feedback.xlsx</v>
+        <f t="shared" ref="H182" si="10">K182&amp;"\"&amp;M182</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZJI2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K182" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L182" t="s">
+        <v>544</v>
+      </c>
+      <c r="M182" t="s">
         <v>545</v>
-      </c>
-      <c r="M182" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
@@ -8902,11 +8902,11 @@
         <v>180</v>
       </c>
       <c r="C183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D183" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -8915,33 +8915,33 @@
         <v>2</v>
       </c>
       <c r="G183" t="str">
-        <f t="shared" ref="G183" si="9">K183&amp;"\"&amp;L183</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZJI2_Weekly Sales.pdf</v>
+        <f t="shared" si="6"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2MS_Weekly Sales.pdf</v>
       </c>
       <c r="H183" t="str">
-        <f t="shared" ref="H183" si="10">K183&amp;"\"&amp;M183</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZJI2_Focus_Feedback.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2MS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K183" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L183" t="s">
+        <v>546</v>
+      </c>
+      <c r="M183" t="s">
         <v>547</v>
-      </c>
-      <c r="M183" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="184" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C184" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D184" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -8951,32 +8951,32 @@
       </c>
       <c r="G184" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2MS_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ3JB_Weekly Sales.pdf</v>
       </c>
       <c r="H184" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2MS_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ3JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K184" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L184" t="s">
+        <v>548</v>
+      </c>
+      <c r="M184" t="s">
         <v>549</v>
-      </c>
-      <c r="M184" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="185" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C185" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -8985,33 +8985,33 @@
         <v>2</v>
       </c>
       <c r="G185" t="str">
-        <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ3JB_Weekly Sales.pdf</v>
+        <f t="shared" ref="G185:G186" si="11">K185&amp;"\"&amp;L185</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2JN_Weekly Sales.pdf</v>
       </c>
       <c r="H185" t="str">
-        <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ3JB_Focus_Feedback.xlsx</v>
+        <f t="shared" ref="H185:H186" si="12">K185&amp;"\"&amp;M185</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2JN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K185" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L185" t="s">
+        <v>550</v>
+      </c>
+      <c r="M185" t="s">
         <v>551</v>
-      </c>
-      <c r="M185" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="186" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -9020,33 +9020,33 @@
         <v>2</v>
       </c>
       <c r="G186" t="str">
-        <f t="shared" ref="G186:G187" si="11">K186&amp;"\"&amp;L186</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2JN_Weekly Sales.pdf</v>
+        <f t="shared" si="11"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1RD_Weekly Sales.pdf</v>
       </c>
       <c r="H186" t="str">
-        <f t="shared" ref="H186:H187" si="12">K186&amp;"\"&amp;M186</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2JN_Focus_Feedback.xlsx</v>
+        <f t="shared" si="12"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1RD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K186" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L186" t="s">
+        <v>552</v>
+      </c>
+      <c r="M186" t="s">
         <v>553</v>
-      </c>
-      <c r="M186" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="187" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C187" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D187" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -9055,33 +9055,33 @@
         <v>2</v>
       </c>
       <c r="G187" t="str">
-        <f t="shared" si="11"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1RD_Weekly Sales.pdf</v>
+        <f t="shared" si="6"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ7DO_Weekly Sales.pdf</v>
       </c>
       <c r="H187" t="str">
-        <f t="shared" si="12"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1RD_Focus_Feedback.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ7DO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K187" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L187" t="s">
-        <v>555</v>
+        <v>282</v>
       </c>
       <c r="M187" t="s">
-        <v>556</v>
+        <v>283</v>
       </c>
     </row>
     <row r="188" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C188" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D188" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -9091,32 +9091,32 @@
       </c>
       <c r="G188" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ7DO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H188" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ7DO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K188" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L188" t="s">
-        <v>283</v>
+        <v>366</v>
       </c>
       <c r="M188" t="s">
-        <v>284</v>
+        <v>367</v>
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C189" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -9126,32 +9126,32 @@
       </c>
       <c r="G189" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2CR_Weekly Sales.pdf</v>
       </c>
       <c r="H189" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2CR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K189" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L189" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M189" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C190" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -9161,32 +9161,32 @@
       </c>
       <c r="G190" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2CR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1CA_Weekly Sales.pdf</v>
       </c>
       <c r="H190" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2CR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1CA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K190" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L190" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="M190" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C191" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -9195,33 +9195,33 @@
         <v>2</v>
       </c>
       <c r="G191" t="str">
-        <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1CA_Weekly Sales.pdf</v>
+        <f t="shared" ref="G191:G199" si="13">K191&amp;"\"&amp;L191</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1AL_Weekly Sales.pdf</v>
       </c>
       <c r="H191" t="str">
-        <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1CA_Focus_Feedback.xlsx</v>
+        <f t="shared" ref="H191:H199" si="14">K191&amp;"\"&amp;M191</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1AL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K191" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L191" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="M191" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C192" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -9230,33 +9230,33 @@
         <v>2</v>
       </c>
       <c r="G192" t="str">
-        <f t="shared" ref="G192:G200" si="13">K192&amp;"\"&amp;L192</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1AL_Weekly Sales.pdf</v>
+        <f t="shared" si="13"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1GF_Weekly Sales.pdf</v>
       </c>
       <c r="H192" t="str">
-        <f t="shared" ref="H192:H200" si="14">K192&amp;"\"&amp;M192</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1AL_Focus_Feedback.xlsx</v>
+        <f t="shared" si="14"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1GF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K192" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L192" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="M192" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="193" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C193" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <f t="shared" ref="D193:D201" si="15">$D$2</f>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -9266,32 +9266,32 @@
       </c>
       <c r="G193" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1GF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1G2_Weekly Sales.pdf</v>
       </c>
       <c r="H193" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1GF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1G2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K193" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L193" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M193" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C194" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" ref="D194:D201" si="15">$D$2</f>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <f t="shared" si="15"/>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -9301,32 +9301,32 @@
       </c>
       <c r="G194" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1G2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1MD_Weekly Sales.pdf</v>
       </c>
       <c r="H194" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1G2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1MD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K194" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L194" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="M194" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C195" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D195" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -9336,32 +9336,32 @@
       </c>
       <c r="G195" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1MD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1YE_Weekly Sales.pdf</v>
       </c>
       <c r="H195" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1MD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1YE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K195" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L195" t="s">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="M195" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
     </row>
     <row r="196" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C196" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D196" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -9371,32 +9371,32 @@
       </c>
       <c r="G196" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1YE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UE_Weekly Sales.pdf</v>
       </c>
       <c r="H196" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1YE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K196" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L196" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="M196" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C197" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D197" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -9406,32 +9406,32 @@
       </c>
       <c r="G197" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ8GM_Weekly Sales.pdf</v>
       </c>
       <c r="H197" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ8GM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K197" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L197" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="M197" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C198" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D198" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -9441,32 +9441,32 @@
       </c>
       <c r="G198" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ8GM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UO_Weekly Sales.pdf</v>
       </c>
       <c r="H198" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ8GM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K198" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L198" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="M198" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C199" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D199" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -9476,32 +9476,32 @@
       </c>
       <c r="G199" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YN_Weekly Sales.pdf</v>
       </c>
       <c r="H199" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K199" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L199" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M199" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C200" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D200" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -9510,33 +9510,33 @@
         <v>2</v>
       </c>
       <c r="G200" t="str">
-        <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YN_Weekly Sales.pdf</v>
+        <f t="shared" ref="G200" si="16">K200&amp;"\"&amp;L200</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ8JP_Weekly Sales.pdf</v>
       </c>
       <c r="H200" t="str">
-        <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YN_Focus_Feedback.xlsx</v>
+        <f t="shared" ref="H200" si="17">K200&amp;"\"&amp;M200</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ8JP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K200" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L200" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="M200" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
     </row>
     <row r="201" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>190</v>
+        <v>556</v>
       </c>
       <c r="C201" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D201" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 26 Jan 2018</v>
+        <v>Weekly FSC Sales as of 2 Feb 2018</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -9545,15 +9545,15 @@
         <v>2</v>
       </c>
       <c r="G201" t="str">
-        <f t="shared" ref="G201" si="16">K201&amp;"\"&amp;L201</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ8JP_Weekly Sales.pdf</v>
+        <f t="shared" ref="G201" si="18">K201&amp;"\"&amp;L201</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1DG_Weekly Sales.pdf</v>
       </c>
       <c r="H201" t="str">
-        <f t="shared" ref="H201" si="17">K201&amp;"\"&amp;M201</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ8JP_Focus_Feedback.xlsx</v>
+        <f t="shared" ref="H201" si="19">K201&amp;"\"&amp;M201</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1DG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K201" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L201" t="s">
         <v>557</v>

--- a/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
+++ b/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
@@ -591,1114 +591,1114 @@
     <t>Jenna.Plenert@henryschein.ca</t>
   </si>
   <si>
-    <t>201801_CZ1SD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1SD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ125_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ125_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ124_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ124_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ132_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ132_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ128_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ128_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ144_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ144_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ165_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ165_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ177_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ177_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ178_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ178_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ183_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ183_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ107_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ107_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ109_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ109_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_AZ112_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_AZ112_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1CP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1CP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ154_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ154_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1KD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1KD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1CF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1CF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1EM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1EM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1DP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1DP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1DA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1DA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1LM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1LM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1EE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1EE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1E2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1E2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_AZ1EK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_AZ1EK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_AZ1FB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_AZ1FB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1FP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1FP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1FT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1FT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1FR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1FR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1GO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1GO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_AZ1KL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_AZ1KL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1KK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1KK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1DN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1DN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1EO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1EO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1CB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1CB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1B8_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1B8_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1C4_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1C4_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1D8_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1D8_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1SW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1SW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1AP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1AP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ2CB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ2CB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1CG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1CG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_AZ1PV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_AZ1PV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ3CB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ3CB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ5CS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ5CS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ8JA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ8JA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ7JM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ7JM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ7DO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ7DO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ5TA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ5TA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ2LB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ2LB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ2GB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ2GB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ2LH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ2LH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ2NM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ2NM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ2SB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ2SB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ2BG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ2BG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1SA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1SA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1FA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1FA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ115_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ115_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ120_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ120_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ118_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ118_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ119_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ119_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ138_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ138_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ142_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ142_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ134_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ134_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ123_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ123_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ136_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ136_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ165_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ165_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1FF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1FF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ167_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ167_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ175_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ175_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ177_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ177_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ143_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ143_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ243_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ243_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ159_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ159_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ162_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ162_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ113_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ113_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ133_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ133_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ137_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ137_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1G4_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1G4_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1G5_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1G5_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZBW1_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZBW1_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ9TS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ9TS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1HM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1HM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ2HM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ2HM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ2RP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ2RP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1TT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1TT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1AM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1AM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1JW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1JW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1MH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1MH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1TM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1TM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1T2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1T2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ2AM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ2AM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ2CR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ2CR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1SC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1SC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1PB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1PB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1JN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1JN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1J2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1J2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1MK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1MK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1CA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1CA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ2TM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ2TM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ2T1_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ2T1_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ2T2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ2T2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1JA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1JA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1BC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1BC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1JL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1JL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1AL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1AL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1MW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1MW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1MS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1MS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1AJ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1AJ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1GF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1GF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1G2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1G2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1BP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1BP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1JF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1JF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_AZ1CI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_AZ1CI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1KM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1KM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1OV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1OV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1JB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1JB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1BG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1BG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1TM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1TM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1BM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1BM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1MD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1MD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_AZ1JB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_AZ1JB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1AD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1AD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1ML_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1ML_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1FA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1FA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ2SA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ2SA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1SL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1SL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_AZ1CM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_AZ1CM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_AZ1WH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_AZ1WH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_AZ1YU_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_AZ1YU_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_AZ1WX_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_AZ1WX_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_AZ1XF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_AZ1XF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_AZ1XT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_AZ1XT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_AZ1YP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_AZ1YP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1XH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1XH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1X2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1X2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1TB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1TB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1TD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1TD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1TK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1TK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1YE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1YE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1TE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1TE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ1TI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ1TI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1YI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1YI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1YW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1YW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1UE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1UE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1MJ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1MJ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1VG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1VG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1VJ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1VJ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1MI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1MI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1XD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1XD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1XB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1XB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1WT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1WT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1XA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1XA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1RB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1RB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ2KF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ2KF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ148_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ148_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ8GM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ8GM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1BH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1BH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ114_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ114_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1A6_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1A6_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ139_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ139_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1VL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1VL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1VK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1VK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1LR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1LR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1UV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1UV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1WV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1WV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ4KC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ4KC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1UO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1UO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1XC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1XC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1YN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1YN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1UI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1UI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1UU_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1UU_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1UW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1UW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1VC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1VC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1UX_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1UX_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1UZ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1UZ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1CM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1CM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ1JI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ1JI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZJI2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZJI2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ2MS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ2MS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_QZ3JB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_QZ3JB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ2JN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ2JN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_CZ1RD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1RD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201801_WZ8JP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_WZ8JP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
     <t>Donnalee.Gilbert@henryschein.ca</t>
   </si>
   <si>
-    <t>201801_CZ1DG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201801_CZ1DG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>Weekly FSC Sales as of 2 Feb 2018</t>
+    <t>Weekly FSC Sales as of 9 Feb 2018</t>
+  </si>
+  <si>
+    <t>201802_CZ1SD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1SD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ125_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ125_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ124_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ124_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ132_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ132_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ128_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ128_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ144_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ144_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ165_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ165_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ177_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ177_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ178_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ178_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ183_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ183_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ107_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ107_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ109_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ109_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_AZ112_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ112_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1CP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1CP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ154_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ154_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1KD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1KD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1CF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1CF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1EM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1EM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1DP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1DP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1DA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1DA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1LM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1LM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1EE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1EE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1E2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1E2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_AZ1EK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1EK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_AZ1FB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1FB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1FP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1FP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1FT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1FT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1FR_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1FR_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1GO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1GO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_AZ1KL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1KL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1KK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1KK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1DN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1DN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1EO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1EO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1CB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1CB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1B8_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1B8_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1C4_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1C4_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1D8_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1D8_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1SW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1SW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1AP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1AP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ2CB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2CB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1CG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1CG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_AZ1PV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1PV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ3CB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ3CB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ5CS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ5CS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ8JA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ8JA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ7JM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ7JM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ7DO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ7DO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ5TA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ5TA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ2LB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2LB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ2GB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2GB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ2LH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2LH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ2NM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2NM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ2SB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ2SB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ2BG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2BG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1SA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1SA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1FA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1FA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ115_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ115_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ120_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ120_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ118_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ118_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ119_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ119_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ138_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ138_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ142_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ142_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ134_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ134_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ123_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ123_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ136_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ136_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ165_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ165_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1FF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1FF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ167_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ167_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ175_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ175_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ177_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ177_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ143_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ143_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ243_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ243_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ159_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ159_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ162_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ162_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ113_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ113_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ133_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ133_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ137_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ137_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1G4_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1G4_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1G5_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1G5_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZBW1_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZBW1_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ9TS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ9TS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1HM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1HM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ2HM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2HM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ2RP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2RP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1TT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1TT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1AM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1AM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1JW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1JW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1MH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1MH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1TM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1TM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1T2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1T2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ2AM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2AM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ2CR_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2CR_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1SC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1SC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1PB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1PB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1JN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1JN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1J2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1J2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1MK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1MK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1CA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1CA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ2TM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2TM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ2T1_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2T1_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ2T2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2T2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1JA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1JA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1BC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1BC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1JL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1JL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1AL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1AL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1MW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1MW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1MS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1MS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1AJ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1AJ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1GF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1GF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1G2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1G2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1BP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1BP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1JF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1JF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_AZ1CI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1CI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1KM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1KM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1OV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1OV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1JB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1JB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1BG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1BG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1TM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1TM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1BM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1BM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1MD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1MD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_AZ1JB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1JB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1AD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1AD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1ML_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1ML_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1FA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1FA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ2SA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2SA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1SL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1SL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_AZ1CM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1CM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_AZ1WH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1WH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_AZ1YU_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1YU_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_AZ1WX_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1WX_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_AZ1XF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1XF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_AZ1XT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1XT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_AZ1YP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1YP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1XH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1XH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1X2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1X2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1TB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1TB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1TD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1TD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1TK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1TK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1YE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1YE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1TE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1TE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ1TI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1TI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1YI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1YI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1YW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1YW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1UE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1MJ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1MJ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1VG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1VG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1VJ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1VJ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1MI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1MI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1XD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1XD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1XB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1XB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1WT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1WT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1XA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1XA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1RB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1RB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ2KF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2KF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ148_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ148_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ8GM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ8GM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1BH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1BH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ114_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ114_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1A6_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1A6_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ139_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ139_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1VL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1VL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1VK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1VK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1LR_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1LR_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1UV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1WV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1WV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ4KC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ4KC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1UO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1XC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1XC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1YN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1YN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1UI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1UU_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UU_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1UW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1VC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1VC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1UX_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UX_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1UZ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UZ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1CM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1CM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ1JI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1JI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZJI2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZJI2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ2MS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2MS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_QZ3JB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ3JB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ2JN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2JN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1RD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1RD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_WZ8JP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ8JP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201802_CZ1DG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1DG_Focus_Feedback.xlsx</t>
   </si>
 </sst>
 </file>
@@ -2508,9 +2508,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2571,7 +2569,7 @@
         <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>559</v>
+        <v>191</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2581,20 +2579,20 @@
       </c>
       <c r="G2" t="str">
         <f>K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1SD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1SD_Weekly Sales.pdf</v>
       </c>
       <c r="H2" t="str">
         <f>K2&amp;"\"&amp;M2</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1SD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1SD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K2" t="s">
         <v>188</v>
       </c>
       <c r="L2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2606,7 +2604,7 @@
       </c>
       <c r="D3" t="str">
         <f>$D$2</f>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2616,20 +2614,20 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G64" si="0">K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1SD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1SD_Weekly Sales.pdf</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H64" si="1">K3&amp;"\"&amp;M3</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1SD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1SD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K3" t="s">
         <v>188</v>
       </c>
       <c r="L3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2641,7 +2639,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D66" si="2">$D$2</f>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2651,20 +2649,20 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ125_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ125_Weekly Sales.pdf</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ125_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ125_Focus_Feedback.xlsx</v>
       </c>
       <c r="K4" t="s">
         <v>188</v>
       </c>
       <c r="L4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2676,7 +2674,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2686,20 +2684,20 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ124_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ124_Weekly Sales.pdf</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ124_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ124_Focus_Feedback.xlsx</v>
       </c>
       <c r="K5" t="s">
         <v>188</v>
       </c>
       <c r="L5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2711,7 +2709,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2721,20 +2719,20 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ132_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ132_Weekly Sales.pdf</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ132_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ132_Focus_Feedback.xlsx</v>
       </c>
       <c r="K6" t="s">
         <v>188</v>
       </c>
       <c r="L6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2746,7 +2744,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2756,20 +2754,20 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ128_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ128_Weekly Sales.pdf</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ128_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ128_Focus_Feedback.xlsx</v>
       </c>
       <c r="K7" t="s">
         <v>188</v>
       </c>
       <c r="L7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2781,7 +2779,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2791,20 +2789,20 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ144_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ144_Weekly Sales.pdf</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ144_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ144_Focus_Feedback.xlsx</v>
       </c>
       <c r="K8" t="s">
         <v>188</v>
       </c>
       <c r="L8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2816,7 +2814,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2826,20 +2824,20 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ165_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ165_Weekly Sales.pdf</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ165_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ165_Focus_Feedback.xlsx</v>
       </c>
       <c r="K9" t="s">
         <v>188</v>
       </c>
       <c r="L9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2851,7 +2849,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2861,20 +2859,20 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ177_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ177_Weekly Sales.pdf</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ177_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ177_Focus_Feedback.xlsx</v>
       </c>
       <c r="K10" t="s">
         <v>188</v>
       </c>
       <c r="L10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2886,7 +2884,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2896,20 +2894,20 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ178_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ178_Weekly Sales.pdf</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ178_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ178_Focus_Feedback.xlsx</v>
       </c>
       <c r="K11" t="s">
         <v>188</v>
       </c>
       <c r="L11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2921,7 +2919,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2931,20 +2929,20 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ183_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ183_Weekly Sales.pdf</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ183_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ183_Focus_Feedback.xlsx</v>
       </c>
       <c r="K12" t="s">
         <v>188</v>
       </c>
       <c r="L12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2956,7 +2954,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2966,20 +2964,20 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ107_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ107_Weekly Sales.pdf</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ107_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ107_Focus_Feedback.xlsx</v>
       </c>
       <c r="K13" t="s">
         <v>188</v>
       </c>
       <c r="L13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2991,7 +2989,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3001,20 +2999,20 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ109_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ109_Weekly Sales.pdf</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ109_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ109_Focus_Feedback.xlsx</v>
       </c>
       <c r="K14" t="s">
         <v>188</v>
       </c>
       <c r="L14" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3026,7 +3024,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3036,20 +3034,20 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ112_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ112_Weekly Sales.pdf</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ112_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ112_Focus_Feedback.xlsx</v>
       </c>
       <c r="K15" t="s">
         <v>188</v>
       </c>
       <c r="L15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3061,7 +3059,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3071,20 +3069,20 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1CP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1CP_Weekly Sales.pdf</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1CP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1CP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K16" t="s">
         <v>188</v>
       </c>
       <c r="L16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -3096,7 +3094,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3106,20 +3104,20 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ154_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ154_Weekly Sales.pdf</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ154_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ154_Focus_Feedback.xlsx</v>
       </c>
       <c r="K17" t="s">
         <v>188</v>
       </c>
       <c r="L17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -3131,7 +3129,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3141,20 +3139,20 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1KD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1KD_Weekly Sales.pdf</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1KD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1KD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K18" t="s">
         <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -3166,7 +3164,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3176,20 +3174,20 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1CF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1CF_Weekly Sales.pdf</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1CF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1CF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K19" t="s">
         <v>188</v>
       </c>
       <c r="L19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -3201,7 +3199,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3211,20 +3209,20 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1EM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1EM_Weekly Sales.pdf</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1EM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1EM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K20" t="s">
         <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M20" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -3236,7 +3234,7 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3246,20 +3244,20 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1DP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1DP_Weekly Sales.pdf</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1DP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1DP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K21" t="s">
         <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -3271,7 +3269,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3281,20 +3279,20 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1DA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1DA_Weekly Sales.pdf</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1DA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1DA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K22" t="s">
         <v>188</v>
       </c>
       <c r="L22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -3306,7 +3304,7 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3316,20 +3314,20 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1LM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1LM_Weekly Sales.pdf</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1LM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1LM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K23" t="s">
         <v>188</v>
       </c>
       <c r="L23" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -3341,7 +3339,7 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3351,20 +3349,20 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1EE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1EE_Weekly Sales.pdf</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1EE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1EE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K24" t="s">
         <v>188</v>
       </c>
       <c r="L24" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -3376,7 +3374,7 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3386,20 +3384,20 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1E2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1E2_Weekly Sales.pdf</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1E2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1E2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K25" t="s">
         <v>188</v>
       </c>
       <c r="L25" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -3411,7 +3409,7 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3421,20 +3419,20 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1EK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1EK_Weekly Sales.pdf</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1EK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1EK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K26" t="s">
         <v>188</v>
       </c>
       <c r="L26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -3446,7 +3444,7 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3456,20 +3454,20 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1FB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1FB_Weekly Sales.pdf</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1FB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1FB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K27" t="s">
         <v>188</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -3481,7 +3479,7 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3491,20 +3489,20 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1FP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1FP_Weekly Sales.pdf</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1FP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1FP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K28" t="s">
         <v>188</v>
       </c>
       <c r="L28" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M28" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -3516,7 +3514,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3526,20 +3524,20 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1FT_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1FT_Weekly Sales.pdf</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1FT_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1FT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K29" t="s">
         <v>188</v>
       </c>
       <c r="L29" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -3551,7 +3549,7 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3561,20 +3559,20 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1FR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1FR_Weekly Sales.pdf</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1FR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1FR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K30" t="s">
         <v>188</v>
       </c>
       <c r="L30" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -3586,7 +3584,7 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3596,20 +3594,20 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1GO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1GO_Weekly Sales.pdf</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1GO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1GO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K31" t="s">
         <v>188</v>
       </c>
       <c r="L31" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -3621,7 +3619,7 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3631,20 +3629,20 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1KL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1KL_Weekly Sales.pdf</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1KL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1KL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K32" t="s">
         <v>188</v>
       </c>
       <c r="L32" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M32" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -3656,7 +3654,7 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3666,20 +3664,20 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1KK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1KK_Weekly Sales.pdf</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1KK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1KK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K33" t="s">
         <v>188</v>
       </c>
       <c r="L33" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -3691,7 +3689,7 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3701,20 +3699,20 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1DN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1DN_Weekly Sales.pdf</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1DN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1DN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K34" t="s">
         <v>188</v>
       </c>
       <c r="L34" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M34" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -3726,7 +3724,7 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3736,20 +3734,20 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1EO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1EO_Weekly Sales.pdf</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1EO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1EO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K35" t="s">
         <v>188</v>
       </c>
       <c r="L35" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M35" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -3761,7 +3759,7 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3771,20 +3769,20 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1CB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1CB_Weekly Sales.pdf</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1CB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1CB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K36" t="s">
         <v>188</v>
       </c>
       <c r="L36" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M36" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -3796,7 +3794,7 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3806,20 +3804,20 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1B8_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1B8_Weekly Sales.pdf</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1B8_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1B8_Focus_Feedback.xlsx</v>
       </c>
       <c r="K37" t="s">
         <v>188</v>
       </c>
       <c r="L37" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M37" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -3831,7 +3829,7 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3841,20 +3839,20 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1C4_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1C4_Weekly Sales.pdf</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1C4_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1C4_Focus_Feedback.xlsx</v>
       </c>
       <c r="K38" t="s">
         <v>188</v>
       </c>
       <c r="L38" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M38" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -3866,7 +3864,7 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3876,20 +3874,20 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1D8_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1D8_Weekly Sales.pdf</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1D8_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1D8_Focus_Feedback.xlsx</v>
       </c>
       <c r="K39" t="s">
         <v>188</v>
       </c>
       <c r="L39" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M39" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -3901,7 +3899,7 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3911,20 +3909,20 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1SW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1SW_Weekly Sales.pdf</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1SW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1SW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K40" t="s">
         <v>188</v>
       </c>
       <c r="L40" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M40" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3936,7 +3934,7 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3946,20 +3944,20 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1AP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1AP_Weekly Sales.pdf</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1AP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1AP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K41" t="s">
         <v>188</v>
       </c>
       <c r="L41" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M41" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -3971,7 +3969,7 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3981,20 +3979,20 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2CB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2CB_Weekly Sales.pdf</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2CB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2CB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K42" t="s">
         <v>188</v>
       </c>
       <c r="L42" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M42" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -4006,7 +4004,7 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4016,20 +4014,20 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1CG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1CG_Weekly Sales.pdf</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1CG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1CG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K43" t="s">
         <v>188</v>
       </c>
       <c r="L43" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M43" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -4041,7 +4039,7 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4051,20 +4049,20 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1PV_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1PV_Weekly Sales.pdf</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1PV_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1PV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K44" t="s">
         <v>188</v>
       </c>
       <c r="L44" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M44" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -4076,7 +4074,7 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4086,20 +4084,20 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ3CB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ3CB_Weekly Sales.pdf</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ3CB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ3CB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K45" t="s">
         <v>188</v>
       </c>
       <c r="L45" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M45" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -4111,7 +4109,7 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -4121,20 +4119,20 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ5CS_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ5CS_Weekly Sales.pdf</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ5CS_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ5CS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K46" t="s">
         <v>188</v>
       </c>
       <c r="L46" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M46" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -4146,7 +4144,7 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4156,20 +4154,20 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ8JA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ8JA_Weekly Sales.pdf</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ8JA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ8JA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K47" t="s">
         <v>188</v>
       </c>
       <c r="L47" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M47" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -4181,7 +4179,7 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4191,20 +4189,20 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ7JM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ7JM_Weekly Sales.pdf</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ7JM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ7JM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K48" t="s">
         <v>188</v>
       </c>
       <c r="L48" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M48" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -4216,7 +4214,7 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4226,20 +4224,20 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ7DO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ7DO_Weekly Sales.pdf</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ7DO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ7DO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K49" t="s">
         <v>188</v>
       </c>
       <c r="L49" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M49" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -4251,7 +4249,7 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -4261,20 +4259,20 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ5TA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ5TA_Weekly Sales.pdf</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ5TA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ5TA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K50" t="s">
         <v>188</v>
       </c>
       <c r="L50" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M50" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -4286,7 +4284,7 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -4296,20 +4294,20 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2LB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2LB_Weekly Sales.pdf</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2LB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2LB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K51" t="s">
         <v>188</v>
       </c>
       <c r="L51" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M51" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -4321,7 +4319,7 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -4331,20 +4329,20 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2GB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2GB_Weekly Sales.pdf</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2GB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2GB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K52" t="s">
         <v>188</v>
       </c>
       <c r="L52" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M52" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -4356,7 +4354,7 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -4366,20 +4364,20 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2LH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2LH_Weekly Sales.pdf</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2LH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2LH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K53" t="s">
         <v>188</v>
       </c>
       <c r="L53" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M53" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -4391,7 +4389,7 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -4401,20 +4399,20 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2NM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2NM_Weekly Sales.pdf</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2NM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2NM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K54" t="s">
         <v>188</v>
       </c>
       <c r="L54" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M54" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
@@ -4426,7 +4424,7 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -4436,20 +4434,20 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ2SB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ2SB_Weekly Sales.pdf</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ2SB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ2SB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K55" t="s">
         <v>188</v>
       </c>
       <c r="L55" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M55" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
@@ -4461,7 +4459,7 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4471,20 +4469,20 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2BG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2BG_Weekly Sales.pdf</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2BG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2BG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K56" t="s">
         <v>188</v>
       </c>
       <c r="L56" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M56" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
@@ -4496,7 +4494,7 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4506,20 +4504,20 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1SA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1SA_Weekly Sales.pdf</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1SA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1SA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K57" t="s">
         <v>188</v>
       </c>
       <c r="L57" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M57" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -4531,7 +4529,7 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4541,20 +4539,20 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1FA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1FA_Weekly Sales.pdf</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1FA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1FA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K58" t="s">
         <v>188</v>
       </c>
       <c r="L58" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M58" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
@@ -4566,7 +4564,7 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4576,20 +4574,20 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ115_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ115_Weekly Sales.pdf</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ115_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ115_Focus_Feedback.xlsx</v>
       </c>
       <c r="K59" t="s">
         <v>188</v>
       </c>
       <c r="L59" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M59" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
@@ -4601,7 +4599,7 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4611,20 +4609,20 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ120_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ120_Weekly Sales.pdf</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ120_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ120_Focus_Feedback.xlsx</v>
       </c>
       <c r="K60" t="s">
         <v>188</v>
       </c>
       <c r="L60" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M60" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
@@ -4636,7 +4634,7 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4646,20 +4644,20 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ118_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ118_Weekly Sales.pdf</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ118_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ118_Focus_Feedback.xlsx</v>
       </c>
       <c r="K61" t="s">
         <v>188</v>
       </c>
       <c r="L61" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M61" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
@@ -4671,7 +4669,7 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4681,20 +4679,20 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ119_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ119_Weekly Sales.pdf</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ119_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ119_Focus_Feedback.xlsx</v>
       </c>
       <c r="K62" t="s">
         <v>188</v>
       </c>
       <c r="L62" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M62" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
@@ -4706,7 +4704,7 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4716,20 +4714,20 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ138_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ138_Weekly Sales.pdf</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ138_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ138_Focus_Feedback.xlsx</v>
       </c>
       <c r="K63" t="s">
         <v>188</v>
       </c>
       <c r="L63" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M63" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -4741,7 +4739,7 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4751,20 +4749,20 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ142_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ142_Weekly Sales.pdf</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ142_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ142_Focus_Feedback.xlsx</v>
       </c>
       <c r="K64" t="s">
         <v>188</v>
       </c>
       <c r="L64" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M64" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
@@ -4776,7 +4774,7 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4786,20 +4784,20 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" ref="G65:G124" si="3">K65&amp;"\"&amp;L65</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ134_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ134_Weekly Sales.pdf</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" ref="H65:H124" si="4">K65&amp;"\"&amp;M65</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ134_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ134_Focus_Feedback.xlsx</v>
       </c>
       <c r="K65" t="s">
         <v>188</v>
       </c>
       <c r="L65" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M65" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
@@ -4811,7 +4809,7 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4821,20 +4819,20 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ123_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ123_Weekly Sales.pdf</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ123_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ123_Focus_Feedback.xlsx</v>
       </c>
       <c r="K66" t="s">
         <v>188</v>
       </c>
       <c r="L66" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M66" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -4846,7 +4844,7 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D126" si="5">$D$2</f>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4856,20 +4854,20 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ136_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ136_Weekly Sales.pdf</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ136_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ136_Focus_Feedback.xlsx</v>
       </c>
       <c r="K67" t="s">
         <v>188</v>
       </c>
       <c r="L67" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M67" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
@@ -4881,7 +4879,7 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4891,20 +4889,20 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ165_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ165_Weekly Sales.pdf</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ165_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ165_Focus_Feedback.xlsx</v>
       </c>
       <c r="K68" t="s">
         <v>188</v>
       </c>
       <c r="L68" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M68" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
@@ -4916,7 +4914,7 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4926,20 +4924,20 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1FF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1FF_Weekly Sales.pdf</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1FF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1FF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K69" t="s">
         <v>188</v>
       </c>
       <c r="L69" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M69" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
@@ -4951,7 +4949,7 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4961,20 +4959,20 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ167_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ167_Weekly Sales.pdf</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ167_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ167_Focus_Feedback.xlsx</v>
       </c>
       <c r="K70" t="s">
         <v>188</v>
       </c>
       <c r="L70" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M70" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -4986,7 +4984,7 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4996,20 +4994,20 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ175_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ175_Weekly Sales.pdf</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ175_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ175_Focus_Feedback.xlsx</v>
       </c>
       <c r="K71" t="s">
         <v>188</v>
       </c>
       <c r="L71" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M71" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
@@ -5021,7 +5019,7 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -5031,20 +5029,20 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ177_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ177_Weekly Sales.pdf</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ177_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ177_Focus_Feedback.xlsx</v>
       </c>
       <c r="K72" t="s">
         <v>188</v>
       </c>
       <c r="L72" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M72" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
@@ -5056,7 +5054,7 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -5066,20 +5064,20 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ143_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ143_Weekly Sales.pdf</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ143_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ143_Focus_Feedback.xlsx</v>
       </c>
       <c r="K73" t="s">
         <v>188</v>
       </c>
       <c r="L73" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M73" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
@@ -5091,7 +5089,7 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -5101,20 +5099,20 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ243_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ243_Weekly Sales.pdf</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ243_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ243_Focus_Feedback.xlsx</v>
       </c>
       <c r="K74" t="s">
         <v>188</v>
       </c>
       <c r="L74" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M74" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
@@ -5126,7 +5124,7 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -5136,20 +5134,20 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ159_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ159_Weekly Sales.pdf</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ159_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ159_Focus_Feedback.xlsx</v>
       </c>
       <c r="K75" t="s">
         <v>188</v>
       </c>
       <c r="L75" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M75" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
@@ -5161,7 +5159,7 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -5171,20 +5169,20 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ162_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ162_Weekly Sales.pdf</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ162_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ162_Focus_Feedback.xlsx</v>
       </c>
       <c r="K76" t="s">
         <v>188</v>
       </c>
       <c r="L76" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M76" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -5196,7 +5194,7 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -5206,20 +5204,20 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ113_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ113_Weekly Sales.pdf</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ113_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ113_Focus_Feedback.xlsx</v>
       </c>
       <c r="K77" t="s">
         <v>188</v>
       </c>
       <c r="L77" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M77" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
@@ -5231,7 +5229,7 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -5241,20 +5239,20 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ133_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ133_Weekly Sales.pdf</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ133_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ133_Focus_Feedback.xlsx</v>
       </c>
       <c r="K78" t="s">
         <v>188</v>
       </c>
       <c r="L78" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M78" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -5266,7 +5264,7 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -5276,20 +5274,20 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ137_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ137_Weekly Sales.pdf</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ137_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ137_Focus_Feedback.xlsx</v>
       </c>
       <c r="K79" t="s">
         <v>188</v>
       </c>
       <c r="L79" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M79" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
@@ -5301,7 +5299,7 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -5311,20 +5309,20 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1G4_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1G4_Weekly Sales.pdf</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1G4_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1G4_Focus_Feedback.xlsx</v>
       </c>
       <c r="K80" t="s">
         <v>188</v>
       </c>
       <c r="L80" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M80" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
@@ -5336,7 +5334,7 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5346,20 +5344,20 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1G5_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1G5_Weekly Sales.pdf</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1G5_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1G5_Focus_Feedback.xlsx</v>
       </c>
       <c r="K81" t="s">
         <v>188</v>
       </c>
       <c r="L81" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M81" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
@@ -5371,7 +5369,7 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5381,20 +5379,20 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZBW1_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZBW1_Weekly Sales.pdf</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZBW1_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZBW1_Focus_Feedback.xlsx</v>
       </c>
       <c r="K82" t="s">
         <v>188</v>
       </c>
       <c r="L82" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M82" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
@@ -5406,7 +5404,7 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5416,20 +5414,20 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ9TS_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ9TS_Weekly Sales.pdf</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ9TS_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ9TS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K83" t="s">
         <v>188</v>
       </c>
       <c r="L83" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M83" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
@@ -5441,7 +5439,7 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5451,20 +5449,20 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1HM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1HM_Weekly Sales.pdf</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1HM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K84" t="s">
         <v>188</v>
       </c>
       <c r="L84" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M84" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
@@ -5476,7 +5474,7 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -5486,20 +5484,20 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2HM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2HM_Weekly Sales.pdf</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2HM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K85" t="s">
         <v>188</v>
       </c>
       <c r="L85" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M85" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
@@ -5511,7 +5509,7 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5521,20 +5519,20 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1HM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1HM_Weekly Sales.pdf</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1HM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K86" t="s">
         <v>188</v>
       </c>
       <c r="L86" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M86" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
@@ -5546,7 +5544,7 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5556,20 +5554,20 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2HM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2HM_Weekly Sales.pdf</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2HM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K87" t="s">
         <v>188</v>
       </c>
       <c r="L87" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M87" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
@@ -5581,7 +5579,7 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5591,20 +5589,20 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2RP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2RP_Weekly Sales.pdf</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2RP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2RP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K88" t="s">
         <v>188</v>
       </c>
       <c r="L88" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M88" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
@@ -5616,7 +5614,7 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5626,20 +5624,20 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1TT_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1TT_Weekly Sales.pdf</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1TT_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1TT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K89" t="s">
         <v>188</v>
       </c>
       <c r="L89" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M89" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
@@ -5651,7 +5649,7 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5661,20 +5659,20 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1AM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1AM_Weekly Sales.pdf</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1AM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1AM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K90" t="s">
         <v>188</v>
       </c>
       <c r="L90" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M90" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
@@ -5686,7 +5684,7 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5696,20 +5694,20 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1JW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JW_Weekly Sales.pdf</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1JW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K91" t="s">
         <v>188</v>
       </c>
       <c r="L91" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M91" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
@@ -5721,7 +5719,7 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5731,20 +5729,20 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1MH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1MH_Weekly Sales.pdf</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1MH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1MH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K92" t="s">
         <v>188</v>
       </c>
       <c r="L92" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M92" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
@@ -5756,7 +5754,7 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5766,20 +5764,20 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K93" t="s">
         <v>188</v>
       </c>
       <c r="L93" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M93" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
@@ -5791,7 +5789,7 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5801,20 +5799,20 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1T2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1T2_Weekly Sales.pdf</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1T2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1T2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K94" t="s">
         <v>188</v>
       </c>
       <c r="L94" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M94" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
@@ -5826,7 +5824,7 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5836,20 +5834,20 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2AM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2AM_Weekly Sales.pdf</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2AM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2AM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K95" t="s">
         <v>188</v>
       </c>
       <c r="L95" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M95" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
@@ -5861,7 +5859,7 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5871,20 +5869,20 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2CR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2CR_Weekly Sales.pdf</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2CR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2CR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K96" t="s">
         <v>188</v>
       </c>
       <c r="L96" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M96" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
@@ -5896,7 +5894,7 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5906,20 +5904,20 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1SC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1SC_Weekly Sales.pdf</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1SC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1SC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K97" t="s">
         <v>188</v>
       </c>
       <c r="L97" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M97" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
@@ -5931,7 +5929,7 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5941,20 +5939,20 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1PB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1PB_Weekly Sales.pdf</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1PB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1PB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K98" t="s">
         <v>188</v>
       </c>
       <c r="L98" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M98" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
@@ -5966,7 +5964,7 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5976,20 +5974,20 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1JN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JN_Weekly Sales.pdf</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1JN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K99" t="s">
         <v>188</v>
       </c>
       <c r="L99" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M99" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
@@ -6001,7 +5999,7 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -6011,20 +6009,20 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1J2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1J2_Weekly Sales.pdf</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1J2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1J2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K100" t="s">
         <v>188</v>
       </c>
       <c r="L100" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M100" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
@@ -6036,7 +6034,7 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -6046,20 +6044,20 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1MK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1MK_Weekly Sales.pdf</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1MK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1MK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K101" t="s">
         <v>188</v>
       </c>
       <c r="L101" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M101" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
@@ -6071,7 +6069,7 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6081,20 +6079,20 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1CA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1CA_Weekly Sales.pdf</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1CA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1CA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K102" t="s">
         <v>188</v>
       </c>
       <c r="L102" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M102" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
@@ -6106,7 +6104,7 @@
       </c>
       <c r="D103" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6116,20 +6114,20 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2TM_Weekly Sales.pdf</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K103" t="s">
         <v>188</v>
       </c>
       <c r="L103" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M103" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
@@ -6141,7 +6139,7 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6151,20 +6149,20 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2T1_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2T1_Weekly Sales.pdf</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2T1_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2T1_Focus_Feedback.xlsx</v>
       </c>
       <c r="K104" t="s">
         <v>188</v>
       </c>
       <c r="L104" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M104" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
@@ -6176,7 +6174,7 @@
       </c>
       <c r="D105" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6186,20 +6184,20 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2T2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2T2_Weekly Sales.pdf</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2T2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2T2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K105" t="s">
         <v>188</v>
       </c>
       <c r="L105" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M105" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
@@ -6211,7 +6209,7 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6221,20 +6219,20 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1JA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JA_Weekly Sales.pdf</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1JA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K106" t="s">
         <v>188</v>
       </c>
       <c r="L106" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M106" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
@@ -6246,7 +6244,7 @@
       </c>
       <c r="D107" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6256,20 +6254,20 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1BC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1BC_Weekly Sales.pdf</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1BC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1BC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K107" t="s">
         <v>188</v>
       </c>
       <c r="L107" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M107" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
@@ -6281,7 +6279,7 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -6291,20 +6289,20 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1JL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JL_Weekly Sales.pdf</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1JL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K108" t="s">
         <v>188</v>
       </c>
       <c r="L108" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M108" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
@@ -6316,7 +6314,7 @@
       </c>
       <c r="D109" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6326,20 +6324,20 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1AL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1AL_Weekly Sales.pdf</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1AL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1AL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K109" t="s">
         <v>188</v>
       </c>
       <c r="L109" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M109" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
@@ -6351,7 +6349,7 @@
       </c>
       <c r="D110" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6361,20 +6359,20 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1MW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1MW_Weekly Sales.pdf</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1MW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1MW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K110" t="s">
         <v>188</v>
       </c>
       <c r="L110" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M110" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
@@ -6386,7 +6384,7 @@
       </c>
       <c r="D111" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -6396,20 +6394,20 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1MS_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1MS_Weekly Sales.pdf</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1MS_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1MS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K111" t="s">
         <v>188</v>
       </c>
       <c r="L111" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M111" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
@@ -6421,7 +6419,7 @@
       </c>
       <c r="D112" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6431,20 +6429,20 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1AJ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1AJ_Weekly Sales.pdf</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1AJ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1AJ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K112" t="s">
         <v>188</v>
       </c>
       <c r="L112" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M112" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
@@ -6456,7 +6454,7 @@
       </c>
       <c r="D113" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6466,20 +6464,20 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1GF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1GF_Weekly Sales.pdf</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1GF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1GF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K113" t="s">
         <v>188</v>
       </c>
       <c r="L113" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M113" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
@@ -6491,7 +6489,7 @@
       </c>
       <c r="D114" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6501,20 +6499,20 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1G2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1G2_Weekly Sales.pdf</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1G2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1G2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K114" t="s">
         <v>188</v>
       </c>
       <c r="L114" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M114" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
@@ -6526,7 +6524,7 @@
       </c>
       <c r="D115" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6536,20 +6534,20 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1BP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1BP_Weekly Sales.pdf</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1BP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1BP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K115" t="s">
         <v>188</v>
       </c>
       <c r="L115" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M115" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
@@ -6561,7 +6559,7 @@
       </c>
       <c r="D116" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6571,20 +6569,20 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1JF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1JF_Weekly Sales.pdf</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1JF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1JF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K116" t="s">
         <v>188</v>
       </c>
       <c r="L116" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M116" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
@@ -6596,7 +6594,7 @@
       </c>
       <c r="D117" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -6606,20 +6604,20 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1CI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1CI_Weekly Sales.pdf</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1CI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1CI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K117" t="s">
         <v>188</v>
       </c>
       <c r="L117" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M117" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
@@ -6631,7 +6629,7 @@
       </c>
       <c r="D118" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6641,20 +6639,20 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1KM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1KM_Weekly Sales.pdf</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1KM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1KM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K118" t="s">
         <v>188</v>
       </c>
       <c r="L118" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M118" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
@@ -6666,7 +6664,7 @@
       </c>
       <c r="D119" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6676,20 +6674,20 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1OV_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1OV_Weekly Sales.pdf</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1OV_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1OV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K119" t="s">
         <v>188</v>
       </c>
       <c r="L119" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M119" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
@@ -6701,7 +6699,7 @@
       </c>
       <c r="D120" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6711,20 +6709,20 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1JB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1JB_Weekly Sales.pdf</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1JB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K120" t="s">
         <v>188</v>
       </c>
       <c r="L120" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M120" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
@@ -6736,7 +6734,7 @@
       </c>
       <c r="D121" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6746,20 +6744,20 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1BG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1BG_Weekly Sales.pdf</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1BG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1BG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K121" t="s">
         <v>188</v>
       </c>
       <c r="L121" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M121" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
@@ -6771,7 +6769,7 @@
       </c>
       <c r="D122" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6781,20 +6779,20 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K122" t="s">
         <v>188</v>
       </c>
       <c r="L122" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M122" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
@@ -6806,7 +6804,7 @@
       </c>
       <c r="D123" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6816,20 +6814,20 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1BM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1BM_Weekly Sales.pdf</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1BM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1BM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K123" t="s">
         <v>188</v>
       </c>
       <c r="L123" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M123" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
@@ -6841,7 +6839,7 @@
       </c>
       <c r="D124" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6851,20 +6849,20 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1MD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1MD_Weekly Sales.pdf</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1MD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1MD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K124" t="s">
         <v>188</v>
       </c>
       <c r="L124" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M124" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
@@ -6876,7 +6874,7 @@
       </c>
       <c r="D125" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6886,20 +6884,20 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" ref="G125:G190" si="6">K125&amp;"\"&amp;L125</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1JB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1JB_Weekly Sales.pdf</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" ref="H125:H190" si="7">K125&amp;"\"&amp;M125</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1JB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K125" t="s">
         <v>188</v>
       </c>
       <c r="L125" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M125" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
@@ -6911,7 +6909,7 @@
       </c>
       <c r="D126" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6921,20 +6919,20 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1AD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1AD_Weekly Sales.pdf</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1AD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1AD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K126" t="s">
         <v>188</v>
       </c>
       <c r="L126" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M126" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
@@ -6946,7 +6944,7 @@
       </c>
       <c r="D127" t="str">
         <f t="shared" ref="D127:D192" si="8">$D$2</f>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6956,20 +6954,20 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1ML_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1ML_Weekly Sales.pdf</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1ML_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1ML_Focus_Feedback.xlsx</v>
       </c>
       <c r="K127" t="s">
         <v>188</v>
       </c>
       <c r="L127" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M127" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
@@ -6981,7 +6979,7 @@
       </c>
       <c r="D128" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -6991,20 +6989,20 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1FA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1FA_Weekly Sales.pdf</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1FA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1FA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K128" t="s">
         <v>188</v>
       </c>
       <c r="L128" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M128" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
@@ -7016,7 +7014,7 @@
       </c>
       <c r="D129" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -7026,20 +7024,20 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2SA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2SA_Weekly Sales.pdf</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2SA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2SA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K129" t="s">
         <v>188</v>
       </c>
       <c r="L129" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M129" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
@@ -7051,7 +7049,7 @@
       </c>
       <c r="D130" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -7061,20 +7059,20 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1SL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1SL_Weekly Sales.pdf</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1SL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1SL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K130" t="s">
         <v>188</v>
       </c>
       <c r="L130" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M130" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
@@ -7086,7 +7084,7 @@
       </c>
       <c r="D131" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -7096,20 +7094,20 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1CM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1CM_Weekly Sales.pdf</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1CM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1CM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K131" t="s">
         <v>188</v>
       </c>
       <c r="L131" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M131" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
@@ -7121,7 +7119,7 @@
       </c>
       <c r="D132" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -7131,20 +7129,20 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1WH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1WH_Weekly Sales.pdf</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1WH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1WH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K132" t="s">
         <v>188</v>
       </c>
       <c r="L132" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M132" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
@@ -7156,7 +7154,7 @@
       </c>
       <c r="D133" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7166,20 +7164,20 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1YU_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1YU_Weekly Sales.pdf</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1YU_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1YU_Focus_Feedback.xlsx</v>
       </c>
       <c r="K133" t="s">
         <v>188</v>
       </c>
       <c r="L133" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M133" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
@@ -7191,7 +7189,7 @@
       </c>
       <c r="D134" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7201,20 +7199,20 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1WX_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1WX_Weekly Sales.pdf</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1WX_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1WX_Focus_Feedback.xlsx</v>
       </c>
       <c r="K134" t="s">
         <v>188</v>
       </c>
       <c r="L134" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M134" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
@@ -7226,7 +7224,7 @@
       </c>
       <c r="D135" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -7236,20 +7234,20 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1XF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1XF_Weekly Sales.pdf</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1XF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1XF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K135" t="s">
         <v>188</v>
       </c>
       <c r="L135" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M135" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
@@ -7261,7 +7259,7 @@
       </c>
       <c r="D136" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -7271,20 +7269,20 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1XT_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1XT_Weekly Sales.pdf</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1XT_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1XT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K136" t="s">
         <v>188</v>
       </c>
       <c r="L136" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M136" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
@@ -7296,7 +7294,7 @@
       </c>
       <c r="D137" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7306,20 +7304,20 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1YP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1YP_Weekly Sales.pdf</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_AZ1YP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1YP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K137" t="s">
         <v>188</v>
       </c>
       <c r="L137" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M137" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
@@ -7331,7 +7329,7 @@
       </c>
       <c r="D138" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7341,20 +7339,20 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1XH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1XH_Weekly Sales.pdf</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1XH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1XH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K138" t="s">
         <v>188</v>
       </c>
       <c r="L138" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M138" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
@@ -7366,7 +7364,7 @@
       </c>
       <c r="D139" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -7376,20 +7374,20 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1X2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1X2_Weekly Sales.pdf</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1X2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1X2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K139" t="s">
         <v>188</v>
       </c>
       <c r="L139" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M139" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
@@ -7401,7 +7399,7 @@
       </c>
       <c r="D140" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -7411,20 +7409,20 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TB_Weekly Sales.pdf</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K140" t="s">
         <v>188</v>
       </c>
       <c r="L140" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M140" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
@@ -7436,7 +7434,7 @@
       </c>
       <c r="D141" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -7446,20 +7444,20 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TD_Weekly Sales.pdf</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K141" t="s">
         <v>188</v>
       </c>
       <c r="L141" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M141" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
@@ -7471,7 +7469,7 @@
       </c>
       <c r="D142" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -7481,20 +7479,20 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TK_Weekly Sales.pdf</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K142" t="s">
         <v>188</v>
       </c>
       <c r="L142" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M142" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
@@ -7506,7 +7504,7 @@
       </c>
       <c r="D143" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -7516,20 +7514,20 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1YE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1YE_Weekly Sales.pdf</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1YE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1YE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K143" t="s">
         <v>188</v>
       </c>
       <c r="L143" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M143" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
@@ -7541,7 +7539,7 @@
       </c>
       <c r="D144" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -7551,20 +7549,20 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TE_Weekly Sales.pdf</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K144" t="s">
         <v>188</v>
       </c>
       <c r="L144" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M144" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
@@ -7576,7 +7574,7 @@
       </c>
       <c r="D145" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -7586,20 +7584,20 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TI_Weekly Sales.pdf</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1TI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K145" t="s">
         <v>188</v>
       </c>
       <c r="L145" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M145" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
@@ -7611,7 +7609,7 @@
       </c>
       <c r="D146" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -7621,20 +7619,20 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1YI_Weekly Sales.pdf</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1YI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K146" t="s">
         <v>188</v>
       </c>
       <c r="L146" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M146" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
@@ -7646,7 +7644,7 @@
       </c>
       <c r="D147" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -7656,20 +7654,20 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1YW_Weekly Sales.pdf</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1YW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K147" t="s">
         <v>188</v>
       </c>
       <c r="L147" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M147" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
@@ -7681,7 +7679,7 @@
       </c>
       <c r="D148" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -7691,20 +7689,20 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UE_Weekly Sales.pdf</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K148" t="s">
         <v>188</v>
       </c>
       <c r="L148" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M148" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
@@ -7716,7 +7714,7 @@
       </c>
       <c r="D149" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7726,20 +7724,20 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1MJ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1MJ_Weekly Sales.pdf</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1MJ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1MJ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K149" t="s">
         <v>188</v>
       </c>
       <c r="L149" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M149" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
@@ -7751,7 +7749,7 @@
       </c>
       <c r="D150" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7761,20 +7759,20 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VG_Weekly Sales.pdf</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K150" t="s">
         <v>188</v>
       </c>
       <c r="L150" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M150" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
@@ -7786,7 +7784,7 @@
       </c>
       <c r="D151" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7796,20 +7794,20 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VJ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VJ_Weekly Sales.pdf</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VJ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VJ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K151" t="s">
         <v>188</v>
       </c>
       <c r="L151" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M151" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
@@ -7821,7 +7819,7 @@
       </c>
       <c r="D152" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7831,20 +7829,20 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1MI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1MI_Weekly Sales.pdf</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1MI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1MI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K152" t="s">
         <v>188</v>
       </c>
       <c r="L152" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M152" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
@@ -7856,7 +7854,7 @@
       </c>
       <c r="D153" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7866,20 +7864,20 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1XD_Weekly Sales.pdf</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1XD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K153" t="s">
         <v>188</v>
       </c>
       <c r="L153" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M153" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
@@ -7891,7 +7889,7 @@
       </c>
       <c r="D154" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7901,20 +7899,20 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1XB_Weekly Sales.pdf</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1XB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K154" t="s">
         <v>188</v>
       </c>
       <c r="L154" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M154" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
@@ -7926,7 +7924,7 @@
       </c>
       <c r="D155" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7936,20 +7934,20 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1WT_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1WT_Weekly Sales.pdf</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1WT_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1WT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K155" t="s">
         <v>188</v>
       </c>
       <c r="L155" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M155" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
@@ -7961,7 +7959,7 @@
       </c>
       <c r="D156" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -7971,20 +7969,20 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1XA_Weekly Sales.pdf</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1XA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K156" t="s">
         <v>188</v>
       </c>
       <c r="L156" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M156" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
@@ -7996,7 +7994,7 @@
       </c>
       <c r="D157" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -8006,20 +8004,20 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1RB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1RB_Weekly Sales.pdf</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1RB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1RB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K157" t="s">
         <v>188</v>
       </c>
       <c r="L157" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M157" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
@@ -8031,7 +8029,7 @@
       </c>
       <c r="D158" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -8041,20 +8039,20 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2KF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2KF_Weekly Sales.pdf</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2KF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2KF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K158" t="s">
         <v>188</v>
       </c>
       <c r="L158" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M158" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
@@ -8066,7 +8064,7 @@
       </c>
       <c r="D159" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -8076,20 +8074,20 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ148_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ148_Weekly Sales.pdf</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ148_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ148_Focus_Feedback.xlsx</v>
       </c>
       <c r="K159" t="s">
         <v>188</v>
       </c>
       <c r="L159" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M159" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
@@ -8101,7 +8099,7 @@
       </c>
       <c r="D160" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -8111,20 +8109,20 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ8GM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ8GM_Weekly Sales.pdf</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ8GM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ8GM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K160" t="s">
         <v>188</v>
       </c>
       <c r="L160" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M160" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
@@ -8136,7 +8134,7 @@
       </c>
       <c r="D161" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -8146,20 +8144,20 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1BH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1BH_Weekly Sales.pdf</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1BH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1BH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K161" t="s">
         <v>188</v>
       </c>
       <c r="L161" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M161" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
@@ -8171,7 +8169,7 @@
       </c>
       <c r="D162" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -8181,20 +8179,20 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ114_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ114_Weekly Sales.pdf</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ114_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ114_Focus_Feedback.xlsx</v>
       </c>
       <c r="K162" t="s">
         <v>188</v>
       </c>
       <c r="L162" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M162" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
@@ -8206,7 +8204,7 @@
       </c>
       <c r="D163" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -8216,20 +8214,20 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1A6_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1A6_Weekly Sales.pdf</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1A6_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1A6_Focus_Feedback.xlsx</v>
       </c>
       <c r="K163" t="s">
         <v>188</v>
       </c>
       <c r="L163" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M163" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
@@ -8241,7 +8239,7 @@
       </c>
       <c r="D164" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -8251,20 +8249,20 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ139_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ139_Weekly Sales.pdf</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ139_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ139_Focus_Feedback.xlsx</v>
       </c>
       <c r="K164" t="s">
         <v>188</v>
       </c>
       <c r="L164" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M164" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
@@ -8276,7 +8274,7 @@
       </c>
       <c r="D165" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -8286,20 +8284,20 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VL_Weekly Sales.pdf</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K165" t="s">
         <v>188</v>
       </c>
       <c r="L165" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M165" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
@@ -8311,7 +8309,7 @@
       </c>
       <c r="D166" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -8321,20 +8319,20 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VK_Weekly Sales.pdf</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K166" t="s">
         <v>188</v>
       </c>
       <c r="L166" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M166" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
@@ -8346,7 +8344,7 @@
       </c>
       <c r="D167" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -8356,20 +8354,20 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1LR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1LR_Weekly Sales.pdf</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1LR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1LR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K167" t="s">
         <v>188</v>
       </c>
       <c r="L167" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M167" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
@@ -8381,7 +8379,7 @@
       </c>
       <c r="D168" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -8391,20 +8389,20 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UV_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UV_Weekly Sales.pdf</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UV_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K168" t="s">
         <v>188</v>
       </c>
       <c r="L168" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M168" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
@@ -8416,7 +8414,7 @@
       </c>
       <c r="D169" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -8426,20 +8424,20 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1WV_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1WV_Weekly Sales.pdf</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1WV_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1WV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K169" t="s">
         <v>188</v>
       </c>
       <c r="L169" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M169" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
@@ -8451,7 +8449,7 @@
       </c>
       <c r="D170" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -8461,20 +8459,20 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ4KC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ4KC_Weekly Sales.pdf</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ4KC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ4KC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K170" t="s">
         <v>188</v>
       </c>
       <c r="L170" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M170" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="171" spans="2:13" x14ac:dyDescent="0.25">
@@ -8486,7 +8484,7 @@
       </c>
       <c r="D171" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -8496,20 +8494,20 @@
       </c>
       <c r="G171" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UO_Weekly Sales.pdf</v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K171" t="s">
         <v>188</v>
       </c>
       <c r="L171" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M171" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.25">
@@ -8521,7 +8519,7 @@
       </c>
       <c r="D172" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8531,20 +8529,20 @@
       </c>
       <c r="G172" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1XC_Weekly Sales.pdf</v>
       </c>
       <c r="H172" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1XC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1XC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K172" t="s">
         <v>188</v>
       </c>
       <c r="L172" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M172" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.25">
@@ -8556,7 +8554,7 @@
       </c>
       <c r="D173" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -8566,20 +8564,20 @@
       </c>
       <c r="G173" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1YN_Weekly Sales.pdf</v>
       </c>
       <c r="H173" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1YN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K173" t="s">
         <v>188</v>
       </c>
       <c r="L173" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M173" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="174" spans="2:13" x14ac:dyDescent="0.25">
@@ -8591,7 +8589,7 @@
       </c>
       <c r="D174" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -8601,20 +8599,20 @@
       </c>
       <c r="G174" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UI_Weekly Sales.pdf</v>
       </c>
       <c r="H174" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K174" t="s">
         <v>188</v>
       </c>
       <c r="L174" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M174" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
@@ -8626,7 +8624,7 @@
       </c>
       <c r="D175" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -8636,20 +8634,20 @@
       </c>
       <c r="G175" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UU_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UU_Weekly Sales.pdf</v>
       </c>
       <c r="H175" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UU_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UU_Focus_Feedback.xlsx</v>
       </c>
       <c r="K175" t="s">
         <v>188</v>
       </c>
       <c r="L175" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M175" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
@@ -8661,7 +8659,7 @@
       </c>
       <c r="D176" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -8671,20 +8669,20 @@
       </c>
       <c r="G176" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UW_Weekly Sales.pdf</v>
       </c>
       <c r="H176" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K176" t="s">
         <v>188</v>
       </c>
       <c r="L176" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="M176" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
@@ -8696,7 +8694,7 @@
       </c>
       <c r="D177" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -8706,20 +8704,20 @@
       </c>
       <c r="G177" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VC_Weekly Sales.pdf</v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1VC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K177" t="s">
         <v>188</v>
       </c>
       <c r="L177" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M177" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
@@ -8731,7 +8729,7 @@
       </c>
       <c r="D178" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8741,20 +8739,20 @@
       </c>
       <c r="G178" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UX_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UX_Weekly Sales.pdf</v>
       </c>
       <c r="H178" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UX_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UX_Focus_Feedback.xlsx</v>
       </c>
       <c r="K178" t="s">
         <v>188</v>
       </c>
       <c r="L178" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="M178" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="179" spans="2:13" x14ac:dyDescent="0.25">
@@ -8766,7 +8764,7 @@
       </c>
       <c r="D179" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -8776,20 +8774,20 @@
       </c>
       <c r="G179" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UZ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UZ_Weekly Sales.pdf</v>
       </c>
       <c r="H179" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UZ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UZ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K179" t="s">
         <v>188</v>
       </c>
       <c r="L179" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M179" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
@@ -8801,7 +8799,7 @@
       </c>
       <c r="D180" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -8811,20 +8809,20 @@
       </c>
       <c r="G180" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1CM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1CM_Weekly Sales.pdf</v>
       </c>
       <c r="H180" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1CM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1CM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K180" t="s">
         <v>188</v>
       </c>
       <c r="L180" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M180" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
@@ -8836,7 +8834,7 @@
       </c>
       <c r="D181" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -8846,20 +8844,20 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1JI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JI_Weekly Sales.pdf</v>
       </c>
       <c r="H181" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1JI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K181" t="s">
         <v>188</v>
       </c>
       <c r="L181" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="M181" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
@@ -8871,7 +8869,7 @@
       </c>
       <c r="D182" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -8881,20 +8879,20 @@
       </c>
       <c r="G182" t="str">
         <f t="shared" ref="G182" si="9">K182&amp;"\"&amp;L182</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZJI2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZJI2_Weekly Sales.pdf</v>
       </c>
       <c r="H182" t="str">
         <f t="shared" ref="H182" si="10">K182&amp;"\"&amp;M182</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZJI2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZJI2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K182" t="s">
         <v>188</v>
       </c>
       <c r="L182" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="M182" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
@@ -8906,7 +8904,7 @@
       </c>
       <c r="D183" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -8916,20 +8914,20 @@
       </c>
       <c r="G183" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2MS_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2MS_Weekly Sales.pdf</v>
       </c>
       <c r="H183" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2MS_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2MS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K183" t="s">
         <v>188</v>
       </c>
       <c r="L183" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M183" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="184" spans="2:13" x14ac:dyDescent="0.25">
@@ -8941,7 +8939,7 @@
       </c>
       <c r="D184" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -8951,20 +8949,20 @@
       </c>
       <c r="G184" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ3JB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ3JB_Weekly Sales.pdf</v>
       </c>
       <c r="H184" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ3JB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ3JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K184" t="s">
         <v>188</v>
       </c>
       <c r="L184" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M184" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="185" spans="2:13" x14ac:dyDescent="0.25">
@@ -8976,7 +8974,7 @@
       </c>
       <c r="D185" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -8986,20 +8984,20 @@
       </c>
       <c r="G185" t="str">
         <f t="shared" ref="G185:G186" si="11">K185&amp;"\"&amp;L185</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2JN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2JN_Weekly Sales.pdf</v>
       </c>
       <c r="H185" t="str">
         <f t="shared" ref="H185:H186" si="12">K185&amp;"\"&amp;M185</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ2JN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2JN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K185" t="s">
         <v>188</v>
       </c>
       <c r="L185" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M185" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="186" spans="2:13" x14ac:dyDescent="0.25">
@@ -9011,7 +9009,7 @@
       </c>
       <c r="D186" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -9021,20 +9019,20 @@
       </c>
       <c r="G186" t="str">
         <f t="shared" si="11"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1RD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1RD_Weekly Sales.pdf</v>
       </c>
       <c r="H186" t="str">
         <f t="shared" si="12"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1RD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1RD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K186" t="s">
         <v>188</v>
       </c>
       <c r="L186" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M186" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="187" spans="2:13" x14ac:dyDescent="0.25">
@@ -9046,7 +9044,7 @@
       </c>
       <c r="D187" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -9056,20 +9054,20 @@
       </c>
       <c r="G187" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ7DO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ7DO_Weekly Sales.pdf</v>
       </c>
       <c r="H187" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ7DO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ7DO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K187" t="s">
         <v>188</v>
       </c>
       <c r="L187" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M187" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="188" spans="2:13" x14ac:dyDescent="0.25">
@@ -9081,7 +9079,7 @@
       </c>
       <c r="D188" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -9091,20 +9089,20 @@
       </c>
       <c r="G188" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H188" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K188" t="s">
         <v>188</v>
       </c>
       <c r="L188" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M188" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
@@ -9116,7 +9114,7 @@
       </c>
       <c r="D189" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -9126,20 +9124,20 @@
       </c>
       <c r="G189" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2CR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2CR_Weekly Sales.pdf</v>
       </c>
       <c r="H189" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ2CR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2CR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K189" t="s">
         <v>188</v>
       </c>
       <c r="L189" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M189" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
@@ -9151,7 +9149,7 @@
       </c>
       <c r="D190" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -9161,20 +9159,20 @@
       </c>
       <c r="G190" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1CA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1CA_Weekly Sales.pdf</v>
       </c>
       <c r="H190" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1CA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1CA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K190" t="s">
         <v>188</v>
       </c>
       <c r="L190" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M190" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
@@ -9186,7 +9184,7 @@
       </c>
       <c r="D191" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -9196,20 +9194,20 @@
       </c>
       <c r="G191" t="str">
         <f t="shared" ref="G191:G199" si="13">K191&amp;"\"&amp;L191</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1AL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1AL_Weekly Sales.pdf</v>
       </c>
       <c r="H191" t="str">
         <f t="shared" ref="H191:H199" si="14">K191&amp;"\"&amp;M191</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ1AL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1AL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K191" t="s">
         <v>188</v>
       </c>
       <c r="L191" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M191" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
@@ -9221,7 +9219,7 @@
       </c>
       <c r="D192" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -9231,20 +9229,20 @@
       </c>
       <c r="G192" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1GF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1GF_Weekly Sales.pdf</v>
       </c>
       <c r="H192" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1GF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1GF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K192" t="s">
         <v>188</v>
       </c>
       <c r="L192" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M192" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="193" spans="2:13" x14ac:dyDescent="0.25">
@@ -9256,7 +9254,7 @@
       </c>
       <c r="D193" t="str">
         <f t="shared" ref="D193:D201" si="15">$D$2</f>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -9266,20 +9264,20 @@
       </c>
       <c r="G193" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1G2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1G2_Weekly Sales.pdf</v>
       </c>
       <c r="H193" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1G2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1G2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K193" t="s">
         <v>188</v>
       </c>
       <c r="L193" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M193" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
@@ -9291,7 +9289,7 @@
       </c>
       <c r="D194" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -9301,20 +9299,20 @@
       </c>
       <c r="G194" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1MD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1MD_Weekly Sales.pdf</v>
       </c>
       <c r="H194" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1MD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1MD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K194" t="s">
         <v>188</v>
       </c>
       <c r="L194" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M194" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
@@ -9326,7 +9324,7 @@
       </c>
       <c r="D195" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -9336,20 +9334,20 @@
       </c>
       <c r="G195" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1YE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1YE_Weekly Sales.pdf</v>
       </c>
       <c r="H195" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QZ1YE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1YE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K195" t="s">
         <v>188</v>
       </c>
       <c r="L195" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M195" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="196" spans="2:13" x14ac:dyDescent="0.25">
@@ -9361,7 +9359,7 @@
       </c>
       <c r="D196" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -9371,20 +9369,20 @@
       </c>
       <c r="G196" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UE_Weekly Sales.pdf</v>
       </c>
       <c r="H196" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K196" t="s">
         <v>188</v>
       </c>
       <c r="L196" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M196" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
@@ -9396,7 +9394,7 @@
       </c>
       <c r="D197" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -9406,20 +9404,20 @@
       </c>
       <c r="G197" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ8GM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ8GM_Weekly Sales.pdf</v>
       </c>
       <c r="H197" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ8GM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ8GM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K197" t="s">
         <v>188</v>
       </c>
       <c r="L197" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M197" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
@@ -9431,7 +9429,7 @@
       </c>
       <c r="D198" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -9441,20 +9439,20 @@
       </c>
       <c r="G198" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UO_Weekly Sales.pdf</v>
       </c>
       <c r="H198" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1UO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K198" t="s">
         <v>188</v>
       </c>
       <c r="L198" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M198" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
@@ -9466,7 +9464,7 @@
       </c>
       <c r="D199" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -9476,20 +9474,20 @@
       </c>
       <c r="G199" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1YN_Weekly Sales.pdf</v>
       </c>
       <c r="H199" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1YN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1YN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K199" t="s">
         <v>188</v>
       </c>
       <c r="L199" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M199" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
@@ -9501,7 +9499,7 @@
       </c>
       <c r="D200" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -9511,32 +9509,32 @@
       </c>
       <c r="G200" t="str">
         <f t="shared" ref="G200" si="16">K200&amp;"\"&amp;L200</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ8JP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ8JP_Weekly Sales.pdf</v>
       </c>
       <c r="H200" t="str">
         <f t="shared" ref="H200" si="17">K200&amp;"\"&amp;M200</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_WZ8JP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ8JP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K200" t="s">
         <v>188</v>
       </c>
       <c r="L200" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="M200" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="201" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>556</v>
+        <v>190</v>
       </c>
       <c r="C201" t="s">
         <v>183</v>
       </c>
       <c r="D201" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 2 Feb 2018</v>
+        <v>Weekly FSC Sales as of 9 Feb 2018</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -9546,20 +9544,20 @@
       </c>
       <c r="G201" t="str">
         <f t="shared" ref="G201" si="18">K201&amp;"\"&amp;L201</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1DG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1DG_Weekly Sales.pdf</v>
       </c>
       <c r="H201" t="str">
         <f t="shared" ref="H201" si="19">K201&amp;"\"&amp;M201</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CZ1DG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1DG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K201" t="s">
         <v>188</v>
       </c>
       <c r="L201" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M201" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
+++ b/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="563">
   <si>
     <t>code</t>
   </si>
@@ -594,1111 +594,1120 @@
     <t>Donnalee.Gilbert@henryschein.ca</t>
   </si>
   <si>
-    <t>Weekly FSC Sales as of 9 Feb 2018</t>
-  </si>
-  <si>
-    <t>201802_CZ1SD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1SD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ125_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ125_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ124_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ124_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ132_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ132_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ128_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ128_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ144_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ144_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ165_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ165_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ177_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ177_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ178_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ178_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ183_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ183_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ107_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ107_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ109_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ109_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_AZ112_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ112_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1CP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1CP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ154_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ154_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1KD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1KD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1CF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1CF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1EM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1EM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1DP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1DP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1DA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1DA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1LM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1LM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1EE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1EE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1E2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1E2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_AZ1EK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1EK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_AZ1FB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1FB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1FP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1FP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1FT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1FT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1FR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1FR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1GO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1GO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_AZ1KL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1KL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1KK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1KK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1DN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1DN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1EO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1EO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1CB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1CB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1B8_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1B8_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1C4_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1C4_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1D8_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1D8_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1SW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1SW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1AP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1AP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ2CB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2CB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1CG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1CG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_AZ1PV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1PV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ3CB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ3CB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ5CS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ5CS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ8JA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ8JA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ7JM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ7JM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ7DO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ7DO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ5TA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ5TA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ2LB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2LB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ2GB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2GB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ2LH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2LH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ2NM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2NM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ2SB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ2SB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ2BG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2BG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1SA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1SA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1FA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1FA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ115_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ115_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ120_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ120_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ118_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ118_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ119_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ119_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ138_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ138_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ142_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ142_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ134_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ134_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ123_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ123_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ136_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ136_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ165_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ165_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1FF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1FF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ167_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ167_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ175_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ175_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ177_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ177_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ143_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ143_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ243_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ243_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ159_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ159_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ162_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ162_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ113_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ113_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ133_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ133_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ137_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ137_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1G4_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1G4_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1G5_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1G5_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZBW1_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZBW1_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ9TS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ9TS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1HM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1HM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ2HM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2HM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ2RP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2RP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1TT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1TT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1AM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1AM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1JW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1JW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1MH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1MH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1TM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1TM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1T2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1T2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ2AM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2AM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ2CR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2CR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1SC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1SC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1PB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1PB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1JN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1JN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1J2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1J2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1MK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1MK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1CA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1CA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ2TM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2TM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ2T1_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2T1_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ2T2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2T2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1JA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1JA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1BC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1BC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1JL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1JL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1AL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1AL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1MW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1MW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1MS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1MS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1AJ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1AJ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1GF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1GF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1G2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1G2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1BP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1BP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1JF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1JF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_AZ1CI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1CI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1KM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1KM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1OV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1OV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1JB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1JB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1BG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1BG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1TM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1TM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1BM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1BM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1MD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1MD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_AZ1JB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1JB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1AD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1AD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1ML_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1ML_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1FA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1FA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ2SA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2SA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1SL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1SL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_AZ1CM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1CM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_AZ1WH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1WH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_AZ1YU_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1YU_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_AZ1WX_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1WX_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_AZ1XF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1XF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_AZ1XT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1XT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_AZ1YP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1YP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1XH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1XH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1X2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1X2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1TB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1TB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1TD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1TD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1TK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1TK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1YE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1YE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1TE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1TE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ1TI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1TI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1YI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1YI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1YW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1YW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1UE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1MJ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1MJ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1VG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1VG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1VJ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1VJ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1MI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1MI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1XD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1XD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1XB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1XB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1WT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1WT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1XA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1XA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1RB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1RB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ2KF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2KF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ148_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ148_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ8GM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ8GM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1BH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1BH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ114_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ114_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1A6_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1A6_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ139_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ139_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1VL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1VL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1VK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1VK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1LR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1LR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1UV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1WV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1WV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ4KC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ4KC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1UO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1XC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1XC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1YN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1YN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1UI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1UU_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UU_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1UW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1VC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1VC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1UX_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UX_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1UZ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UZ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1CM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1CM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ1JI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1JI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZJI2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZJI2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ2MS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2MS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QZ3JB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ3JB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ2JN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2JN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1RD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1RD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WZ8JP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ8JP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CZ1DG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1DG_Focus_Feedback.xlsx</t>
+    <t>Lina.Evraire@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Weekly FSC Sales as of 26 Mar 2018</t>
+  </si>
+  <si>
+    <t>201803_CZ1SD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1SD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ125_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ125_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ124_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ124_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ132_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ132_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ128_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ128_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ144_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ144_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ165_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ165_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ177_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ177_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ178_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ178_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ183_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ183_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ107_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ107_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ109_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ109_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_AZ112_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ112_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1CP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1CP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ154_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ154_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1KD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1KD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1CF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1CF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1EM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1EM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1DP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1DP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1DA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1DA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1LM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1LM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1EE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1EE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1E2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1E2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_AZ1EK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1EK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_AZ1FB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1FB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1FP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1FP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1FT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1FT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1FR_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1FR_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1GO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1GO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_AZ1KL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1KL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1KK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1KK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1DN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1DN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1EO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1EO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1CB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1CB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1B8_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1B8_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1C4_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1C4_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1D8_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1D8_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1SW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1SW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1AP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1AP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ2CB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2CB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1CG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1CG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_AZ1PV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1PV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ3CB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ3CB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ5CS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ5CS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ8JA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ8JA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ7JM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ7JM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ7DO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ7DO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ5TA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ5TA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ2LB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2LB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ2GB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2GB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ2LH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2LH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ2NM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2NM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ2SB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ2SB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ2BG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2BG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1SA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1SA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1FA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1FA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ115_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ115_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ120_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ120_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ118_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ118_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ119_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ119_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ138_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ138_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ142_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ142_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ134_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ134_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ123_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ123_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ136_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ136_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ165_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ165_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1FF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1FF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ167_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ167_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ175_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ175_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ177_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ177_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ143_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ143_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ243_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ243_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ159_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ159_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ162_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ162_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ113_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ113_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ133_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ133_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ137_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ137_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1G4_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1G4_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1G5_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1G5_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZBW1_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZBW1_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ9TS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ9TS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1HM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1HM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ2HM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2HM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ2RP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2RP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1TT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1TT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1AM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1AM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1JW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1JW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1MH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1MH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1TM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1TM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1T2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1T2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ2AM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2AM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ2CR_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2CR_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1SC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1SC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1PB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1PB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1JN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1JN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1J2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1J2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1MK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1MK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1CA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1CA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ2TM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2TM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ2T1_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2T1_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ2T2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2T2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1JA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1JA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1BC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1BC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1JL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1JL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1AL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1AL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1MW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1MW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1MS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1MS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1AJ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1AJ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1GF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1GF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1G2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1G2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1BP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1BP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1JF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1JF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_AZ1CI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1CI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1KM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1KM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1OV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1OV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1JB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1JB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1BG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1BG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1TM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1TM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1BM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1BM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1MD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1MD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_AZ1JB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1JB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1AD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1AD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1ML_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1ML_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1FA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1FA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ2SA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2SA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1SL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1SL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_AZ1CM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1CM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_AZ1WH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1WH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_AZ1YU_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1YU_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_AZ1WX_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1WX_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_AZ1XF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1XF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_AZ1XT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1XT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_AZ1YP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1YP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1XH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1XH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1X2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1X2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1TB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1TB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1TD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1TD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1TK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1TK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1YE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1YE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1TE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1TE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ1TI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1TI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1YI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1YI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1YW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1YW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1UE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1MJ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1MJ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1VG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1VG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1VJ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1VJ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1MI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1MI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1XD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1XD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1XB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1XB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1WT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1WT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1XA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1XA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1RB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1RB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ2KF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2KF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ148_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ148_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ8GM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ8GM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1BH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1BH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ114_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ114_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1A6_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1A6_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ139_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ139_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1VL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1VL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1VK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1VK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1LR_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1LR_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1UV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1WV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1WV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ4KC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ4KC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1UO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1XC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1XC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1YN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1YN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1UI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1UU_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UU_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1UW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1VC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1VC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1UX_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UX_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1UZ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UZ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1CM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1CM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ1JI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1JI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZJI2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZJI2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ2MS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2MS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QZ3JB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ3JB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ2JN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2JN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1RD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1RD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WZ9JP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ9JP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1DG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1DG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CZ1LE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1LE_Focus_Feedback.xlsx</t>
   </si>
 </sst>
 </file>
@@ -2506,7 +2515,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M201"/>
+  <dimension ref="A1:M202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2517,7 +2526,7 @@
     <col min="8" max="8" width="24.42578125" customWidth="1"/>
     <col min="9" max="9" width="5.140625" customWidth="1"/>
     <col min="10" max="10" width="2.5703125" customWidth="1"/>
-    <col min="11" max="15" width="30.140625" customWidth="1"/>
+    <col min="11" max="13" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2569,7 +2578,7 @@
         <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2579,20 +2588,20 @@
       </c>
       <c r="G2" t="str">
         <f>K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1SD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1SD_Weekly Sales.pdf</v>
       </c>
       <c r="H2" t="str">
         <f>K2&amp;"\"&amp;M2</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1SD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1SD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K2" t="s">
         <v>188</v>
       </c>
       <c r="L2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2604,7 +2613,7 @@
       </c>
       <c r="D3" t="str">
         <f>$D$2</f>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2614,20 +2623,20 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G64" si="0">K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1SD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1SD_Weekly Sales.pdf</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H64" si="1">K3&amp;"\"&amp;M3</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1SD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1SD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K3" t="s">
         <v>188</v>
       </c>
       <c r="L3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2639,7 +2648,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D66" si="2">$D$2</f>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2649,20 +2658,20 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ125_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ125_Weekly Sales.pdf</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ125_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ125_Focus_Feedback.xlsx</v>
       </c>
       <c r="K4" t="s">
         <v>188</v>
       </c>
       <c r="L4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2674,7 +2683,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2684,20 +2693,20 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ124_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ124_Weekly Sales.pdf</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ124_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ124_Focus_Feedback.xlsx</v>
       </c>
       <c r="K5" t="s">
         <v>188</v>
       </c>
       <c r="L5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2709,7 +2718,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2719,20 +2728,20 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ132_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ132_Weekly Sales.pdf</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ132_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ132_Focus_Feedback.xlsx</v>
       </c>
       <c r="K6" t="s">
         <v>188</v>
       </c>
       <c r="L6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2744,7 +2753,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2754,20 +2763,20 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ128_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ128_Weekly Sales.pdf</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ128_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ128_Focus_Feedback.xlsx</v>
       </c>
       <c r="K7" t="s">
         <v>188</v>
       </c>
       <c r="L7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2779,7 +2788,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2789,20 +2798,20 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ144_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ144_Weekly Sales.pdf</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ144_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ144_Focus_Feedback.xlsx</v>
       </c>
       <c r="K8" t="s">
         <v>188</v>
       </c>
       <c r="L8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2814,7 +2823,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2824,20 +2833,20 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ165_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ165_Weekly Sales.pdf</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ165_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ165_Focus_Feedback.xlsx</v>
       </c>
       <c r="K9" t="s">
         <v>188</v>
       </c>
       <c r="L9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2849,7 +2858,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2859,20 +2868,20 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ177_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ177_Weekly Sales.pdf</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ177_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ177_Focus_Feedback.xlsx</v>
       </c>
       <c r="K10" t="s">
         <v>188</v>
       </c>
       <c r="L10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2884,7 +2893,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2894,20 +2903,20 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ178_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ178_Weekly Sales.pdf</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ178_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ178_Focus_Feedback.xlsx</v>
       </c>
       <c r="K11" t="s">
         <v>188</v>
       </c>
       <c r="L11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2919,7 +2928,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2929,20 +2938,20 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ183_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ183_Weekly Sales.pdf</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ183_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ183_Focus_Feedback.xlsx</v>
       </c>
       <c r="K12" t="s">
         <v>188</v>
       </c>
       <c r="L12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2954,7 +2963,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2964,20 +2973,20 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ107_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ107_Weekly Sales.pdf</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ107_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ107_Focus_Feedback.xlsx</v>
       </c>
       <c r="K13" t="s">
         <v>188</v>
       </c>
       <c r="L13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2989,7 +2998,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2999,20 +3008,20 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ109_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ109_Weekly Sales.pdf</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ109_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ109_Focus_Feedback.xlsx</v>
       </c>
       <c r="K14" t="s">
         <v>188</v>
       </c>
       <c r="L14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3024,7 +3033,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3034,20 +3043,20 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ112_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ112_Weekly Sales.pdf</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ112_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ112_Focus_Feedback.xlsx</v>
       </c>
       <c r="K15" t="s">
         <v>188</v>
       </c>
       <c r="L15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3059,7 +3068,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3069,20 +3078,20 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1CP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1CP_Weekly Sales.pdf</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1CP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1CP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K16" t="s">
         <v>188</v>
       </c>
       <c r="L16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -3094,7 +3103,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3104,20 +3113,20 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ154_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ154_Weekly Sales.pdf</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ154_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ154_Focus_Feedback.xlsx</v>
       </c>
       <c r="K17" t="s">
         <v>188</v>
       </c>
       <c r="L17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -3129,7 +3138,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3139,20 +3148,20 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1KD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1KD_Weekly Sales.pdf</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1KD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1KD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K18" t="s">
         <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -3164,7 +3173,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3174,20 +3183,20 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1CF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1CF_Weekly Sales.pdf</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1CF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1CF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K19" t="s">
         <v>188</v>
       </c>
       <c r="L19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -3199,7 +3208,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3209,20 +3218,20 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1EM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1EM_Weekly Sales.pdf</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1EM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1EM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K20" t="s">
         <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -3234,7 +3243,7 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3244,20 +3253,20 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1DP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1DP_Weekly Sales.pdf</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1DP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1DP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K21" t="s">
         <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -3269,7 +3278,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3279,20 +3288,20 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1DA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1DA_Weekly Sales.pdf</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1DA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1DA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K22" t="s">
         <v>188</v>
       </c>
       <c r="L22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -3304,7 +3313,7 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3314,20 +3323,20 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1LM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1LM_Weekly Sales.pdf</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1LM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1LM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K23" t="s">
         <v>188</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -3339,7 +3348,7 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3349,20 +3358,20 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1EE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1EE_Weekly Sales.pdf</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1EE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1EE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K24" t="s">
         <v>188</v>
       </c>
       <c r="L24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -3374,7 +3383,7 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3384,20 +3393,20 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1E2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1E2_Weekly Sales.pdf</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1E2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1E2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K25" t="s">
         <v>188</v>
       </c>
       <c r="L25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -3409,7 +3418,7 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3419,20 +3428,20 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1EK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1EK_Weekly Sales.pdf</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1EK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1EK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K26" t="s">
         <v>188</v>
       </c>
       <c r="L26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -3444,7 +3453,7 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3454,20 +3463,20 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1FB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1FB_Weekly Sales.pdf</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1FB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1FB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K27" t="s">
         <v>188</v>
       </c>
       <c r="L27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -3479,7 +3488,7 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3489,20 +3498,20 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1FP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1FP_Weekly Sales.pdf</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1FP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1FP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K28" t="s">
         <v>188</v>
       </c>
       <c r="L28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M28" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -3514,7 +3523,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3524,20 +3533,20 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1FT_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1FT_Weekly Sales.pdf</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1FT_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1FT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K29" t="s">
         <v>188</v>
       </c>
       <c r="L29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -3549,7 +3558,7 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3559,20 +3568,20 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1FR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1FR_Weekly Sales.pdf</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1FR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1FR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K30" t="s">
         <v>188</v>
       </c>
       <c r="L30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -3584,7 +3593,7 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3594,20 +3603,20 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1GO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1GO_Weekly Sales.pdf</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1GO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1GO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K31" t="s">
         <v>188</v>
       </c>
       <c r="L31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -3619,7 +3628,7 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3629,20 +3638,20 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1KL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1KL_Weekly Sales.pdf</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1KL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1KL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K32" t="s">
         <v>188</v>
       </c>
       <c r="L32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -3654,7 +3663,7 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3664,20 +3673,20 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1KK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1KK_Weekly Sales.pdf</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1KK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1KK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K33" t="s">
         <v>188</v>
       </c>
       <c r="L33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -3689,7 +3698,7 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3699,20 +3708,20 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1DN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1DN_Weekly Sales.pdf</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1DN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1DN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K34" t="s">
         <v>188</v>
       </c>
       <c r="L34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -3724,7 +3733,7 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3734,20 +3743,20 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1EO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1EO_Weekly Sales.pdf</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1EO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1EO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K35" t="s">
         <v>188</v>
       </c>
       <c r="L35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -3759,7 +3768,7 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3769,20 +3778,20 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1CB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1CB_Weekly Sales.pdf</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1CB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1CB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K36" t="s">
         <v>188</v>
       </c>
       <c r="L36" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -3794,7 +3803,7 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3804,20 +3813,20 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1B8_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1B8_Weekly Sales.pdf</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1B8_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1B8_Focus_Feedback.xlsx</v>
       </c>
       <c r="K37" t="s">
         <v>188</v>
       </c>
       <c r="L37" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M37" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -3829,7 +3838,7 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3839,20 +3848,20 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1C4_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1C4_Weekly Sales.pdf</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1C4_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1C4_Focus_Feedback.xlsx</v>
       </c>
       <c r="K38" t="s">
         <v>188</v>
       </c>
       <c r="L38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -3864,7 +3873,7 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3874,20 +3883,20 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1D8_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1D8_Weekly Sales.pdf</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1D8_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1D8_Focus_Feedback.xlsx</v>
       </c>
       <c r="K39" t="s">
         <v>188</v>
       </c>
       <c r="L39" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -3899,7 +3908,7 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3909,20 +3918,20 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1SW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1SW_Weekly Sales.pdf</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1SW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1SW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K40" t="s">
         <v>188</v>
       </c>
       <c r="L40" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3934,7 +3943,7 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3944,20 +3953,20 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1AP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1AP_Weekly Sales.pdf</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1AP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1AP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K41" t="s">
         <v>188</v>
       </c>
       <c r="L41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -3969,7 +3978,7 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3979,20 +3988,20 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2CB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ2CB_Weekly Sales.pdf</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2CB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ2CB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K42" t="s">
         <v>188</v>
       </c>
       <c r="L42" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M42" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -4004,7 +4013,7 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4014,20 +4023,20 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1CG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1CG_Weekly Sales.pdf</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1CG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1CG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K43" t="s">
         <v>188</v>
       </c>
       <c r="L43" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M43" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -4039,7 +4048,7 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4049,20 +4058,20 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1PV_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1PV_Weekly Sales.pdf</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1PV_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1PV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K44" t="s">
         <v>188</v>
       </c>
       <c r="L44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -4074,7 +4083,7 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4084,20 +4093,20 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ3CB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ3CB_Weekly Sales.pdf</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ3CB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ3CB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K45" t="s">
         <v>188</v>
       </c>
       <c r="L45" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M45" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -4109,7 +4118,7 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -4119,20 +4128,20 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ5CS_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ5CS_Weekly Sales.pdf</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ5CS_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ5CS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K46" t="s">
         <v>188</v>
       </c>
       <c r="L46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M46" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -4144,7 +4153,7 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4154,20 +4163,20 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ8JA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ8JA_Weekly Sales.pdf</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ8JA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ8JA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K47" t="s">
         <v>188</v>
       </c>
       <c r="L47" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -4179,7 +4188,7 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4189,20 +4198,20 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ7JM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ7JM_Weekly Sales.pdf</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ7JM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ7JM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K48" t="s">
         <v>188</v>
       </c>
       <c r="L48" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M48" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -4214,7 +4223,7 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4224,20 +4233,20 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ7DO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ7DO_Weekly Sales.pdf</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ7DO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ7DO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K49" t="s">
         <v>188</v>
       </c>
       <c r="L49" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M49" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -4249,7 +4258,7 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -4259,20 +4268,20 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ5TA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ5TA_Weekly Sales.pdf</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ5TA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ5TA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K50" t="s">
         <v>188</v>
       </c>
       <c r="L50" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M50" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -4284,7 +4293,7 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -4294,20 +4303,20 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2LB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ2LB_Weekly Sales.pdf</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2LB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ2LB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K51" t="s">
         <v>188</v>
       </c>
       <c r="L51" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M51" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -4319,7 +4328,7 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -4329,20 +4338,20 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2GB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ2GB_Weekly Sales.pdf</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2GB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ2GB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K52" t="s">
         <v>188</v>
       </c>
       <c r="L52" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M52" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -4354,7 +4363,7 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -4364,20 +4373,20 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2LH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ2LH_Weekly Sales.pdf</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2LH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ2LH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K53" t="s">
         <v>188</v>
       </c>
       <c r="L53" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M53" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -4389,7 +4398,7 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -4399,20 +4408,20 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2NM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ2NM_Weekly Sales.pdf</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2NM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ2NM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K54" t="s">
         <v>188</v>
       </c>
       <c r="L54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M54" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
@@ -4424,7 +4433,7 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -4434,20 +4443,20 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ2SB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ2SB_Weekly Sales.pdf</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ2SB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ2SB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K55" t="s">
         <v>188</v>
       </c>
       <c r="L55" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M55" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
@@ -4459,7 +4468,7 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4469,20 +4478,20 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2BG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ2BG_Weekly Sales.pdf</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2BG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ2BG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K56" t="s">
         <v>188</v>
       </c>
       <c r="L56" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M56" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
@@ -4494,7 +4503,7 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4504,20 +4513,20 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1SA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1SA_Weekly Sales.pdf</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1SA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1SA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K57" t="s">
         <v>188</v>
       </c>
       <c r="L57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M57" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -4529,7 +4538,7 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4539,20 +4548,20 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1FA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1FA_Weekly Sales.pdf</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1FA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1FA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K58" t="s">
         <v>188</v>
       </c>
       <c r="L58" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M58" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
@@ -4564,7 +4573,7 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4574,20 +4583,20 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ115_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ115_Weekly Sales.pdf</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ115_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ115_Focus_Feedback.xlsx</v>
       </c>
       <c r="K59" t="s">
         <v>188</v>
       </c>
       <c r="L59" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M59" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
@@ -4599,7 +4608,7 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4609,20 +4618,20 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ120_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ120_Weekly Sales.pdf</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ120_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ120_Focus_Feedback.xlsx</v>
       </c>
       <c r="K60" t="s">
         <v>188</v>
       </c>
       <c r="L60" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M60" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
@@ -4634,7 +4643,7 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4644,20 +4653,20 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ118_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ118_Weekly Sales.pdf</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ118_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ118_Focus_Feedback.xlsx</v>
       </c>
       <c r="K61" t="s">
         <v>188</v>
       </c>
       <c r="L61" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M61" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
@@ -4669,7 +4678,7 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4679,20 +4688,20 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ119_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ119_Weekly Sales.pdf</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ119_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ119_Focus_Feedback.xlsx</v>
       </c>
       <c r="K62" t="s">
         <v>188</v>
       </c>
       <c r="L62" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M62" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
@@ -4704,7 +4713,7 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4714,20 +4723,20 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ138_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ138_Weekly Sales.pdf</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ138_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ138_Focus_Feedback.xlsx</v>
       </c>
       <c r="K63" t="s">
         <v>188</v>
       </c>
       <c r="L63" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M63" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -4739,7 +4748,7 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4749,20 +4758,20 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ142_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ142_Weekly Sales.pdf</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ142_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ142_Focus_Feedback.xlsx</v>
       </c>
       <c r="K64" t="s">
         <v>188</v>
       </c>
       <c r="L64" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M64" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
@@ -4774,7 +4783,7 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4784,20 +4793,20 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" ref="G65:G124" si="3">K65&amp;"\"&amp;L65</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ134_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ134_Weekly Sales.pdf</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" ref="H65:H124" si="4">K65&amp;"\"&amp;M65</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ134_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ134_Focus_Feedback.xlsx</v>
       </c>
       <c r="K65" t="s">
         <v>188</v>
       </c>
       <c r="L65" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M65" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
@@ -4809,7 +4818,7 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4819,20 +4828,20 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ123_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ123_Weekly Sales.pdf</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ123_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ123_Focus_Feedback.xlsx</v>
       </c>
       <c r="K66" t="s">
         <v>188</v>
       </c>
       <c r="L66" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M66" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -4844,7 +4853,7 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D126" si="5">$D$2</f>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4854,20 +4863,20 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ136_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ136_Weekly Sales.pdf</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ136_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ136_Focus_Feedback.xlsx</v>
       </c>
       <c r="K67" t="s">
         <v>188</v>
       </c>
       <c r="L67" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M67" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
@@ -4879,7 +4888,7 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4889,20 +4898,20 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ165_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ165_Weekly Sales.pdf</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ165_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ165_Focus_Feedback.xlsx</v>
       </c>
       <c r="K68" t="s">
         <v>188</v>
       </c>
       <c r="L68" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M68" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
@@ -4914,7 +4923,7 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4924,20 +4933,20 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1FF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1FF_Weekly Sales.pdf</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1FF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1FF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K69" t="s">
         <v>188</v>
       </c>
       <c r="L69" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M69" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
@@ -4949,7 +4958,7 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4959,20 +4968,20 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ167_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ167_Weekly Sales.pdf</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ167_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ167_Focus_Feedback.xlsx</v>
       </c>
       <c r="K70" t="s">
         <v>188</v>
       </c>
       <c r="L70" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M70" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -4984,7 +4993,7 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4994,20 +5003,20 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ175_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ175_Weekly Sales.pdf</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ175_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ175_Focus_Feedback.xlsx</v>
       </c>
       <c r="K71" t="s">
         <v>188</v>
       </c>
       <c r="L71" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M71" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
@@ -5019,7 +5028,7 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -5029,20 +5038,20 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ177_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ177_Weekly Sales.pdf</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ177_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ177_Focus_Feedback.xlsx</v>
       </c>
       <c r="K72" t="s">
         <v>188</v>
       </c>
       <c r="L72" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M72" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
@@ -5054,7 +5063,7 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -5064,20 +5073,20 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ143_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ143_Weekly Sales.pdf</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ143_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ143_Focus_Feedback.xlsx</v>
       </c>
       <c r="K73" t="s">
         <v>188</v>
       </c>
       <c r="L73" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M73" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
@@ -5089,7 +5098,7 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -5099,20 +5108,20 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ243_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ243_Weekly Sales.pdf</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ243_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ243_Focus_Feedback.xlsx</v>
       </c>
       <c r="K74" t="s">
         <v>188</v>
       </c>
       <c r="L74" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M74" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
@@ -5124,7 +5133,7 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -5134,20 +5143,20 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ159_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ159_Weekly Sales.pdf</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ159_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ159_Focus_Feedback.xlsx</v>
       </c>
       <c r="K75" t="s">
         <v>188</v>
       </c>
       <c r="L75" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M75" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
@@ -5159,7 +5168,7 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -5169,20 +5178,20 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ162_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ162_Weekly Sales.pdf</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ162_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ162_Focus_Feedback.xlsx</v>
       </c>
       <c r="K76" t="s">
         <v>188</v>
       </c>
       <c r="L76" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M76" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -5194,7 +5203,7 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -5204,20 +5213,20 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ113_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ113_Weekly Sales.pdf</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ113_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ113_Focus_Feedback.xlsx</v>
       </c>
       <c r="K77" t="s">
         <v>188</v>
       </c>
       <c r="L77" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M77" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
@@ -5229,7 +5238,7 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -5239,20 +5248,20 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ133_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ133_Weekly Sales.pdf</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ133_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ133_Focus_Feedback.xlsx</v>
       </c>
       <c r="K78" t="s">
         <v>188</v>
       </c>
       <c r="L78" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M78" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -5264,7 +5273,7 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -5274,20 +5283,20 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ137_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ137_Weekly Sales.pdf</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ137_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ137_Focus_Feedback.xlsx</v>
       </c>
       <c r="K79" t="s">
         <v>188</v>
       </c>
       <c r="L79" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M79" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
@@ -5299,7 +5308,7 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -5309,20 +5318,20 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1G4_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1G4_Weekly Sales.pdf</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1G4_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1G4_Focus_Feedback.xlsx</v>
       </c>
       <c r="K80" t="s">
         <v>188</v>
       </c>
       <c r="L80" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M80" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
@@ -5334,7 +5343,7 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5344,20 +5353,20 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1G5_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1G5_Weekly Sales.pdf</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1G5_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1G5_Focus_Feedback.xlsx</v>
       </c>
       <c r="K81" t="s">
         <v>188</v>
       </c>
       <c r="L81" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M81" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
@@ -5369,7 +5378,7 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5379,20 +5388,20 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZBW1_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZBW1_Weekly Sales.pdf</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZBW1_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZBW1_Focus_Feedback.xlsx</v>
       </c>
       <c r="K82" t="s">
         <v>188</v>
       </c>
       <c r="L82" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M82" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
@@ -5404,7 +5413,7 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5414,20 +5423,20 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ9TS_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ9TS_Weekly Sales.pdf</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ9TS_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ9TS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K83" t="s">
         <v>188</v>
       </c>
       <c r="L83" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M83" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
@@ -5439,7 +5448,7 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5449,20 +5458,20 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1HM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1HM_Weekly Sales.pdf</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1HM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K84" t="s">
         <v>188</v>
       </c>
       <c r="L84" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M84" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
@@ -5474,7 +5483,7 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -5484,20 +5493,20 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2HM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2HM_Weekly Sales.pdf</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2HM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K85" t="s">
         <v>188</v>
       </c>
       <c r="L85" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M85" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
@@ -5509,7 +5518,7 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5519,20 +5528,20 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1HM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1HM_Weekly Sales.pdf</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1HM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K86" t="s">
         <v>188</v>
       </c>
       <c r="L86" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M86" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
@@ -5544,7 +5553,7 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5554,20 +5563,20 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2HM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2HM_Weekly Sales.pdf</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2HM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K87" t="s">
         <v>188</v>
       </c>
       <c r="L87" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M87" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
@@ -5579,7 +5588,7 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5589,20 +5598,20 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2RP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2RP_Weekly Sales.pdf</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2RP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2RP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K88" t="s">
         <v>188</v>
       </c>
       <c r="L88" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M88" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
@@ -5614,7 +5623,7 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5624,20 +5633,20 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1TT_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1TT_Weekly Sales.pdf</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1TT_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1TT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K89" t="s">
         <v>188</v>
       </c>
       <c r="L89" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M89" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
@@ -5649,7 +5658,7 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5659,20 +5668,20 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1AM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1AM_Weekly Sales.pdf</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1AM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1AM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K90" t="s">
         <v>188</v>
       </c>
       <c r="L90" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M90" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
@@ -5684,7 +5693,7 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5694,20 +5703,20 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1JW_Weekly Sales.pdf</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1JW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K91" t="s">
         <v>188</v>
       </c>
       <c r="L91" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M91" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
@@ -5719,7 +5728,7 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5729,20 +5738,20 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1MH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1MH_Weekly Sales.pdf</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1MH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1MH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K92" t="s">
         <v>188</v>
       </c>
       <c r="L92" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M92" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
@@ -5754,7 +5763,7 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5764,20 +5773,20 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K93" t="s">
         <v>188</v>
       </c>
       <c r="L93" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M93" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
@@ -5789,7 +5798,7 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5799,20 +5808,20 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1T2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1T2_Weekly Sales.pdf</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1T2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1T2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K94" t="s">
         <v>188</v>
       </c>
       <c r="L94" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M94" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
@@ -5824,7 +5833,7 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5834,20 +5843,20 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2AM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2AM_Weekly Sales.pdf</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2AM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2AM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K95" t="s">
         <v>188</v>
       </c>
       <c r="L95" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M95" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
@@ -5859,7 +5868,7 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5869,20 +5878,20 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2CR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ2CR_Weekly Sales.pdf</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2CR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ2CR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K96" t="s">
         <v>188</v>
       </c>
       <c r="L96" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M96" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
@@ -5894,7 +5903,7 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5904,20 +5913,20 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1SC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1SC_Weekly Sales.pdf</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1SC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1SC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K97" t="s">
         <v>188</v>
       </c>
       <c r="L97" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M97" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
@@ -5929,7 +5938,7 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5939,20 +5948,20 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1PB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1PB_Weekly Sales.pdf</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1PB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1PB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K98" t="s">
         <v>188</v>
       </c>
       <c r="L98" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M98" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
@@ -5964,7 +5973,7 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5974,20 +5983,20 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1JN_Weekly Sales.pdf</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1JN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K99" t="s">
         <v>188</v>
       </c>
       <c r="L99" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M99" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
@@ -5999,7 +6008,7 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -6009,20 +6018,20 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1J2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1J2_Weekly Sales.pdf</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1J2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1J2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K100" t="s">
         <v>188</v>
       </c>
       <c r="L100" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M100" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
@@ -6034,7 +6043,7 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -6044,20 +6053,20 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1MK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1MK_Weekly Sales.pdf</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1MK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1MK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K101" t="s">
         <v>188</v>
       </c>
       <c r="L101" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M101" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
@@ -6069,7 +6078,7 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6079,20 +6088,20 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1CA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1CA_Weekly Sales.pdf</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1CA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1CA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K102" t="s">
         <v>188</v>
       </c>
       <c r="L102" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M102" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
@@ -6104,7 +6113,7 @@
       </c>
       <c r="D103" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6114,20 +6123,20 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2TM_Weekly Sales.pdf</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K103" t="s">
         <v>188</v>
       </c>
       <c r="L103" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M103" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
@@ -6139,7 +6148,7 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6149,20 +6158,20 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2T1_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2T1_Weekly Sales.pdf</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2T1_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2T1_Focus_Feedback.xlsx</v>
       </c>
       <c r="K104" t="s">
         <v>188</v>
       </c>
       <c r="L104" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M104" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
@@ -6174,7 +6183,7 @@
       </c>
       <c r="D105" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6184,20 +6193,20 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2T2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2T2_Weekly Sales.pdf</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2T2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2T2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K105" t="s">
         <v>188</v>
       </c>
       <c r="L105" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M105" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
@@ -6209,7 +6218,7 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6219,20 +6228,20 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1JA_Weekly Sales.pdf</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1JA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K106" t="s">
         <v>188</v>
       </c>
       <c r="L106" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M106" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
@@ -6244,7 +6253,7 @@
       </c>
       <c r="D107" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6254,20 +6263,20 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1BC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1BC_Weekly Sales.pdf</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1BC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1BC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K107" t="s">
         <v>188</v>
       </c>
       <c r="L107" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M107" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
@@ -6279,7 +6288,7 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -6289,20 +6298,20 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1JL_Weekly Sales.pdf</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1JL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K108" t="s">
         <v>188</v>
       </c>
       <c r="L108" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M108" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
@@ -6314,7 +6323,7 @@
       </c>
       <c r="D109" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6324,20 +6333,20 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1AL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1AL_Weekly Sales.pdf</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1AL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1AL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K109" t="s">
         <v>188</v>
       </c>
       <c r="L109" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M109" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
@@ -6349,7 +6358,7 @@
       </c>
       <c r="D110" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6359,20 +6368,20 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1MW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1MW_Weekly Sales.pdf</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1MW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1MW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K110" t="s">
         <v>188</v>
       </c>
       <c r="L110" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M110" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
@@ -6384,7 +6393,7 @@
       </c>
       <c r="D111" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -6394,20 +6403,20 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1MS_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1MS_Weekly Sales.pdf</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1MS_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1MS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K111" t="s">
         <v>188</v>
       </c>
       <c r="L111" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M111" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
@@ -6419,7 +6428,7 @@
       </c>
       <c r="D112" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6429,20 +6438,20 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1AJ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1AJ_Weekly Sales.pdf</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1AJ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1AJ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K112" t="s">
         <v>188</v>
       </c>
       <c r="L112" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M112" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
@@ -6454,7 +6463,7 @@
       </c>
       <c r="D113" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6464,20 +6473,20 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1GF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1GF_Weekly Sales.pdf</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1GF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1GF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K113" t="s">
         <v>188</v>
       </c>
       <c r="L113" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M113" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
@@ -6489,7 +6498,7 @@
       </c>
       <c r="D114" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6499,20 +6508,20 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1G2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1G2_Weekly Sales.pdf</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1G2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1G2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K114" t="s">
         <v>188</v>
       </c>
       <c r="L114" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M114" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
@@ -6524,7 +6533,7 @@
       </c>
       <c r="D115" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6534,20 +6543,20 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1BP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1BP_Weekly Sales.pdf</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1BP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1BP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K115" t="s">
         <v>188</v>
       </c>
       <c r="L115" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M115" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
@@ -6559,7 +6568,7 @@
       </c>
       <c r="D116" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6569,20 +6578,20 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1JF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1JF_Weekly Sales.pdf</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1JF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1JF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K116" t="s">
         <v>188</v>
       </c>
       <c r="L116" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M116" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
@@ -6594,7 +6603,7 @@
       </c>
       <c r="D117" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -6604,20 +6613,20 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1CI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1CI_Weekly Sales.pdf</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1CI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1CI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K117" t="s">
         <v>188</v>
       </c>
       <c r="L117" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M117" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
@@ -6629,7 +6638,7 @@
       </c>
       <c r="D118" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6639,20 +6648,20 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1KM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1KM_Weekly Sales.pdf</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1KM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1KM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K118" t="s">
         <v>188</v>
       </c>
       <c r="L118" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M118" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
@@ -6664,7 +6673,7 @@
       </c>
       <c r="D119" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6674,20 +6683,20 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1OV_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1OV_Weekly Sales.pdf</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1OV_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1OV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K119" t="s">
         <v>188</v>
       </c>
       <c r="L119" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M119" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
@@ -6699,7 +6708,7 @@
       </c>
       <c r="D120" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6709,20 +6718,20 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1JB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1JB_Weekly Sales.pdf</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1JB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K120" t="s">
         <v>188</v>
       </c>
       <c r="L120" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M120" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
@@ -6734,7 +6743,7 @@
       </c>
       <c r="D121" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6744,20 +6753,20 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1BG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1BG_Weekly Sales.pdf</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1BG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1BG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K121" t="s">
         <v>188</v>
       </c>
       <c r="L121" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M121" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
@@ -6769,7 +6778,7 @@
       </c>
       <c r="D122" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6779,20 +6788,20 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K122" t="s">
         <v>188</v>
       </c>
       <c r="L122" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M122" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
@@ -6804,7 +6813,7 @@
       </c>
       <c r="D123" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6814,20 +6823,20 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1BM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1BM_Weekly Sales.pdf</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1BM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1BM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K123" t="s">
         <v>188</v>
       </c>
       <c r="L123" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M123" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
@@ -6839,7 +6848,7 @@
       </c>
       <c r="D124" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6849,20 +6858,20 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1MD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1MD_Weekly Sales.pdf</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1MD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1MD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K124" t="s">
         <v>188</v>
       </c>
       <c r="L124" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M124" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
@@ -6874,7 +6883,7 @@
       </c>
       <c r="D125" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6884,20 +6893,20 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" ref="G125:G190" si="6">K125&amp;"\"&amp;L125</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1JB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1JB_Weekly Sales.pdf</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" ref="H125:H190" si="7">K125&amp;"\"&amp;M125</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1JB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K125" t="s">
         <v>188</v>
       </c>
       <c r="L125" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M125" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
@@ -6909,7 +6918,7 @@
       </c>
       <c r="D126" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6919,20 +6928,20 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1AD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1AD_Weekly Sales.pdf</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1AD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1AD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K126" t="s">
         <v>188</v>
       </c>
       <c r="L126" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M126" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
@@ -6944,7 +6953,7 @@
       </c>
       <c r="D127" t="str">
         <f t="shared" ref="D127:D192" si="8">$D$2</f>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6954,20 +6963,20 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1ML_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1ML_Weekly Sales.pdf</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1ML_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1ML_Focus_Feedback.xlsx</v>
       </c>
       <c r="K127" t="s">
         <v>188</v>
       </c>
       <c r="L127" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M127" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
@@ -6979,7 +6988,7 @@
       </c>
       <c r="D128" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -6989,20 +6998,20 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1FA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1FA_Weekly Sales.pdf</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1FA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1FA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K128" t="s">
         <v>188</v>
       </c>
       <c r="L128" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M128" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
@@ -7014,7 +7023,7 @@
       </c>
       <c r="D129" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -7024,20 +7033,20 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2SA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ2SA_Weekly Sales.pdf</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2SA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ2SA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K129" t="s">
         <v>188</v>
       </c>
       <c r="L129" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M129" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
@@ -7049,7 +7058,7 @@
       </c>
       <c r="D130" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -7059,20 +7068,20 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1SL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1SL_Weekly Sales.pdf</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1SL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1SL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K130" t="s">
         <v>188</v>
       </c>
       <c r="L130" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M130" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
@@ -7084,7 +7093,7 @@
       </c>
       <c r="D131" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -7094,20 +7103,20 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1CM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1CM_Weekly Sales.pdf</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1CM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1CM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K131" t="s">
         <v>188</v>
       </c>
       <c r="L131" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M131" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
@@ -7119,7 +7128,7 @@
       </c>
       <c r="D132" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -7129,20 +7138,20 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1WH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1WH_Weekly Sales.pdf</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1WH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1WH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K132" t="s">
         <v>188</v>
       </c>
       <c r="L132" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M132" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
@@ -7154,7 +7163,7 @@
       </c>
       <c r="D133" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7164,20 +7173,20 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1YU_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1YU_Weekly Sales.pdf</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1YU_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1YU_Focus_Feedback.xlsx</v>
       </c>
       <c r="K133" t="s">
         <v>188</v>
       </c>
       <c r="L133" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M133" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
@@ -7189,7 +7198,7 @@
       </c>
       <c r="D134" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7199,20 +7208,20 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1WX_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1WX_Weekly Sales.pdf</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1WX_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1WX_Focus_Feedback.xlsx</v>
       </c>
       <c r="K134" t="s">
         <v>188</v>
       </c>
       <c r="L134" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M134" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
@@ -7224,7 +7233,7 @@
       </c>
       <c r="D135" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -7234,20 +7243,20 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1XF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1XF_Weekly Sales.pdf</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1XF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1XF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K135" t="s">
         <v>188</v>
       </c>
       <c r="L135" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M135" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
@@ -7259,7 +7268,7 @@
       </c>
       <c r="D136" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -7269,20 +7278,20 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1XT_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1XT_Weekly Sales.pdf</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1XT_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1XT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K136" t="s">
         <v>188</v>
       </c>
       <c r="L136" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M136" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
@@ -7294,7 +7303,7 @@
       </c>
       <c r="D137" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7304,20 +7313,20 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1YP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1YP_Weekly Sales.pdf</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_AZ1YP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_AZ1YP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K137" t="s">
         <v>188</v>
       </c>
       <c r="L137" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M137" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
@@ -7329,7 +7338,7 @@
       </c>
       <c r="D138" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7339,20 +7348,20 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1XH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1XH_Weekly Sales.pdf</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1XH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1XH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K138" t="s">
         <v>188</v>
       </c>
       <c r="L138" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M138" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
@@ -7364,7 +7373,7 @@
       </c>
       <c r="D139" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -7374,20 +7383,20 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1X2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1X2_Weekly Sales.pdf</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1X2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1X2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K139" t="s">
         <v>188</v>
       </c>
       <c r="L139" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M139" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
@@ -7399,7 +7408,7 @@
       </c>
       <c r="D140" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -7409,20 +7418,20 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1TB_Weekly Sales.pdf</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1TB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K140" t="s">
         <v>188</v>
       </c>
       <c r="L140" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M140" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
@@ -7434,7 +7443,7 @@
       </c>
       <c r="D141" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -7444,20 +7453,20 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1TD_Weekly Sales.pdf</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1TD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K141" t="s">
         <v>188</v>
       </c>
       <c r="L141" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M141" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
@@ -7469,7 +7478,7 @@
       </c>
       <c r="D142" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -7479,20 +7488,20 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1TK_Weekly Sales.pdf</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1TK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K142" t="s">
         <v>188</v>
       </c>
       <c r="L142" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M142" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
@@ -7504,7 +7513,7 @@
       </c>
       <c r="D143" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -7514,20 +7523,20 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1YE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1YE_Weekly Sales.pdf</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1YE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1YE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K143" t="s">
         <v>188</v>
       </c>
       <c r="L143" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M143" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
@@ -7539,7 +7548,7 @@
       </c>
       <c r="D144" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -7549,20 +7558,20 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1TE_Weekly Sales.pdf</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1TE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K144" t="s">
         <v>188</v>
       </c>
       <c r="L144" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M144" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
@@ -7574,7 +7583,7 @@
       </c>
       <c r="D145" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -7584,20 +7593,20 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1TI_Weekly Sales.pdf</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1TI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1TI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K145" t="s">
         <v>188</v>
       </c>
       <c r="L145" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M145" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
@@ -7609,7 +7618,7 @@
       </c>
       <c r="D146" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -7619,20 +7628,20 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1YI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1YI_Weekly Sales.pdf</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1YI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1YI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K146" t="s">
         <v>188</v>
       </c>
       <c r="L146" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M146" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
@@ -7644,7 +7653,7 @@
       </c>
       <c r="D147" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -7654,20 +7663,20 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1YW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1YW_Weekly Sales.pdf</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1YW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1YW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K147" t="s">
         <v>188</v>
       </c>
       <c r="L147" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M147" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
@@ -7679,7 +7688,7 @@
       </c>
       <c r="D148" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -7689,20 +7698,20 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UE_Weekly Sales.pdf</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K148" t="s">
         <v>188</v>
       </c>
       <c r="L148" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M148" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
@@ -7714,7 +7723,7 @@
       </c>
       <c r="D149" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7724,20 +7733,20 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1MJ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1MJ_Weekly Sales.pdf</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1MJ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1MJ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K149" t="s">
         <v>188</v>
       </c>
       <c r="L149" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M149" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
@@ -7749,7 +7758,7 @@
       </c>
       <c r="D150" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7759,20 +7768,20 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1VG_Weekly Sales.pdf</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1VG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K150" t="s">
         <v>188</v>
       </c>
       <c r="L150" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M150" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
@@ -7784,7 +7793,7 @@
       </c>
       <c r="D151" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7794,20 +7803,20 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VJ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1VJ_Weekly Sales.pdf</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VJ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1VJ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K151" t="s">
         <v>188</v>
       </c>
       <c r="L151" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M151" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
@@ -7819,7 +7828,7 @@
       </c>
       <c r="D152" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7829,20 +7838,20 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1MI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1MI_Weekly Sales.pdf</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1MI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1MI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K152" t="s">
         <v>188</v>
       </c>
       <c r="L152" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M152" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
@@ -7854,7 +7863,7 @@
       </c>
       <c r="D153" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7864,20 +7873,20 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1XD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1XD_Weekly Sales.pdf</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1XD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1XD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K153" t="s">
         <v>188</v>
       </c>
       <c r="L153" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M153" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
@@ -7889,7 +7898,7 @@
       </c>
       <c r="D154" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7899,20 +7908,20 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1XB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1XB_Weekly Sales.pdf</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1XB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1XB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K154" t="s">
         <v>188</v>
       </c>
       <c r="L154" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M154" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
@@ -7924,7 +7933,7 @@
       </c>
       <c r="D155" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7934,20 +7943,20 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1WT_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1WT_Weekly Sales.pdf</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1WT_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1WT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K155" t="s">
         <v>188</v>
       </c>
       <c r="L155" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M155" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
@@ -7959,7 +7968,7 @@
       </c>
       <c r="D156" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -7969,20 +7978,20 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1XA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1XA_Weekly Sales.pdf</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1XA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1XA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K156" t="s">
         <v>188</v>
       </c>
       <c r="L156" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M156" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
@@ -7994,7 +8003,7 @@
       </c>
       <c r="D157" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -8004,20 +8013,20 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1RB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1RB_Weekly Sales.pdf</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1RB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1RB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K157" t="s">
         <v>188</v>
       </c>
       <c r="L157" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M157" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
@@ -8029,7 +8038,7 @@
       </c>
       <c r="D158" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -8039,20 +8048,20 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2KF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2KF_Weekly Sales.pdf</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2KF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2KF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K158" t="s">
         <v>188</v>
       </c>
       <c r="L158" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M158" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
@@ -8064,7 +8073,7 @@
       </c>
       <c r="D159" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -8074,20 +8083,20 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ148_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ148_Weekly Sales.pdf</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ148_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ148_Focus_Feedback.xlsx</v>
       </c>
       <c r="K159" t="s">
         <v>188</v>
       </c>
       <c r="L159" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M159" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
@@ -8099,7 +8108,7 @@
       </c>
       <c r="D160" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -8109,20 +8118,20 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ8GM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ8GM_Weekly Sales.pdf</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ8GM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ8GM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K160" t="s">
         <v>188</v>
       </c>
       <c r="L160" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M160" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
@@ -8134,7 +8143,7 @@
       </c>
       <c r="D161" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -8144,20 +8153,20 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1BH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1BH_Weekly Sales.pdf</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1BH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1BH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K161" t="s">
         <v>188</v>
       </c>
       <c r="L161" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M161" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
@@ -8169,7 +8178,7 @@
       </c>
       <c r="D162" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -8179,20 +8188,20 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ114_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ114_Weekly Sales.pdf</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ114_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ114_Focus_Feedback.xlsx</v>
       </c>
       <c r="K162" t="s">
         <v>188</v>
       </c>
       <c r="L162" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M162" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
@@ -8204,7 +8213,7 @@
       </c>
       <c r="D163" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -8214,20 +8223,20 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1A6_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1A6_Weekly Sales.pdf</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1A6_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1A6_Focus_Feedback.xlsx</v>
       </c>
       <c r="K163" t="s">
         <v>188</v>
       </c>
       <c r="L163" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M163" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
@@ -8239,7 +8248,7 @@
       </c>
       <c r="D164" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -8249,20 +8258,20 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ139_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ139_Weekly Sales.pdf</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ139_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ139_Focus_Feedback.xlsx</v>
       </c>
       <c r="K164" t="s">
         <v>188</v>
       </c>
       <c r="L164" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M164" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
@@ -8274,7 +8283,7 @@
       </c>
       <c r="D165" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -8284,20 +8293,20 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1VL_Weekly Sales.pdf</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1VL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K165" t="s">
         <v>188</v>
       </c>
       <c r="L165" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M165" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
@@ -8309,7 +8318,7 @@
       </c>
       <c r="D166" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -8319,20 +8328,20 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1VK_Weekly Sales.pdf</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1VK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K166" t="s">
         <v>188</v>
       </c>
       <c r="L166" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M166" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
@@ -8344,7 +8353,7 @@
       </c>
       <c r="D167" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -8354,20 +8363,20 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1LR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1LR_Weekly Sales.pdf</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1LR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1LR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K167" t="s">
         <v>188</v>
       </c>
       <c r="L167" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M167" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
@@ -8379,7 +8388,7 @@
       </c>
       <c r="D168" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -8389,20 +8398,20 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UV_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UV_Weekly Sales.pdf</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UV_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K168" t="s">
         <v>188</v>
       </c>
       <c r="L168" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M168" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
@@ -8414,7 +8423,7 @@
       </c>
       <c r="D169" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -8424,20 +8433,20 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1WV_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1WV_Weekly Sales.pdf</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1WV_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1WV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K169" t="s">
         <v>188</v>
       </c>
       <c r="L169" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M169" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
@@ -8449,7 +8458,7 @@
       </c>
       <c r="D170" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -8459,20 +8468,20 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ4KC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ4KC_Weekly Sales.pdf</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ4KC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ4KC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K170" t="s">
         <v>188</v>
       </c>
       <c r="L170" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M170" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="171" spans="2:13" x14ac:dyDescent="0.25">
@@ -8484,7 +8493,7 @@
       </c>
       <c r="D171" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -8494,20 +8503,20 @@
       </c>
       <c r="G171" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UO_Weekly Sales.pdf</v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K171" t="s">
         <v>188</v>
       </c>
       <c r="L171" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M171" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.25">
@@ -8519,7 +8528,7 @@
       </c>
       <c r="D172" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8529,20 +8538,20 @@
       </c>
       <c r="G172" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1XC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1XC_Weekly Sales.pdf</v>
       </c>
       <c r="H172" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1XC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1XC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K172" t="s">
         <v>188</v>
       </c>
       <c r="L172" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M172" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.25">
@@ -8554,7 +8563,7 @@
       </c>
       <c r="D173" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -8564,20 +8573,20 @@
       </c>
       <c r="G173" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1YN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1YN_Weekly Sales.pdf</v>
       </c>
       <c r="H173" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1YN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1YN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K173" t="s">
         <v>188</v>
       </c>
       <c r="L173" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M173" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="174" spans="2:13" x14ac:dyDescent="0.25">
@@ -8589,7 +8598,7 @@
       </c>
       <c r="D174" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -8599,20 +8608,20 @@
       </c>
       <c r="G174" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UI_Weekly Sales.pdf</v>
       </c>
       <c r="H174" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K174" t="s">
         <v>188</v>
       </c>
       <c r="L174" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M174" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
@@ -8624,7 +8633,7 @@
       </c>
       <c r="D175" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -8634,20 +8643,20 @@
       </c>
       <c r="G175" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UU_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UU_Weekly Sales.pdf</v>
       </c>
       <c r="H175" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UU_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UU_Focus_Feedback.xlsx</v>
       </c>
       <c r="K175" t="s">
         <v>188</v>
       </c>
       <c r="L175" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M175" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
@@ -8659,7 +8668,7 @@
       </c>
       <c r="D176" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -8669,20 +8678,20 @@
       </c>
       <c r="G176" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UW_Weekly Sales.pdf</v>
       </c>
       <c r="H176" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K176" t="s">
         <v>188</v>
       </c>
       <c r="L176" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M176" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
@@ -8694,7 +8703,7 @@
       </c>
       <c r="D177" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -8704,20 +8713,20 @@
       </c>
       <c r="G177" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1VC_Weekly Sales.pdf</v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1VC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1VC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K177" t="s">
         <v>188</v>
       </c>
       <c r="L177" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M177" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
@@ -8729,7 +8738,7 @@
       </c>
       <c r="D178" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8739,20 +8748,20 @@
       </c>
       <c r="G178" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UX_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UX_Weekly Sales.pdf</v>
       </c>
       <c r="H178" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UX_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UX_Focus_Feedback.xlsx</v>
       </c>
       <c r="K178" t="s">
         <v>188</v>
       </c>
       <c r="L178" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M178" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="179" spans="2:13" x14ac:dyDescent="0.25">
@@ -8764,7 +8773,7 @@
       </c>
       <c r="D179" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -8774,20 +8783,20 @@
       </c>
       <c r="G179" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UZ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UZ_Weekly Sales.pdf</v>
       </c>
       <c r="H179" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UZ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UZ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K179" t="s">
         <v>188</v>
       </c>
       <c r="L179" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M179" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
@@ -8799,7 +8808,7 @@
       </c>
       <c r="D180" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -8809,20 +8818,20 @@
       </c>
       <c r="G180" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1CM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1CM_Weekly Sales.pdf</v>
       </c>
       <c r="H180" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1CM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1CM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K180" t="s">
         <v>188</v>
       </c>
       <c r="L180" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M180" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
@@ -8834,7 +8843,7 @@
       </c>
       <c r="D181" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -8844,20 +8853,20 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1JI_Weekly Sales.pdf</v>
       </c>
       <c r="H181" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1JI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1JI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K181" t="s">
         <v>188</v>
       </c>
       <c r="L181" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M181" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
@@ -8869,7 +8878,7 @@
       </c>
       <c r="D182" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -8879,20 +8888,20 @@
       </c>
       <c r="G182" t="str">
         <f t="shared" ref="G182" si="9">K182&amp;"\"&amp;L182</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZJI2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZJI2_Weekly Sales.pdf</v>
       </c>
       <c r="H182" t="str">
         <f t="shared" ref="H182" si="10">K182&amp;"\"&amp;M182</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZJI2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZJI2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K182" t="s">
         <v>188</v>
       </c>
       <c r="L182" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M182" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
@@ -8904,7 +8913,7 @@
       </c>
       <c r="D183" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -8914,20 +8923,20 @@
       </c>
       <c r="G183" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2MS_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2MS_Weekly Sales.pdf</v>
       </c>
       <c r="H183" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2MS_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2MS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K183" t="s">
         <v>188</v>
       </c>
       <c r="L183" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M183" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="184" spans="2:13" x14ac:dyDescent="0.25">
@@ -8939,7 +8948,7 @@
       </c>
       <c r="D184" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -8949,20 +8958,20 @@
       </c>
       <c r="G184" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ3JB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ3JB_Weekly Sales.pdf</v>
       </c>
       <c r="H184" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ3JB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ3JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K184" t="s">
         <v>188</v>
       </c>
       <c r="L184" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M184" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="185" spans="2:13" x14ac:dyDescent="0.25">
@@ -8974,7 +8983,7 @@
       </c>
       <c r="D185" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -8984,20 +8993,20 @@
       </c>
       <c r="G185" t="str">
         <f t="shared" ref="G185:G186" si="11">K185&amp;"\"&amp;L185</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2JN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2JN_Weekly Sales.pdf</v>
       </c>
       <c r="H185" t="str">
         <f t="shared" ref="H185:H186" si="12">K185&amp;"\"&amp;M185</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ2JN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ2JN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K185" t="s">
         <v>188</v>
       </c>
       <c r="L185" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M185" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="186" spans="2:13" x14ac:dyDescent="0.25">
@@ -9009,7 +9018,7 @@
       </c>
       <c r="D186" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -9019,20 +9028,20 @@
       </c>
       <c r="G186" t="str">
         <f t="shared" si="11"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1RD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1RD_Weekly Sales.pdf</v>
       </c>
       <c r="H186" t="str">
         <f t="shared" si="12"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1RD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1RD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K186" t="s">
         <v>188</v>
       </c>
       <c r="L186" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M186" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="187" spans="2:13" x14ac:dyDescent="0.25">
@@ -9044,7 +9053,7 @@
       </c>
       <c r="D187" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -9054,20 +9063,20 @@
       </c>
       <c r="G187" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ7DO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ7DO_Weekly Sales.pdf</v>
       </c>
       <c r="H187" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ7DO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ7DO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K187" t="s">
         <v>188</v>
       </c>
       <c r="L187" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M187" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="188" spans="2:13" x14ac:dyDescent="0.25">
@@ -9079,7 +9088,7 @@
       </c>
       <c r="D188" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -9089,20 +9098,20 @@
       </c>
       <c r="G188" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H188" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K188" t="s">
         <v>188</v>
       </c>
       <c r="L188" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M188" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
@@ -9114,7 +9123,7 @@
       </c>
       <c r="D189" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -9124,20 +9133,20 @@
       </c>
       <c r="G189" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2CR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ2CR_Weekly Sales.pdf</v>
       </c>
       <c r="H189" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ2CR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ2CR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K189" t="s">
         <v>188</v>
       </c>
       <c r="L189" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M189" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
@@ -9149,7 +9158,7 @@
       </c>
       <c r="D190" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -9159,20 +9168,20 @@
       </c>
       <c r="G190" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1CA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1CA_Weekly Sales.pdf</v>
       </c>
       <c r="H190" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1CA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1CA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K190" t="s">
         <v>188</v>
       </c>
       <c r="L190" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M190" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
@@ -9184,7 +9193,7 @@
       </c>
       <c r="D191" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -9194,20 +9203,20 @@
       </c>
       <c r="G191" t="str">
         <f t="shared" ref="G191:G199" si="13">K191&amp;"\"&amp;L191</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1AL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1AL_Weekly Sales.pdf</v>
       </c>
       <c r="H191" t="str">
         <f t="shared" ref="H191:H199" si="14">K191&amp;"\"&amp;M191</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ1AL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ1AL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K191" t="s">
         <v>188</v>
       </c>
       <c r="L191" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M191" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
@@ -9219,7 +9228,7 @@
       </c>
       <c r="D192" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -9229,20 +9238,20 @@
       </c>
       <c r="G192" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1GF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1GF_Weekly Sales.pdf</v>
       </c>
       <c r="H192" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1GF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1GF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K192" t="s">
         <v>188</v>
       </c>
       <c r="L192" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M192" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="193" spans="2:13" x14ac:dyDescent="0.25">
@@ -9253,8 +9262,8 @@
         <v>183</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" ref="D193:D201" si="15">$D$2</f>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <f t="shared" ref="D193:D202" si="15">$D$2</f>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -9264,20 +9273,20 @@
       </c>
       <c r="G193" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1G2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1G2_Weekly Sales.pdf</v>
       </c>
       <c r="H193" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1G2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1G2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K193" t="s">
         <v>188</v>
       </c>
       <c r="L193" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M193" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
@@ -9289,7 +9298,7 @@
       </c>
       <c r="D194" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -9299,20 +9308,20 @@
       </c>
       <c r="G194" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1MD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1MD_Weekly Sales.pdf</v>
       </c>
       <c r="H194" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1MD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1MD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K194" t="s">
         <v>188</v>
       </c>
       <c r="L194" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M194" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
@@ -9324,7 +9333,7 @@
       </c>
       <c r="D195" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -9334,20 +9343,20 @@
       </c>
       <c r="G195" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1YE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1YE_Weekly Sales.pdf</v>
       </c>
       <c r="H195" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QZ1YE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_QZ1YE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K195" t="s">
         <v>188</v>
       </c>
       <c r="L195" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M195" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="196" spans="2:13" x14ac:dyDescent="0.25">
@@ -9359,7 +9368,7 @@
       </c>
       <c r="D196" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -9369,20 +9378,20 @@
       </c>
       <c r="G196" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UE_Weekly Sales.pdf</v>
       </c>
       <c r="H196" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K196" t="s">
         <v>188</v>
       </c>
       <c r="L196" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M196" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
@@ -9394,7 +9403,7 @@
       </c>
       <c r="D197" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -9404,20 +9413,20 @@
       </c>
       <c r="G197" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ8GM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ8GM_Weekly Sales.pdf</v>
       </c>
       <c r="H197" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ8GM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ8GM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K197" t="s">
         <v>188</v>
       </c>
       <c r="L197" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M197" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
@@ -9429,7 +9438,7 @@
       </c>
       <c r="D198" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -9439,20 +9448,20 @@
       </c>
       <c r="G198" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UO_Weekly Sales.pdf</v>
       </c>
       <c r="H198" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1UO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1UO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K198" t="s">
         <v>188</v>
       </c>
       <c r="L198" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M198" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
@@ -9464,7 +9473,7 @@
       </c>
       <c r="D199" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -9474,20 +9483,20 @@
       </c>
       <c r="G199" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1YN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1YN_Weekly Sales.pdf</v>
       </c>
       <c r="H199" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1YN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1YN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K199" t="s">
         <v>188</v>
       </c>
       <c r="L199" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M199" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
@@ -9499,7 +9508,7 @@
       </c>
       <c r="D200" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -9509,20 +9518,20 @@
       </c>
       <c r="G200" t="str">
         <f t="shared" ref="G200" si="16">K200&amp;"\"&amp;L200</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ8JP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ9JP_Weekly Sales.pdf</v>
       </c>
       <c r="H200" t="str">
         <f t="shared" ref="H200" si="17">K200&amp;"\"&amp;M200</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_WZ8JP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_WZ9JP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K200" t="s">
         <v>188</v>
       </c>
       <c r="L200" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M200" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="201" spans="2:13" x14ac:dyDescent="0.25">
@@ -9534,7 +9543,7 @@
       </c>
       <c r="D201" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 9 Feb 2018</v>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -9544,25 +9553,61 @@
       </c>
       <c r="G201" t="str">
         <f t="shared" ref="G201" si="18">K201&amp;"\"&amp;L201</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1DG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1DG_Weekly Sales.pdf</v>
       </c>
       <c r="H201" t="str">
         <f t="shared" ref="H201" si="19">K201&amp;"\"&amp;M201</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CZ1DG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1DG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K201" t="s">
         <v>188</v>
       </c>
       <c r="L201" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M201" t="s">
-        <v>559</v>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="202" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>191</v>
+      </c>
+      <c r="C202" t="s">
+        <v>183</v>
+      </c>
+      <c r="D202" t="str">
+        <f t="shared" si="15"/>
+        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>2</v>
+      </c>
+      <c r="G202" t="str">
+        <f t="shared" ref="G202" si="20">K202&amp;"\"&amp;L202</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1LE_Weekly Sales.pdf</v>
+      </c>
+      <c r="H202" t="str">
+        <f t="shared" ref="H202" si="21">K202&amp;"\"&amp;M202</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201803_CZ1LE_Focus_Feedback.xlsx</v>
+      </c>
+      <c r="K202" t="s">
+        <v>188</v>
+      </c>
+      <c r="L202" t="s">
+        <v>561</v>
+      </c>
+      <c r="M202" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B102" r:id="rId1"/>
+    <hyperlink ref="B202" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
+++ b/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
@@ -597,9 +597,6 @@
     <t>Lina.Evraire@henryschein.ca</t>
   </si>
   <si>
-    <t>Weekly FSC Sales as of 26 Mar 2018</t>
-  </si>
-  <si>
     <t>201803_CZ1SD_Weekly Sales.pdf</t>
   </si>
   <si>
@@ -1708,6 +1705,9 @@
   </si>
   <si>
     <t>201803_CZ1LE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>Weekly FSC Sales as of 29 Mar 2018</t>
   </si>
 </sst>
 </file>
@@ -2517,7 +2517,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2578,7 +2580,7 @@
         <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>562</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2598,10 +2600,10 @@
         <v>188</v>
       </c>
       <c r="L2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" t="s">
         <v>193</v>
-      </c>
-      <c r="M2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2613,7 +2615,7 @@
       </c>
       <c r="D3" t="str">
         <f>$D$2</f>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2633,10 +2635,10 @@
         <v>188</v>
       </c>
       <c r="L3" t="s">
+        <v>192</v>
+      </c>
+      <c r="M3" t="s">
         <v>193</v>
-      </c>
-      <c r="M3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2648,7 +2650,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D66" si="2">$D$2</f>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2668,10 +2670,10 @@
         <v>188</v>
       </c>
       <c r="L4" t="s">
+        <v>194</v>
+      </c>
+      <c r="M4" t="s">
         <v>195</v>
-      </c>
-      <c r="M4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2683,7 +2685,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2703,10 +2705,10 @@
         <v>188</v>
       </c>
       <c r="L5" t="s">
+        <v>196</v>
+      </c>
+      <c r="M5" t="s">
         <v>197</v>
-      </c>
-      <c r="M5" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2718,7 +2720,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2738,10 +2740,10 @@
         <v>188</v>
       </c>
       <c r="L6" t="s">
+        <v>198</v>
+      </c>
+      <c r="M6" t="s">
         <v>199</v>
-      </c>
-      <c r="M6" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2753,7 +2755,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2773,10 +2775,10 @@
         <v>188</v>
       </c>
       <c r="L7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M7" t="s">
         <v>201</v>
-      </c>
-      <c r="M7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2788,7 +2790,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2808,10 +2810,10 @@
         <v>188</v>
       </c>
       <c r="L8" t="s">
+        <v>202</v>
+      </c>
+      <c r="M8" t="s">
         <v>203</v>
-      </c>
-      <c r="M8" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2823,7 +2825,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2843,10 +2845,10 @@
         <v>188</v>
       </c>
       <c r="L9" t="s">
+        <v>204</v>
+      </c>
+      <c r="M9" t="s">
         <v>205</v>
-      </c>
-      <c r="M9" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2858,7 +2860,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2878,10 +2880,10 @@
         <v>188</v>
       </c>
       <c r="L10" t="s">
+        <v>206</v>
+      </c>
+      <c r="M10" t="s">
         <v>207</v>
-      </c>
-      <c r="M10" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2893,7 +2895,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2913,10 +2915,10 @@
         <v>188</v>
       </c>
       <c r="L11" t="s">
+        <v>208</v>
+      </c>
+      <c r="M11" t="s">
         <v>209</v>
-      </c>
-      <c r="M11" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2928,7 +2930,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2948,10 +2950,10 @@
         <v>188</v>
       </c>
       <c r="L12" t="s">
+        <v>210</v>
+      </c>
+      <c r="M12" t="s">
         <v>211</v>
-      </c>
-      <c r="M12" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2963,7 +2965,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2983,10 +2985,10 @@
         <v>188</v>
       </c>
       <c r="L13" t="s">
+        <v>212</v>
+      </c>
+      <c r="M13" t="s">
         <v>213</v>
-      </c>
-      <c r="M13" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2998,7 +3000,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3018,10 +3020,10 @@
         <v>188</v>
       </c>
       <c r="L14" t="s">
+        <v>214</v>
+      </c>
+      <c r="M14" t="s">
         <v>215</v>
-      </c>
-      <c r="M14" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3033,7 +3035,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3053,10 +3055,10 @@
         <v>188</v>
       </c>
       <c r="L15" t="s">
+        <v>216</v>
+      </c>
+      <c r="M15" t="s">
         <v>217</v>
-      </c>
-      <c r="M15" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3068,7 +3070,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3088,10 +3090,10 @@
         <v>188</v>
       </c>
       <c r="L16" t="s">
+        <v>218</v>
+      </c>
+      <c r="M16" t="s">
         <v>219</v>
-      </c>
-      <c r="M16" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -3103,7 +3105,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3123,10 +3125,10 @@
         <v>188</v>
       </c>
       <c r="L17" t="s">
+        <v>220</v>
+      </c>
+      <c r="M17" t="s">
         <v>221</v>
-      </c>
-      <c r="M17" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -3138,7 +3140,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3158,10 +3160,10 @@
         <v>188</v>
       </c>
       <c r="L18" t="s">
+        <v>222</v>
+      </c>
+      <c r="M18" t="s">
         <v>223</v>
-      </c>
-      <c r="M18" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -3173,7 +3175,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3193,10 +3195,10 @@
         <v>188</v>
       </c>
       <c r="L19" t="s">
+        <v>224</v>
+      </c>
+      <c r="M19" t="s">
         <v>225</v>
-      </c>
-      <c r="M19" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -3208,7 +3210,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3228,10 +3230,10 @@
         <v>188</v>
       </c>
       <c r="L20" t="s">
+        <v>226</v>
+      </c>
+      <c r="M20" t="s">
         <v>227</v>
-      </c>
-      <c r="M20" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -3243,7 +3245,7 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3263,10 +3265,10 @@
         <v>188</v>
       </c>
       <c r="L21" t="s">
+        <v>228</v>
+      </c>
+      <c r="M21" t="s">
         <v>229</v>
-      </c>
-      <c r="M21" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -3278,7 +3280,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3298,10 +3300,10 @@
         <v>188</v>
       </c>
       <c r="L22" t="s">
+        <v>230</v>
+      </c>
+      <c r="M22" t="s">
         <v>231</v>
-      </c>
-      <c r="M22" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -3313,7 +3315,7 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3333,10 +3335,10 @@
         <v>188</v>
       </c>
       <c r="L23" t="s">
+        <v>232</v>
+      </c>
+      <c r="M23" t="s">
         <v>233</v>
-      </c>
-      <c r="M23" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -3348,7 +3350,7 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3368,10 +3370,10 @@
         <v>188</v>
       </c>
       <c r="L24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" t="s">
         <v>235</v>
-      </c>
-      <c r="M24" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -3383,7 +3385,7 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3403,10 +3405,10 @@
         <v>188</v>
       </c>
       <c r="L25" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" t="s">
         <v>237</v>
-      </c>
-      <c r="M25" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -3418,7 +3420,7 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3438,10 +3440,10 @@
         <v>188</v>
       </c>
       <c r="L26" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" t="s">
         <v>239</v>
-      </c>
-      <c r="M26" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -3453,7 +3455,7 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3473,10 +3475,10 @@
         <v>188</v>
       </c>
       <c r="L27" t="s">
+        <v>240</v>
+      </c>
+      <c r="M27" t="s">
         <v>241</v>
-      </c>
-      <c r="M27" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -3488,7 +3490,7 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3508,10 +3510,10 @@
         <v>188</v>
       </c>
       <c r="L28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M28" t="s">
         <v>243</v>
-      </c>
-      <c r="M28" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -3523,7 +3525,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3543,10 +3545,10 @@
         <v>188</v>
       </c>
       <c r="L29" t="s">
+        <v>244</v>
+      </c>
+      <c r="M29" t="s">
         <v>245</v>
-      </c>
-      <c r="M29" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -3558,7 +3560,7 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3578,10 +3580,10 @@
         <v>188</v>
       </c>
       <c r="L30" t="s">
+        <v>246</v>
+      </c>
+      <c r="M30" t="s">
         <v>247</v>
-      </c>
-      <c r="M30" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -3593,7 +3595,7 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3613,10 +3615,10 @@
         <v>188</v>
       </c>
       <c r="L31" t="s">
+        <v>248</v>
+      </c>
+      <c r="M31" t="s">
         <v>249</v>
-      </c>
-      <c r="M31" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -3628,7 +3630,7 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3648,10 +3650,10 @@
         <v>188</v>
       </c>
       <c r="L32" t="s">
+        <v>250</v>
+      </c>
+      <c r="M32" t="s">
         <v>251</v>
-      </c>
-      <c r="M32" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -3663,7 +3665,7 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3683,10 +3685,10 @@
         <v>188</v>
       </c>
       <c r="L33" t="s">
+        <v>252</v>
+      </c>
+      <c r="M33" t="s">
         <v>253</v>
-      </c>
-      <c r="M33" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -3698,7 +3700,7 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3718,10 +3720,10 @@
         <v>188</v>
       </c>
       <c r="L34" t="s">
+        <v>254</v>
+      </c>
+      <c r="M34" t="s">
         <v>255</v>
-      </c>
-      <c r="M34" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -3733,7 +3735,7 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3753,10 +3755,10 @@
         <v>188</v>
       </c>
       <c r="L35" t="s">
+        <v>256</v>
+      </c>
+      <c r="M35" t="s">
         <v>257</v>
-      </c>
-      <c r="M35" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -3768,7 +3770,7 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3788,10 +3790,10 @@
         <v>188</v>
       </c>
       <c r="L36" t="s">
+        <v>258</v>
+      </c>
+      <c r="M36" t="s">
         <v>259</v>
-      </c>
-      <c r="M36" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -3803,7 +3805,7 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3823,10 +3825,10 @@
         <v>188</v>
       </c>
       <c r="L37" t="s">
+        <v>260</v>
+      </c>
+      <c r="M37" t="s">
         <v>261</v>
-      </c>
-      <c r="M37" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -3838,7 +3840,7 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3858,10 +3860,10 @@
         <v>188</v>
       </c>
       <c r="L38" t="s">
+        <v>262</v>
+      </c>
+      <c r="M38" t="s">
         <v>263</v>
-      </c>
-      <c r="M38" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -3873,7 +3875,7 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3893,10 +3895,10 @@
         <v>188</v>
       </c>
       <c r="L39" t="s">
+        <v>264</v>
+      </c>
+      <c r="M39" t="s">
         <v>265</v>
-      </c>
-      <c r="M39" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -3908,7 +3910,7 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3928,10 +3930,10 @@
         <v>188</v>
       </c>
       <c r="L40" t="s">
+        <v>266</v>
+      </c>
+      <c r="M40" t="s">
         <v>267</v>
-      </c>
-      <c r="M40" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3943,7 +3945,7 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3963,10 +3965,10 @@
         <v>188</v>
       </c>
       <c r="L41" t="s">
+        <v>268</v>
+      </c>
+      <c r="M41" t="s">
         <v>269</v>
-      </c>
-      <c r="M41" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -3978,7 +3980,7 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3998,10 +4000,10 @@
         <v>188</v>
       </c>
       <c r="L42" t="s">
+        <v>270</v>
+      </c>
+      <c r="M42" t="s">
         <v>271</v>
-      </c>
-      <c r="M42" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -4013,7 +4015,7 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4033,10 +4035,10 @@
         <v>188</v>
       </c>
       <c r="L43" t="s">
+        <v>272</v>
+      </c>
+      <c r="M43" t="s">
         <v>273</v>
-      </c>
-      <c r="M43" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -4048,7 +4050,7 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4068,10 +4070,10 @@
         <v>188</v>
       </c>
       <c r="L44" t="s">
+        <v>274</v>
+      </c>
+      <c r="M44" t="s">
         <v>275</v>
-      </c>
-      <c r="M44" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -4083,7 +4085,7 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4103,10 +4105,10 @@
         <v>188</v>
       </c>
       <c r="L45" t="s">
+        <v>276</v>
+      </c>
+      <c r="M45" t="s">
         <v>277</v>
-      </c>
-      <c r="M45" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -4118,7 +4120,7 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -4138,10 +4140,10 @@
         <v>188</v>
       </c>
       <c r="L46" t="s">
+        <v>278</v>
+      </c>
+      <c r="M46" t="s">
         <v>279</v>
-      </c>
-      <c r="M46" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -4153,7 +4155,7 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4173,10 +4175,10 @@
         <v>188</v>
       </c>
       <c r="L47" t="s">
+        <v>280</v>
+      </c>
+      <c r="M47" t="s">
         <v>281</v>
-      </c>
-      <c r="M47" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -4188,7 +4190,7 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4208,10 +4210,10 @@
         <v>188</v>
       </c>
       <c r="L48" t="s">
+        <v>282</v>
+      </c>
+      <c r="M48" t="s">
         <v>283</v>
-      </c>
-      <c r="M48" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -4223,7 +4225,7 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4243,10 +4245,10 @@
         <v>188</v>
       </c>
       <c r="L49" t="s">
+        <v>284</v>
+      </c>
+      <c r="M49" t="s">
         <v>285</v>
-      </c>
-      <c r="M49" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -4258,7 +4260,7 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -4278,10 +4280,10 @@
         <v>188</v>
       </c>
       <c r="L50" t="s">
+        <v>286</v>
+      </c>
+      <c r="M50" t="s">
         <v>287</v>
-      </c>
-      <c r="M50" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -4293,7 +4295,7 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -4313,10 +4315,10 @@
         <v>188</v>
       </c>
       <c r="L51" t="s">
+        <v>288</v>
+      </c>
+      <c r="M51" t="s">
         <v>289</v>
-      </c>
-      <c r="M51" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -4328,7 +4330,7 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -4348,10 +4350,10 @@
         <v>188</v>
       </c>
       <c r="L52" t="s">
+        <v>290</v>
+      </c>
+      <c r="M52" t="s">
         <v>291</v>
-      </c>
-      <c r="M52" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -4363,7 +4365,7 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -4383,10 +4385,10 @@
         <v>188</v>
       </c>
       <c r="L53" t="s">
+        <v>292</v>
+      </c>
+      <c r="M53" t="s">
         <v>293</v>
-      </c>
-      <c r="M53" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -4398,7 +4400,7 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -4418,10 +4420,10 @@
         <v>188</v>
       </c>
       <c r="L54" t="s">
+        <v>294</v>
+      </c>
+      <c r="M54" t="s">
         <v>295</v>
-      </c>
-      <c r="M54" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
@@ -4433,7 +4435,7 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -4453,10 +4455,10 @@
         <v>188</v>
       </c>
       <c r="L55" t="s">
+        <v>296</v>
+      </c>
+      <c r="M55" t="s">
         <v>297</v>
-      </c>
-      <c r="M55" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
@@ -4468,7 +4470,7 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4488,10 +4490,10 @@
         <v>188</v>
       </c>
       <c r="L56" t="s">
+        <v>298</v>
+      </c>
+      <c r="M56" t="s">
         <v>299</v>
-      </c>
-      <c r="M56" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
@@ -4503,7 +4505,7 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4523,10 +4525,10 @@
         <v>188</v>
       </c>
       <c r="L57" t="s">
+        <v>300</v>
+      </c>
+      <c r="M57" t="s">
         <v>301</v>
-      </c>
-      <c r="M57" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -4538,7 +4540,7 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4558,10 +4560,10 @@
         <v>188</v>
       </c>
       <c r="L58" t="s">
+        <v>302</v>
+      </c>
+      <c r="M58" t="s">
         <v>303</v>
-      </c>
-      <c r="M58" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
@@ -4573,7 +4575,7 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4593,10 +4595,10 @@
         <v>188</v>
       </c>
       <c r="L59" t="s">
+        <v>304</v>
+      </c>
+      <c r="M59" t="s">
         <v>305</v>
-      </c>
-      <c r="M59" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
@@ -4608,7 +4610,7 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4628,10 +4630,10 @@
         <v>188</v>
       </c>
       <c r="L60" t="s">
+        <v>306</v>
+      </c>
+      <c r="M60" t="s">
         <v>307</v>
-      </c>
-      <c r="M60" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
@@ -4643,7 +4645,7 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4663,10 +4665,10 @@
         <v>188</v>
       </c>
       <c r="L61" t="s">
+        <v>308</v>
+      </c>
+      <c r="M61" t="s">
         <v>309</v>
-      </c>
-      <c r="M61" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
@@ -4678,7 +4680,7 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4698,10 +4700,10 @@
         <v>188</v>
       </c>
       <c r="L62" t="s">
+        <v>310</v>
+      </c>
+      <c r="M62" t="s">
         <v>311</v>
-      </c>
-      <c r="M62" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
@@ -4713,7 +4715,7 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4733,10 +4735,10 @@
         <v>188</v>
       </c>
       <c r="L63" t="s">
+        <v>312</v>
+      </c>
+      <c r="M63" t="s">
         <v>313</v>
-      </c>
-      <c r="M63" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -4748,7 +4750,7 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4768,10 +4770,10 @@
         <v>188</v>
       </c>
       <c r="L64" t="s">
+        <v>314</v>
+      </c>
+      <c r="M64" t="s">
         <v>315</v>
-      </c>
-      <c r="M64" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
@@ -4783,7 +4785,7 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4803,10 +4805,10 @@
         <v>188</v>
       </c>
       <c r="L65" t="s">
+        <v>316</v>
+      </c>
+      <c r="M65" t="s">
         <v>317</v>
-      </c>
-      <c r="M65" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
@@ -4818,7 +4820,7 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4838,10 +4840,10 @@
         <v>188</v>
       </c>
       <c r="L66" t="s">
+        <v>318</v>
+      </c>
+      <c r="M66" t="s">
         <v>319</v>
-      </c>
-      <c r="M66" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -4853,7 +4855,7 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D126" si="5">$D$2</f>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4873,10 +4875,10 @@
         <v>188</v>
       </c>
       <c r="L67" t="s">
+        <v>320</v>
+      </c>
+      <c r="M67" t="s">
         <v>321</v>
-      </c>
-      <c r="M67" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
@@ -4888,7 +4890,7 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4908,10 +4910,10 @@
         <v>188</v>
       </c>
       <c r="L68" t="s">
+        <v>322</v>
+      </c>
+      <c r="M68" t="s">
         <v>323</v>
-      </c>
-      <c r="M68" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
@@ -4923,7 +4925,7 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4943,10 +4945,10 @@
         <v>188</v>
       </c>
       <c r="L69" t="s">
+        <v>324</v>
+      </c>
+      <c r="M69" t="s">
         <v>325</v>
-      </c>
-      <c r="M69" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
@@ -4958,7 +4960,7 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4978,10 +4980,10 @@
         <v>188</v>
       </c>
       <c r="L70" t="s">
+        <v>326</v>
+      </c>
+      <c r="M70" t="s">
         <v>327</v>
-      </c>
-      <c r="M70" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -4993,7 +4995,7 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -5013,10 +5015,10 @@
         <v>188</v>
       </c>
       <c r="L71" t="s">
+        <v>328</v>
+      </c>
+      <c r="M71" t="s">
         <v>329</v>
-      </c>
-      <c r="M71" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
@@ -5028,7 +5030,7 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -5048,10 +5050,10 @@
         <v>188</v>
       </c>
       <c r="L72" t="s">
+        <v>330</v>
+      </c>
+      <c r="M72" t="s">
         <v>331</v>
-      </c>
-      <c r="M72" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
@@ -5063,7 +5065,7 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -5083,10 +5085,10 @@
         <v>188</v>
       </c>
       <c r="L73" t="s">
+        <v>332</v>
+      </c>
+      <c r="M73" t="s">
         <v>333</v>
-      </c>
-      <c r="M73" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
@@ -5098,7 +5100,7 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -5118,10 +5120,10 @@
         <v>188</v>
       </c>
       <c r="L74" t="s">
+        <v>334</v>
+      </c>
+      <c r="M74" t="s">
         <v>335</v>
-      </c>
-      <c r="M74" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
@@ -5133,7 +5135,7 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -5153,10 +5155,10 @@
         <v>188</v>
       </c>
       <c r="L75" t="s">
+        <v>336</v>
+      </c>
+      <c r="M75" t="s">
         <v>337</v>
-      </c>
-      <c r="M75" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
@@ -5168,7 +5170,7 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -5188,10 +5190,10 @@
         <v>188</v>
       </c>
       <c r="L76" t="s">
+        <v>338</v>
+      </c>
+      <c r="M76" t="s">
         <v>339</v>
-      </c>
-      <c r="M76" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -5203,7 +5205,7 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -5223,10 +5225,10 @@
         <v>188</v>
       </c>
       <c r="L77" t="s">
+        <v>340</v>
+      </c>
+      <c r="M77" t="s">
         <v>341</v>
-      </c>
-      <c r="M77" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
@@ -5238,7 +5240,7 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -5258,10 +5260,10 @@
         <v>188</v>
       </c>
       <c r="L78" t="s">
+        <v>342</v>
+      </c>
+      <c r="M78" t="s">
         <v>343</v>
-      </c>
-      <c r="M78" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -5273,7 +5275,7 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -5293,10 +5295,10 @@
         <v>188</v>
       </c>
       <c r="L79" t="s">
+        <v>344</v>
+      </c>
+      <c r="M79" t="s">
         <v>345</v>
-      </c>
-      <c r="M79" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
@@ -5308,7 +5310,7 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -5328,10 +5330,10 @@
         <v>188</v>
       </c>
       <c r="L80" t="s">
+        <v>346</v>
+      </c>
+      <c r="M80" t="s">
         <v>347</v>
-      </c>
-      <c r="M80" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
@@ -5343,7 +5345,7 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5363,10 +5365,10 @@
         <v>188</v>
       </c>
       <c r="L81" t="s">
+        <v>348</v>
+      </c>
+      <c r="M81" t="s">
         <v>349</v>
-      </c>
-      <c r="M81" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
@@ -5378,7 +5380,7 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5398,10 +5400,10 @@
         <v>188</v>
       </c>
       <c r="L82" t="s">
+        <v>350</v>
+      </c>
+      <c r="M82" t="s">
         <v>351</v>
-      </c>
-      <c r="M82" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
@@ -5413,7 +5415,7 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5433,10 +5435,10 @@
         <v>188</v>
       </c>
       <c r="L83" t="s">
+        <v>352</v>
+      </c>
+      <c r="M83" t="s">
         <v>353</v>
-      </c>
-      <c r="M83" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
@@ -5448,7 +5450,7 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5468,10 +5470,10 @@
         <v>188</v>
       </c>
       <c r="L84" t="s">
+        <v>354</v>
+      </c>
+      <c r="M84" t="s">
         <v>355</v>
-      </c>
-      <c r="M84" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
@@ -5483,7 +5485,7 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -5503,10 +5505,10 @@
         <v>188</v>
       </c>
       <c r="L85" t="s">
+        <v>356</v>
+      </c>
+      <c r="M85" t="s">
         <v>357</v>
-      </c>
-      <c r="M85" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
@@ -5518,7 +5520,7 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5538,10 +5540,10 @@
         <v>188</v>
       </c>
       <c r="L86" t="s">
+        <v>354</v>
+      </c>
+      <c r="M86" t="s">
         <v>355</v>
-      </c>
-      <c r="M86" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
@@ -5553,7 +5555,7 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5573,10 +5575,10 @@
         <v>188</v>
       </c>
       <c r="L87" t="s">
+        <v>356</v>
+      </c>
+      <c r="M87" t="s">
         <v>357</v>
-      </c>
-      <c r="M87" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
@@ -5588,7 +5590,7 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5608,10 +5610,10 @@
         <v>188</v>
       </c>
       <c r="L88" t="s">
+        <v>358</v>
+      </c>
+      <c r="M88" t="s">
         <v>359</v>
-      </c>
-      <c r="M88" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
@@ -5623,7 +5625,7 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5643,10 +5645,10 @@
         <v>188</v>
       </c>
       <c r="L89" t="s">
+        <v>360</v>
+      </c>
+      <c r="M89" t="s">
         <v>361</v>
-      </c>
-      <c r="M89" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
@@ -5658,7 +5660,7 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5678,10 +5680,10 @@
         <v>188</v>
       </c>
       <c r="L90" t="s">
+        <v>362</v>
+      </c>
+      <c r="M90" t="s">
         <v>363</v>
-      </c>
-      <c r="M90" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
@@ -5693,7 +5695,7 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5713,10 +5715,10 @@
         <v>188</v>
       </c>
       <c r="L91" t="s">
+        <v>364</v>
+      </c>
+      <c r="M91" t="s">
         <v>365</v>
-      </c>
-      <c r="M91" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
@@ -5728,7 +5730,7 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5748,10 +5750,10 @@
         <v>188</v>
       </c>
       <c r="L92" t="s">
+        <v>366</v>
+      </c>
+      <c r="M92" t="s">
         <v>367</v>
-      </c>
-      <c r="M92" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
@@ -5763,7 +5765,7 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5783,10 +5785,10 @@
         <v>188</v>
       </c>
       <c r="L93" t="s">
+        <v>368</v>
+      </c>
+      <c r="M93" t="s">
         <v>369</v>
-      </c>
-      <c r="M93" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
@@ -5798,7 +5800,7 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5818,10 +5820,10 @@
         <v>188</v>
       </c>
       <c r="L94" t="s">
+        <v>370</v>
+      </c>
+      <c r="M94" t="s">
         <v>371</v>
-      </c>
-      <c r="M94" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
@@ -5833,7 +5835,7 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5853,10 +5855,10 @@
         <v>188</v>
       </c>
       <c r="L95" t="s">
+        <v>372</v>
+      </c>
+      <c r="M95" t="s">
         <v>373</v>
-      </c>
-      <c r="M95" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
@@ -5868,7 +5870,7 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5888,10 +5890,10 @@
         <v>188</v>
       </c>
       <c r="L96" t="s">
+        <v>374</v>
+      </c>
+      <c r="M96" t="s">
         <v>375</v>
-      </c>
-      <c r="M96" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
@@ -5903,7 +5905,7 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5923,10 +5925,10 @@
         <v>188</v>
       </c>
       <c r="L97" t="s">
+        <v>376</v>
+      </c>
+      <c r="M97" t="s">
         <v>377</v>
-      </c>
-      <c r="M97" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
@@ -5938,7 +5940,7 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5958,10 +5960,10 @@
         <v>188</v>
       </c>
       <c r="L98" t="s">
+        <v>378</v>
+      </c>
+      <c r="M98" t="s">
         <v>379</v>
-      </c>
-      <c r="M98" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
@@ -5973,7 +5975,7 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5993,10 +5995,10 @@
         <v>188</v>
       </c>
       <c r="L99" t="s">
+        <v>380</v>
+      </c>
+      <c r="M99" t="s">
         <v>381</v>
-      </c>
-      <c r="M99" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
@@ -6008,7 +6010,7 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -6028,10 +6030,10 @@
         <v>188</v>
       </c>
       <c r="L100" t="s">
+        <v>382</v>
+      </c>
+      <c r="M100" t="s">
         <v>383</v>
-      </c>
-      <c r="M100" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
@@ -6043,7 +6045,7 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -6063,10 +6065,10 @@
         <v>188</v>
       </c>
       <c r="L101" t="s">
+        <v>384</v>
+      </c>
+      <c r="M101" t="s">
         <v>385</v>
-      </c>
-      <c r="M101" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
@@ -6078,7 +6080,7 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6098,10 +6100,10 @@
         <v>188</v>
       </c>
       <c r="L102" t="s">
+        <v>386</v>
+      </c>
+      <c r="M102" t="s">
         <v>387</v>
-      </c>
-      <c r="M102" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
@@ -6113,7 +6115,7 @@
       </c>
       <c r="D103" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6133,10 +6135,10 @@
         <v>188</v>
       </c>
       <c r="L103" t="s">
+        <v>388</v>
+      </c>
+      <c r="M103" t="s">
         <v>389</v>
-      </c>
-      <c r="M103" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
@@ -6148,7 +6150,7 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6168,10 +6170,10 @@
         <v>188</v>
       </c>
       <c r="L104" t="s">
+        <v>390</v>
+      </c>
+      <c r="M104" t="s">
         <v>391</v>
-      </c>
-      <c r="M104" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
@@ -6183,7 +6185,7 @@
       </c>
       <c r="D105" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6203,10 +6205,10 @@
         <v>188</v>
       </c>
       <c r="L105" t="s">
+        <v>392</v>
+      </c>
+      <c r="M105" t="s">
         <v>393</v>
-      </c>
-      <c r="M105" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
@@ -6218,7 +6220,7 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6238,10 +6240,10 @@
         <v>188</v>
       </c>
       <c r="L106" t="s">
+        <v>394</v>
+      </c>
+      <c r="M106" t="s">
         <v>395</v>
-      </c>
-      <c r="M106" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
@@ -6253,7 +6255,7 @@
       </c>
       <c r="D107" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6273,10 +6275,10 @@
         <v>188</v>
       </c>
       <c r="L107" t="s">
+        <v>396</v>
+      </c>
+      <c r="M107" t="s">
         <v>397</v>
-      </c>
-      <c r="M107" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
@@ -6288,7 +6290,7 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -6308,10 +6310,10 @@
         <v>188</v>
       </c>
       <c r="L108" t="s">
+        <v>398</v>
+      </c>
+      <c r="M108" t="s">
         <v>399</v>
-      </c>
-      <c r="M108" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
@@ -6323,7 +6325,7 @@
       </c>
       <c r="D109" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6343,10 +6345,10 @@
         <v>188</v>
       </c>
       <c r="L109" t="s">
+        <v>400</v>
+      </c>
+      <c r="M109" t="s">
         <v>401</v>
-      </c>
-      <c r="M109" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
@@ -6358,7 +6360,7 @@
       </c>
       <c r="D110" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6378,10 +6380,10 @@
         <v>188</v>
       </c>
       <c r="L110" t="s">
+        <v>402</v>
+      </c>
+      <c r="M110" t="s">
         <v>403</v>
-      </c>
-      <c r="M110" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
@@ -6393,7 +6395,7 @@
       </c>
       <c r="D111" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -6413,10 +6415,10 @@
         <v>188</v>
       </c>
       <c r="L111" t="s">
+        <v>404</v>
+      </c>
+      <c r="M111" t="s">
         <v>405</v>
-      </c>
-      <c r="M111" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
@@ -6428,7 +6430,7 @@
       </c>
       <c r="D112" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6448,10 +6450,10 @@
         <v>188</v>
       </c>
       <c r="L112" t="s">
+        <v>406</v>
+      </c>
+      <c r="M112" t="s">
         <v>407</v>
-      </c>
-      <c r="M112" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
@@ -6463,7 +6465,7 @@
       </c>
       <c r="D113" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6483,10 +6485,10 @@
         <v>188</v>
       </c>
       <c r="L113" t="s">
+        <v>408</v>
+      </c>
+      <c r="M113" t="s">
         <v>409</v>
-      </c>
-      <c r="M113" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
@@ -6498,7 +6500,7 @@
       </c>
       <c r="D114" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6518,10 +6520,10 @@
         <v>188</v>
       </c>
       <c r="L114" t="s">
+        <v>410</v>
+      </c>
+      <c r="M114" t="s">
         <v>411</v>
-      </c>
-      <c r="M114" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
@@ -6533,7 +6535,7 @@
       </c>
       <c r="D115" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6553,10 +6555,10 @@
         <v>188</v>
       </c>
       <c r="L115" t="s">
+        <v>412</v>
+      </c>
+      <c r="M115" t="s">
         <v>413</v>
-      </c>
-      <c r="M115" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
@@ -6568,7 +6570,7 @@
       </c>
       <c r="D116" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6588,10 +6590,10 @@
         <v>188</v>
       </c>
       <c r="L116" t="s">
+        <v>414</v>
+      </c>
+      <c r="M116" t="s">
         <v>415</v>
-      </c>
-      <c r="M116" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
@@ -6603,7 +6605,7 @@
       </c>
       <c r="D117" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -6623,10 +6625,10 @@
         <v>188</v>
       </c>
       <c r="L117" t="s">
+        <v>416</v>
+      </c>
+      <c r="M117" t="s">
         <v>417</v>
-      </c>
-      <c r="M117" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
@@ -6638,7 +6640,7 @@
       </c>
       <c r="D118" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6658,10 +6660,10 @@
         <v>188</v>
       </c>
       <c r="L118" t="s">
+        <v>418</v>
+      </c>
+      <c r="M118" t="s">
         <v>419</v>
-      </c>
-      <c r="M118" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
@@ -6673,7 +6675,7 @@
       </c>
       <c r="D119" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6693,10 +6695,10 @@
         <v>188</v>
       </c>
       <c r="L119" t="s">
+        <v>420</v>
+      </c>
+      <c r="M119" t="s">
         <v>421</v>
-      </c>
-      <c r="M119" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
@@ -6708,7 +6710,7 @@
       </c>
       <c r="D120" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6728,10 +6730,10 @@
         <v>188</v>
       </c>
       <c r="L120" t="s">
+        <v>422</v>
+      </c>
+      <c r="M120" t="s">
         <v>423</v>
-      </c>
-      <c r="M120" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
@@ -6743,7 +6745,7 @@
       </c>
       <c r="D121" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6763,10 +6765,10 @@
         <v>188</v>
       </c>
       <c r="L121" t="s">
+        <v>424</v>
+      </c>
+      <c r="M121" t="s">
         <v>425</v>
-      </c>
-      <c r="M121" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
@@ -6778,7 +6780,7 @@
       </c>
       <c r="D122" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6798,10 +6800,10 @@
         <v>188</v>
       </c>
       <c r="L122" t="s">
+        <v>426</v>
+      </c>
+      <c r="M122" t="s">
         <v>427</v>
-      </c>
-      <c r="M122" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
@@ -6813,7 +6815,7 @@
       </c>
       <c r="D123" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6833,10 +6835,10 @@
         <v>188</v>
       </c>
       <c r="L123" t="s">
+        <v>428</v>
+      </c>
+      <c r="M123" t="s">
         <v>429</v>
-      </c>
-      <c r="M123" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
@@ -6848,7 +6850,7 @@
       </c>
       <c r="D124" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6868,10 +6870,10 @@
         <v>188</v>
       </c>
       <c r="L124" t="s">
+        <v>430</v>
+      </c>
+      <c r="M124" t="s">
         <v>431</v>
-      </c>
-      <c r="M124" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
@@ -6883,7 +6885,7 @@
       </c>
       <c r="D125" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6903,10 +6905,10 @@
         <v>188</v>
       </c>
       <c r="L125" t="s">
+        <v>432</v>
+      </c>
+      <c r="M125" t="s">
         <v>433</v>
-      </c>
-      <c r="M125" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
@@ -6918,7 +6920,7 @@
       </c>
       <c r="D126" t="str">
         <f t="shared" si="5"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6938,10 +6940,10 @@
         <v>188</v>
       </c>
       <c r="L126" t="s">
+        <v>434</v>
+      </c>
+      <c r="M126" t="s">
         <v>435</v>
-      </c>
-      <c r="M126" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
@@ -6953,7 +6955,7 @@
       </c>
       <c r="D127" t="str">
         <f t="shared" ref="D127:D192" si="8">$D$2</f>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6973,10 +6975,10 @@
         <v>188</v>
       </c>
       <c r="L127" t="s">
+        <v>436</v>
+      </c>
+      <c r="M127" t="s">
         <v>437</v>
-      </c>
-      <c r="M127" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
@@ -6988,7 +6990,7 @@
       </c>
       <c r="D128" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -7008,10 +7010,10 @@
         <v>188</v>
       </c>
       <c r="L128" t="s">
+        <v>438</v>
+      </c>
+      <c r="M128" t="s">
         <v>439</v>
-      </c>
-      <c r="M128" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
@@ -7023,7 +7025,7 @@
       </c>
       <c r="D129" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -7043,10 +7045,10 @@
         <v>188</v>
       </c>
       <c r="L129" t="s">
+        <v>440</v>
+      </c>
+      <c r="M129" t="s">
         <v>441</v>
-      </c>
-      <c r="M129" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
@@ -7058,7 +7060,7 @@
       </c>
       <c r="D130" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -7078,10 +7080,10 @@
         <v>188</v>
       </c>
       <c r="L130" t="s">
+        <v>442</v>
+      </c>
+      <c r="M130" t="s">
         <v>443</v>
-      </c>
-      <c r="M130" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
@@ -7093,7 +7095,7 @@
       </c>
       <c r="D131" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -7113,10 +7115,10 @@
         <v>188</v>
       </c>
       <c r="L131" t="s">
+        <v>444</v>
+      </c>
+      <c r="M131" t="s">
         <v>445</v>
-      </c>
-      <c r="M131" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
@@ -7128,7 +7130,7 @@
       </c>
       <c r="D132" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -7148,10 +7150,10 @@
         <v>188</v>
       </c>
       <c r="L132" t="s">
+        <v>446</v>
+      </c>
+      <c r="M132" t="s">
         <v>447</v>
-      </c>
-      <c r="M132" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
@@ -7163,7 +7165,7 @@
       </c>
       <c r="D133" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7183,10 +7185,10 @@
         <v>188</v>
       </c>
       <c r="L133" t="s">
+        <v>448</v>
+      </c>
+      <c r="M133" t="s">
         <v>449</v>
-      </c>
-      <c r="M133" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
@@ -7198,7 +7200,7 @@
       </c>
       <c r="D134" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7218,10 +7220,10 @@
         <v>188</v>
       </c>
       <c r="L134" t="s">
+        <v>450</v>
+      </c>
+      <c r="M134" t="s">
         <v>451</v>
-      </c>
-      <c r="M134" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
@@ -7233,7 +7235,7 @@
       </c>
       <c r="D135" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -7253,10 +7255,10 @@
         <v>188</v>
       </c>
       <c r="L135" t="s">
+        <v>452</v>
+      </c>
+      <c r="M135" t="s">
         <v>453</v>
-      </c>
-      <c r="M135" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
@@ -7268,7 +7270,7 @@
       </c>
       <c r="D136" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -7288,10 +7290,10 @@
         <v>188</v>
       </c>
       <c r="L136" t="s">
+        <v>454</v>
+      </c>
+      <c r="M136" t="s">
         <v>455</v>
-      </c>
-      <c r="M136" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
@@ -7303,7 +7305,7 @@
       </c>
       <c r="D137" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7323,10 +7325,10 @@
         <v>188</v>
       </c>
       <c r="L137" t="s">
+        <v>456</v>
+      </c>
+      <c r="M137" t="s">
         <v>457</v>
-      </c>
-      <c r="M137" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
@@ -7338,7 +7340,7 @@
       </c>
       <c r="D138" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7358,10 +7360,10 @@
         <v>188</v>
       </c>
       <c r="L138" t="s">
+        <v>458</v>
+      </c>
+      <c r="M138" t="s">
         <v>459</v>
-      </c>
-      <c r="M138" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
@@ -7373,7 +7375,7 @@
       </c>
       <c r="D139" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -7393,10 +7395,10 @@
         <v>188</v>
       </c>
       <c r="L139" t="s">
+        <v>460</v>
+      </c>
+      <c r="M139" t="s">
         <v>461</v>
-      </c>
-      <c r="M139" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
@@ -7408,7 +7410,7 @@
       </c>
       <c r="D140" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -7428,10 +7430,10 @@
         <v>188</v>
       </c>
       <c r="L140" t="s">
+        <v>462</v>
+      </c>
+      <c r="M140" t="s">
         <v>463</v>
-      </c>
-      <c r="M140" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
@@ -7443,7 +7445,7 @@
       </c>
       <c r="D141" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -7463,10 +7465,10 @@
         <v>188</v>
       </c>
       <c r="L141" t="s">
+        <v>464</v>
+      </c>
+      <c r="M141" t="s">
         <v>465</v>
-      </c>
-      <c r="M141" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
@@ -7478,7 +7480,7 @@
       </c>
       <c r="D142" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -7498,10 +7500,10 @@
         <v>188</v>
       </c>
       <c r="L142" t="s">
+        <v>466</v>
+      </c>
+      <c r="M142" t="s">
         <v>467</v>
-      </c>
-      <c r="M142" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
@@ -7513,7 +7515,7 @@
       </c>
       <c r="D143" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -7533,10 +7535,10 @@
         <v>188</v>
       </c>
       <c r="L143" t="s">
+        <v>468</v>
+      </c>
+      <c r="M143" t="s">
         <v>469</v>
-      </c>
-      <c r="M143" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
@@ -7548,7 +7550,7 @@
       </c>
       <c r="D144" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -7568,10 +7570,10 @@
         <v>188</v>
       </c>
       <c r="L144" t="s">
+        <v>470</v>
+      </c>
+      <c r="M144" t="s">
         <v>471</v>
-      </c>
-      <c r="M144" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
@@ -7583,7 +7585,7 @@
       </c>
       <c r="D145" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -7603,10 +7605,10 @@
         <v>188</v>
       </c>
       <c r="L145" t="s">
+        <v>472</v>
+      </c>
+      <c r="M145" t="s">
         <v>473</v>
-      </c>
-      <c r="M145" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
@@ -7618,7 +7620,7 @@
       </c>
       <c r="D146" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -7638,10 +7640,10 @@
         <v>188</v>
       </c>
       <c r="L146" t="s">
+        <v>474</v>
+      </c>
+      <c r="M146" t="s">
         <v>475</v>
-      </c>
-      <c r="M146" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
@@ -7653,7 +7655,7 @@
       </c>
       <c r="D147" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -7673,10 +7675,10 @@
         <v>188</v>
       </c>
       <c r="L147" t="s">
+        <v>476</v>
+      </c>
+      <c r="M147" t="s">
         <v>477</v>
-      </c>
-      <c r="M147" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
@@ -7688,7 +7690,7 @@
       </c>
       <c r="D148" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -7708,10 +7710,10 @@
         <v>188</v>
       </c>
       <c r="L148" t="s">
+        <v>478</v>
+      </c>
+      <c r="M148" t="s">
         <v>479</v>
-      </c>
-      <c r="M148" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
@@ -7723,7 +7725,7 @@
       </c>
       <c r="D149" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7743,10 +7745,10 @@
         <v>188</v>
       </c>
       <c r="L149" t="s">
+        <v>480</v>
+      </c>
+      <c r="M149" t="s">
         <v>481</v>
-      </c>
-      <c r="M149" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
@@ -7758,7 +7760,7 @@
       </c>
       <c r="D150" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7778,10 +7780,10 @@
         <v>188</v>
       </c>
       <c r="L150" t="s">
+        <v>482</v>
+      </c>
+      <c r="M150" t="s">
         <v>483</v>
-      </c>
-      <c r="M150" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
@@ -7793,7 +7795,7 @@
       </c>
       <c r="D151" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7813,10 +7815,10 @@
         <v>188</v>
       </c>
       <c r="L151" t="s">
+        <v>484</v>
+      </c>
+      <c r="M151" t="s">
         <v>485</v>
-      </c>
-      <c r="M151" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
@@ -7828,7 +7830,7 @@
       </c>
       <c r="D152" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7848,10 +7850,10 @@
         <v>188</v>
       </c>
       <c r="L152" t="s">
+        <v>486</v>
+      </c>
+      <c r="M152" t="s">
         <v>487</v>
-      </c>
-      <c r="M152" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
@@ -7863,7 +7865,7 @@
       </c>
       <c r="D153" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7883,10 +7885,10 @@
         <v>188</v>
       </c>
       <c r="L153" t="s">
+        <v>488</v>
+      </c>
+      <c r="M153" t="s">
         <v>489</v>
-      </c>
-      <c r="M153" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
@@ -7898,7 +7900,7 @@
       </c>
       <c r="D154" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7918,10 +7920,10 @@
         <v>188</v>
       </c>
       <c r="L154" t="s">
+        <v>490</v>
+      </c>
+      <c r="M154" t="s">
         <v>491</v>
-      </c>
-      <c r="M154" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
@@ -7933,7 +7935,7 @@
       </c>
       <c r="D155" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7953,10 +7955,10 @@
         <v>188</v>
       </c>
       <c r="L155" t="s">
+        <v>492</v>
+      </c>
+      <c r="M155" t="s">
         <v>493</v>
-      </c>
-      <c r="M155" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
@@ -7968,7 +7970,7 @@
       </c>
       <c r="D156" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -7988,10 +7990,10 @@
         <v>188</v>
       </c>
       <c r="L156" t="s">
+        <v>494</v>
+      </c>
+      <c r="M156" t="s">
         <v>495</v>
-      </c>
-      <c r="M156" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
@@ -8003,7 +8005,7 @@
       </c>
       <c r="D157" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -8023,10 +8025,10 @@
         <v>188</v>
       </c>
       <c r="L157" t="s">
+        <v>496</v>
+      </c>
+      <c r="M157" t="s">
         <v>497</v>
-      </c>
-      <c r="M157" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
@@ -8038,7 +8040,7 @@
       </c>
       <c r="D158" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -8058,10 +8060,10 @@
         <v>188</v>
       </c>
       <c r="L158" t="s">
+        <v>498</v>
+      </c>
+      <c r="M158" t="s">
         <v>499</v>
-      </c>
-      <c r="M158" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
@@ -8073,7 +8075,7 @@
       </c>
       <c r="D159" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -8093,10 +8095,10 @@
         <v>188</v>
       </c>
       <c r="L159" t="s">
+        <v>500</v>
+      </c>
+      <c r="M159" t="s">
         <v>501</v>
-      </c>
-      <c r="M159" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
@@ -8108,7 +8110,7 @@
       </c>
       <c r="D160" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -8128,10 +8130,10 @@
         <v>188</v>
       </c>
       <c r="L160" t="s">
+        <v>502</v>
+      </c>
+      <c r="M160" t="s">
         <v>503</v>
-      </c>
-      <c r="M160" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
@@ -8143,7 +8145,7 @@
       </c>
       <c r="D161" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -8163,10 +8165,10 @@
         <v>188</v>
       </c>
       <c r="L161" t="s">
+        <v>504</v>
+      </c>
+      <c r="M161" t="s">
         <v>505</v>
-      </c>
-      <c r="M161" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
@@ -8178,7 +8180,7 @@
       </c>
       <c r="D162" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -8198,10 +8200,10 @@
         <v>188</v>
       </c>
       <c r="L162" t="s">
+        <v>506</v>
+      </c>
+      <c r="M162" t="s">
         <v>507</v>
-      </c>
-      <c r="M162" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
@@ -8213,7 +8215,7 @@
       </c>
       <c r="D163" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -8233,10 +8235,10 @@
         <v>188</v>
       </c>
       <c r="L163" t="s">
+        <v>508</v>
+      </c>
+      <c r="M163" t="s">
         <v>509</v>
-      </c>
-      <c r="M163" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
@@ -8248,7 +8250,7 @@
       </c>
       <c r="D164" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -8268,10 +8270,10 @@
         <v>188</v>
       </c>
       <c r="L164" t="s">
+        <v>510</v>
+      </c>
+      <c r="M164" t="s">
         <v>511</v>
-      </c>
-      <c r="M164" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
@@ -8283,7 +8285,7 @@
       </c>
       <c r="D165" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -8303,10 +8305,10 @@
         <v>188</v>
       </c>
       <c r="L165" t="s">
+        <v>512</v>
+      </c>
+      <c r="M165" t="s">
         <v>513</v>
-      </c>
-      <c r="M165" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
@@ -8318,7 +8320,7 @@
       </c>
       <c r="D166" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -8338,10 +8340,10 @@
         <v>188</v>
       </c>
       <c r="L166" t="s">
+        <v>514</v>
+      </c>
+      <c r="M166" t="s">
         <v>515</v>
-      </c>
-      <c r="M166" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
@@ -8353,7 +8355,7 @@
       </c>
       <c r="D167" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -8373,10 +8375,10 @@
         <v>188</v>
       </c>
       <c r="L167" t="s">
+        <v>516</v>
+      </c>
+      <c r="M167" t="s">
         <v>517</v>
-      </c>
-      <c r="M167" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
@@ -8388,7 +8390,7 @@
       </c>
       <c r="D168" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -8408,10 +8410,10 @@
         <v>188</v>
       </c>
       <c r="L168" t="s">
+        <v>518</v>
+      </c>
+      <c r="M168" t="s">
         <v>519</v>
-      </c>
-      <c r="M168" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
@@ -8423,7 +8425,7 @@
       </c>
       <c r="D169" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -8443,10 +8445,10 @@
         <v>188</v>
       </c>
       <c r="L169" t="s">
+        <v>520</v>
+      </c>
+      <c r="M169" t="s">
         <v>521</v>
-      </c>
-      <c r="M169" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
@@ -8458,7 +8460,7 @@
       </c>
       <c r="D170" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -8478,10 +8480,10 @@
         <v>188</v>
       </c>
       <c r="L170" t="s">
+        <v>522</v>
+      </c>
+      <c r="M170" t="s">
         <v>523</v>
-      </c>
-      <c r="M170" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="171" spans="2:13" x14ac:dyDescent="0.25">
@@ -8493,7 +8495,7 @@
       </c>
       <c r="D171" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -8513,10 +8515,10 @@
         <v>188</v>
       </c>
       <c r="L171" t="s">
+        <v>524</v>
+      </c>
+      <c r="M171" t="s">
         <v>525</v>
-      </c>
-      <c r="M171" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.25">
@@ -8528,7 +8530,7 @@
       </c>
       <c r="D172" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8548,10 +8550,10 @@
         <v>188</v>
       </c>
       <c r="L172" t="s">
+        <v>526</v>
+      </c>
+      <c r="M172" t="s">
         <v>527</v>
-      </c>
-      <c r="M172" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.25">
@@ -8563,7 +8565,7 @@
       </c>
       <c r="D173" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -8583,10 +8585,10 @@
         <v>188</v>
       </c>
       <c r="L173" t="s">
+        <v>528</v>
+      </c>
+      <c r="M173" t="s">
         <v>529</v>
-      </c>
-      <c r="M173" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="174" spans="2:13" x14ac:dyDescent="0.25">
@@ -8598,7 +8600,7 @@
       </c>
       <c r="D174" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -8618,10 +8620,10 @@
         <v>188</v>
       </c>
       <c r="L174" t="s">
+        <v>530</v>
+      </c>
+      <c r="M174" t="s">
         <v>531</v>
-      </c>
-      <c r="M174" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
@@ -8633,7 +8635,7 @@
       </c>
       <c r="D175" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -8653,10 +8655,10 @@
         <v>188</v>
       </c>
       <c r="L175" t="s">
+        <v>532</v>
+      </c>
+      <c r="M175" t="s">
         <v>533</v>
-      </c>
-      <c r="M175" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
@@ -8668,7 +8670,7 @@
       </c>
       <c r="D176" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -8688,10 +8690,10 @@
         <v>188</v>
       </c>
       <c r="L176" t="s">
+        <v>534</v>
+      </c>
+      <c r="M176" t="s">
         <v>535</v>
-      </c>
-      <c r="M176" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
@@ -8703,7 +8705,7 @@
       </c>
       <c r="D177" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -8723,10 +8725,10 @@
         <v>188</v>
       </c>
       <c r="L177" t="s">
+        <v>536</v>
+      </c>
+      <c r="M177" t="s">
         <v>537</v>
-      </c>
-      <c r="M177" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
@@ -8738,7 +8740,7 @@
       </c>
       <c r="D178" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8758,10 +8760,10 @@
         <v>188</v>
       </c>
       <c r="L178" t="s">
+        <v>538</v>
+      </c>
+      <c r="M178" t="s">
         <v>539</v>
-      </c>
-      <c r="M178" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="179" spans="2:13" x14ac:dyDescent="0.25">
@@ -8773,7 +8775,7 @@
       </c>
       <c r="D179" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -8793,10 +8795,10 @@
         <v>188</v>
       </c>
       <c r="L179" t="s">
+        <v>540</v>
+      </c>
+      <c r="M179" t="s">
         <v>541</v>
-      </c>
-      <c r="M179" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
@@ -8808,7 +8810,7 @@
       </c>
       <c r="D180" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -8828,10 +8830,10 @@
         <v>188</v>
       </c>
       <c r="L180" t="s">
+        <v>542</v>
+      </c>
+      <c r="M180" t="s">
         <v>543</v>
-      </c>
-      <c r="M180" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
@@ -8843,7 +8845,7 @@
       </c>
       <c r="D181" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -8863,10 +8865,10 @@
         <v>188</v>
       </c>
       <c r="L181" t="s">
+        <v>544</v>
+      </c>
+      <c r="M181" t="s">
         <v>545</v>
-      </c>
-      <c r="M181" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
@@ -8878,7 +8880,7 @@
       </c>
       <c r="D182" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -8898,10 +8900,10 @@
         <v>188</v>
       </c>
       <c r="L182" t="s">
+        <v>546</v>
+      </c>
+      <c r="M182" t="s">
         <v>547</v>
-      </c>
-      <c r="M182" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
@@ -8913,7 +8915,7 @@
       </c>
       <c r="D183" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -8933,10 +8935,10 @@
         <v>188</v>
       </c>
       <c r="L183" t="s">
+        <v>548</v>
+      </c>
+      <c r="M183" t="s">
         <v>549</v>
-      </c>
-      <c r="M183" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="184" spans="2:13" x14ac:dyDescent="0.25">
@@ -8948,7 +8950,7 @@
       </c>
       <c r="D184" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -8968,10 +8970,10 @@
         <v>188</v>
       </c>
       <c r="L184" t="s">
+        <v>550</v>
+      </c>
+      <c r="M184" t="s">
         <v>551</v>
-      </c>
-      <c r="M184" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="185" spans="2:13" x14ac:dyDescent="0.25">
@@ -8983,7 +8985,7 @@
       </c>
       <c r="D185" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -9003,10 +9005,10 @@
         <v>188</v>
       </c>
       <c r="L185" t="s">
+        <v>552</v>
+      </c>
+      <c r="M185" t="s">
         <v>553</v>
-      </c>
-      <c r="M185" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="186" spans="2:13" x14ac:dyDescent="0.25">
@@ -9018,7 +9020,7 @@
       </c>
       <c r="D186" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -9038,10 +9040,10 @@
         <v>188</v>
       </c>
       <c r="L186" t="s">
+        <v>554</v>
+      </c>
+      <c r="M186" t="s">
         <v>555</v>
-      </c>
-      <c r="M186" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="187" spans="2:13" x14ac:dyDescent="0.25">
@@ -9053,7 +9055,7 @@
       </c>
       <c r="D187" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -9073,10 +9075,10 @@
         <v>188</v>
       </c>
       <c r="L187" t="s">
+        <v>284</v>
+      </c>
+      <c r="M187" t="s">
         <v>285</v>
-      </c>
-      <c r="M187" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="188" spans="2:13" x14ac:dyDescent="0.25">
@@ -9088,7 +9090,7 @@
       </c>
       <c r="D188" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -9108,10 +9110,10 @@
         <v>188</v>
       </c>
       <c r="L188" t="s">
+        <v>368</v>
+      </c>
+      <c r="M188" t="s">
         <v>369</v>
-      </c>
-      <c r="M188" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
@@ -9123,7 +9125,7 @@
       </c>
       <c r="D189" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -9143,10 +9145,10 @@
         <v>188</v>
       </c>
       <c r="L189" t="s">
+        <v>374</v>
+      </c>
+      <c r="M189" t="s">
         <v>375</v>
-      </c>
-      <c r="M189" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
@@ -9158,7 +9160,7 @@
       </c>
       <c r="D190" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -9178,10 +9180,10 @@
         <v>188</v>
       </c>
       <c r="L190" t="s">
+        <v>386</v>
+      </c>
+      <c r="M190" t="s">
         <v>387</v>
-      </c>
-      <c r="M190" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
@@ -9193,7 +9195,7 @@
       </c>
       <c r="D191" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -9213,10 +9215,10 @@
         <v>188</v>
       </c>
       <c r="L191" t="s">
+        <v>400</v>
+      </c>
+      <c r="M191" t="s">
         <v>401</v>
-      </c>
-      <c r="M191" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
@@ -9228,7 +9230,7 @@
       </c>
       <c r="D192" t="str">
         <f t="shared" si="8"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -9248,10 +9250,10 @@
         <v>188</v>
       </c>
       <c r="L192" t="s">
+        <v>408</v>
+      </c>
+      <c r="M192" t="s">
         <v>409</v>
-      </c>
-      <c r="M192" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="193" spans="2:13" x14ac:dyDescent="0.25">
@@ -9263,7 +9265,7 @@
       </c>
       <c r="D193" t="str">
         <f t="shared" ref="D193:D202" si="15">$D$2</f>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -9283,10 +9285,10 @@
         <v>188</v>
       </c>
       <c r="L193" t="s">
+        <v>410</v>
+      </c>
+      <c r="M193" t="s">
         <v>411</v>
-      </c>
-      <c r="M193" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
@@ -9298,7 +9300,7 @@
       </c>
       <c r="D194" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -9318,10 +9320,10 @@
         <v>188</v>
       </c>
       <c r="L194" t="s">
+        <v>430</v>
+      </c>
+      <c r="M194" t="s">
         <v>431</v>
-      </c>
-      <c r="M194" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
@@ -9333,7 +9335,7 @@
       </c>
       <c r="D195" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -9353,10 +9355,10 @@
         <v>188</v>
       </c>
       <c r="L195" t="s">
+        <v>468</v>
+      </c>
+      <c r="M195" t="s">
         <v>469</v>
-      </c>
-      <c r="M195" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="196" spans="2:13" x14ac:dyDescent="0.25">
@@ -9368,7 +9370,7 @@
       </c>
       <c r="D196" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -9388,10 +9390,10 @@
         <v>188</v>
       </c>
       <c r="L196" t="s">
+        <v>478</v>
+      </c>
+      <c r="M196" t="s">
         <v>479</v>
-      </c>
-      <c r="M196" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
@@ -9403,7 +9405,7 @@
       </c>
       <c r="D197" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -9423,10 +9425,10 @@
         <v>188</v>
       </c>
       <c r="L197" t="s">
+        <v>502</v>
+      </c>
+      <c r="M197" t="s">
         <v>503</v>
-      </c>
-      <c r="M197" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
@@ -9438,7 +9440,7 @@
       </c>
       <c r="D198" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -9458,10 +9460,10 @@
         <v>188</v>
       </c>
       <c r="L198" t="s">
+        <v>524</v>
+      </c>
+      <c r="M198" t="s">
         <v>525</v>
-      </c>
-      <c r="M198" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
@@ -9473,7 +9475,7 @@
       </c>
       <c r="D199" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -9493,10 +9495,10 @@
         <v>188</v>
       </c>
       <c r="L199" t="s">
+        <v>528</v>
+      </c>
+      <c r="M199" t="s">
         <v>529</v>
-      </c>
-      <c r="M199" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
@@ -9508,7 +9510,7 @@
       </c>
       <c r="D200" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -9528,10 +9530,10 @@
         <v>188</v>
       </c>
       <c r="L200" t="s">
+        <v>556</v>
+      </c>
+      <c r="M200" t="s">
         <v>557</v>
-      </c>
-      <c r="M200" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="201" spans="2:13" x14ac:dyDescent="0.25">
@@ -9543,7 +9545,7 @@
       </c>
       <c r="D201" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -9563,10 +9565,10 @@
         <v>188</v>
       </c>
       <c r="L201" t="s">
+        <v>558</v>
+      </c>
+      <c r="M201" t="s">
         <v>559</v>
-      </c>
-      <c r="M201" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="202" spans="2:13" x14ac:dyDescent="0.25">
@@ -9578,7 +9580,7 @@
       </c>
       <c r="D202" t="str">
         <f t="shared" si="15"/>
-        <v>Weekly FSC Sales as of 26 Mar 2018</v>
+        <v>Weekly FSC Sales as of 29 Mar 2018</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -9598,10 +9600,10 @@
         <v>188</v>
       </c>
       <c r="L202" t="s">
+        <v>560</v>
+      </c>
+      <c r="M202" t="s">
         <v>561</v>
-      </c>
-      <c r="M202" t="s">
-        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
+++ b/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
@@ -591,1120 +591,1120 @@
     <t>Lina.Evraire@henryschein.ca</t>
   </si>
   <si>
-    <t>201804_CZ1SD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1SD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ125_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ125_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ124_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ124_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ132_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ132_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ128_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ128_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ144_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ144_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ165_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ165_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ177_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ177_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ178_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ178_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ183_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ183_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ107_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ107_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ109_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ109_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_AZ112_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ112_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ154_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ154_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1KD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1KD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1CF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1CF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1EM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1EM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1DP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1DP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1DA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1DA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1LM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1LM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1EE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1EE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1E2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1E2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_AZ1EK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1EK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_AZ1FB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1FB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1FP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1FP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1FT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1FT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1FR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1FR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1GO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1GO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_AZ1KL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1KL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1KK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1KK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1DN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1DN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1EO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1EO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1CB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1CB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1B8_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1B8_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1C4_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1C4_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1D8_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1D8_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1SW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1SW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1AP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1AP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ2CB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2CB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1CG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1CG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_AZ1PV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1PV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ3CB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ3CB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ5CS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ5CS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ8JA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ8JA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ7JM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ7JM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ7DO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ7DO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ5TA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ5TA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ2LB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2LB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ2GB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2GB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ2LH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2LH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ2NM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2NM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ2SB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ2SB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ2BG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2BG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1SA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1SA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1FA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1FA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ115_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ115_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ120_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ120_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ118_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ118_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ119_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ119_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ138_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ138_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ142_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ142_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ134_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ134_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ123_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ123_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ136_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ136_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ165_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ165_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1FF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1FF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ167_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ167_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ175_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ175_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ177_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ177_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ143_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ143_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ243_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ243_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ159_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ159_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ162_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ162_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ113_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ113_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ133_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ133_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ137_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ137_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1G4_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1G4_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1G5_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1G5_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZBW1_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZBW1_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ9TS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ9TS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1HM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1HM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ2HM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ2HM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ2RP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ2RP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1TT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1TT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1AM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1AM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1JW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1JW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1MH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1MH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1TM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1TM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1T2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1T2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ2CR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2CR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1SC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1SC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1PB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1PB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1JN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1JN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1J2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1J2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1MK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1MK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1CA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1CA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ2TM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ2TM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ2T1_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ2T1_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ2T2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ2T2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1JA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1JA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1BC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1BC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1JL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1JL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1AL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1AL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1MW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1MW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1MS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1MS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1AJ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1AJ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1GF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1GF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1G2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1G2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1BP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1BP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1JF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1JF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_AZ1CI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1CI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1KM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1KM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1OV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1OV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1JB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1JB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1BG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1BG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1TM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1TM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1BM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1BM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1MD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1MD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_AZ1JB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1JB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1AD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1AD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1ML_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1ML_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1FA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1FA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ2SA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2SA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1SL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1SL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_AZ1CM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1CM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_AZ1WH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1WH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_AZ1YU_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1YU_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_AZ1WX_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1WX_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_AZ1XF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1XF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_AZ1XT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1XT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_AZ1YP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1YP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1XH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1XH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1X2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1X2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1TB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1TB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1TD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1TD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1TK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1TK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1YE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1YE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1TE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1TE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ1TI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1TI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1YI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1YI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1YW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1YW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1UE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1MJ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1MJ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1VG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1VG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1VJ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1VJ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1MI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1MI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1XD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1XD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1XB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1XB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1WT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1WT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1XA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1XA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1RB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1RB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ2KF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ2KF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ148_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ148_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ8GM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ8GM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1BH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1BH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ114_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ114_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1A6_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1A6_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ139_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ139_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1VL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1VL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1VK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1VK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1LR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1LR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1UV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1WV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1WV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ4KC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ4KC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1UO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1XC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1XC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1YN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1YN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1UI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1UU_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UU_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1UW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1VC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1VC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1UX_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UX_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1UZ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UZ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1CM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1CM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ1JI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1JI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZJI2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZJI2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ2MS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ2MS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QZ3JB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ3JB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ2JN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ2JN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1RD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1RD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WZ9JP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ9JP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1DG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1DG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ1LE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1LE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CZ2B8_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2B8_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
     <t>Olivier.Marsolais@henryschein.ca</t>
   </si>
   <si>
-    <t>201804_QZ1OM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1OM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>Weekly FSC Sales as of 27 Apr 2018</t>
+    <t>Weekly FSC Sales as of 11 May 2018</t>
+  </si>
+  <si>
+    <t>201805_CZ1SD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1SD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ125_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ125_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ124_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ124_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ132_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ132_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ128_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ128_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ144_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ144_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ165_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ165_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ177_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ177_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ178_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ178_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ183_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ183_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ107_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ107_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ109_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ109_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_AZ112_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ112_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ154_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ154_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1KD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1KD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1CF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1CF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1EM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1EM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1DP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1DP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1DA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1DA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1LM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1LM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1EE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1EE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1E2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1E2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_AZ1EK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1EK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_AZ1FB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1FB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1FP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1FP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1FT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1FT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1FR_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1FR_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1GO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1GO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_AZ1KL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1KL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1KK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1KK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1DN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1DN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1EO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1EO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1CB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1CB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1B8_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1B8_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ2B8_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2B8_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1C4_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1C4_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1D8_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1D8_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1SW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1SW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1AP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1AP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ2CB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2CB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1CG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1CG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_AZ1PV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1PV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ3CB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ3CB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ5CS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ5CS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ8JA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ8JA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ7JM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ7JM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ7DO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ7DO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ5TA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ5TA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ2LB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2LB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ2GB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2GB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ2LH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2LH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ2NM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2NM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ2SB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ2SB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ2BG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2BG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1SA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1SA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1FA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1FA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ115_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ115_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ120_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ120_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ118_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ118_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ119_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ119_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ138_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ138_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ142_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ142_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ134_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ134_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ123_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ123_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ136_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ136_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ165_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ165_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1FF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1FF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ167_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ167_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ175_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ175_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ177_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ177_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ143_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ143_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ243_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ243_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ159_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ159_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ162_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ162_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ113_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ113_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ133_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ133_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ137_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ137_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1G4_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1G4_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1G5_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1G5_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZBW1_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZBW1_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ9TS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ9TS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1HM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1HM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ2HM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ2HM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ2RP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ2RP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1TT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1TT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1AM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1AM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1JW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1JW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1MH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1MH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1TM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1TM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1T2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1T2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ2CR_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2CR_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1SC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1SC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1PB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1PB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1JN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1JN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1J2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1J2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1MK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1MK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1CA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1CA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ2TM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ2TM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ2T1_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ2T1_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ2T2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ2T2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1JA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1JA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1BC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1BC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1JL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1JL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1AL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1AL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1MW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1MW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1MS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1MS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1AJ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1AJ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1GF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1GF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1G2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1G2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1BP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1BP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1JF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1JF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_AZ1CI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1CI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1KM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1KM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1OV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1OV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1JB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1JB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1BG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1BG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1TM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1TM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1BM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1BM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1MD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1MD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_AZ1JB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1JB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1AD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1AD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1ML_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1ML_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1FA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1FA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ2SA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2SA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1SL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1SL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_AZ1CM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1CM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_AZ1WH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1WH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_AZ1YU_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1YU_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_AZ1WX_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1WX_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_AZ1XF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1XF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_AZ1XT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1XT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_AZ1YP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1YP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1XH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1XH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1X2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1X2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1TB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1TB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1TD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1TD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1TK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1TK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1YE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1YE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1TE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1TE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1TI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1TI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1YI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1YI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1YW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1YW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1UE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1MJ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1MJ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1VG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1VG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1VJ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1VJ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1MI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1MI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1XD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1XD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1XB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1XB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1WT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1WT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1XA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1XA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1RB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1RB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ2KF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ2KF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ148_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ148_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ8GM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ8GM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1BH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1BH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ114_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ114_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1A6_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1A6_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ139_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ139_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1VL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1VL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1VK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1VK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1LR_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1LR_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1UV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1WV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1WV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ4KC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ4KC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1UO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1XC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1XC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1YN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1YN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1UI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1UU_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UU_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1UW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1VC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1VC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1UX_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UX_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1UZ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UZ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1CM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1CM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ1JI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1JI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZJI2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZJI2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ2MS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ2MS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ3JB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ3JB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ2JN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ2JN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1RD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1RD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QZ1OM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1OM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WZ9JP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ9JP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1DG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1DG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CZ1LE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1LE_Focus_Feedback.xlsx</t>
   </si>
 </sst>
 </file>
@@ -2575,7 +2575,7 @@
         <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>561</v>
+        <v>191</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="G2" t="str">
         <f>K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1SD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1SD_Weekly Sales.pdf</v>
       </c>
       <c r="H2" t="str">
         <f>K2&amp;"\"&amp;M2</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1SD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1SD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K2" t="s">
         <v>186</v>
       </c>
       <c r="L2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="D3" t="str">
         <f>$D$2</f>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2620,20 +2620,20 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G64" si="0">K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1SD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1SD_Weekly Sales.pdf</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H64" si="1">K3&amp;"\"&amp;M3</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1SD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1SD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K3" t="s">
         <v>186</v>
       </c>
       <c r="L3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D66" si="2">$D$2</f>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2655,20 +2655,20 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ125_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ125_Weekly Sales.pdf</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ125_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ125_Focus_Feedback.xlsx</v>
       </c>
       <c r="K4" t="s">
         <v>186</v>
       </c>
       <c r="L4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2690,20 +2690,20 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ124_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ124_Weekly Sales.pdf</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ124_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ124_Focus_Feedback.xlsx</v>
       </c>
       <c r="K5" t="s">
         <v>186</v>
       </c>
       <c r="L5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2725,20 +2725,20 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ132_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ132_Weekly Sales.pdf</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ132_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ132_Focus_Feedback.xlsx</v>
       </c>
       <c r="K6" t="s">
         <v>186</v>
       </c>
       <c r="L6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ128_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ128_Weekly Sales.pdf</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ128_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ128_Focus_Feedback.xlsx</v>
       </c>
       <c r="K7" t="s">
         <v>186</v>
       </c>
       <c r="L7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2795,20 +2795,20 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ144_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ144_Weekly Sales.pdf</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ144_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ144_Focus_Feedback.xlsx</v>
       </c>
       <c r="K8" t="s">
         <v>186</v>
       </c>
       <c r="L8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2830,20 +2830,20 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ165_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ165_Weekly Sales.pdf</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ165_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ165_Focus_Feedback.xlsx</v>
       </c>
       <c r="K9" t="s">
         <v>186</v>
       </c>
       <c r="L9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2865,20 +2865,20 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ177_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ177_Weekly Sales.pdf</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ177_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ177_Focus_Feedback.xlsx</v>
       </c>
       <c r="K10" t="s">
         <v>186</v>
       </c>
       <c r="L10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2900,20 +2900,20 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ178_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ178_Weekly Sales.pdf</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ178_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ178_Focus_Feedback.xlsx</v>
       </c>
       <c r="K11" t="s">
         <v>186</v>
       </c>
       <c r="L11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2935,20 +2935,20 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ183_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ183_Weekly Sales.pdf</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ183_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ183_Focus_Feedback.xlsx</v>
       </c>
       <c r="K12" t="s">
         <v>186</v>
       </c>
       <c r="L12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2960,7 +2960,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2970,20 +2970,20 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ107_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ107_Weekly Sales.pdf</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ107_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ107_Focus_Feedback.xlsx</v>
       </c>
       <c r="K13" t="s">
         <v>186</v>
       </c>
       <c r="L13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3005,20 +3005,20 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ109_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ109_Weekly Sales.pdf</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ109_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ109_Focus_Feedback.xlsx</v>
       </c>
       <c r="K14" t="s">
         <v>186</v>
       </c>
       <c r="L14" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3040,20 +3040,20 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ112_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ112_Weekly Sales.pdf</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ112_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ112_Focus_Feedback.xlsx</v>
       </c>
       <c r="K15" t="s">
         <v>186</v>
       </c>
       <c r="L15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3075,20 +3075,20 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ154_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ154_Weekly Sales.pdf</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ154_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ154_Focus_Feedback.xlsx</v>
       </c>
       <c r="K16" t="s">
         <v>186</v>
       </c>
       <c r="L16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3110,20 +3110,20 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1KD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1KD_Weekly Sales.pdf</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1KD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1KD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K17" t="s">
         <v>186</v>
       </c>
       <c r="L17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3145,20 +3145,20 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1CF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1CF_Weekly Sales.pdf</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1CF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1CF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K18" t="s">
         <v>186</v>
       </c>
       <c r="L18" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3180,20 +3180,20 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1EM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1EM_Weekly Sales.pdf</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1EM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1EM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K19" t="s">
         <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3215,20 +3215,20 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1DP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1DP_Weekly Sales.pdf</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1DP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1DP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K20" t="s">
         <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M20" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3250,20 +3250,20 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1DA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1DA_Weekly Sales.pdf</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1DA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1DA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K21" t="s">
         <v>186</v>
       </c>
       <c r="L21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3285,20 +3285,20 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1LM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1LM_Weekly Sales.pdf</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1LM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1LM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K22" t="s">
         <v>186</v>
       </c>
       <c r="L22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1EE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1EE_Weekly Sales.pdf</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1EE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1EE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K23" t="s">
         <v>186</v>
       </c>
       <c r="L23" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3355,20 +3355,20 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1E2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1E2_Weekly Sales.pdf</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1E2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1E2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K24" t="s">
         <v>186</v>
       </c>
       <c r="L24" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3390,20 +3390,20 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1EK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1EK_Weekly Sales.pdf</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1EK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1EK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K25" t="s">
         <v>186</v>
       </c>
       <c r="L25" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3425,20 +3425,20 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1FB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1FB_Weekly Sales.pdf</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1FB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1FB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K26" t="s">
         <v>186</v>
       </c>
       <c r="L26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3460,20 +3460,20 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1FP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1FP_Weekly Sales.pdf</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1FP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1FP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K27" t="s">
         <v>186</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3495,20 +3495,20 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1FT_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1FT_Weekly Sales.pdf</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1FT_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1FT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K28" t="s">
         <v>186</v>
       </c>
       <c r="L28" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M28" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3530,20 +3530,20 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1FR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1FR_Weekly Sales.pdf</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1FR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1FR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K29" t="s">
         <v>186</v>
       </c>
       <c r="L29" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3565,20 +3565,20 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1GO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1GO_Weekly Sales.pdf</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1GO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1GO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K30" t="s">
         <v>186</v>
       </c>
       <c r="L30" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3600,20 +3600,20 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1KL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1KL_Weekly Sales.pdf</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1KL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1KL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K31" t="s">
         <v>186</v>
       </c>
       <c r="L31" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3635,20 +3635,20 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1KK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1KK_Weekly Sales.pdf</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1KK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1KK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K32" t="s">
         <v>186</v>
       </c>
       <c r="L32" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M32" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3670,20 +3670,20 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1DN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1DN_Weekly Sales.pdf</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1DN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1DN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K33" t="s">
         <v>186</v>
       </c>
       <c r="L33" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3705,20 +3705,20 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1EO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1EO_Weekly Sales.pdf</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1EO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1EO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K34" t="s">
         <v>186</v>
       </c>
       <c r="L34" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M34" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -3730,7 +3730,7 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3740,20 +3740,20 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1CB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1CB_Weekly Sales.pdf</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1CB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1CB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K35" t="s">
         <v>186</v>
       </c>
       <c r="L35" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M35" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3775,20 +3775,20 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" ref="G36" si="3">K36&amp;"\"&amp;L36</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1B8_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1B8_Weekly Sales.pdf</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" ref="H36" si="4">K36&amp;"\"&amp;M36</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1B8_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1B8_Focus_Feedback.xlsx</v>
       </c>
       <c r="K36" t="s">
         <v>186</v>
       </c>
       <c r="L36" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M36" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3810,20 +3810,20 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2B8_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2B8_Weekly Sales.pdf</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2B8_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2B8_Focus_Feedback.xlsx</v>
       </c>
       <c r="K37" t="s">
         <v>186</v>
       </c>
       <c r="L37" t="s">
-        <v>556</v>
+        <v>260</v>
       </c>
       <c r="M37" t="s">
-        <v>557</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3845,20 +3845,20 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1C4_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1C4_Weekly Sales.pdf</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1C4_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1C4_Focus_Feedback.xlsx</v>
       </c>
       <c r="K38" t="s">
         <v>186</v>
       </c>
       <c r="L38" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M38" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1D8_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1D8_Weekly Sales.pdf</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1D8_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1D8_Focus_Feedback.xlsx</v>
       </c>
       <c r="K39" t="s">
         <v>186</v>
       </c>
       <c r="L39" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M39" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3915,20 +3915,20 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1SW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1SW_Weekly Sales.pdf</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1SW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1SW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K40" t="s">
         <v>186</v>
       </c>
       <c r="L40" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M40" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3950,20 +3950,20 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1AP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1AP_Weekly Sales.pdf</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1AP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1AP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K41" t="s">
         <v>186</v>
       </c>
       <c r="L41" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M41" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3985,20 +3985,20 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2CB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2CB_Weekly Sales.pdf</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2CB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2CB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K42" t="s">
         <v>186</v>
       </c>
       <c r="L42" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M42" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4020,20 +4020,20 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1CG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1CG_Weekly Sales.pdf</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1CG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1CG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K43" t="s">
         <v>186</v>
       </c>
       <c r="L43" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M43" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4055,20 +4055,20 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1PV_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1PV_Weekly Sales.pdf</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1PV_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1PV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K44" t="s">
         <v>186</v>
       </c>
       <c r="L44" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M44" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4090,20 +4090,20 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ3CB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ3CB_Weekly Sales.pdf</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ3CB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ3CB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K45" t="s">
         <v>186</v>
       </c>
       <c r="L45" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M45" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -4125,20 +4125,20 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ5CS_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ5CS_Weekly Sales.pdf</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ5CS_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ5CS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K46" t="s">
         <v>186</v>
       </c>
       <c r="L46" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M46" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4160,20 +4160,20 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ8JA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ8JA_Weekly Sales.pdf</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ8JA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ8JA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K47" t="s">
         <v>186</v>
       </c>
       <c r="L47" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M47" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4195,20 +4195,20 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ7JM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ7JM_Weekly Sales.pdf</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ7JM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ7JM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K48" t="s">
         <v>186</v>
       </c>
       <c r="L48" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M48" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4230,20 +4230,20 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ7DO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ7DO_Weekly Sales.pdf</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ7DO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ7DO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K49" t="s">
         <v>186</v>
       </c>
       <c r="L49" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M49" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -4265,20 +4265,20 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ5TA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ5TA_Weekly Sales.pdf</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ5TA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ5TA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K50" t="s">
         <v>186</v>
       </c>
       <c r="L50" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M50" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -4300,20 +4300,20 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2LB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2LB_Weekly Sales.pdf</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2LB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2LB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K51" t="s">
         <v>186</v>
       </c>
       <c r="L51" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M51" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -4335,20 +4335,20 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2GB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2GB_Weekly Sales.pdf</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2GB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2GB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K52" t="s">
         <v>186</v>
       </c>
       <c r="L52" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M52" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -4370,20 +4370,20 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2LH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2LH_Weekly Sales.pdf</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2LH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2LH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K53" t="s">
         <v>186</v>
       </c>
       <c r="L53" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M53" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -4405,20 +4405,20 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2NM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2NM_Weekly Sales.pdf</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2NM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2NM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K54" t="s">
         <v>186</v>
       </c>
       <c r="L54" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M54" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ2SB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ2SB_Weekly Sales.pdf</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ2SB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ2SB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K55" t="s">
         <v>186</v>
       </c>
       <c r="L55" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M55" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4475,20 +4475,20 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2BG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2BG_Weekly Sales.pdf</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2BG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2BG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K56" t="s">
         <v>186</v>
       </c>
       <c r="L56" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M56" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4510,20 +4510,20 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1SA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1SA_Weekly Sales.pdf</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1SA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1SA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K57" t="s">
         <v>186</v>
       </c>
       <c r="L57" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M57" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4545,20 +4545,20 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1FA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1FA_Weekly Sales.pdf</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1FA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1FA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K58" t="s">
         <v>186</v>
       </c>
       <c r="L58" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M58" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4580,20 +4580,20 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ115_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ115_Weekly Sales.pdf</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ115_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ115_Focus_Feedback.xlsx</v>
       </c>
       <c r="K59" t="s">
         <v>186</v>
       </c>
       <c r="L59" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M59" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4615,20 +4615,20 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ120_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ120_Weekly Sales.pdf</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ120_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ120_Focus_Feedback.xlsx</v>
       </c>
       <c r="K60" t="s">
         <v>186</v>
       </c>
       <c r="L60" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M60" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4650,20 +4650,20 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ118_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ118_Weekly Sales.pdf</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ118_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ118_Focus_Feedback.xlsx</v>
       </c>
       <c r="K61" t="s">
         <v>186</v>
       </c>
       <c r="L61" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M61" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4685,20 +4685,20 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ119_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ119_Weekly Sales.pdf</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ119_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ119_Focus_Feedback.xlsx</v>
       </c>
       <c r="K62" t="s">
         <v>186</v>
       </c>
       <c r="L62" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M62" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4720,20 +4720,20 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ138_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ138_Weekly Sales.pdf</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ138_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ138_Focus_Feedback.xlsx</v>
       </c>
       <c r="K63" t="s">
         <v>186</v>
       </c>
       <c r="L63" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M63" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4755,20 +4755,20 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ142_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ142_Weekly Sales.pdf</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ142_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ142_Focus_Feedback.xlsx</v>
       </c>
       <c r="K64" t="s">
         <v>186</v>
       </c>
       <c r="L64" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M64" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4790,20 +4790,20 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" ref="G65:G123" si="5">K65&amp;"\"&amp;L65</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ134_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ134_Weekly Sales.pdf</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" ref="H65:H123" si="6">K65&amp;"\"&amp;M65</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ134_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ134_Focus_Feedback.xlsx</v>
       </c>
       <c r="K65" t="s">
         <v>186</v>
       </c>
       <c r="L65" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M65" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4825,20 +4825,20 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ123_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ123_Weekly Sales.pdf</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ123_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ123_Focus_Feedback.xlsx</v>
       </c>
       <c r="K66" t="s">
         <v>186</v>
       </c>
       <c r="L66" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M66" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D125" si="7">$D$2</f>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4860,20 +4860,20 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ136_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ136_Weekly Sales.pdf</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ136_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ136_Focus_Feedback.xlsx</v>
       </c>
       <c r="K67" t="s">
         <v>186</v>
       </c>
       <c r="L67" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M67" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4895,20 +4895,20 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ165_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ165_Weekly Sales.pdf</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ165_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ165_Focus_Feedback.xlsx</v>
       </c>
       <c r="K68" t="s">
         <v>186</v>
       </c>
       <c r="L68" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M68" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4930,20 +4930,20 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1FF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1FF_Weekly Sales.pdf</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1FF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1FF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K69" t="s">
         <v>186</v>
       </c>
       <c r="L69" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M69" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4965,20 +4965,20 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ167_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ167_Weekly Sales.pdf</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ167_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ167_Focus_Feedback.xlsx</v>
       </c>
       <c r="K70" t="s">
         <v>186</v>
       </c>
       <c r="L70" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M70" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ175_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ175_Weekly Sales.pdf</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ175_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ175_Focus_Feedback.xlsx</v>
       </c>
       <c r="K71" t="s">
         <v>186</v>
       </c>
       <c r="L71" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M71" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -5035,20 +5035,20 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ177_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ177_Weekly Sales.pdf</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ177_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ177_Focus_Feedback.xlsx</v>
       </c>
       <c r="K72" t="s">
         <v>186</v>
       </c>
       <c r="L72" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M72" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -5070,20 +5070,20 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ143_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ143_Weekly Sales.pdf</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ143_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ143_Focus_Feedback.xlsx</v>
       </c>
       <c r="K73" t="s">
         <v>186</v>
       </c>
       <c r="L73" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M73" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ243_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ243_Weekly Sales.pdf</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ243_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ243_Focus_Feedback.xlsx</v>
       </c>
       <c r="K74" t="s">
         <v>186</v>
       </c>
       <c r="L74" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M74" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -5140,20 +5140,20 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ159_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ159_Weekly Sales.pdf</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ159_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ159_Focus_Feedback.xlsx</v>
       </c>
       <c r="K75" t="s">
         <v>186</v>
       </c>
       <c r="L75" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M75" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -5175,20 +5175,20 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ162_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ162_Weekly Sales.pdf</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ162_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ162_Focus_Feedback.xlsx</v>
       </c>
       <c r="K76" t="s">
         <v>186</v>
       </c>
       <c r="L76" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M76" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -5210,20 +5210,20 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ113_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ113_Weekly Sales.pdf</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ113_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ113_Focus_Feedback.xlsx</v>
       </c>
       <c r="K77" t="s">
         <v>186</v>
       </c>
       <c r="L77" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M77" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -5245,20 +5245,20 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ133_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ133_Weekly Sales.pdf</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ133_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ133_Focus_Feedback.xlsx</v>
       </c>
       <c r="K78" t="s">
         <v>186</v>
       </c>
       <c r="L78" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M78" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -5280,20 +5280,20 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ137_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ137_Weekly Sales.pdf</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ137_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ137_Focus_Feedback.xlsx</v>
       </c>
       <c r="K79" t="s">
         <v>186</v>
       </c>
       <c r="L79" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M79" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -5315,20 +5315,20 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1G4_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1G4_Weekly Sales.pdf</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1G4_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1G4_Focus_Feedback.xlsx</v>
       </c>
       <c r="K80" t="s">
         <v>186</v>
       </c>
       <c r="L80" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M80" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5350,20 +5350,20 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1G5_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1G5_Weekly Sales.pdf</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1G5_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1G5_Focus_Feedback.xlsx</v>
       </c>
       <c r="K81" t="s">
         <v>186</v>
       </c>
       <c r="L81" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M81" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5385,20 +5385,20 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZBW1_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZBW1_Weekly Sales.pdf</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZBW1_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZBW1_Focus_Feedback.xlsx</v>
       </c>
       <c r="K82" t="s">
         <v>186</v>
       </c>
       <c r="L82" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M82" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5420,20 +5420,20 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ9TS_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ9TS_Weekly Sales.pdf</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ9TS_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ9TS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K83" t="s">
         <v>186</v>
       </c>
       <c r="L83" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M83" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5455,20 +5455,20 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1HM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1HM_Weekly Sales.pdf</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1HM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K84" t="s">
         <v>186</v>
       </c>
       <c r="L84" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M84" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -5490,20 +5490,20 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ2HM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ2HM_Weekly Sales.pdf</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ2HM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ2HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K85" t="s">
         <v>186</v>
       </c>
       <c r="L85" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M85" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5525,20 +5525,20 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1HM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1HM_Weekly Sales.pdf</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1HM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K86" t="s">
         <v>186</v>
       </c>
       <c r="L86" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M86" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ2HM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ2HM_Weekly Sales.pdf</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ2HM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ2HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K87" t="s">
         <v>186</v>
       </c>
       <c r="L87" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M87" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5595,20 +5595,20 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ2RP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ2RP_Weekly Sales.pdf</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ2RP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ2RP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K88" t="s">
         <v>186</v>
       </c>
       <c r="L88" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M88" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5630,20 +5630,20 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1TT_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1TT_Weekly Sales.pdf</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1TT_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1TT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K89" t="s">
         <v>186</v>
       </c>
       <c r="L89" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M89" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5665,20 +5665,20 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1AM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1AM_Weekly Sales.pdf</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1AM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1AM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K90" t="s">
         <v>186</v>
       </c>
       <c r="L90" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M90" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
@@ -5690,7 +5690,7 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5700,20 +5700,20 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1JW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1JW_Weekly Sales.pdf</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1JW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1JW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K91" t="s">
         <v>186</v>
       </c>
       <c r="L91" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M91" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5735,20 +5735,20 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1MH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1MH_Weekly Sales.pdf</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1MH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1MH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K92" t="s">
         <v>186</v>
       </c>
       <c r="L92" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M92" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
@@ -5760,7 +5760,7 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5770,20 +5770,20 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K93" t="s">
         <v>186</v>
       </c>
       <c r="L93" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M93" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5805,20 +5805,20 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1T2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1T2_Weekly Sales.pdf</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1T2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1T2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K94" t="s">
         <v>186</v>
       </c>
       <c r="L94" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M94" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5840,20 +5840,20 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2CR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2CR_Weekly Sales.pdf</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2CR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2CR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K95" t="s">
         <v>186</v>
       </c>
       <c r="L95" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M95" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
@@ -5865,7 +5865,7 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5875,20 +5875,20 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1SC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1SC_Weekly Sales.pdf</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1SC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1SC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K96" t="s">
         <v>186</v>
       </c>
       <c r="L96" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M96" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5910,20 +5910,20 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1PB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1PB_Weekly Sales.pdf</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1PB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1PB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K97" t="s">
         <v>186</v>
       </c>
       <c r="L97" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M97" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5945,20 +5945,20 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1JN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1JN_Weekly Sales.pdf</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1JN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1JN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K98" t="s">
         <v>186</v>
       </c>
       <c r="L98" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M98" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
@@ -5970,7 +5970,7 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5980,20 +5980,20 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1J2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1J2_Weekly Sales.pdf</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1J2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1J2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K99" t="s">
         <v>186</v>
       </c>
       <c r="L99" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M99" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -6015,20 +6015,20 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1MK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1MK_Weekly Sales.pdf</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1MK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1MK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K100" t="s">
         <v>186</v>
       </c>
       <c r="L100" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M100" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -6050,20 +6050,20 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1CA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1CA_Weekly Sales.pdf</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1CA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1CA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K101" t="s">
         <v>186</v>
       </c>
       <c r="L101" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M101" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6085,20 +6085,20 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ2TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ2TM_Weekly Sales.pdf</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ2TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ2TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K102" t="s">
         <v>186</v>
       </c>
       <c r="L102" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M102" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="D103" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ2T1_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ2T1_Weekly Sales.pdf</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ2T1_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ2T1_Focus_Feedback.xlsx</v>
       </c>
       <c r="K103" t="s">
         <v>186</v>
       </c>
       <c r="L103" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M103" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6155,20 +6155,20 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ2T2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ2T2_Weekly Sales.pdf</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ2T2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ2T2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K104" t="s">
         <v>186</v>
       </c>
       <c r="L104" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M104" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="D105" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6190,20 +6190,20 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1JA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1JA_Weekly Sales.pdf</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1JA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1JA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K105" t="s">
         <v>186</v>
       </c>
       <c r="L105" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M105" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6225,20 +6225,20 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1BC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1BC_Weekly Sales.pdf</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1BC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1BC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K106" t="s">
         <v>186</v>
       </c>
       <c r="L106" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M106" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
@@ -6250,7 +6250,7 @@
       </c>
       <c r="D107" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6260,20 +6260,20 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1JL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1JL_Weekly Sales.pdf</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1JL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1JL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K107" t="s">
         <v>186</v>
       </c>
       <c r="L107" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M107" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -6295,20 +6295,20 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1AL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1AL_Weekly Sales.pdf</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1AL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1AL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K108" t="s">
         <v>186</v>
       </c>
       <c r="L108" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M108" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="D109" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6330,20 +6330,20 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1MW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1MW_Weekly Sales.pdf</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1MW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1MW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K109" t="s">
         <v>186</v>
       </c>
       <c r="L109" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M109" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="D110" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6365,20 +6365,20 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1MS_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1MS_Weekly Sales.pdf</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1MS_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1MS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K110" t="s">
         <v>186</v>
       </c>
       <c r="L110" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M110" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="D111" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -6400,20 +6400,20 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1AJ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1AJ_Weekly Sales.pdf</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1AJ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1AJ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K111" t="s">
         <v>186</v>
       </c>
       <c r="L111" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M111" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="D112" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6435,20 +6435,20 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1GF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1GF_Weekly Sales.pdf</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1GF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1GF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K112" t="s">
         <v>186</v>
       </c>
       <c r="L112" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M112" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="D113" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6470,20 +6470,20 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1G2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1G2_Weekly Sales.pdf</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1G2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1G2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K113" t="s">
         <v>186</v>
       </c>
       <c r="L113" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M113" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="D114" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6505,20 +6505,20 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1BP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1BP_Weekly Sales.pdf</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1BP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1BP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K114" t="s">
         <v>186</v>
       </c>
       <c r="L114" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M114" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="D115" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6540,20 +6540,20 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1JF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1JF_Weekly Sales.pdf</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1JF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1JF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K115" t="s">
         <v>186</v>
       </c>
       <c r="L115" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M115" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
@@ -6565,7 +6565,7 @@
       </c>
       <c r="D116" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6575,20 +6575,20 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1CI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1CI_Weekly Sales.pdf</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1CI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1CI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K116" t="s">
         <v>186</v>
       </c>
       <c r="L116" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M116" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="D117" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -6610,20 +6610,20 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1KM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1KM_Weekly Sales.pdf</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1KM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1KM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K117" t="s">
         <v>186</v>
       </c>
       <c r="L117" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M117" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="D118" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6645,20 +6645,20 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1OV_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1OV_Weekly Sales.pdf</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1OV_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1OV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K118" t="s">
         <v>186</v>
       </c>
       <c r="L118" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M118" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="D119" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1JB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1JB_Weekly Sales.pdf</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1JB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K119" t="s">
         <v>186</v>
       </c>
       <c r="L119" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M119" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="D120" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6715,20 +6715,20 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1BG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1BG_Weekly Sales.pdf</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1BG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1BG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K120" t="s">
         <v>186</v>
       </c>
       <c r="L120" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M120" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="D121" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6750,20 +6750,20 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K121" t="s">
         <v>186</v>
       </c>
       <c r="L121" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M121" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="D122" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6785,20 +6785,20 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1BM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1BM_Weekly Sales.pdf</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1BM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1BM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K122" t="s">
         <v>186</v>
       </c>
       <c r="L122" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M122" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="D123" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6820,20 +6820,20 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1MD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1MD_Weekly Sales.pdf</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1MD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1MD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K123" t="s">
         <v>186</v>
       </c>
       <c r="L123" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M123" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="D124" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6855,20 +6855,20 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" ref="G124:G190" si="8">K124&amp;"\"&amp;L124</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1JB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1JB_Weekly Sales.pdf</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" ref="H124:H190" si="9">K124&amp;"\"&amp;M124</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1JB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K124" t="s">
         <v>186</v>
       </c>
       <c r="L124" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M124" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="D125" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6890,20 +6890,20 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1AD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1AD_Weekly Sales.pdf</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1AD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1AD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K125" t="s">
         <v>186</v>
       </c>
       <c r="L125" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M125" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="D126" t="str">
         <f t="shared" ref="D126:D192" si="10">$D$2</f>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6925,20 +6925,20 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1ML_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1ML_Weekly Sales.pdf</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1ML_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1ML_Focus_Feedback.xlsx</v>
       </c>
       <c r="K126" t="s">
         <v>186</v>
       </c>
       <c r="L126" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M126" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="D127" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6960,20 +6960,20 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1FA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1FA_Weekly Sales.pdf</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1FA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1FA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K127" t="s">
         <v>186</v>
       </c>
       <c r="L127" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M127" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="D128" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -6995,20 +6995,20 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2SA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2SA_Weekly Sales.pdf</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2SA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2SA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K128" t="s">
         <v>186</v>
       </c>
       <c r="L128" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M128" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="D129" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -7030,20 +7030,20 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1SL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1SL_Weekly Sales.pdf</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1SL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1SL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K129" t="s">
         <v>186</v>
       </c>
       <c r="L129" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M129" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="D130" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -7065,20 +7065,20 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1CM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1CM_Weekly Sales.pdf</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1CM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1CM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K130" t="s">
         <v>186</v>
       </c>
       <c r="L130" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M130" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
@@ -7090,7 +7090,7 @@
       </c>
       <c r="D131" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -7100,20 +7100,20 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1WH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1WH_Weekly Sales.pdf</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1WH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1WH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K131" t="s">
         <v>186</v>
       </c>
       <c r="L131" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M131" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="D132" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -7135,20 +7135,20 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1YU_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1YU_Weekly Sales.pdf</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1YU_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1YU_Focus_Feedback.xlsx</v>
       </c>
       <c r="K132" t="s">
         <v>186</v>
       </c>
       <c r="L132" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M132" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="D133" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7170,20 +7170,20 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1WX_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1WX_Weekly Sales.pdf</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1WX_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1WX_Focus_Feedback.xlsx</v>
       </c>
       <c r="K133" t="s">
         <v>186</v>
       </c>
       <c r="L133" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M133" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="D134" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7205,20 +7205,20 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1XF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1XF_Weekly Sales.pdf</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1XF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1XF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K134" t="s">
         <v>186</v>
       </c>
       <c r="L134" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M134" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="D135" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1XT_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1XT_Weekly Sales.pdf</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1XT_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1XT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K135" t="s">
         <v>186</v>
       </c>
       <c r="L135" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M135" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="D136" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -7275,20 +7275,20 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1YP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1YP_Weekly Sales.pdf</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_AZ1YP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_AZ1YP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K136" t="s">
         <v>186</v>
       </c>
       <c r="L136" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M136" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="D137" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7310,20 +7310,20 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1XH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1XH_Weekly Sales.pdf</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1XH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1XH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K137" t="s">
         <v>186</v>
       </c>
       <c r="L137" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M137" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="D138" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7345,20 +7345,20 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1X2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1X2_Weekly Sales.pdf</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1X2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1X2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K138" t="s">
         <v>186</v>
       </c>
       <c r="L138" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M138" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="D139" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -7380,20 +7380,20 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1TB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1TB_Weekly Sales.pdf</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1TB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1TB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K139" t="s">
         <v>186</v>
       </c>
       <c r="L139" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M139" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D140" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -7415,20 +7415,20 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1TD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1TD_Weekly Sales.pdf</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1TD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1TD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K140" t="s">
         <v>186</v>
       </c>
       <c r="L140" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="M140" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="D141" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -7450,20 +7450,20 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1TK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1TK_Weekly Sales.pdf</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1TK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1TK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K141" t="s">
         <v>186</v>
       </c>
       <c r="L141" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M141" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="D142" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -7485,20 +7485,20 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1YE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1YE_Weekly Sales.pdf</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1YE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1YE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K142" t="s">
         <v>186</v>
       </c>
       <c r="L142" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="M142" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
@@ -7510,7 +7510,7 @@
       </c>
       <c r="D143" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -7520,20 +7520,20 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1TE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1TE_Weekly Sales.pdf</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1TE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1TE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K143" t="s">
         <v>186</v>
       </c>
       <c r="L143" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="M143" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="D144" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -7555,20 +7555,20 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1TI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1TI_Weekly Sales.pdf</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1TI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1TI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K144" t="s">
         <v>186</v>
       </c>
       <c r="L144" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="M144" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
@@ -7580,7 +7580,7 @@
       </c>
       <c r="D145" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -7590,20 +7590,20 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1YI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1YI_Weekly Sales.pdf</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1YI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1YI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K145" t="s">
         <v>186</v>
       </c>
       <c r="L145" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="M145" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="D146" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1YW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1YW_Weekly Sales.pdf</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1YW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1YW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K146" t="s">
         <v>186</v>
       </c>
       <c r="L146" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M146" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="D147" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -7660,20 +7660,20 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UE_Weekly Sales.pdf</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K147" t="s">
         <v>186</v>
       </c>
       <c r="L147" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M147" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="D148" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -7695,20 +7695,20 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1MJ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1MJ_Weekly Sales.pdf</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1MJ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1MJ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K148" t="s">
         <v>186</v>
       </c>
       <c r="L148" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M148" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="D149" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7730,20 +7730,20 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1VG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1VG_Weekly Sales.pdf</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1VG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1VG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K149" t="s">
         <v>186</v>
       </c>
       <c r="L149" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M149" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="D150" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7765,20 +7765,20 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1VJ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1VJ_Weekly Sales.pdf</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1VJ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1VJ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K150" t="s">
         <v>186</v>
       </c>
       <c r="L150" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M150" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
@@ -7790,7 +7790,7 @@
       </c>
       <c r="D151" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1MI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1MI_Weekly Sales.pdf</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1MI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1MI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K151" t="s">
         <v>186</v>
       </c>
       <c r="L151" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="M151" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="D152" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7835,20 +7835,20 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1XD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1XD_Weekly Sales.pdf</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1XD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1XD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K152" t="s">
         <v>186</v>
       </c>
       <c r="L152" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M152" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="D153" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7870,20 +7870,20 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1XB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1XB_Weekly Sales.pdf</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1XB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1XB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K153" t="s">
         <v>186</v>
       </c>
       <c r="L153" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="M153" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
@@ -7895,7 +7895,7 @@
       </c>
       <c r="D154" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7905,20 +7905,20 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1WT_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1WT_Weekly Sales.pdf</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1WT_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1WT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K154" t="s">
         <v>186</v>
       </c>
       <c r="L154" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="M154" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="D155" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7940,20 +7940,20 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1XA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1XA_Weekly Sales.pdf</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1XA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1XA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K155" t="s">
         <v>186</v>
       </c>
       <c r="L155" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="M155" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="D156" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -7975,20 +7975,20 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1RB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1RB_Weekly Sales.pdf</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1RB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1RB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K156" t="s">
         <v>186</v>
       </c>
       <c r="L156" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="M156" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="D157" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -8010,20 +8010,20 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ2KF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ2KF_Weekly Sales.pdf</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ2KF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ2KF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K157" t="s">
         <v>186</v>
       </c>
       <c r="L157" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M157" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
@@ -8035,7 +8035,7 @@
       </c>
       <c r="D158" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -8045,20 +8045,20 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ148_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ148_Weekly Sales.pdf</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ148_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ148_Focus_Feedback.xlsx</v>
       </c>
       <c r="K158" t="s">
         <v>186</v>
       </c>
       <c r="L158" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="M158" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="D159" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -8080,20 +8080,20 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ8GM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ8GM_Weekly Sales.pdf</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ8GM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ8GM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K159" t="s">
         <v>186</v>
       </c>
       <c r="L159" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="M159" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="D160" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -8115,20 +8115,20 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1BH_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1BH_Weekly Sales.pdf</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1BH_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1BH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K160" t="s">
         <v>186</v>
       </c>
       <c r="L160" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M160" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="D161" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -8150,20 +8150,20 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ114_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ114_Weekly Sales.pdf</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ114_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ114_Focus_Feedback.xlsx</v>
       </c>
       <c r="K161" t="s">
         <v>186</v>
       </c>
       <c r="L161" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="M161" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="D162" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -8185,20 +8185,20 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1A6_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1A6_Weekly Sales.pdf</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1A6_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1A6_Focus_Feedback.xlsx</v>
       </c>
       <c r="K162" t="s">
         <v>186</v>
       </c>
       <c r="L162" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="M162" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="D163" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -8220,20 +8220,20 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ139_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ139_Weekly Sales.pdf</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ139_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ139_Focus_Feedback.xlsx</v>
       </c>
       <c r="K163" t="s">
         <v>186</v>
       </c>
       <c r="L163" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="M163" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="D164" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -8255,20 +8255,20 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1VL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1VL_Weekly Sales.pdf</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1VL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1VL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K164" t="s">
         <v>186</v>
       </c>
       <c r="L164" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="M164" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
@@ -8280,7 +8280,7 @@
       </c>
       <c r="D165" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -8290,20 +8290,20 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1VK_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1VK_Weekly Sales.pdf</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1VK_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1VK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K165" t="s">
         <v>186</v>
       </c>
       <c r="L165" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M165" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="D166" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -8325,20 +8325,20 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1LR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1LR_Weekly Sales.pdf</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1LR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1LR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K166" t="s">
         <v>186</v>
       </c>
       <c r="L166" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="M166" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="D167" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UV_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UV_Weekly Sales.pdf</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UV_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K167" t="s">
         <v>186</v>
       </c>
       <c r="L167" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="M167" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
@@ -8385,7 +8385,7 @@
       </c>
       <c r="D168" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -8395,20 +8395,20 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1WV_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1WV_Weekly Sales.pdf</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1WV_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1WV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K168" t="s">
         <v>186</v>
       </c>
       <c r="L168" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="M168" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
@@ -8420,7 +8420,7 @@
       </c>
       <c r="D169" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -8430,20 +8430,20 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ4KC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ4KC_Weekly Sales.pdf</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ4KC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ4KC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K169" t="s">
         <v>186</v>
       </c>
       <c r="L169" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="M169" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="D170" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -8465,20 +8465,20 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UO_Weekly Sales.pdf</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K170" t="s">
         <v>186</v>
       </c>
       <c r="L170" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="M170" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="171" spans="2:13" x14ac:dyDescent="0.25">
@@ -8490,7 +8490,7 @@
       </c>
       <c r="D171" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -8500,20 +8500,20 @@
       </c>
       <c r="G171" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1XC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1XC_Weekly Sales.pdf</v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1XC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1XC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K171" t="s">
         <v>186</v>
       </c>
       <c r="L171" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M171" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.25">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="D172" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8535,20 +8535,20 @@
       </c>
       <c r="G172" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1YN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1YN_Weekly Sales.pdf</v>
       </c>
       <c r="H172" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1YN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1YN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K172" t="s">
         <v>186</v>
       </c>
       <c r="L172" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M172" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.25">
@@ -8560,7 +8560,7 @@
       </c>
       <c r="D173" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -8570,20 +8570,20 @@
       </c>
       <c r="G173" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UI_Weekly Sales.pdf</v>
       </c>
       <c r="H173" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K173" t="s">
         <v>186</v>
       </c>
       <c r="L173" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="M173" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="174" spans="2:13" x14ac:dyDescent="0.25">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="D174" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -8605,20 +8605,20 @@
       </c>
       <c r="G174" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UU_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UU_Weekly Sales.pdf</v>
       </c>
       <c r="H174" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UU_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UU_Focus_Feedback.xlsx</v>
       </c>
       <c r="K174" t="s">
         <v>186</v>
       </c>
       <c r="L174" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="M174" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
@@ -8630,7 +8630,7 @@
       </c>
       <c r="D175" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -8640,20 +8640,20 @@
       </c>
       <c r="G175" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UW_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UW_Weekly Sales.pdf</v>
       </c>
       <c r="H175" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UW_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K175" t="s">
         <v>186</v>
       </c>
       <c r="L175" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M175" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="D176" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -8675,20 +8675,20 @@
       </c>
       <c r="G176" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1VC_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1VC_Weekly Sales.pdf</v>
       </c>
       <c r="H176" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1VC_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1VC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K176" t="s">
         <v>186</v>
       </c>
       <c r="L176" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="M176" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="D177" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -8710,20 +8710,20 @@
       </c>
       <c r="G177" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UX_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UX_Weekly Sales.pdf</v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UX_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UX_Focus_Feedback.xlsx</v>
       </c>
       <c r="K177" t="s">
         <v>186</v>
       </c>
       <c r="L177" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="M177" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="D178" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8745,20 +8745,20 @@
       </c>
       <c r="G178" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UZ_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UZ_Weekly Sales.pdf</v>
       </c>
       <c r="H178" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UZ_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UZ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K178" t="s">
         <v>186</v>
       </c>
       <c r="L178" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M178" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="179" spans="2:13" x14ac:dyDescent="0.25">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="D179" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -8780,20 +8780,20 @@
       </c>
       <c r="G179" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1CM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1CM_Weekly Sales.pdf</v>
       </c>
       <c r="H179" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1CM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1CM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K179" t="s">
         <v>186</v>
       </c>
       <c r="L179" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="M179" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="D180" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -8815,20 +8815,20 @@
       </c>
       <c r="G180" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1JI_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1JI_Weekly Sales.pdf</v>
       </c>
       <c r="H180" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1JI_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1JI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K180" t="s">
         <v>186</v>
       </c>
       <c r="L180" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="M180" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
@@ -8840,7 +8840,7 @@
       </c>
       <c r="D181" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -8850,20 +8850,20 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" ref="G181" si="11">K181&amp;"\"&amp;L181</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZJI2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZJI2_Weekly Sales.pdf</v>
       </c>
       <c r="H181" t="str">
         <f t="shared" ref="H181" si="12">K181&amp;"\"&amp;M181</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZJI2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZJI2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K181" t="s">
         <v>186</v>
       </c>
       <c r="L181" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M181" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
@@ -8875,7 +8875,7 @@
       </c>
       <c r="D182" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -8885,20 +8885,20 @@
       </c>
       <c r="G182" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ2MS_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ2MS_Weekly Sales.pdf</v>
       </c>
       <c r="H182" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ2MS_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ2MS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K182" t="s">
         <v>186</v>
       </c>
       <c r="L182" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="M182" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
@@ -8910,7 +8910,7 @@
       </c>
       <c r="D183" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="G183" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ3JB_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ3JB_Weekly Sales.pdf</v>
       </c>
       <c r="H183" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ3JB_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ3JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K183" t="s">
         <v>186</v>
       </c>
       <c r="L183" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="M183" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="184" spans="2:13" x14ac:dyDescent="0.25">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="D184" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -8955,20 +8955,20 @@
       </c>
       <c r="G184" t="str">
         <f t="shared" ref="G184:G186" si="13">K184&amp;"\"&amp;L184</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ2JN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ2JN_Weekly Sales.pdf</v>
       </c>
       <c r="H184" t="str">
         <f t="shared" ref="H184:H186" si="14">K184&amp;"\"&amp;M184</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ2JN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ2JN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K184" t="s">
         <v>186</v>
       </c>
       <c r="L184" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="M184" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="185" spans="2:13" x14ac:dyDescent="0.25">
@@ -8980,7 +8980,7 @@
       </c>
       <c r="D185" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -8990,32 +8990,32 @@
       </c>
       <c r="G185" t="str">
         <f t="shared" ref="G185" si="15">K185&amp;"\"&amp;L185</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1RD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1RD_Weekly Sales.pdf</v>
       </c>
       <c r="H185" t="str">
         <f t="shared" ref="H185" si="16">K185&amp;"\"&amp;M185</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1RD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1RD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K185" t="s">
         <v>186</v>
       </c>
       <c r="L185" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="M185" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="186" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>558</v>
+        <v>190</v>
       </c>
       <c r="C186" t="s">
         <v>181</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -9025,20 +9025,20 @@
       </c>
       <c r="G186" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1OM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1OM_Weekly Sales.pdf</v>
       </c>
       <c r="H186" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1OM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1OM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K186" t="s">
         <v>186</v>
       </c>
       <c r="L186" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M186" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="187" spans="2:13" x14ac:dyDescent="0.25">
@@ -9050,7 +9050,7 @@
       </c>
       <c r="D187" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -9060,20 +9060,20 @@
       </c>
       <c r="G187" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ7DO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ7DO_Weekly Sales.pdf</v>
       </c>
       <c r="H187" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ7DO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ7DO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K187" t="s">
         <v>186</v>
       </c>
       <c r="L187" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M187" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="188" spans="2:13" x14ac:dyDescent="0.25">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="D188" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -9095,20 +9095,20 @@
       </c>
       <c r="G188" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H188" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K188" t="s">
         <v>186</v>
       </c>
       <c r="L188" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M188" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="D189" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -9130,20 +9130,20 @@
       </c>
       <c r="G189" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2CR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2CR_Weekly Sales.pdf</v>
       </c>
       <c r="H189" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ2CR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ2CR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K189" t="s">
         <v>186</v>
       </c>
       <c r="L189" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M189" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="D190" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -9165,20 +9165,20 @@
       </c>
       <c r="G190" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1CA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1CA_Weekly Sales.pdf</v>
       </c>
       <c r="H190" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1CA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1CA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K190" t="s">
         <v>186</v>
       </c>
       <c r="L190" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M190" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="D191" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -9200,20 +9200,20 @@
       </c>
       <c r="G191" t="str">
         <f t="shared" ref="G191:G199" si="17">K191&amp;"\"&amp;L191</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1AL_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1AL_Weekly Sales.pdf</v>
       </c>
       <c r="H191" t="str">
         <f t="shared" ref="H191:H199" si="18">K191&amp;"\"&amp;M191</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ1AL_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ1AL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K191" t="s">
         <v>186</v>
       </c>
       <c r="L191" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M191" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
@@ -9225,7 +9225,7 @@
       </c>
       <c r="D192" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -9235,20 +9235,20 @@
       </c>
       <c r="G192" t="str">
         <f t="shared" si="17"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1GF_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1GF_Weekly Sales.pdf</v>
       </c>
       <c r="H192" t="str">
         <f t="shared" si="18"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1GF_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1GF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K192" t="s">
         <v>186</v>
       </c>
       <c r="L192" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M192" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="193" spans="2:13" x14ac:dyDescent="0.25">
@@ -9260,7 +9260,7 @@
       </c>
       <c r="D193" t="str">
         <f t="shared" ref="D193:D202" si="19">$D$2</f>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -9270,20 +9270,20 @@
       </c>
       <c r="G193" t="str">
         <f t="shared" si="17"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1G2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1G2_Weekly Sales.pdf</v>
       </c>
       <c r="H193" t="str">
         <f t="shared" si="18"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1G2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1G2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K193" t="s">
         <v>186</v>
       </c>
       <c r="L193" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M193" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
@@ -9295,7 +9295,7 @@
       </c>
       <c r="D194" t="str">
         <f t="shared" si="19"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -9305,20 +9305,20 @@
       </c>
       <c r="G194" t="str">
         <f t="shared" si="17"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1MD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1MD_Weekly Sales.pdf</v>
       </c>
       <c r="H194" t="str">
         <f t="shared" si="18"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1MD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1MD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K194" t="s">
         <v>186</v>
       </c>
       <c r="L194" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M194" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
@@ -9330,7 +9330,7 @@
       </c>
       <c r="D195" t="str">
         <f t="shared" si="19"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -9340,20 +9340,20 @@
       </c>
       <c r="G195" t="str">
         <f t="shared" si="17"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1YE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1YE_Weekly Sales.pdf</v>
       </c>
       <c r="H195" t="str">
         <f t="shared" si="18"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_QZ1YE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_QZ1YE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K195" t="s">
         <v>186</v>
       </c>
       <c r="L195" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="M195" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="196" spans="2:13" x14ac:dyDescent="0.25">
@@ -9365,7 +9365,7 @@
       </c>
       <c r="D196" t="str">
         <f t="shared" si="19"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -9375,20 +9375,20 @@
       </c>
       <c r="G196" t="str">
         <f t="shared" si="17"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UE_Weekly Sales.pdf</v>
       </c>
       <c r="H196" t="str">
         <f t="shared" si="18"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K196" t="s">
         <v>186</v>
       </c>
       <c r="L196" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M196" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="D197" t="str">
         <f t="shared" si="19"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -9410,20 +9410,20 @@
       </c>
       <c r="G197" t="str">
         <f t="shared" si="17"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ8GM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ8GM_Weekly Sales.pdf</v>
       </c>
       <c r="H197" t="str">
         <f t="shared" si="18"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ8GM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ8GM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K197" t="s">
         <v>186</v>
       </c>
       <c r="L197" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="M197" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="D198" t="str">
         <f t="shared" si="19"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -9445,20 +9445,20 @@
       </c>
       <c r="G198" t="str">
         <f t="shared" si="17"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UO_Weekly Sales.pdf</v>
       </c>
       <c r="H198" t="str">
         <f t="shared" si="18"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1UO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1UO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K198" t="s">
         <v>186</v>
       </c>
       <c r="L198" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="M198" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
@@ -9470,7 +9470,7 @@
       </c>
       <c r="D199" t="str">
         <f t="shared" si="19"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="G199" t="str">
         <f t="shared" si="17"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1YN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1YN_Weekly Sales.pdf</v>
       </c>
       <c r="H199" t="str">
         <f t="shared" si="18"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1YN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1YN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K199" t="s">
         <v>186</v>
       </c>
       <c r="L199" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M199" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
@@ -9505,7 +9505,7 @@
       </c>
       <c r="D200" t="str">
         <f t="shared" si="19"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -9515,20 +9515,20 @@
       </c>
       <c r="G200" t="str">
         <f t="shared" ref="G200" si="20">K200&amp;"\"&amp;L200</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ9JP_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ9JP_Weekly Sales.pdf</v>
       </c>
       <c r="H200" t="str">
         <f t="shared" ref="H200" si="21">K200&amp;"\"&amp;M200</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_WZ9JP_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_WZ9JP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K200" t="s">
         <v>186</v>
       </c>
       <c r="L200" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="M200" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="201" spans="2:13" x14ac:dyDescent="0.25">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="D201" t="str">
         <f t="shared" si="19"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -9550,20 +9550,20 @@
       </c>
       <c r="G201" t="str">
         <f t="shared" ref="G201" si="22">K201&amp;"\"&amp;L201</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1DG_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1DG_Weekly Sales.pdf</v>
       </c>
       <c r="H201" t="str">
         <f t="shared" ref="H201" si="23">K201&amp;"\"&amp;M201</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1DG_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1DG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K201" t="s">
         <v>186</v>
       </c>
       <c r="L201" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="M201" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="202" spans="2:13" x14ac:dyDescent="0.25">
@@ -9575,7 +9575,7 @@
       </c>
       <c r="D202" t="str">
         <f t="shared" si="19"/>
-        <v>Weekly FSC Sales as of 27 Apr 2018</v>
+        <v>Weekly FSC Sales as of 11 May 2018</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -9585,20 +9585,20 @@
       </c>
       <c r="G202" t="str">
         <f t="shared" ref="G202" si="24">K202&amp;"\"&amp;L202</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1LE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1LE_Weekly Sales.pdf</v>
       </c>
       <c r="H202" t="str">
         <f t="shared" ref="H202" si="25">K202&amp;"\"&amp;M202</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201804_CZ1LE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201805_CZ1LE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K202" t="s">
         <v>186</v>
       </c>
       <c r="L202" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="M202" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
+++ b/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="565">
   <si>
     <t>code</t>
   </si>
@@ -1704,7 +1704,16 @@
     <t>201806_CZ1LE_Focus_Feedback.xlsx</t>
   </si>
   <si>
-    <t>Weekly FSC Sales as of 8 Jun 2018</t>
+    <t>Jesse.Sale@henryschein.ca</t>
+  </si>
+  <si>
+    <t>201806_CZ1JS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1JS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>Weekly FSC Sales as of 22 Jun 2018</t>
   </si>
 </sst>
 </file>
@@ -2512,9 +2521,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2575,7 +2586,7 @@
         <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2610,7 +2621,7 @@
       </c>
       <c r="D3" t="str">
         <f>$D$2</f>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2645,7 +2656,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D66" si="2">$D$2</f>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2680,7 +2691,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2715,7 +2726,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2750,7 +2761,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2785,7 +2796,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2820,7 +2831,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2855,7 +2866,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2890,7 +2901,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2925,7 +2936,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2960,7 +2971,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2995,7 +3006,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3030,7 +3041,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3065,7 +3076,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3100,7 +3111,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3135,7 +3146,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3170,7 +3181,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3205,7 +3216,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3240,7 +3251,7 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3275,7 +3286,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3310,7 +3321,7 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3345,7 +3356,7 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3380,7 +3391,7 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3415,7 +3426,7 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3450,7 +3461,7 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3485,7 +3496,7 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3520,7 +3531,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3555,7 +3566,7 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3590,7 +3601,7 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3625,7 +3636,7 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3660,7 +3671,7 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3695,7 +3706,7 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3730,7 +3741,7 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3765,7 +3776,7 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3800,7 +3811,7 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3835,7 +3846,7 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3870,7 +3881,7 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3905,7 +3916,7 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3940,7 +3951,7 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3975,7 +3986,7 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -4010,7 +4021,7 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4045,7 +4056,7 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4080,7 +4091,7 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4115,7 +4126,7 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -4150,7 +4161,7 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4185,7 +4196,7 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4220,7 +4231,7 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4255,7 +4266,7 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -4290,7 +4301,7 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -4325,7 +4336,7 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -4360,7 +4371,7 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -4395,7 +4406,7 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -4430,7 +4441,7 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -4465,7 +4476,7 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4500,7 +4511,7 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4535,7 +4546,7 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4570,7 +4581,7 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4605,7 +4616,7 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4640,7 +4651,7 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4675,7 +4686,7 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4710,7 +4721,7 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4745,7 +4756,7 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4780,7 +4791,7 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4815,7 +4826,7 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4850,7 +4861,7 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D124" si="7">$D$2</f>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4885,7 +4896,7 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4920,7 +4931,7 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4955,7 +4966,7 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4990,7 +5001,7 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -5025,7 +5036,7 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -5060,7 +5071,7 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -5095,7 +5106,7 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -5130,7 +5141,7 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -5165,7 +5176,7 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -5200,7 +5211,7 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -5235,7 +5246,7 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -5270,7 +5281,7 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -5305,7 +5316,7 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -5340,7 +5351,7 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5375,7 +5386,7 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5410,7 +5421,7 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5445,7 +5456,7 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5480,7 +5491,7 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -5515,7 +5526,7 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5550,7 +5561,7 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5585,7 +5596,7 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5620,7 +5631,7 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5655,7 +5666,7 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5690,7 +5701,7 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5725,7 +5736,7 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5760,7 +5771,7 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5795,7 +5806,7 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5830,7 +5841,7 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5865,7 +5876,7 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5900,7 +5911,7 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5935,7 +5946,7 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5970,7 +5981,7 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -6005,7 +6016,7 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -6040,7 +6051,7 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -6075,7 +6086,7 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6110,7 +6121,7 @@
       </c>
       <c r="D103" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6145,7 +6156,7 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6180,7 +6191,7 @@
       </c>
       <c r="D105" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6215,7 +6226,7 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6250,7 +6261,7 @@
       </c>
       <c r="D107" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6285,7 +6296,7 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -6320,7 +6331,7 @@
       </c>
       <c r="D109" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6355,7 +6366,7 @@
       </c>
       <c r="D110" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6390,7 +6401,7 @@
       </c>
       <c r="D111" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -6425,7 +6436,7 @@
       </c>
       <c r="D112" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6460,7 +6471,7 @@
       </c>
       <c r="D113" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6495,7 +6506,7 @@
       </c>
       <c r="D114" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6530,7 +6541,7 @@
       </c>
       <c r="D115" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6565,7 +6576,7 @@
       </c>
       <c r="D116" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6600,7 +6611,7 @@
       </c>
       <c r="D117" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -6635,7 +6646,7 @@
       </c>
       <c r="D118" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6670,7 +6681,7 @@
       </c>
       <c r="D119" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6705,7 +6716,7 @@
       </c>
       <c r="D120" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6740,7 +6751,7 @@
       </c>
       <c r="D121" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6775,7 +6786,7 @@
       </c>
       <c r="D122" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6810,7 +6821,7 @@
       </c>
       <c r="D123" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6819,11 +6830,11 @@
         <v>2</v>
       </c>
       <c r="G123" t="str">
-        <f t="shared" ref="G123:G193" si="8">K123&amp;"\"&amp;L123</f>
+        <f t="shared" ref="G123:G194" si="8">K123&amp;"\"&amp;L123</f>
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1JB_Weekly Sales.pdf</v>
       </c>
       <c r="H123" t="str">
-        <f t="shared" ref="H123:H193" si="9">K123&amp;"\"&amp;M123</f>
+        <f t="shared" ref="H123:H194" si="9">K123&amp;"\"&amp;M123</f>
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K123" t="s">
@@ -6845,7 +6856,7 @@
       </c>
       <c r="D124" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6879,8 +6890,8 @@
         <v>180</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" ref="D125:D195" si="10">$D$2</f>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <f t="shared" ref="D125:D196" si="10">$D$2</f>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6915,7 +6926,7 @@
       </c>
       <c r="D126" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6950,7 +6961,7 @@
       </c>
       <c r="D127" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6985,7 +6996,7 @@
       </c>
       <c r="D128" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -7020,7 +7031,7 @@
       </c>
       <c r="D129" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -7055,7 +7066,7 @@
       </c>
       <c r="D130" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -7090,7 +7101,7 @@
       </c>
       <c r="D131" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -7125,7 +7136,7 @@
       </c>
       <c r="D132" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -7160,7 +7171,7 @@
       </c>
       <c r="D133" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7195,7 +7206,7 @@
       </c>
       <c r="D134" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7230,7 +7241,7 @@
       </c>
       <c r="D135" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -7265,7 +7276,7 @@
       </c>
       <c r="D136" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -7300,7 +7311,7 @@
       </c>
       <c r="D137" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7335,7 +7346,7 @@
       </c>
       <c r="D138" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7370,7 +7381,7 @@
       </c>
       <c r="D139" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -7405,7 +7416,7 @@
       </c>
       <c r="D140" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -7440,7 +7451,7 @@
       </c>
       <c r="D141" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -7475,7 +7486,7 @@
       </c>
       <c r="D142" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -7510,7 +7521,7 @@
       </c>
       <c r="D143" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -7545,7 +7556,7 @@
       </c>
       <c r="D144" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -7580,7 +7591,7 @@
       </c>
       <c r="D145" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -7615,7 +7626,7 @@
       </c>
       <c r="D146" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -7650,7 +7661,7 @@
       </c>
       <c r="D147" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -7685,7 +7696,7 @@
       </c>
       <c r="D148" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -7720,7 +7731,7 @@
       </c>
       <c r="D149" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7755,7 +7766,7 @@
       </c>
       <c r="D150" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7790,7 +7801,7 @@
       </c>
       <c r="D151" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7825,7 +7836,7 @@
       </c>
       <c r="D152" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7860,7 +7871,7 @@
       </c>
       <c r="D153" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7895,7 +7906,7 @@
       </c>
       <c r="D154" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7930,7 +7941,7 @@
       </c>
       <c r="D155" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7965,7 +7976,7 @@
       </c>
       <c r="D156" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -8000,7 +8011,7 @@
       </c>
       <c r="D157" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -8035,7 +8046,7 @@
       </c>
       <c r="D158" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -8070,7 +8081,7 @@
       </c>
       <c r="D159" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -8105,7 +8116,7 @@
       </c>
       <c r="D160" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -8140,7 +8151,7 @@
       </c>
       <c r="D161" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -8175,7 +8186,7 @@
       </c>
       <c r="D162" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -8210,7 +8221,7 @@
       </c>
       <c r="D163" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -8245,7 +8256,7 @@
       </c>
       <c r="D164" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -8280,7 +8291,7 @@
       </c>
       <c r="D165" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -8315,7 +8326,7 @@
       </c>
       <c r="D166" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -8350,7 +8361,7 @@
       </c>
       <c r="D167" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -8385,7 +8396,7 @@
       </c>
       <c r="D168" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -8420,7 +8431,7 @@
       </c>
       <c r="D169" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -8455,7 +8466,7 @@
       </c>
       <c r="D170" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -8490,7 +8501,7 @@
       </c>
       <c r="D171" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -8525,7 +8536,7 @@
       </c>
       <c r="D172" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8560,7 +8571,7 @@
       </c>
       <c r="D173" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -8595,7 +8606,7 @@
       </c>
       <c r="D174" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -8630,7 +8641,7 @@
       </c>
       <c r="D175" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -8665,7 +8676,7 @@
       </c>
       <c r="D176" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -8700,7 +8711,7 @@
       </c>
       <c r="D177" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -8735,7 +8746,7 @@
       </c>
       <c r="D178" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8770,7 +8781,7 @@
       </c>
       <c r="D179" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -8805,7 +8816,7 @@
       </c>
       <c r="D180" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -8840,7 +8851,7 @@
       </c>
       <c r="D181" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -8875,7 +8886,7 @@
       </c>
       <c r="D182" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -8910,7 +8921,7 @@
       </c>
       <c r="D183" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -8945,7 +8956,7 @@
       </c>
       <c r="D184" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -8980,7 +8991,7 @@
       </c>
       <c r="D185" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -9015,7 +9026,7 @@
       </c>
       <c r="D186" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -9050,7 +9061,7 @@
       </c>
       <c r="D187" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -9085,7 +9096,7 @@
       </c>
       <c r="D188" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -9120,7 +9131,7 @@
       </c>
       <c r="D189" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -9148,14 +9159,14 @@
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>178</v>
+        <v>561</v>
       </c>
       <c r="C190" t="s">
         <v>180</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -9164,21 +9175,21 @@
         <v>2</v>
       </c>
       <c r="G190" t="str">
-        <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ7DO_Weekly Sales.pdf</v>
+        <f t="shared" ref="G190" si="19">K190&amp;"\"&amp;L190</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1JS_Weekly Sales.pdf</v>
       </c>
       <c r="H190" t="str">
-        <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ7DO_Focus_Feedback.xlsx</v>
+        <f t="shared" ref="H190" si="20">K190&amp;"\"&amp;M190</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1JS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K190" t="s">
         <v>185</v>
       </c>
       <c r="L190" t="s">
-        <v>283</v>
+        <v>562</v>
       </c>
       <c r="M190" t="s">
-        <v>284</v>
+        <v>563</v>
       </c>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
@@ -9190,7 +9201,7 @@
       </c>
       <c r="D191" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -9200,20 +9211,20 @@
       </c>
       <c r="G191" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ7DO_Weekly Sales.pdf</v>
       </c>
       <c r="H191" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ7DO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K191" t="s">
         <v>185</v>
       </c>
       <c r="L191" t="s">
-        <v>367</v>
+        <v>283</v>
       </c>
       <c r="M191" t="s">
-        <v>368</v>
+        <v>284</v>
       </c>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
@@ -9225,7 +9236,7 @@
       </c>
       <c r="D192" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -9235,20 +9246,20 @@
       </c>
       <c r="G192" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2CR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H192" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2CR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K192" t="s">
         <v>185</v>
       </c>
       <c r="L192" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M192" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="193" spans="2:13" x14ac:dyDescent="0.25">
@@ -9260,7 +9271,7 @@
       </c>
       <c r="D193" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -9270,20 +9281,20 @@
       </c>
       <c r="G193" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1CA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2CR_Weekly Sales.pdf</v>
       </c>
       <c r="H193" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1CA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2CR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K193" t="s">
         <v>185</v>
       </c>
       <c r="L193" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="M193" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
@@ -9295,7 +9306,7 @@
       </c>
       <c r="D194" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -9304,21 +9315,21 @@
         <v>2</v>
       </c>
       <c r="G194" t="str">
-        <f t="shared" ref="G194:G202" si="19">K194&amp;"\"&amp;L194</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1AL_Weekly Sales.pdf</v>
+        <f t="shared" si="8"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1CA_Weekly Sales.pdf</v>
       </c>
       <c r="H194" t="str">
-        <f t="shared" ref="H194:H202" si="20">K194&amp;"\"&amp;M194</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1AL_Focus_Feedback.xlsx</v>
+        <f t="shared" si="9"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1CA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K194" t="s">
         <v>185</v>
       </c>
       <c r="L194" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="M194" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
@@ -9330,7 +9341,7 @@
       </c>
       <c r="D195" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -9339,21 +9350,21 @@
         <v>2</v>
       </c>
       <c r="G195" t="str">
-        <f t="shared" si="19"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1GF_Weekly Sales.pdf</v>
+        <f t="shared" ref="G195:G203" si="21">K195&amp;"\"&amp;L195</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1AL_Weekly Sales.pdf</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" si="20"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1GF_Focus_Feedback.xlsx</v>
+        <f t="shared" ref="H195:H203" si="22">K195&amp;"\"&amp;M195</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1AL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K195" t="s">
         <v>185</v>
       </c>
       <c r="L195" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M195" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="196" spans="2:13" x14ac:dyDescent="0.25">
@@ -9364,8 +9375,8 @@
         <v>180</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" ref="D196:D203" si="21">$D$2</f>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
+        <f t="shared" si="10"/>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -9374,21 +9385,21 @@
         <v>2</v>
       </c>
       <c r="G196" t="str">
-        <f t="shared" si="19"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1G2_Weekly Sales.pdf</v>
+        <f t="shared" si="21"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1GF_Weekly Sales.pdf</v>
       </c>
       <c r="H196" t="str">
-        <f t="shared" si="20"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1G2_Focus_Feedback.xlsx</v>
+        <f t="shared" si="22"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1GF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K196" t="s">
         <v>185</v>
       </c>
       <c r="L196" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M196" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
@@ -9399,31 +9410,31 @@
         <v>180</v>
       </c>
       <c r="D197" t="str">
+        <f t="shared" ref="D197:D204" si="23">$D$2</f>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>2</v>
+      </c>
+      <c r="G197" t="str">
         <f t="shared" si="21"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
-      </c>
-      <c r="E197">
-        <v>1</v>
-      </c>
-      <c r="F197">
-        <v>2</v>
-      </c>
-      <c r="G197" t="str">
-        <f t="shared" si="19"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1MD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1G2_Weekly Sales.pdf</v>
       </c>
       <c r="H197" t="str">
-        <f t="shared" si="20"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1MD_Focus_Feedback.xlsx</v>
+        <f t="shared" si="22"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1G2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K197" t="s">
         <v>185</v>
       </c>
       <c r="L197" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="M197" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
@@ -9434,31 +9445,31 @@
         <v>180</v>
       </c>
       <c r="D198" t="str">
+        <f t="shared" si="23"/>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>2</v>
+      </c>
+      <c r="G198" t="str">
         <f t="shared" si="21"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
-      </c>
-      <c r="E198">
-        <v>1</v>
-      </c>
-      <c r="F198">
-        <v>2</v>
-      </c>
-      <c r="G198" t="str">
-        <f t="shared" si="19"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1YE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1MD_Weekly Sales.pdf</v>
       </c>
       <c r="H198" t="str">
-        <f t="shared" si="20"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1YE_Focus_Feedback.xlsx</v>
+        <f t="shared" si="22"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1MD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K198" t="s">
         <v>185</v>
       </c>
       <c r="L198" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="M198" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
@@ -9469,31 +9480,31 @@
         <v>180</v>
       </c>
       <c r="D199" t="str">
+        <f t="shared" si="23"/>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>2</v>
+      </c>
+      <c r="G199" t="str">
         <f t="shared" si="21"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
-      </c>
-      <c r="E199">
-        <v>1</v>
-      </c>
-      <c r="F199">
-        <v>2</v>
-      </c>
-      <c r="G199" t="str">
-        <f t="shared" si="19"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1YE_Weekly Sales.pdf</v>
       </c>
       <c r="H199" t="str">
-        <f t="shared" si="20"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UE_Focus_Feedback.xlsx</v>
+        <f t="shared" si="22"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1YE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K199" t="s">
         <v>185</v>
       </c>
       <c r="L199" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="M199" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
@@ -9504,31 +9515,31 @@
         <v>180</v>
       </c>
       <c r="D200" t="str">
+        <f t="shared" si="23"/>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
+      </c>
+      <c r="G200" t="str">
         <f t="shared" si="21"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
-      </c>
-      <c r="E200">
-        <v>1</v>
-      </c>
-      <c r="F200">
-        <v>2</v>
-      </c>
-      <c r="G200" t="str">
-        <f t="shared" si="19"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ8GM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UE_Weekly Sales.pdf</v>
       </c>
       <c r="H200" t="str">
-        <f t="shared" si="20"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ8GM_Focus_Feedback.xlsx</v>
+        <f t="shared" si="22"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K200" t="s">
         <v>185</v>
       </c>
       <c r="L200" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="M200" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
     </row>
     <row r="201" spans="2:13" x14ac:dyDescent="0.25">
@@ -9539,31 +9550,31 @@
         <v>180</v>
       </c>
       <c r="D201" t="str">
+        <f t="shared" si="23"/>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>2</v>
+      </c>
+      <c r="G201" t="str">
         <f t="shared" si="21"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
-      </c>
-      <c r="E201">
-        <v>1</v>
-      </c>
-      <c r="F201">
-        <v>2</v>
-      </c>
-      <c r="G201" t="str">
-        <f t="shared" si="19"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ8GM_Weekly Sales.pdf</v>
       </c>
       <c r="H201" t="str">
-        <f t="shared" si="20"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UO_Focus_Feedback.xlsx</v>
+        <f t="shared" si="22"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ8GM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K201" t="s">
         <v>185</v>
       </c>
       <c r="L201" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="M201" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
     </row>
     <row r="202" spans="2:13" x14ac:dyDescent="0.25">
@@ -9574,31 +9585,31 @@
         <v>180</v>
       </c>
       <c r="D202" t="str">
+        <f t="shared" si="23"/>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>2</v>
+      </c>
+      <c r="G202" t="str">
         <f t="shared" si="21"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
-      </c>
-      <c r="E202">
-        <v>1</v>
-      </c>
-      <c r="F202">
-        <v>2</v>
-      </c>
-      <c r="G202" t="str">
-        <f t="shared" si="19"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1YN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UO_Weekly Sales.pdf</v>
       </c>
       <c r="H202" t="str">
-        <f t="shared" si="20"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1YN_Focus_Feedback.xlsx</v>
+        <f t="shared" si="22"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K202" t="s">
         <v>185</v>
       </c>
       <c r="L202" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M202" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="203" spans="2:13" x14ac:dyDescent="0.25">
@@ -9609,30 +9620,65 @@
         <v>180</v>
       </c>
       <c r="D203" t="str">
+        <f t="shared" si="23"/>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>2</v>
+      </c>
+      <c r="G203" t="str">
         <f t="shared" si="21"/>
-        <v>Weekly FSC Sales as of 8 Jun 2018</v>
-      </c>
-      <c r="E203">
-        <v>1</v>
-      </c>
-      <c r="F203">
-        <v>2</v>
-      </c>
-      <c r="G203" t="str">
-        <f t="shared" ref="G203" si="22">K203&amp;"\"&amp;L203</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1YN_Weekly Sales.pdf</v>
+      </c>
+      <c r="H203" t="str">
+        <f t="shared" si="22"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1YN_Focus_Feedback.xlsx</v>
+      </c>
+      <c r="K203" t="s">
+        <v>185</v>
+      </c>
+      <c r="L203" t="s">
+        <v>523</v>
+      </c>
+      <c r="M203" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>178</v>
+      </c>
+      <c r="C204" t="s">
+        <v>180</v>
+      </c>
+      <c r="D204" t="str">
+        <f t="shared" si="23"/>
+        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>2</v>
+      </c>
+      <c r="G204" t="str">
+        <f t="shared" ref="G204" si="24">K204&amp;"\"&amp;L204</f>
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1JV_Weekly Sales.pdf</v>
       </c>
-      <c r="H203" t="str">
-        <f t="shared" ref="H203" si="23">K203&amp;"\"&amp;M203</f>
+      <c r="H204" t="str">
+        <f t="shared" ref="H204" si="25">K204&amp;"\"&amp;M204</f>
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1JV_Focus_Feedback.xlsx</v>
       </c>
-      <c r="K203" t="s">
-        <v>185</v>
-      </c>
-      <c r="L203" t="s">
+      <c r="K204" t="s">
+        <v>185</v>
+      </c>
+      <c r="L204" t="s">
         <v>553</v>
       </c>
-      <c r="M203" t="s">
+      <c r="M204" t="s">
         <v>554</v>
       </c>
     </row>

--- a/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
+++ b/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="568">
   <si>
     <t>code</t>
   </si>
@@ -1713,7 +1713,16 @@
     <t>201806_CZ1JS_Focus_Feedback.xlsx</t>
   </si>
   <si>
-    <t>Weekly FSC Sales as of 22 Jun 2018</t>
+    <t>Janet.Squires@henryschein.ca</t>
+  </si>
+  <si>
+    <t>201806_WZ2JS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ2JS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>Weekly FSC Sales as of 29 Jun 2018</t>
   </si>
 </sst>
 </file>
@@ -2521,7 +2530,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -2586,7 +2595,7 @@
         <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2621,7 +2630,7 @@
       </c>
       <c r="D3" t="str">
         <f>$D$2</f>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2656,7 +2665,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D66" si="2">$D$2</f>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2691,7 +2700,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2726,7 +2735,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2761,7 +2770,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2796,7 +2805,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2831,7 +2840,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2866,7 +2875,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2901,7 +2910,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2936,7 +2945,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2971,7 +2980,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3006,7 +3015,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3041,7 +3050,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3076,7 +3085,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3111,7 +3120,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3146,7 +3155,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3181,7 +3190,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3216,7 +3225,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3251,7 +3260,7 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3286,7 +3295,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3321,7 +3330,7 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3356,7 +3365,7 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3391,7 +3400,7 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3426,7 +3435,7 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3461,7 +3470,7 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3496,7 +3505,7 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3531,7 +3540,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3566,7 +3575,7 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3601,7 +3610,7 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3636,7 +3645,7 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3671,7 +3680,7 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3706,7 +3715,7 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3741,7 +3750,7 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3776,7 +3785,7 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3811,7 +3820,7 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3846,7 +3855,7 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3881,7 +3890,7 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3916,7 +3925,7 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3951,7 +3960,7 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3986,7 +3995,7 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -4021,7 +4030,7 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4056,7 +4065,7 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4091,7 +4100,7 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4126,7 +4135,7 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -4161,7 +4170,7 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4196,7 +4205,7 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4231,7 +4240,7 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4266,7 +4275,7 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -4301,7 +4310,7 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -4336,7 +4345,7 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -4371,7 +4380,7 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -4406,7 +4415,7 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -4441,7 +4450,7 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -4476,7 +4485,7 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4511,7 +4520,7 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4546,7 +4555,7 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4581,7 +4590,7 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4616,7 +4625,7 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4651,7 +4660,7 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4686,7 +4695,7 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4721,7 +4730,7 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4756,7 +4765,7 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4791,7 +4800,7 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4826,7 +4835,7 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4861,7 +4870,7 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D124" si="7">$D$2</f>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4896,7 +4905,7 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4931,7 +4940,7 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4966,7 +4975,7 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -5001,7 +5010,7 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -5036,7 +5045,7 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -5071,7 +5080,7 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -5106,7 +5115,7 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -5141,7 +5150,7 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -5176,7 +5185,7 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -5211,7 +5220,7 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -5246,7 +5255,7 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -5281,7 +5290,7 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -5316,7 +5325,7 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -5351,7 +5360,7 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5386,7 +5395,7 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5421,7 +5430,7 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5456,7 +5465,7 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5491,7 +5500,7 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -5526,7 +5535,7 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5561,7 +5570,7 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5596,7 +5605,7 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5631,7 +5640,7 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5666,7 +5675,7 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5701,7 +5710,7 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5736,7 +5745,7 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5771,7 +5780,7 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5806,7 +5815,7 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5841,7 +5850,7 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5876,7 +5885,7 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5911,7 +5920,7 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5946,7 +5955,7 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5981,7 +5990,7 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -6016,7 +6025,7 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -6051,7 +6060,7 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -6086,7 +6095,7 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6121,7 +6130,7 @@
       </c>
       <c r="D103" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6156,7 +6165,7 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6191,7 +6200,7 @@
       </c>
       <c r="D105" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6226,7 +6235,7 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6261,7 +6270,7 @@
       </c>
       <c r="D107" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6296,7 +6305,7 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -6331,7 +6340,7 @@
       </c>
       <c r="D109" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6366,7 +6375,7 @@
       </c>
       <c r="D110" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6401,7 +6410,7 @@
       </c>
       <c r="D111" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -6436,7 +6445,7 @@
       </c>
       <c r="D112" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6471,7 +6480,7 @@
       </c>
       <c r="D113" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6506,7 +6515,7 @@
       </c>
       <c r="D114" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6541,7 +6550,7 @@
       </c>
       <c r="D115" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6576,7 +6585,7 @@
       </c>
       <c r="D116" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6611,7 +6620,7 @@
       </c>
       <c r="D117" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -6646,7 +6655,7 @@
       </c>
       <c r="D118" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6681,7 +6690,7 @@
       </c>
       <c r="D119" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6716,7 +6725,7 @@
       </c>
       <c r="D120" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6751,7 +6760,7 @@
       </c>
       <c r="D121" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6786,7 +6795,7 @@
       </c>
       <c r="D122" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6821,7 +6830,7 @@
       </c>
       <c r="D123" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6830,11 +6839,11 @@
         <v>2</v>
       </c>
       <c r="G123" t="str">
-        <f t="shared" ref="G123:G194" si="8">K123&amp;"\"&amp;L123</f>
+        <f t="shared" ref="G123:G195" si="8">K123&amp;"\"&amp;L123</f>
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1JB_Weekly Sales.pdf</v>
       </c>
       <c r="H123" t="str">
-        <f t="shared" ref="H123:H194" si="9">K123&amp;"\"&amp;M123</f>
+        <f t="shared" ref="H123:H195" si="9">K123&amp;"\"&amp;M123</f>
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K123" t="s">
@@ -6856,7 +6865,7 @@
       </c>
       <c r="D124" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6890,8 +6899,8 @@
         <v>180</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" ref="D125:D196" si="10">$D$2</f>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <f t="shared" ref="D125:D197" si="10">$D$2</f>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6926,7 +6935,7 @@
       </c>
       <c r="D126" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6961,7 +6970,7 @@
       </c>
       <c r="D127" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6996,7 +7005,7 @@
       </c>
       <c r="D128" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -7031,7 +7040,7 @@
       </c>
       <c r="D129" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -7066,7 +7075,7 @@
       </c>
       <c r="D130" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -7101,7 +7110,7 @@
       </c>
       <c r="D131" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -7136,7 +7145,7 @@
       </c>
       <c r="D132" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -7171,7 +7180,7 @@
       </c>
       <c r="D133" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7206,7 +7215,7 @@
       </c>
       <c r="D134" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7241,7 +7250,7 @@
       </c>
       <c r="D135" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -7276,7 +7285,7 @@
       </c>
       <c r="D136" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -7311,7 +7320,7 @@
       </c>
       <c r="D137" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7346,7 +7355,7 @@
       </c>
       <c r="D138" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7381,7 +7390,7 @@
       </c>
       <c r="D139" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -7416,7 +7425,7 @@
       </c>
       <c r="D140" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -7451,7 +7460,7 @@
       </c>
       <c r="D141" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -7486,7 +7495,7 @@
       </c>
       <c r="D142" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -7521,7 +7530,7 @@
       </c>
       <c r="D143" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -7556,7 +7565,7 @@
       </c>
       <c r="D144" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -7591,7 +7600,7 @@
       </c>
       <c r="D145" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -7626,7 +7635,7 @@
       </c>
       <c r="D146" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -7661,7 +7670,7 @@
       </c>
       <c r="D147" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -7696,7 +7705,7 @@
       </c>
       <c r="D148" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -7731,7 +7740,7 @@
       </c>
       <c r="D149" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7766,7 +7775,7 @@
       </c>
       <c r="D150" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7801,7 +7810,7 @@
       </c>
       <c r="D151" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7836,7 +7845,7 @@
       </c>
       <c r="D152" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7871,7 +7880,7 @@
       </c>
       <c r="D153" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7906,7 +7915,7 @@
       </c>
       <c r="D154" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7941,7 +7950,7 @@
       </c>
       <c r="D155" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7976,7 +7985,7 @@
       </c>
       <c r="D156" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -8011,7 +8020,7 @@
       </c>
       <c r="D157" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -8046,7 +8055,7 @@
       </c>
       <c r="D158" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -8081,7 +8090,7 @@
       </c>
       <c r="D159" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -8116,7 +8125,7 @@
       </c>
       <c r="D160" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -8151,7 +8160,7 @@
       </c>
       <c r="D161" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -8186,7 +8195,7 @@
       </c>
       <c r="D162" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -8221,7 +8230,7 @@
       </c>
       <c r="D163" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -8256,7 +8265,7 @@
       </c>
       <c r="D164" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -8291,7 +8300,7 @@
       </c>
       <c r="D165" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -8326,7 +8335,7 @@
       </c>
       <c r="D166" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -8361,7 +8370,7 @@
       </c>
       <c r="D167" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -8396,7 +8405,7 @@
       </c>
       <c r="D168" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -8431,7 +8440,7 @@
       </c>
       <c r="D169" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -8466,7 +8475,7 @@
       </c>
       <c r="D170" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -8501,7 +8510,7 @@
       </c>
       <c r="D171" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -8536,7 +8545,7 @@
       </c>
       <c r="D172" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8571,7 +8580,7 @@
       </c>
       <c r="D173" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -8606,7 +8615,7 @@
       </c>
       <c r="D174" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -8641,7 +8650,7 @@
       </c>
       <c r="D175" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -8676,7 +8685,7 @@
       </c>
       <c r="D176" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -8711,7 +8720,7 @@
       </c>
       <c r="D177" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -8746,7 +8755,7 @@
       </c>
       <c r="D178" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8781,7 +8790,7 @@
       </c>
       <c r="D179" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -8816,7 +8825,7 @@
       </c>
       <c r="D180" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -8851,7 +8860,7 @@
       </c>
       <c r="D181" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -8886,7 +8895,7 @@
       </c>
       <c r="D182" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -8921,7 +8930,7 @@
       </c>
       <c r="D183" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -8956,7 +8965,7 @@
       </c>
       <c r="D184" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -8991,7 +9000,7 @@
       </c>
       <c r="D185" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -9026,7 +9035,7 @@
       </c>
       <c r="D186" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -9061,7 +9070,7 @@
       </c>
       <c r="D187" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -9096,7 +9105,7 @@
       </c>
       <c r="D188" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -9131,7 +9140,7 @@
       </c>
       <c r="D189" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -9140,11 +9149,11 @@
         <v>2</v>
       </c>
       <c r="G189" t="str">
-        <f t="shared" ref="G189" si="17">K189&amp;"\"&amp;L189</f>
+        <f t="shared" ref="G189:G190" si="17">K189&amp;"\"&amp;L189</f>
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1JV_Weekly Sales.pdf</v>
       </c>
       <c r="H189" t="str">
-        <f t="shared" ref="H189" si="18">K189&amp;"\"&amp;M189</f>
+        <f t="shared" ref="H189:H190" si="18">K189&amp;"\"&amp;M189</f>
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1JV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K189" t="s">
@@ -9166,7 +9175,7 @@
       </c>
       <c r="D190" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -9175,11 +9184,11 @@
         <v>2</v>
       </c>
       <c r="G190" t="str">
-        <f t="shared" ref="G190" si="19">K190&amp;"\"&amp;L190</f>
+        <f t="shared" si="17"/>
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1JS_Weekly Sales.pdf</v>
       </c>
       <c r="H190" t="str">
-        <f t="shared" ref="H190" si="20">K190&amp;"\"&amp;M190</f>
+        <f t="shared" si="18"/>
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1JS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K190" t="s">
@@ -9194,14 +9203,14 @@
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>178</v>
+        <v>564</v>
       </c>
       <c r="C191" t="s">
         <v>180</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -9210,21 +9219,21 @@
         <v>2</v>
       </c>
       <c r="G191" t="str">
-        <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ7DO_Weekly Sales.pdf</v>
+        <f t="shared" ref="G191" si="19">K191&amp;"\"&amp;L191</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2JS_Weekly Sales.pdf</v>
       </c>
       <c r="H191" t="str">
-        <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ7DO_Focus_Feedback.xlsx</v>
+        <f t="shared" ref="H191" si="20">K191&amp;"\"&amp;M191</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2JS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K191" t="s">
         <v>185</v>
       </c>
       <c r="L191" t="s">
-        <v>283</v>
+        <v>565</v>
       </c>
       <c r="M191" t="s">
-        <v>284</v>
+        <v>566</v>
       </c>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
@@ -9236,7 +9245,7 @@
       </c>
       <c r="D192" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -9246,20 +9255,20 @@
       </c>
       <c r="G192" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1TM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ7DO_Weekly Sales.pdf</v>
       </c>
       <c r="H192" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1TM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ7DO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K192" t="s">
         <v>185</v>
       </c>
       <c r="L192" t="s">
-        <v>367</v>
+        <v>283</v>
       </c>
       <c r="M192" t="s">
-        <v>368</v>
+        <v>284</v>
       </c>
     </row>
     <row r="193" spans="2:13" x14ac:dyDescent="0.25">
@@ -9271,7 +9280,7 @@
       </c>
       <c r="D193" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -9281,20 +9290,20 @@
       </c>
       <c r="G193" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2CR_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H193" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2CR_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K193" t="s">
         <v>185</v>
       </c>
       <c r="L193" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M193" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
@@ -9306,7 +9315,7 @@
       </c>
       <c r="D194" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -9316,20 +9325,20 @@
       </c>
       <c r="G194" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1CA_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2CR_Weekly Sales.pdf</v>
       </c>
       <c r="H194" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1CA_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2CR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K194" t="s">
         <v>185</v>
       </c>
       <c r="L194" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="M194" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
@@ -9341,7 +9350,7 @@
       </c>
       <c r="D195" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -9350,21 +9359,21 @@
         <v>2</v>
       </c>
       <c r="G195" t="str">
-        <f t="shared" ref="G195:G203" si="21">K195&amp;"\"&amp;L195</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1AL_Weekly Sales.pdf</v>
+        <f t="shared" si="8"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1CA_Weekly Sales.pdf</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" ref="H195:H203" si="22">K195&amp;"\"&amp;M195</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1AL_Focus_Feedback.xlsx</v>
+        <f t="shared" si="9"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1CA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K195" t="s">
         <v>185</v>
       </c>
       <c r="L195" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="M195" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="196" spans="2:13" x14ac:dyDescent="0.25">
@@ -9376,7 +9385,7 @@
       </c>
       <c r="D196" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -9385,21 +9394,21 @@
         <v>2</v>
       </c>
       <c r="G196" t="str">
-        <f t="shared" si="21"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1GF_Weekly Sales.pdf</v>
+        <f t="shared" ref="G196:G204" si="21">K196&amp;"\"&amp;L196</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1AL_Weekly Sales.pdf</v>
       </c>
       <c r="H196" t="str">
-        <f t="shared" si="22"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1GF_Focus_Feedback.xlsx</v>
+        <f t="shared" ref="H196:H204" si="22">K196&amp;"\"&amp;M196</f>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1AL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K196" t="s">
         <v>185</v>
       </c>
       <c r="L196" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M196" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
@@ -9410,8 +9419,8 @@
         <v>180</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" ref="D197:D204" si="23">$D$2</f>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <f t="shared" si="10"/>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -9421,20 +9430,20 @@
       </c>
       <c r="G197" t="str">
         <f t="shared" si="21"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1G2_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1GF_Weekly Sales.pdf</v>
       </c>
       <c r="H197" t="str">
         <f t="shared" si="22"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1G2_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1GF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K197" t="s">
         <v>185</v>
       </c>
       <c r="L197" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M197" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
@@ -9445,8 +9454,8 @@
         <v>180</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="23"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <f t="shared" ref="D198:D205" si="23">$D$2</f>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -9456,20 +9465,20 @@
       </c>
       <c r="G198" t="str">
         <f t="shared" si="21"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1MD_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1G2_Weekly Sales.pdf</v>
       </c>
       <c r="H198" t="str">
         <f t="shared" si="22"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1MD_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1G2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K198" t="s">
         <v>185</v>
       </c>
       <c r="L198" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="M198" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
@@ -9481,7 +9490,7 @@
       </c>
       <c r="D199" t="str">
         <f t="shared" si="23"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -9491,20 +9500,20 @@
       </c>
       <c r="G199" t="str">
         <f t="shared" si="21"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1YE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1MD_Weekly Sales.pdf</v>
       </c>
       <c r="H199" t="str">
         <f t="shared" si="22"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1YE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1MD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K199" t="s">
         <v>185</v>
       </c>
       <c r="L199" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="M199" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
@@ -9516,7 +9525,7 @@
       </c>
       <c r="D200" t="str">
         <f t="shared" si="23"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -9526,20 +9535,20 @@
       </c>
       <c r="G200" t="str">
         <f t="shared" si="21"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UE_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1YE_Weekly Sales.pdf</v>
       </c>
       <c r="H200" t="str">
         <f t="shared" si="22"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UE_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1YE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K200" t="s">
         <v>185</v>
       </c>
       <c r="L200" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="M200" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="201" spans="2:13" x14ac:dyDescent="0.25">
@@ -9551,7 +9560,7 @@
       </c>
       <c r="D201" t="str">
         <f t="shared" si="23"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -9561,20 +9570,20 @@
       </c>
       <c r="G201" t="str">
         <f t="shared" si="21"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ8GM_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UE_Weekly Sales.pdf</v>
       </c>
       <c r="H201" t="str">
         <f t="shared" si="22"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ8GM_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K201" t="s">
         <v>185</v>
       </c>
       <c r="L201" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="M201" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
     </row>
     <row r="202" spans="2:13" x14ac:dyDescent="0.25">
@@ -9586,7 +9595,7 @@
       </c>
       <c r="D202" t="str">
         <f t="shared" si="23"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -9596,20 +9605,20 @@
       </c>
       <c r="G202" t="str">
         <f t="shared" si="21"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UO_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ8GM_Weekly Sales.pdf</v>
       </c>
       <c r="H202" t="str">
         <f t="shared" si="22"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UO_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ8GM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K202" t="s">
         <v>185</v>
       </c>
       <c r="L202" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="M202" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
     </row>
     <row r="203" spans="2:13" x14ac:dyDescent="0.25">
@@ -9621,7 +9630,7 @@
       </c>
       <c r="D203" t="str">
         <f t="shared" si="23"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -9631,20 +9640,20 @@
       </c>
       <c r="G203" t="str">
         <f t="shared" si="21"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1YN_Weekly Sales.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UO_Weekly Sales.pdf</v>
       </c>
       <c r="H203" t="str">
         <f t="shared" si="22"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1YN_Focus_Feedback.xlsx</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K203" t="s">
         <v>185</v>
       </c>
       <c r="L203" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M203" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="204" spans="2:13" x14ac:dyDescent="0.25">
@@ -9656,7 +9665,7 @@
       </c>
       <c r="D204" t="str">
         <f t="shared" si="23"/>
-        <v>Weekly FSC Sales as of 22 Jun 2018</v>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -9665,20 +9674,55 @@
         <v>2</v>
       </c>
       <c r="G204" t="str">
-        <f t="shared" ref="G204" si="24">K204&amp;"\"&amp;L204</f>
+        <f t="shared" si="21"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1YN_Weekly Sales.pdf</v>
+      </c>
+      <c r="H204" t="str">
+        <f t="shared" si="22"/>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1YN_Focus_Feedback.xlsx</v>
+      </c>
+      <c r="K204" t="s">
+        <v>185</v>
+      </c>
+      <c r="L204" t="s">
+        <v>523</v>
+      </c>
+      <c r="M204" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="205" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>178</v>
+      </c>
+      <c r="C205" t="s">
+        <v>180</v>
+      </c>
+      <c r="D205" t="str">
+        <f t="shared" si="23"/>
+        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>2</v>
+      </c>
+      <c r="G205" t="str">
+        <f t="shared" ref="G205" si="24">K205&amp;"\"&amp;L205</f>
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1JV_Weekly Sales.pdf</v>
       </c>
-      <c r="H204" t="str">
-        <f t="shared" ref="H204" si="25">K204&amp;"\"&amp;M204</f>
+      <c r="H205" t="str">
+        <f t="shared" ref="H205" si="25">K205&amp;"\"&amp;M205</f>
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1JV_Focus_Feedback.xlsx</v>
       </c>
-      <c r="K204" t="s">
-        <v>185</v>
-      </c>
-      <c r="L204" t="s">
+      <c r="K205" t="s">
+        <v>185</v>
+      </c>
+      <c r="L205" t="s">
         <v>553</v>
       </c>
-      <c r="M204" t="s">
+      <c r="M205" t="s">
         <v>554</v>
       </c>
     </row>

--- a/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
+++ b/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\ZDEV\BR_Scripts\BRPoSh\BR_Mailer\J021_DS_FSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\BR\zDev\BR_Scripts\BRPoSh\BR_Mailer\J021_DS_FSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -576,9 +576,6 @@
     <t>Rob.Dilallo@henryschein.ca</t>
   </si>
   <si>
-    <t>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send</t>
-  </si>
-  <si>
     <t>Jenna.Plenert@henryschein.ca</t>
   </si>
   <si>
@@ -594,1135 +591,1138 @@
     <t>Jeff.Vandamme@zahncanada.ca</t>
   </si>
   <si>
-    <t>201806_CZ1SD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1SD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ125_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ125_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ124_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ124_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ132_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ132_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ128_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ128_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ144_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ144_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ165_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ165_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ177_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ177_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ178_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ178_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ183_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ183_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ107_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ107_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ109_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ109_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_AZ112_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_AZ112_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ154_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ154_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1KD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1KD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1CF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1CF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1EM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1EM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1DP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1DP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1DA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1DA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1LM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1LM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1EE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1EE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1E2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1E2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_AZ1EK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_AZ1EK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_AZ1FB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_AZ1FB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1FP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1FP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1FT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1FT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1FR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1FR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1GO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1GO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_AZ1KL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_AZ1KL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1KK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1KK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1DN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1DN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1EO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1EO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1CB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1CB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1B8_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1B8_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ2B8_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ2B8_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1C4_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1C4_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1D8_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1D8_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1SW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1SW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1AP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1AP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ2CB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ2CB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1CG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1CG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_AZ1PV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_AZ1PV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ3CB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ3CB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ5CS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ5CS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ8JA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ8JA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ7JM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ7JM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ7DO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ7DO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ5TA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ5TA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ2LB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ2LB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ2GB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ2GB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ2LH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ2LH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ2NM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ2NM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ2SB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ2SB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ2BG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ2BG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1SA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1SA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1FA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1FA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ115_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ115_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ120_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ120_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ118_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ118_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ119_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ119_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ138_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ138_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ142_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ142_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ134_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ134_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ123_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ123_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ136_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ136_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ165_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ165_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1FF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1FF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ167_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ167_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ175_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ175_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ177_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ177_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ143_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ143_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ243_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ243_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ159_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ159_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ162_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ162_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ113_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ113_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ133_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ133_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ137_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ137_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1G4_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1G4_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1G5_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1G5_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZBW1_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZBW1_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ9TS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ9TS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1HM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1HM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ2HM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ2HM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ2RP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ2RP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1TT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1TT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1AM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1AM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1JW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1JW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1MH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1MH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1TM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1TM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1T2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1T2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ2CR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ2CR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1SC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1SC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1PB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1PB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1JN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1JN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1J2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1J2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1MK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1MK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1CA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1CA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ2TM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ2TM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ2T1_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ2T1_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ2T2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ2T2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1BC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1BC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1JL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1JL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1AL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1AL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1MW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1MW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1MS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1MS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1AJ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1AJ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1GF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1GF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1G2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1G2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1BP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1BP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1JF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1JF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_AZ1CI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_AZ1CI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1KM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1KM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1OV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1OV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1JB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1JB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1BG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1BG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1TM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1TM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1BM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1BM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1MD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1MD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_AZ1JB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_AZ1JB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1AD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1AD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1ML_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1ML_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1FA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1FA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ2SA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ2SA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1SL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1SL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_AZ1CM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_AZ1CM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_AZ1WH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_AZ1WH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_AZ1YU_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_AZ1YU_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_AZ1WX_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_AZ1WX_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_AZ1XF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_AZ1XF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_AZ1XT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_AZ1XT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_AZ1YP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_AZ1YP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1XH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1XH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1X2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1X2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1TB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1TB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1TD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1TD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1TK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1TK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1YE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1YE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1TE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1TE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1TI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1TI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1YI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1YI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1YW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1YW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1UE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1UE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1MJ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1MJ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1VG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1VG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1VJ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1VJ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1MI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1MI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1XD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1XD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1XB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1XB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1WT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1WT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1XA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1XA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1RB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1RB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ2KF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ2KF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ148_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ148_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ8GM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ8GM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1BH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1BH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ114_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ114_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1A6_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1A6_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ139_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ139_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1VL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1VL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1VK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1VK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1LR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1LR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1UV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1UV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1WV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1WV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ4KC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ4KC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1UO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1UO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1XC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1XC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1YN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1YN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1UI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1UI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1UU_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1UU_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1UW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1UW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1VC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1VC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1UX_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1UX_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1UZ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1UZ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1CM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1CM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1JI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1JI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZJI2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZJI2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ2MS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ2MS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ3JB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ3JB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ2JN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ2JN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1RD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1RD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QZ1OM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_QZ1OM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ1JV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ1JV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WZ9JP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ9JP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1DG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1DG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CZ1LE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1LE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
     <t>Jesse.Sale@henryschein.ca</t>
   </si>
   <si>
-    <t>201806_CZ1JS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_CZ1JS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
     <t>Janet.Squires@henryschein.ca</t>
   </si>
   <si>
-    <t>201806_WZ2JS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201806_WZ2JS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>Weekly FSC Sales as of 29 Jun 2018</t>
+    <t>201807_CZ1SD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1SD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ125_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ125_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ124_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ124_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ132_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ132_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ128_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ128_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ144_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ144_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ165_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ165_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ177_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ177_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ178_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ178_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ183_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ183_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ107_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ107_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ109_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ109_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_AZ112_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_AZ112_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ154_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ154_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1KD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1KD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1CF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1CF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1EM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1EM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1DP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1DP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1DA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1DA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1LM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1LM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1EE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1EE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1E2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1E2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_AZ1EK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_AZ1EK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_AZ1FB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_AZ1FB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1FP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1FP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1FT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1FT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1FR_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1FR_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1GO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1GO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_AZ1KL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_AZ1KL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1KK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1KK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1DN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1DN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1EO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1EO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1CB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1CB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1B8_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1B8_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ2B8_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ2B8_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1C4_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1C4_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1D8_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1D8_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1SW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1SW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1AP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1AP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ2CB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ2CB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1CG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1CG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_AZ1PV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_AZ1PV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ3CB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ3CB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ5CS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ5CS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ8JA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ8JA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ7JM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ7JM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ7DO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ7DO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ5TA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ5TA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ2LB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ2LB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ2GB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ2GB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ2LH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ2LH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ2NM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ2NM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ2SB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ2SB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ2BG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ2BG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1SA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1SA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1FA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1FA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ115_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ115_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ120_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ120_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ118_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ118_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ119_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ119_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ138_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ138_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ142_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ142_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ134_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ134_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ123_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ123_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ136_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ136_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ165_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ165_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1FF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1FF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ167_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ167_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ175_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ175_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ177_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ177_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ143_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ143_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ243_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ243_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ159_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ159_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ162_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ162_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ113_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ113_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ133_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ133_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ137_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ137_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1G4_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1G4_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1G5_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1G5_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZBW1_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZBW1_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ9TS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ9TS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1HM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1HM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ2HM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ2HM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ2RP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ2RP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1TT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1TT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1AM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1AM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1JW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1JW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1MH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1MH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1TM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1TM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1T2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1T2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ2CR_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ2CR_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1SC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1SC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1PB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1PB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1JN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1JN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1J2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1J2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1MK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1MK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1CA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1CA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ2TM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ2TM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ2T1_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ2T1_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ2T2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ2T2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1BC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1BC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1JL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1JL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1AL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1AL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1MW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1MW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1MS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1MS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1AJ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1AJ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1GF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1GF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1G2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1G2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1BP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1BP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1JF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1JF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_AZ1CI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_AZ1CI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1KM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1KM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1OV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1OV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1JB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1JB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1BG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1BG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1TM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1TM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1BM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1BM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1MD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1MD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_AZ1JB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_AZ1JB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1AD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1AD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1ML_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1ML_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1FA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1FA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ2SA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ2SA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1SL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1SL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_AZ1CM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_AZ1CM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_AZ1WH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_AZ1WH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_AZ1YU_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_AZ1YU_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_AZ1WX_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_AZ1WX_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_AZ1XF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_AZ1XF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_AZ1XT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_AZ1XT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_AZ1YP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_AZ1YP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1XH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1XH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1X2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1X2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1TB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1TB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1TD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1TD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1TK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1TK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1YE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1YE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1TE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1TE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1TI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1TI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1YI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1YI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1YW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1YW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1UE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1UE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1MJ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1MJ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1VG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1VG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1VJ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1VJ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1MI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1MI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1XD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1XD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1XB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1XB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1WT_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1WT_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1XA_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1XA_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1RB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1RB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ2KF_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ2KF_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ148_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ148_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ8GM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ8GM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1BH_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1BH_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ114_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ114_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1A6_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1A6_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ139_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ139_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1VL_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1VL_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1VK_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1VK_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1LR_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1LR_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1UV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1UV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1WV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1WV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ4KC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ4KC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1UO_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1UO_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1XC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1XC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1YN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1YN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1UI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1UI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1UU_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1UU_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1UW_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1UW_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1VC_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1VC_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1UX_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1UX_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1UZ_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1UZ_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1CM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1CM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1JI_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1JI_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZJI2_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZJI2_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ2MS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ2MS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ3JB_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ3JB_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ2JN_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ2JN_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1RD_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1RD_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QZ1OM_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_QZ1OM_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ9JP_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ9JP_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1DG_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1DG_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1LE_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1LE_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WZ1JV_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_WZ1JV_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ1JS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ1JS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CZ2JS_Weekly Sales.pdf</t>
+  </si>
+  <si>
+    <t>201807_CZ2JS_Focus_Feedback.xlsx</t>
+  </si>
+  <si>
+    <t>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send</t>
+  </si>
+  <si>
+    <t>Weekly FSC Sales as of 3 Aug 2018</t>
   </si>
 </sst>
 </file>
@@ -2605,20 +2605,20 @@
       </c>
       <c r="G2" t="str">
         <f>K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1SD_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1SD_Weekly Sales.pdf</v>
       </c>
       <c r="H2" t="str">
         <f>K2&amp;"\"&amp;M2</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1SD_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1SD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K2" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="D3" t="str">
         <f>$D$2</f>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2640,20 +2640,20 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G64" si="0">K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1SD_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1SD_Weekly Sales.pdf</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H64" si="1">K3&amp;"\"&amp;M3</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1SD_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1SD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K3" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D66" si="2">$D$2</f>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2675,20 +2675,20 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ125_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ125_Weekly Sales.pdf</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ125_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ125_Focus_Feedback.xlsx</v>
       </c>
       <c r="K4" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2710,20 +2710,20 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ124_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ124_Weekly Sales.pdf</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ124_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ124_Focus_Feedback.xlsx</v>
       </c>
       <c r="K5" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2745,20 +2745,20 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ132_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ132_Weekly Sales.pdf</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ132_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ132_Focus_Feedback.xlsx</v>
       </c>
       <c r="K6" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2780,20 +2780,20 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ128_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ128_Weekly Sales.pdf</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ128_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ128_Focus_Feedback.xlsx</v>
       </c>
       <c r="K7" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2815,20 +2815,20 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ144_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ144_Weekly Sales.pdf</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ144_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ144_Focus_Feedback.xlsx</v>
       </c>
       <c r="K8" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2850,20 +2850,20 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ165_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ165_Weekly Sales.pdf</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ165_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ165_Focus_Feedback.xlsx</v>
       </c>
       <c r="K9" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2885,20 +2885,20 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ177_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ177_Weekly Sales.pdf</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ177_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ177_Focus_Feedback.xlsx</v>
       </c>
       <c r="K10" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ178_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ178_Weekly Sales.pdf</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ178_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ178_Focus_Feedback.xlsx</v>
       </c>
       <c r="K11" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2955,20 +2955,20 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ183_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ183_Weekly Sales.pdf</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ183_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ183_Focus_Feedback.xlsx</v>
       </c>
       <c r="K12" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2990,20 +2990,20 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ107_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ107_Weekly Sales.pdf</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ107_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ107_Focus_Feedback.xlsx</v>
       </c>
       <c r="K13" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3025,20 +3025,20 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ109_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ109_Weekly Sales.pdf</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ109_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ109_Focus_Feedback.xlsx</v>
       </c>
       <c r="K14" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3060,20 +3060,20 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ112_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ112_Weekly Sales.pdf</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ112_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ112_Focus_Feedback.xlsx</v>
       </c>
       <c r="K15" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3095,20 +3095,20 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ154_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ154_Weekly Sales.pdf</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ154_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ154_Focus_Feedback.xlsx</v>
       </c>
       <c r="K16" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3130,20 +3130,20 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1KD_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1KD_Weekly Sales.pdf</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1KD_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1KD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K17" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3165,20 +3165,20 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1CF_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1CF_Weekly Sales.pdf</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1CF_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1CF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3200,20 +3200,20 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1EM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1EM_Weekly Sales.pdf</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1EM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1EM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3235,20 +3235,20 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1DP_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1DP_Weekly Sales.pdf</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1DP_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1DP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K20" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3270,20 +3270,20 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1DA_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1DA_Weekly Sales.pdf</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1DA_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1DA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1LM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1LM_Weekly Sales.pdf</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1LM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1LM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3340,20 +3340,20 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1EE_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1EE_Weekly Sales.pdf</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1EE_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1EE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3375,20 +3375,20 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1E2_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1E2_Weekly Sales.pdf</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1E2_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1E2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3410,20 +3410,20 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1EK_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1EK_Weekly Sales.pdf</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1EK_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1EK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K25" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3445,20 +3445,20 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1FB_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1FB_Weekly Sales.pdf</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1FB_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1FB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K26" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1FP_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1FP_Weekly Sales.pdf</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1FP_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1FP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K27" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3515,20 +3515,20 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1FT_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1FT_Weekly Sales.pdf</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1FT_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1FT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K28" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3550,20 +3550,20 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1FR_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1FR_Weekly Sales.pdf</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1FR_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1FR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K29" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3585,20 +3585,20 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1GO_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1GO_Weekly Sales.pdf</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1GO_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1GO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K30" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3620,20 +3620,20 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1KL_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1KL_Weekly Sales.pdf</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1KL_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1KL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K31" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3655,20 +3655,20 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1KK_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1KK_Weekly Sales.pdf</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1KK_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1KK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K32" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3690,20 +3690,20 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1DN_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1DN_Weekly Sales.pdf</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1DN_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1DN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K33" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3725,20 +3725,20 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1EO_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1EO_Weekly Sales.pdf</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1EO_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1EO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K34" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3760,20 +3760,20 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1CB_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1CB_Weekly Sales.pdf</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1CB_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1CB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K35" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3795,20 +3795,20 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" ref="G36" si="3">K36&amp;"\"&amp;L36</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1B8_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1B8_Weekly Sales.pdf</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" ref="H36" si="4">K36&amp;"\"&amp;M36</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1B8_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1B8_Focus_Feedback.xlsx</v>
       </c>
       <c r="K36" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L36" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M36" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3830,20 +3830,20 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2B8_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2B8_Weekly Sales.pdf</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2B8_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2B8_Focus_Feedback.xlsx</v>
       </c>
       <c r="K37" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L37" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M37" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3865,20 +3865,20 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1C4_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1C4_Weekly Sales.pdf</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1C4_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1C4_Focus_Feedback.xlsx</v>
       </c>
       <c r="K38" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3900,20 +3900,20 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1D8_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1D8_Weekly Sales.pdf</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1D8_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1D8_Focus_Feedback.xlsx</v>
       </c>
       <c r="K39" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M39" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3935,20 +3935,20 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1SW_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1SW_Weekly Sales.pdf</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1SW_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1SW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K40" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L40" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M40" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3970,20 +3970,20 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1AP_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1AP_Weekly Sales.pdf</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1AP_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1AP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K41" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -4005,20 +4005,20 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2CB_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2CB_Weekly Sales.pdf</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2CB_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2CB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K42" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M42" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1CG_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1CG_Weekly Sales.pdf</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1CG_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1CG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K43" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L43" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M43" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4075,20 +4075,20 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1PV_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1PV_Weekly Sales.pdf</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1PV_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1PV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K44" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4110,20 +4110,20 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ3CB_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ3CB_Weekly Sales.pdf</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ3CB_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ3CB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K45" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L45" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M45" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -4145,20 +4145,20 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ5CS_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ5CS_Weekly Sales.pdf</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ5CS_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ5CS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K46" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4180,20 +4180,20 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ8JA_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ8JA_Weekly Sales.pdf</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ8JA_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ8JA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K47" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L47" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M47" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4215,20 +4215,20 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ7JM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ7JM_Weekly Sales.pdf</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ7JM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ7JM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K48" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L48" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M48" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4250,20 +4250,20 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ7DO_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ7DO_Weekly Sales.pdf</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ7DO_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ7DO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K49" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L49" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M49" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -4285,20 +4285,20 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ5TA_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ5TA_Weekly Sales.pdf</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ5TA_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ5TA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K50" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L50" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M50" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -4310,7 +4310,7 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -4320,20 +4320,20 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2LB_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2LB_Weekly Sales.pdf</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2LB_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2LB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K51" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L51" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M51" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -4355,20 +4355,20 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2GB_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2GB_Weekly Sales.pdf</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2GB_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2GB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K52" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L52" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M52" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -4390,20 +4390,20 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2LH_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2LH_Weekly Sales.pdf</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2LH_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2LH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K53" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L53" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M53" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -4425,20 +4425,20 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2NM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2NM_Weekly Sales.pdf</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2NM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2NM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K54" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L54" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -4460,20 +4460,20 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ2SB_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ2SB_Weekly Sales.pdf</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ2SB_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ2SB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K55" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L55" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M55" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4495,20 +4495,20 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2BG_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2BG_Weekly Sales.pdf</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2BG_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2BG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K56" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M56" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4530,20 +4530,20 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1SA_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1SA_Weekly Sales.pdf</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1SA_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1SA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K57" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L57" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4565,20 +4565,20 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1FA_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1FA_Weekly Sales.pdf</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1FA_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1FA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K58" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L58" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M58" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ115_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ115_Weekly Sales.pdf</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ115_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ115_Focus_Feedback.xlsx</v>
       </c>
       <c r="K59" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L59" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M59" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
@@ -4625,7 +4625,7 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4635,20 +4635,20 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ120_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ120_Weekly Sales.pdf</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ120_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ120_Focus_Feedback.xlsx</v>
       </c>
       <c r="K60" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L60" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M60" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4670,20 +4670,20 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ118_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ118_Weekly Sales.pdf</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ118_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ118_Focus_Feedback.xlsx</v>
       </c>
       <c r="K61" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M61" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4705,20 +4705,20 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ119_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ119_Weekly Sales.pdf</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ119_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ119_Focus_Feedback.xlsx</v>
       </c>
       <c r="K62" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L62" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M62" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4740,20 +4740,20 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ138_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ138_Weekly Sales.pdf</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ138_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ138_Focus_Feedback.xlsx</v>
       </c>
       <c r="K63" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L63" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M63" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4775,20 +4775,20 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ142_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ142_Weekly Sales.pdf</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ142_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ142_Focus_Feedback.xlsx</v>
       </c>
       <c r="K64" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L64" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M64" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4810,20 +4810,20 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" ref="G65:G122" si="5">K65&amp;"\"&amp;L65</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ134_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ134_Weekly Sales.pdf</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" ref="H65:H122" si="6">K65&amp;"\"&amp;M65</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ134_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ134_Focus_Feedback.xlsx</v>
       </c>
       <c r="K65" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L65" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M65" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" si="2"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4845,20 +4845,20 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ123_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ123_Weekly Sales.pdf</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ123_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ123_Focus_Feedback.xlsx</v>
       </c>
       <c r="K66" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L66" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M66" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D124" si="7">$D$2</f>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4880,20 +4880,20 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ136_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ136_Weekly Sales.pdf</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ136_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ136_Focus_Feedback.xlsx</v>
       </c>
       <c r="K67" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L67" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M67" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4915,20 +4915,20 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ165_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ165_Weekly Sales.pdf</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ165_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ165_Focus_Feedback.xlsx</v>
       </c>
       <c r="K68" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L68" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M68" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4950,20 +4950,20 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1FF_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1FF_Weekly Sales.pdf</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1FF_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1FF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K69" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L69" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M69" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4985,20 +4985,20 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ167_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ167_Weekly Sales.pdf</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ167_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ167_Focus_Feedback.xlsx</v>
       </c>
       <c r="K70" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L70" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M70" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -5020,20 +5020,20 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ175_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ175_Weekly Sales.pdf</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ175_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ175_Focus_Feedback.xlsx</v>
       </c>
       <c r="K71" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L71" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M71" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -5055,20 +5055,20 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ177_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ177_Weekly Sales.pdf</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ177_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ177_Focus_Feedback.xlsx</v>
       </c>
       <c r="K72" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L72" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M72" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -5090,20 +5090,20 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ143_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ143_Weekly Sales.pdf</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ143_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ143_Focus_Feedback.xlsx</v>
       </c>
       <c r="K73" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L73" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M73" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -5125,20 +5125,20 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ243_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ243_Weekly Sales.pdf</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ243_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ243_Focus_Feedback.xlsx</v>
       </c>
       <c r="K74" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L74" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M74" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ159_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ159_Weekly Sales.pdf</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ159_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ159_Focus_Feedback.xlsx</v>
       </c>
       <c r="K75" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L75" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M75" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -5195,20 +5195,20 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ162_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ162_Weekly Sales.pdf</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ162_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ162_Focus_Feedback.xlsx</v>
       </c>
       <c r="K76" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L76" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M76" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -5230,20 +5230,20 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ113_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ113_Weekly Sales.pdf</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ113_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ113_Focus_Feedback.xlsx</v>
       </c>
       <c r="K77" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L77" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M77" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -5265,20 +5265,20 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ133_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ133_Weekly Sales.pdf</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ133_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ133_Focus_Feedback.xlsx</v>
       </c>
       <c r="K78" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L78" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M78" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -5300,20 +5300,20 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ137_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ137_Weekly Sales.pdf</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ137_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ137_Focus_Feedback.xlsx</v>
       </c>
       <c r="K79" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L79" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M79" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -5335,20 +5335,20 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1G4_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1G4_Weekly Sales.pdf</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1G4_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1G4_Focus_Feedback.xlsx</v>
       </c>
       <c r="K80" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L80" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M80" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5370,20 +5370,20 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1G5_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1G5_Weekly Sales.pdf</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1G5_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1G5_Focus_Feedback.xlsx</v>
       </c>
       <c r="K81" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L81" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M81" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5405,20 +5405,20 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZBW1_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZBW1_Weekly Sales.pdf</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZBW1_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZBW1_Focus_Feedback.xlsx</v>
       </c>
       <c r="K82" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L82" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M82" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5440,20 +5440,20 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ9TS_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ9TS_Weekly Sales.pdf</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ9TS_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ9TS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K83" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L83" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M83" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5475,20 +5475,20 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1HM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1HM_Weekly Sales.pdf</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1HM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K84" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L84" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M84" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -5510,20 +5510,20 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2HM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ2HM_Weekly Sales.pdf</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2HM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ2HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K85" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L85" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M85" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5545,20 +5545,20 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1HM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1HM_Weekly Sales.pdf</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1HM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K86" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L86" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M86" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5580,20 +5580,20 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2HM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ2HM_Weekly Sales.pdf</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2HM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ2HM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K87" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L87" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M87" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5615,20 +5615,20 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2RP_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ2RP_Weekly Sales.pdf</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2RP_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ2RP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K88" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M88" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5650,20 +5650,20 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1TT_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1TT_Weekly Sales.pdf</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1TT_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1TT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K89" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L89" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M89" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5685,20 +5685,20 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1AM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1AM_Weekly Sales.pdf</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1AM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1AM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K90" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L90" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M90" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1JW_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1JW_Weekly Sales.pdf</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1JW_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1JW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K91" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L91" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M91" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5755,20 +5755,20 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1MH_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1MH_Weekly Sales.pdf</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1MH_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1MH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K92" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L92" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M92" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5790,20 +5790,20 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1TM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1TM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K93" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L93" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M93" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1T2_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1T2_Weekly Sales.pdf</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1T2_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1T2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K94" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L94" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M94" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5860,20 +5860,20 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2CR_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2CR_Weekly Sales.pdf</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2CR_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2CR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K95" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L95" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M95" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5895,20 +5895,20 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1SC_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1SC_Weekly Sales.pdf</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1SC_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1SC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K96" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L96" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M96" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5930,20 +5930,20 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1PB_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1PB_Weekly Sales.pdf</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1PB_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1PB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K97" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L97" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M97" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5965,20 +5965,20 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1JN_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1JN_Weekly Sales.pdf</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1JN_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1JN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K98" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L98" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M98" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -6000,20 +6000,20 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1J2_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1J2_Weekly Sales.pdf</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1J2_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1J2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K99" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L99" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M99" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -6035,20 +6035,20 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1MK_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1MK_Weekly Sales.pdf</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1MK_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1MK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K100" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L100" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M100" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -6070,20 +6070,20 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1CA_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1CA_Weekly Sales.pdf</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1CA_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1CA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K101" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L101" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M101" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6105,20 +6105,20 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2TM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ2TM_Weekly Sales.pdf</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2TM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ2TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K102" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L102" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M102" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="D103" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6140,20 +6140,20 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2T1_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ2T1_Weekly Sales.pdf</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2T1_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ2T1_Focus_Feedback.xlsx</v>
       </c>
       <c r="K103" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L103" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M103" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6175,20 +6175,20 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2T2_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ2T2_Weekly Sales.pdf</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2T2_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ2T2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K104" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L104" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M104" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="D105" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6210,20 +6210,20 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1BC_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1BC_Weekly Sales.pdf</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1BC_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1BC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K105" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L105" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M105" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6245,20 +6245,20 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1JL_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1JL_Weekly Sales.pdf</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1JL_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1JL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K106" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L106" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M106" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="D107" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1AL_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1AL_Weekly Sales.pdf</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1AL_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1AL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K107" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L107" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M107" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -6315,20 +6315,20 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1MW_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1MW_Weekly Sales.pdf</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1MW_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1MW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K108" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L108" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M108" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="D109" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6350,20 +6350,20 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1MS_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1MS_Weekly Sales.pdf</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1MS_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1MS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K109" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L109" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M109" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="D110" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6385,20 +6385,20 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1AJ_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1AJ_Weekly Sales.pdf</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1AJ_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1AJ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K110" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L110" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M110" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
@@ -6410,7 +6410,7 @@
       </c>
       <c r="D111" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -6420,20 +6420,20 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1GF_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1GF_Weekly Sales.pdf</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1GF_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1GF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K111" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L111" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M111" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D112" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6455,20 +6455,20 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1G2_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1G2_Weekly Sales.pdf</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1G2_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1G2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K112" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L112" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M112" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
@@ -6480,7 +6480,7 @@
       </c>
       <c r="D113" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6490,20 +6490,20 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1BP_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1BP_Weekly Sales.pdf</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1BP_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1BP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K113" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L113" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M113" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="D114" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6525,20 +6525,20 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1JF_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1JF_Weekly Sales.pdf</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1JF_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1JF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K114" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L114" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M114" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="D115" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6560,20 +6560,20 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1CI_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1CI_Weekly Sales.pdf</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1CI_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1CI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K115" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L115" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M115" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="D116" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6595,20 +6595,20 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1KM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1KM_Weekly Sales.pdf</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1KM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1KM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K116" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L116" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M116" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
@@ -6620,7 +6620,7 @@
       </c>
       <c r="D117" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -6630,20 +6630,20 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1OV_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1OV_Weekly Sales.pdf</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1OV_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1OV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K117" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L117" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M117" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
@@ -6655,7 +6655,7 @@
       </c>
       <c r="D118" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6665,20 +6665,20 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1JB_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1JB_Weekly Sales.pdf</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1JB_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K118" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L118" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M118" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
@@ -6690,7 +6690,7 @@
       </c>
       <c r="D119" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6700,20 +6700,20 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1BG_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1BG_Weekly Sales.pdf</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1BG_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1BG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K119" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L119" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M119" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
@@ -6725,7 +6725,7 @@
       </c>
       <c r="D120" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6735,20 +6735,20 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1TM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1TM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K120" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L120" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M120" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="D121" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6770,20 +6770,20 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1BM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1BM_Weekly Sales.pdf</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1BM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1BM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K121" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L121" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M121" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="D122" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6805,20 +6805,20 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1MD_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1MD_Weekly Sales.pdf</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1MD_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1MD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K122" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L122" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M122" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="D123" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" ref="G123:G195" si="8">K123&amp;"\"&amp;L123</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1JB_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1JB_Weekly Sales.pdf</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" ref="H123:H195" si="9">K123&amp;"\"&amp;M123</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1JB_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K123" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L123" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M123" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
@@ -6865,7 +6865,7 @@
       </c>
       <c r="D124" t="str">
         <f t="shared" si="7"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6875,20 +6875,20 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1AD_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1AD_Weekly Sales.pdf</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1AD_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1AD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K124" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L124" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M124" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="D125" t="str">
         <f t="shared" ref="D125:D197" si="10">$D$2</f>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6910,20 +6910,20 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1ML_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1ML_Weekly Sales.pdf</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1ML_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1ML_Focus_Feedback.xlsx</v>
       </c>
       <c r="K125" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L125" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M125" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="D126" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6945,20 +6945,20 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1FA_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1FA_Weekly Sales.pdf</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1FA_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1FA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K126" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L126" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M126" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="D127" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6980,20 +6980,20 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2SA_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2SA_Weekly Sales.pdf</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2SA_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2SA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K127" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L127" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M127" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="D128" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -7015,20 +7015,20 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1SL_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1SL_Weekly Sales.pdf</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1SL_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1SL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K128" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L128" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M128" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="D129" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -7050,20 +7050,20 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1CM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1CM_Weekly Sales.pdf</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1CM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1CM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K129" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L129" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M129" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="D130" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -7085,20 +7085,20 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1WH_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1WH_Weekly Sales.pdf</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1WH_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1WH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K130" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L130" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M130" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="D131" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -7120,20 +7120,20 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1YU_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1YU_Weekly Sales.pdf</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1YU_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1YU_Focus_Feedback.xlsx</v>
       </c>
       <c r="K131" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L131" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M131" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="D132" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -7155,20 +7155,20 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1WX_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1WX_Weekly Sales.pdf</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1WX_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1WX_Focus_Feedback.xlsx</v>
       </c>
       <c r="K132" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L132" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M132" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="D133" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7190,20 +7190,20 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1XF_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1XF_Weekly Sales.pdf</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1XF_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1XF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K133" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L133" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M133" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="D134" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7225,20 +7225,20 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1XT_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1XT_Weekly Sales.pdf</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1XT_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1XT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K134" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L134" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M134" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="D135" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -7260,20 +7260,20 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1YP_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1YP_Weekly Sales.pdf</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_AZ1YP_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_AZ1YP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K135" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L135" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M135" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
@@ -7285,7 +7285,7 @@
       </c>
       <c r="D136" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -7295,20 +7295,20 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1XH_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1XH_Weekly Sales.pdf</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1XH_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1XH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K136" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L136" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M136" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="D137" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7330,20 +7330,20 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1X2_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1X2_Weekly Sales.pdf</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1X2_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1X2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K137" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L137" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M137" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="D138" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7365,20 +7365,20 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1TB_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1TB_Weekly Sales.pdf</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1TB_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1TB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K138" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L138" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M138" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
@@ -7390,7 +7390,7 @@
       </c>
       <c r="D139" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1TD_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1TD_Weekly Sales.pdf</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1TD_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1TD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K139" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L139" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M139" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
@@ -7425,7 +7425,7 @@
       </c>
       <c r="D140" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -7435,20 +7435,20 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1TK_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1TK_Weekly Sales.pdf</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1TK_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1TK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K140" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L140" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M140" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="D141" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -7470,20 +7470,20 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1YE_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1YE_Weekly Sales.pdf</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1YE_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1YE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K141" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L141" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M141" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="D142" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -7505,20 +7505,20 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1TE_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1TE_Weekly Sales.pdf</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1TE_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1TE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K142" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L142" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M142" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="D143" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -7540,20 +7540,20 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1TI_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1TI_Weekly Sales.pdf</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1TI_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1TI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K143" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L143" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M143" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="D144" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -7575,20 +7575,20 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1YI_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1YI_Weekly Sales.pdf</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1YI_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1YI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K144" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L144" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M144" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
@@ -7600,7 +7600,7 @@
       </c>
       <c r="D145" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -7610,20 +7610,20 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1YW_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1YW_Weekly Sales.pdf</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1YW_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1YW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K145" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L145" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M145" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="D146" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -7645,20 +7645,20 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UE_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UE_Weekly Sales.pdf</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UE_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K146" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L146" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M146" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
@@ -7670,7 +7670,7 @@
       </c>
       <c r="D147" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -7680,20 +7680,20 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1MJ_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1MJ_Weekly Sales.pdf</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1MJ_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1MJ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K147" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L147" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M147" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="D148" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -7715,20 +7715,20 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1VG_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1VG_Weekly Sales.pdf</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1VG_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1VG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K148" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L148" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M148" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
@@ -7740,7 +7740,7 @@
       </c>
       <c r="D149" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7750,20 +7750,20 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1VJ_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1VJ_Weekly Sales.pdf</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1VJ_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1VJ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K149" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L149" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M149" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="D150" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7785,20 +7785,20 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1MI_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1MI_Weekly Sales.pdf</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1MI_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1MI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K150" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L150" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M150" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
@@ -7810,7 +7810,7 @@
       </c>
       <c r="D151" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7820,20 +7820,20 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1XD_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1XD_Weekly Sales.pdf</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1XD_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1XD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K151" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L151" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M151" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="D152" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7855,20 +7855,20 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1XB_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1XB_Weekly Sales.pdf</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1XB_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1XB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K152" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L152" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M152" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="D153" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7890,20 +7890,20 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1WT_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1WT_Weekly Sales.pdf</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1WT_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1WT_Focus_Feedback.xlsx</v>
       </c>
       <c r="K153" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L153" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M153" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
@@ -7915,7 +7915,7 @@
       </c>
       <c r="D154" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7925,20 +7925,20 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1XA_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1XA_Weekly Sales.pdf</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1XA_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1XA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K154" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L154" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M154" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
@@ -7950,7 +7950,7 @@
       </c>
       <c r="D155" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1RB_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1RB_Weekly Sales.pdf</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1RB_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1RB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K155" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L155" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M155" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="D156" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -7995,20 +7995,20 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2KF_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ2KF_Weekly Sales.pdf</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2KF_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ2KF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K156" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L156" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M156" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
@@ -8020,7 +8020,7 @@
       </c>
       <c r="D157" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -8030,20 +8030,20 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ148_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ148_Weekly Sales.pdf</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ148_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ148_Focus_Feedback.xlsx</v>
       </c>
       <c r="K157" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L157" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M157" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
@@ -8055,7 +8055,7 @@
       </c>
       <c r="D158" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -8065,20 +8065,20 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ8GM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ8GM_Weekly Sales.pdf</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ8GM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ8GM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K158" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L158" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M158" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
@@ -8090,7 +8090,7 @@
       </c>
       <c r="D159" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -8100,20 +8100,20 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1BH_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1BH_Weekly Sales.pdf</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1BH_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1BH_Focus_Feedback.xlsx</v>
       </c>
       <c r="K159" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L159" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M159" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="D160" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -8135,20 +8135,20 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ114_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ114_Weekly Sales.pdf</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ114_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ114_Focus_Feedback.xlsx</v>
       </c>
       <c r="K160" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L160" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M160" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="D161" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -8170,20 +8170,20 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1A6_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1A6_Weekly Sales.pdf</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1A6_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1A6_Focus_Feedback.xlsx</v>
       </c>
       <c r="K161" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L161" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M161" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
@@ -8195,7 +8195,7 @@
       </c>
       <c r="D162" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -8205,20 +8205,20 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ139_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ139_Weekly Sales.pdf</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ139_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ139_Focus_Feedback.xlsx</v>
       </c>
       <c r="K162" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L162" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M162" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
@@ -8230,7 +8230,7 @@
       </c>
       <c r="D163" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -8240,20 +8240,20 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1VL_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1VL_Weekly Sales.pdf</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1VL_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1VL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K163" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L163" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M163" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="D164" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -8275,20 +8275,20 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1VK_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1VK_Weekly Sales.pdf</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1VK_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1VK_Focus_Feedback.xlsx</v>
       </c>
       <c r="K164" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L164" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M164" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="D165" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -8310,20 +8310,20 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1LR_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1LR_Weekly Sales.pdf</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1LR_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1LR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K165" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L165" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M165" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
@@ -8335,7 +8335,7 @@
       </c>
       <c r="D166" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UV_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UV_Weekly Sales.pdf</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UV_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K166" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L166" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M166" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="D167" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -8380,20 +8380,20 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1WV_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1WV_Weekly Sales.pdf</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1WV_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1WV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K167" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L167" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M167" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
@@ -8405,7 +8405,7 @@
       </c>
       <c r="D168" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -8415,20 +8415,20 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ4KC_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ4KC_Weekly Sales.pdf</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ4KC_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ4KC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K168" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L168" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M168" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="D169" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -8450,20 +8450,20 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UO_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UO_Weekly Sales.pdf</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UO_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K169" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L169" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M169" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
@@ -8475,7 +8475,7 @@
       </c>
       <c r="D170" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -8485,20 +8485,20 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1XC_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1XC_Weekly Sales.pdf</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1XC_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1XC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K170" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L170" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M170" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="171" spans="2:13" x14ac:dyDescent="0.25">
@@ -8510,7 +8510,7 @@
       </c>
       <c r="D171" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="G171" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1YN_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1YN_Weekly Sales.pdf</v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1YN_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1YN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K171" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L171" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M171" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.25">
@@ -8545,7 +8545,7 @@
       </c>
       <c r="D172" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8555,20 +8555,20 @@
       </c>
       <c r="G172" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UI_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UI_Weekly Sales.pdf</v>
       </c>
       <c r="H172" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UI_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K172" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L172" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M172" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.25">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="D173" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -8590,20 +8590,20 @@
       </c>
       <c r="G173" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UU_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UU_Weekly Sales.pdf</v>
       </c>
       <c r="H173" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UU_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UU_Focus_Feedback.xlsx</v>
       </c>
       <c r="K173" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L173" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M173" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="174" spans="2:13" x14ac:dyDescent="0.25">
@@ -8615,7 +8615,7 @@
       </c>
       <c r="D174" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -8625,20 +8625,20 @@
       </c>
       <c r="G174" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UW_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UW_Weekly Sales.pdf</v>
       </c>
       <c r="H174" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UW_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UW_Focus_Feedback.xlsx</v>
       </c>
       <c r="K174" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L174" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M174" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="D175" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -8660,20 +8660,20 @@
       </c>
       <c r="G175" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1VC_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1VC_Weekly Sales.pdf</v>
       </c>
       <c r="H175" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1VC_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1VC_Focus_Feedback.xlsx</v>
       </c>
       <c r="K175" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L175" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M175" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
@@ -8685,7 +8685,7 @@
       </c>
       <c r="D176" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -8695,20 +8695,20 @@
       </c>
       <c r="G176" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UX_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UX_Weekly Sales.pdf</v>
       </c>
       <c r="H176" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UX_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UX_Focus_Feedback.xlsx</v>
       </c>
       <c r="K176" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L176" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M176" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="D177" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -8730,20 +8730,20 @@
       </c>
       <c r="G177" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UZ_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UZ_Weekly Sales.pdf</v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UZ_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UZ_Focus_Feedback.xlsx</v>
       </c>
       <c r="K177" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L177" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M177" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="D178" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8765,20 +8765,20 @@
       </c>
       <c r="G178" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1CM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1CM_Weekly Sales.pdf</v>
       </c>
       <c r="H178" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1CM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1CM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K178" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L178" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M178" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="179" spans="2:13" x14ac:dyDescent="0.25">
@@ -8790,7 +8790,7 @@
       </c>
       <c r="D179" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -8800,20 +8800,20 @@
       </c>
       <c r="G179" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1JI_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1JI_Weekly Sales.pdf</v>
       </c>
       <c r="H179" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1JI_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1JI_Focus_Feedback.xlsx</v>
       </c>
       <c r="K179" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L179" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M179" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
@@ -8825,7 +8825,7 @@
       </c>
       <c r="D180" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -8835,20 +8835,20 @@
       </c>
       <c r="G180" t="str">
         <f t="shared" ref="G180" si="11">K180&amp;"\"&amp;L180</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZJI2_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZJI2_Weekly Sales.pdf</v>
       </c>
       <c r="H180" t="str">
         <f t="shared" ref="H180" si="12">K180&amp;"\"&amp;M180</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZJI2_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZJI2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K180" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L180" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M180" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="D181" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -8870,20 +8870,20 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2MS_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ2MS_Weekly Sales.pdf</v>
       </c>
       <c r="H181" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2MS_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ2MS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K181" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L181" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M181" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="D182" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -8905,20 +8905,20 @@
       </c>
       <c r="G182" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ3JB_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ3JB_Weekly Sales.pdf</v>
       </c>
       <c r="H182" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ3JB_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ3JB_Focus_Feedback.xlsx</v>
       </c>
       <c r="K182" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L182" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M182" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
@@ -8930,7 +8930,7 @@
       </c>
       <c r="D183" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -8940,20 +8940,20 @@
       </c>
       <c r="G183" t="str">
         <f t="shared" ref="G183:G188" si="13">K183&amp;"\"&amp;L183</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2JN_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ2JN_Weekly Sales.pdf</v>
       </c>
       <c r="H183" t="str">
         <f t="shared" ref="H183:H188" si="14">K183&amp;"\"&amp;M183</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2JN_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ2JN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K183" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L183" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M183" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="184" spans="2:13" x14ac:dyDescent="0.25">
@@ -8965,7 +8965,7 @@
       </c>
       <c r="D184" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -8975,32 +8975,32 @@
       </c>
       <c r="G184" t="str">
         <f t="shared" ref="G184" si="15">K184&amp;"\"&amp;L184</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1RD_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1RD_Weekly Sales.pdf</v>
       </c>
       <c r="H184" t="str">
         <f t="shared" ref="H184" si="16">K184&amp;"\"&amp;M184</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1RD_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1RD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K184" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L184" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M184" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="185" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C185" t="s">
         <v>180</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -9010,32 +9010,32 @@
       </c>
       <c r="G185" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1OM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1OM_Weekly Sales.pdf</v>
       </c>
       <c r="H185" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1OM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1OM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K185" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L185" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M185" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="186" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C186" t="s">
         <v>180</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -9045,32 +9045,32 @@
       </c>
       <c r="G186" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ9JP_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ9JP_Weekly Sales.pdf</v>
       </c>
       <c r="H186" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ9JP_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ9JP_Focus_Feedback.xlsx</v>
       </c>
       <c r="K186" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L186" t="s">
+        <v>554</v>
+      </c>
+      <c r="M186" t="s">
         <v>555</v>
-      </c>
-      <c r="M186" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="187" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C187" t="s">
         <v>180</v>
       </c>
       <c r="D187" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -9080,32 +9080,32 @@
       </c>
       <c r="G187" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1DG_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1DG_Weekly Sales.pdf</v>
       </c>
       <c r="H187" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1DG_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1DG_Focus_Feedback.xlsx</v>
       </c>
       <c r="K187" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L187" t="s">
+        <v>556</v>
+      </c>
+      <c r="M187" t="s">
         <v>557</v>
-      </c>
-      <c r="M187" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="188" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C188" t="s">
         <v>180</v>
       </c>
       <c r="D188" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -9115,32 +9115,32 @@
       </c>
       <c r="G188" t="str">
         <f t="shared" si="13"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1LE_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1LE_Weekly Sales.pdf</v>
       </c>
       <c r="H188" t="str">
         <f t="shared" si="14"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1LE_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1LE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K188" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L188" t="s">
+        <v>558</v>
+      </c>
+      <c r="M188" t="s">
         <v>559</v>
-      </c>
-      <c r="M188" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C189" t="s">
         <v>180</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -9150,32 +9150,32 @@
       </c>
       <c r="G189" t="str">
         <f t="shared" ref="G189:G190" si="17">K189&amp;"\"&amp;L189</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1JV_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1JV_Weekly Sales.pdf</v>
       </c>
       <c r="H189" t="str">
         <f t="shared" ref="H189:H190" si="18">K189&amp;"\"&amp;M189</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1JV_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1JV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K189" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L189" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="M189" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>561</v>
+        <v>190</v>
       </c>
       <c r="C190" t="s">
         <v>180</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -9185,14 +9185,14 @@
       </c>
       <c r="G190" t="str">
         <f t="shared" si="17"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1JS_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1JS_Weekly Sales.pdf</v>
       </c>
       <c r="H190" t="str">
         <f t="shared" si="18"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1JS_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1JS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K190" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L190" t="s">
         <v>562</v>
@@ -9203,14 +9203,14 @@
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>564</v>
+        <v>191</v>
       </c>
       <c r="C191" t="s">
         <v>180</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -9220,20 +9220,20 @@
       </c>
       <c r="G191" t="str">
         <f t="shared" ref="G191" si="19">K191&amp;"\"&amp;L191</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2JS_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2JS_Weekly Sales.pdf</v>
       </c>
       <c r="H191" t="str">
         <f t="shared" ref="H191" si="20">K191&amp;"\"&amp;M191</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ2JS_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2JS_Focus_Feedback.xlsx</v>
       </c>
       <c r="K191" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L191" t="s">
+        <v>564</v>
+      </c>
+      <c r="M191" t="s">
         <v>565</v>
-      </c>
-      <c r="M191" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D192" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -9255,20 +9255,20 @@
       </c>
       <c r="G192" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ7DO_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ7DO_Weekly Sales.pdf</v>
       </c>
       <c r="H192" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ7DO_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ7DO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K192" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L192" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M192" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="193" spans="2:13" x14ac:dyDescent="0.25">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="D193" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -9290,20 +9290,20 @@
       </c>
       <c r="G193" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1TM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1TM_Weekly Sales.pdf</v>
       </c>
       <c r="H193" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1TM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1TM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K193" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L193" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M193" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="D194" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -9325,20 +9325,20 @@
       </c>
       <c r="G194" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2CR_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2CR_Weekly Sales.pdf</v>
       </c>
       <c r="H194" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ2CR_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ2CR_Focus_Feedback.xlsx</v>
       </c>
       <c r="K194" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L194" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M194" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="D195" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -9360,20 +9360,20 @@
       </c>
       <c r="G195" t="str">
         <f t="shared" si="8"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1CA_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1CA_Weekly Sales.pdf</v>
       </c>
       <c r="H195" t="str">
         <f t="shared" si="9"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1CA_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1CA_Focus_Feedback.xlsx</v>
       </c>
       <c r="K195" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L195" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M195" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="196" spans="2:13" x14ac:dyDescent="0.25">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="D196" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -9395,20 +9395,20 @@
       </c>
       <c r="G196" t="str">
         <f t="shared" ref="G196:G204" si="21">K196&amp;"\"&amp;L196</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1AL_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1AL_Weekly Sales.pdf</v>
       </c>
       <c r="H196" t="str">
         <f t="shared" ref="H196:H204" si="22">K196&amp;"\"&amp;M196</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1AL_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1AL_Focus_Feedback.xlsx</v>
       </c>
       <c r="K196" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L196" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M196" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
@@ -9420,7 +9420,7 @@
       </c>
       <c r="D197" t="str">
         <f t="shared" si="10"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -9430,20 +9430,20 @@
       </c>
       <c r="G197" t="str">
         <f t="shared" si="21"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1GF_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1GF_Weekly Sales.pdf</v>
       </c>
       <c r="H197" t="str">
         <f t="shared" si="22"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1GF_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1GF_Focus_Feedback.xlsx</v>
       </c>
       <c r="K197" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L197" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M197" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
@@ -9455,7 +9455,7 @@
       </c>
       <c r="D198" t="str">
         <f t="shared" ref="D198:D205" si="23">$D$2</f>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -9465,20 +9465,20 @@
       </c>
       <c r="G198" t="str">
         <f t="shared" si="21"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1G2_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1G2_Weekly Sales.pdf</v>
       </c>
       <c r="H198" t="str">
         <f t="shared" si="22"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1G2_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1G2_Focus_Feedback.xlsx</v>
       </c>
       <c r="K198" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L198" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M198" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
@@ -9490,7 +9490,7 @@
       </c>
       <c r="D199" t="str">
         <f t="shared" si="23"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -9500,20 +9500,20 @@
       </c>
       <c r="G199" t="str">
         <f t="shared" si="21"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1MD_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1MD_Weekly Sales.pdf</v>
       </c>
       <c r="H199" t="str">
         <f t="shared" si="22"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1MD_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1MD_Focus_Feedback.xlsx</v>
       </c>
       <c r="K199" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L199" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M199" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="D200" t="str">
         <f t="shared" si="23"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -9535,20 +9535,20 @@
       </c>
       <c r="G200" t="str">
         <f t="shared" si="21"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1YE_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1YE_Weekly Sales.pdf</v>
       </c>
       <c r="H200" t="str">
         <f t="shared" si="22"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_QZ1YE_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_QZ1YE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K200" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L200" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M200" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="201" spans="2:13" x14ac:dyDescent="0.25">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="D201" t="str">
         <f t="shared" si="23"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -9570,20 +9570,20 @@
       </c>
       <c r="G201" t="str">
         <f t="shared" si="21"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UE_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UE_Weekly Sales.pdf</v>
       </c>
       <c r="H201" t="str">
         <f t="shared" si="22"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UE_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UE_Focus_Feedback.xlsx</v>
       </c>
       <c r="K201" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L201" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M201" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="202" spans="2:13" x14ac:dyDescent="0.25">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="D202" t="str">
         <f t="shared" si="23"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -9605,20 +9605,20 @@
       </c>
       <c r="G202" t="str">
         <f t="shared" si="21"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ8GM_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ8GM_Weekly Sales.pdf</v>
       </c>
       <c r="H202" t="str">
         <f t="shared" si="22"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ8GM_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ8GM_Focus_Feedback.xlsx</v>
       </c>
       <c r="K202" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L202" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M202" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="203" spans="2:13" x14ac:dyDescent="0.25">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="D203" t="str">
         <f t="shared" si="23"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="G203" t="str">
         <f t="shared" si="21"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UO_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UO_Weekly Sales.pdf</v>
       </c>
       <c r="H203" t="str">
         <f t="shared" si="22"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1UO_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1UO_Focus_Feedback.xlsx</v>
       </c>
       <c r="K203" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L203" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M203" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="204" spans="2:13" x14ac:dyDescent="0.25">
@@ -9665,7 +9665,7 @@
       </c>
       <c r="D204" t="str">
         <f t="shared" si="23"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -9675,20 +9675,20 @@
       </c>
       <c r="G204" t="str">
         <f t="shared" si="21"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1YN_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1YN_Weekly Sales.pdf</v>
       </c>
       <c r="H204" t="str">
         <f t="shared" si="22"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_CZ1YN_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_CZ1YN_Focus_Feedback.xlsx</v>
       </c>
       <c r="K204" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L204" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M204" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="205" spans="2:13" x14ac:dyDescent="0.25">
@@ -9700,7 +9700,7 @@
       </c>
       <c r="D205" t="str">
         <f t="shared" si="23"/>
-        <v>Weekly FSC Sales as of 29 Jun 2018</v>
+        <v>Weekly FSC Sales as of 3 Aug 2018</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -9710,20 +9710,20 @@
       </c>
       <c r="G205" t="str">
         <f t="shared" ref="G205" si="24">K205&amp;"\"&amp;L205</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1JV_Weekly Sales.pdf</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1JV_Weekly Sales.pdf</v>
       </c>
       <c r="H205" t="str">
         <f t="shared" ref="H205" si="25">K205&amp;"\"&amp;M205</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201806_WZ1JV_Focus_Feedback.xlsx</v>
+        <v>S:\BR\RegularReports\Weekly\Weekly FSC Reports\Send\201807_WZ1JV_Focus_Feedback.xlsx</v>
       </c>
       <c r="K205" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="L205" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="M205" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
+++ b/BR_Mailer/J021_DS_FSC/J021_Mailing_List-Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="565">
   <si>
     <t>code</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Lucy.Boduris@henryschein.ca</t>
   </si>
   <si>
-    <t>Grace.Brohman@henryschein.ca</t>
-  </si>
-  <si>
     <t>Lianne.Hogarth@henryschein.ca</t>
   </si>
   <si>
@@ -597,1132 +594,1126 @@
     <t>Janet.Squires@henryschein.ca</t>
   </si>
   <si>
-    <t>201807_CZ1SD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1SD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ125_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ125_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ124_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ124_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ132_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ132_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ128_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ128_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ144_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ144_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ165_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ165_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ177_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ177_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ178_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ178_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ183_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ183_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ107_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ107_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ109_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ109_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_AZ112_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_AZ112_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ154_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ154_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1KD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1KD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ1CF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ1CF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1EM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1EM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ1DP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ1DP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1DA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1DA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ1LM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ1LM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1EE_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1EE_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1E2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1E2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_AZ1EK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_AZ1EK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_AZ1FB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_AZ1FB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1FP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1FP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ1FT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ1FT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ1FR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ1FR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ1GO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ1GO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_AZ1KL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_AZ1KL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ1KK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ1KK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1DN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1DN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ1EO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ1EO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1CB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1CB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1B8_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1B8_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ2B8_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ2B8_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1C4_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1C4_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ1D8_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ1D8_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1SW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1SW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ1AP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ1AP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ2CB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ2CB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1CG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1CG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_AZ1PV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_AZ1PV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ3CB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ3CB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ5CS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ5CS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ8JA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ8JA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ7JM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ7JM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ7DO_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ7DO_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ5TA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ5TA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ2LB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ2LB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ2GB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ2GB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ2LH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ2LH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ2NM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ2NM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ2SB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ2SB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ2BG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ2BG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1SA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1SA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1FA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1FA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ115_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ115_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ120_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ120_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ118_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ118_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ119_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ119_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ138_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ138_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ142_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ142_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ134_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ134_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ123_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ123_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ136_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ136_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ165_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ165_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1FF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1FF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ167_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ167_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ175_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ175_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ177_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ177_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ143_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ143_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ243_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ243_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ159_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ159_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ162_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ162_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ113_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ113_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ133_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ133_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ137_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ137_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1G4_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1G4_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1G5_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1G5_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZBW1_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZBW1_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ9TS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ9TS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1HM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1HM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ2HM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ2HM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ2RP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ2RP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1TT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1TT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1AM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1AM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1JW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1JW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1MH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1MH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1TM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1TM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1T2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1T2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ2CR_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ2CR_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1SC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1SC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1PB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1PB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1JN_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1JN_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1J2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1J2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1MK_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1MK_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1CA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1CA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ2TM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ2TM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ2T1_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ2T1_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ2T2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ2T2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1BC_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1BC_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1JL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1JL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1AL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1AL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1MW_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1MW_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1MS_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1MS_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WZ1AJ_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_WZ1AJ_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1GF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1GF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1G2_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1G2_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ1BP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ1BP_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1JF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1JF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_AZ1CI_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_AZ1CI_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1KM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1KM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1OV_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1OV_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ1JB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ1JB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ1BG_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ1BG_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1TM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1TM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ1BM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ1BM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ1MD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ1MD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_AZ1JB_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_AZ1JB_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1AD_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1AD_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ1ML_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ1ML_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ1FA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ1FA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CZ2SA_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_CZ2SA_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QZ1SL_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_QZ1SL_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_AZ1CM_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_AZ1CM_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_AZ1WH_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_AZ1WH_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_AZ1YU_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_AZ1YU_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_AZ1WX_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_AZ1WX_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_AZ1XF_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_AZ1XF_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_AZ1XT_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_AZ1XT_Focus_Feedback.xlsx</t>
-  </si>
-  <si>
-    <t>201807_AZ1YP_Weekly Sales.pdf</t>
-  </si>
-  <si>
-    <t>201807_AZ1YP_Focus_Feedback